--- a/devData/H77Dyno.xlsx
+++ b/devData/H77Dyno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\devData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C41362-B710-408F-B4E9-456605FB507D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D357CD-03EE-480A-A9B7-373FBEA094B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H77Dyno" sheetId="1" r:id="rId1"/>
@@ -3183,7 +3183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3363,6 +3363,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3524,7 +3530,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3537,6 +3543,23 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3894,14 +3917,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="D293" sqref="D293"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="AB510" sqref="AB510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="4.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="4"/>
+    <col min="5" max="5" width="16.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="2"/>
     <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" style="3" customWidth="1"/>
@@ -20996,49 +21019,57 @@
       <c r="C499" s="4">
         <v>1</v>
       </c>
-      <c r="D499" t="s">
+      <c r="D499" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E499" s="4" t="s">
+      <c r="E499" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="F499" s="2" t="s">
+      <c r="F499" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G499" t="s">
+      <c r="G499" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="K499" t="s">
+      <c r="H499" s="9"/>
+      <c r="I499" s="7"/>
+      <c r="J499" s="9"/>
+      <c r="K499" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L499" s="3">
+      <c r="L499" s="9">
         <v>140</v>
       </c>
-      <c r="Q499" s="3">
+      <c r="M499" s="7"/>
+      <c r="N499" s="9"/>
+      <c r="O499" s="7"/>
+      <c r="P499" s="7"/>
+      <c r="Q499" s="9">
         <v>154.6</v>
       </c>
-      <c r="R499" s="3">
+      <c r="R499" s="9">
         <v>39115</v>
       </c>
-      <c r="S499" s="3">
+      <c r="S499" s="9">
         <v>367.9</v>
       </c>
-      <c r="T499" s="3">
+      <c r="T499" s="9">
         <v>2264</v>
       </c>
-      <c r="U499" s="3">
+      <c r="U499" s="9">
         <v>154.9</v>
       </c>
-      <c r="V499" s="3">
+      <c r="V499" s="9">
         <v>3982</v>
       </c>
-      <c r="W499" s="3">
+      <c r="W499" s="9">
         <v>368.3</v>
       </c>
-      <c r="X499" s="3">
+      <c r="X499" s="9">
         <v>2346</v>
       </c>
-      <c r="Z499" t="s">
+      <c r="Y499" s="7"/>
+      <c r="Z499" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -21647,52 +21678,63 @@
       <c r="C514" s="4">
         <v>1</v>
       </c>
-      <c r="D514" t="s">
+      <c r="D514" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E514" s="4">
+      <c r="E514" s="10">
         <v>968</v>
       </c>
-      <c r="F514" s="2" t="s">
+      <c r="F514" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="L514" s="3">
+      <c r="G514" s="11"/>
+      <c r="H514" s="13"/>
+      <c r="I514" s="11"/>
+      <c r="J514" s="13"/>
+      <c r="K514" s="11"/>
+      <c r="L514" s="13">
         <v>240</v>
       </c>
-      <c r="Q514" s="3">
+      <c r="M514" s="11"/>
+      <c r="N514" s="13"/>
+      <c r="O514" s="11"/>
+      <c r="P514" s="11"/>
+      <c r="Q514" s="13">
         <v>213.8</v>
       </c>
-      <c r="R514" s="3">
+      <c r="R514" s="13">
         <v>6430</v>
       </c>
-      <c r="S514" s="3">
+      <c r="S514" s="13">
         <v>272.3</v>
       </c>
-      <c r="T514" s="3">
+      <c r="T514" s="13">
         <v>4390</v>
       </c>
-      <c r="U514" s="3">
+      <c r="U514" s="13">
         <v>216.9</v>
       </c>
-      <c r="V514" s="3">
+      <c r="V514" s="13">
         <v>6411</v>
       </c>
-      <c r="W514" s="3">
+      <c r="W514" s="13">
         <v>276.2</v>
       </c>
-      <c r="X514" s="3">
+      <c r="X514" s="13">
         <v>4383</v>
       </c>
-      <c r="Z514" t="s">
+      <c r="Y514" s="11"/>
+      <c r="Z514" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="AA514" t="s">
+      <c r="AA514" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="AB514" t="s">
+      <c r="AB514" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="AD514" s="4">
+      <c r="AC514" s="11"/>
+      <c r="AD514" s="10">
         <v>400</v>
       </c>
     </row>
@@ -21700,72 +21742,105 @@
       <c r="C515" s="4">
         <v>2</v>
       </c>
-      <c r="D515" t="s">
+      <c r="D515" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E515" s="4" t="s">
+      <c r="E515" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="F515" s="2" t="s">
+      <c r="F515" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="G515" t="s">
+      <c r="G515" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="L515" s="3">
+      <c r="H515" s="13"/>
+      <c r="I515" s="11"/>
+      <c r="J515" s="13"/>
+      <c r="K515" s="11"/>
+      <c r="L515" s="13">
         <v>165</v>
       </c>
-      <c r="U515" s="3">
+      <c r="M515" s="11"/>
+      <c r="N515" s="13"/>
+      <c r="O515" s="11"/>
+      <c r="P515" s="11"/>
+      <c r="Q515" s="13"/>
+      <c r="R515" s="13"/>
+      <c r="S515" s="13"/>
+      <c r="T515" s="13"/>
+      <c r="U515" s="13">
         <v>205.7</v>
       </c>
-      <c r="V515" s="3">
+      <c r="V515" s="13">
         <v>5632</v>
       </c>
-      <c r="W515" s="3">
+      <c r="W515" s="13">
         <v>328.8</v>
       </c>
-      <c r="X515" s="3">
+      <c r="X515" s="13">
         <v>3799</v>
       </c>
+      <c r="Y515" s="11"/>
+      <c r="Z515" s="11"/>
+      <c r="AA515" s="11"/>
+      <c r="AB515" s="11"/>
+      <c r="AC515" s="11"/>
+      <c r="AD515" s="10"/>
     </row>
     <row r="516" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C516" s="4">
         <v>3</v>
       </c>
-      <c r="D516" t="s">
+      <c r="D516" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E516" s="4" t="s">
+      <c r="E516" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="F516" s="2" t="s">
+      <c r="F516" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L516" s="3">
+      <c r="G516" s="11"/>
+      <c r="H516" s="13"/>
+      <c r="I516" s="11"/>
+      <c r="J516" s="13"/>
+      <c r="K516" s="11"/>
+      <c r="L516" s="13">
         <v>230</v>
       </c>
-      <c r="U516" s="3">
+      <c r="M516" s="11"/>
+      <c r="N516" s="13"/>
+      <c r="O516" s="11"/>
+      <c r="P516" s="11"/>
+      <c r="Q516" s="13"/>
+      <c r="R516" s="13"/>
+      <c r="S516" s="13"/>
+      <c r="T516" s="13"/>
+      <c r="U516" s="13">
         <v>243.4</v>
       </c>
-      <c r="V516" s="3">
+      <c r="V516" s="13">
         <v>5400</v>
       </c>
-      <c r="W516" s="3">
+      <c r="W516" s="13">
         <v>354.6</v>
       </c>
-      <c r="X516" s="3">
+      <c r="X516" s="13">
         <v>3056</v>
       </c>
-      <c r="Z516" t="s">
+      <c r="Y516" s="11"/>
+      <c r="Z516" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="AA516" t="s">
+      <c r="AA516" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="AB516" t="s">
+      <c r="AB516" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD516" s="4">
+      <c r="AC516" s="11"/>
+      <c r="AD516" s="10">
         <v>70</v>
       </c>
     </row>
@@ -21773,55 +21848,65 @@
       <c r="C517" s="4">
         <v>4</v>
       </c>
-      <c r="D517" t="s">
+      <c r="D517" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E517" s="4" t="s">
+      <c r="E517" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="F517" s="2" t="s">
+      <c r="F517" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="J517" s="3">
+      <c r="G517" s="11"/>
+      <c r="H517" s="13"/>
+      <c r="I517" s="11"/>
+      <c r="J517" s="13">
         <v>5</v>
       </c>
-      <c r="L517" s="3">
+      <c r="K517" s="11"/>
+      <c r="L517" s="13">
         <v>305</v>
       </c>
-      <c r="Q517" s="3">
+      <c r="M517" s="11"/>
+      <c r="N517" s="13"/>
+      <c r="O517" s="11"/>
+      <c r="P517" s="11"/>
+      <c r="Q517" s="13">
         <v>294.39999999999998</v>
       </c>
-      <c r="R517" s="3">
+      <c r="R517" s="13">
         <v>6190</v>
       </c>
-      <c r="S517" s="3">
+      <c r="S517" s="13">
         <v>404.5</v>
       </c>
-      <c r="T517" s="3">
+      <c r="T517" s="13">
         <v>4616</v>
       </c>
-      <c r="U517" s="3">
+      <c r="U517" s="13">
         <v>293.10000000000002</v>
       </c>
-      <c r="V517" s="3">
+      <c r="V517" s="13">
         <v>6708</v>
       </c>
-      <c r="W517" s="3">
+      <c r="W517" s="13">
         <v>405.5</v>
       </c>
-      <c r="X517" s="3">
+      <c r="X517" s="13">
         <v>4650</v>
       </c>
-      <c r="Z517" t="s">
+      <c r="Y517" s="11"/>
+      <c r="Z517" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="AA517" t="s">
+      <c r="AA517" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="AB517" t="s">
+      <c r="AB517" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD517" s="4">
+      <c r="AC517" s="11"/>
+      <c r="AD517" s="10">
         <v>70</v>
       </c>
     </row>
@@ -21829,55 +21914,65 @@
       <c r="C518" s="4">
         <v>5</v>
       </c>
-      <c r="D518" t="s">
+      <c r="D518" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E518" s="4" t="s">
+      <c r="E518" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="F518" s="2" t="s">
+      <c r="F518" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="L518" s="3">
+      <c r="G518" s="11"/>
+      <c r="H518" s="13"/>
+      <c r="I518" s="11"/>
+      <c r="J518" s="13"/>
+      <c r="K518" s="11"/>
+      <c r="L518" s="13">
         <v>75</v>
       </c>
-      <c r="M518" s="1">
+      <c r="M518" s="14">
         <v>226000</v>
       </c>
-      <c r="Q518" s="3">
+      <c r="N518" s="13"/>
+      <c r="O518" s="11"/>
+      <c r="P518" s="11"/>
+      <c r="Q518" s="13">
         <v>76.5</v>
       </c>
-      <c r="R518" s="3">
+      <c r="R518" s="13">
         <v>5116</v>
       </c>
-      <c r="S518" s="3">
+      <c r="S518" s="13">
         <v>115.9</v>
       </c>
-      <c r="T518" s="3">
+      <c r="T518" s="13">
         <v>3629</v>
       </c>
-      <c r="U518" s="3">
+      <c r="U518" s="13">
         <v>77.099999999999994</v>
       </c>
-      <c r="V518" s="3">
+      <c r="V518" s="13">
         <v>4943</v>
       </c>
-      <c r="W518" s="3">
+      <c r="W518" s="13">
         <v>115.9</v>
       </c>
-      <c r="X518" s="3">
+      <c r="X518" s="13">
         <v>3522</v>
       </c>
-      <c r="Z518" t="s">
+      <c r="Y518" s="11"/>
+      <c r="Z518" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="AA518" t="s">
+      <c r="AA518" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="AB518" t="s">
+      <c r="AB518" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD518" s="4">
+      <c r="AC518" s="11"/>
+      <c r="AD518" s="10">
         <v>70</v>
       </c>
     </row>
@@ -21885,40 +21980,55 @@
       <c r="C519" s="4">
         <v>6</v>
       </c>
-      <c r="D519" t="s">
+      <c r="D519" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E519" s="4" t="s">
+      <c r="E519" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="F519" s="2" t="s">
+      <c r="F519" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L519" s="3">
+      <c r="G519" s="11"/>
+      <c r="H519" s="13"/>
+      <c r="I519" s="11"/>
+      <c r="J519" s="13"/>
+      <c r="K519" s="11"/>
+      <c r="L519" s="13">
         <v>150</v>
       </c>
-      <c r="U519" s="3">
+      <c r="M519" s="11"/>
+      <c r="N519" s="13"/>
+      <c r="O519" s="11"/>
+      <c r="P519" s="11"/>
+      <c r="Q519" s="13"/>
+      <c r="R519" s="13"/>
+      <c r="S519" s="13"/>
+      <c r="T519" s="13"/>
+      <c r="U519" s="13">
         <v>186.1</v>
       </c>
-      <c r="V519" s="3">
+      <c r="V519" s="13">
         <v>3265</v>
       </c>
-      <c r="W519" s="3">
+      <c r="W519" s="13">
         <v>451.4</v>
       </c>
-      <c r="X519" s="3">
+      <c r="X519" s="13">
         <v>2059</v>
       </c>
-      <c r="Z519" t="s">
+      <c r="Y519" s="11"/>
+      <c r="Z519" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="AA519" t="s">
+      <c r="AA519" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="AB519" t="s">
+      <c r="AB519" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AD519" s="4">
+      <c r="AC519" s="11"/>
+      <c r="AD519" s="10">
         <v>220</v>
       </c>
     </row>
@@ -21926,58 +22036,67 @@
       <c r="C520" s="4">
         <v>7</v>
       </c>
-      <c r="D520" t="s">
+      <c r="D520" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E520" s="4" t="s">
+      <c r="E520" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="J520" s="3">
+      <c r="F520" s="12"/>
+      <c r="G520" s="11"/>
+      <c r="H520" s="13"/>
+      <c r="I520" s="11"/>
+      <c r="J520" s="13">
         <v>8</v>
       </c>
-      <c r="K520" t="s">
+      <c r="K520" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L520" s="3">
+      <c r="L520" s="13">
         <v>306</v>
       </c>
-      <c r="M520" s="1">
+      <c r="M520" s="14">
         <v>303000</v>
       </c>
-      <c r="Q520" s="3">
+      <c r="N520" s="13"/>
+      <c r="O520" s="11"/>
+      <c r="P520" s="11"/>
+      <c r="Q520" s="13">
         <v>248</v>
       </c>
-      <c r="R520" s="3">
+      <c r="R520" s="13">
         <v>5970</v>
       </c>
-      <c r="S520" s="3">
+      <c r="S520" s="13">
         <v>339.7</v>
       </c>
-      <c r="T520" s="3">
+      <c r="T520" s="13">
         <v>3305</v>
       </c>
-      <c r="U520" s="3">
+      <c r="U520" s="13">
         <v>247.9</v>
       </c>
-      <c r="V520" s="3">
+      <c r="V520" s="13">
         <v>6245</v>
       </c>
-      <c r="W520" s="3">
+      <c r="W520" s="13">
         <v>342.5</v>
       </c>
-      <c r="X520" s="3">
+      <c r="X520" s="13">
         <v>3314</v>
       </c>
-      <c r="Z520" t="s">
+      <c r="Y520" s="11"/>
+      <c r="Z520" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="AA520" t="s">
+      <c r="AA520" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="AB520" t="s">
+      <c r="AB520" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD520" s="4">
+      <c r="AC520" s="11"/>
+      <c r="AD520" s="10">
         <v>30</v>
       </c>
     </row>
@@ -21985,75 +22104,107 @@
       <c r="C521" s="4">
         <v>8</v>
       </c>
-      <c r="D521" t="s">
+      <c r="D521" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="E521" s="4" t="s">
+      <c r="E521" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="F521" s="2" t="s">
+      <c r="F521" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="G521" t="s">
+      <c r="G521" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="L521" s="3">
+      <c r="H521" s="13"/>
+      <c r="I521" s="11"/>
+      <c r="J521" s="13"/>
+      <c r="K521" s="11"/>
+      <c r="L521" s="13">
         <v>125</v>
       </c>
-      <c r="U521" s="3">
+      <c r="M521" s="11"/>
+      <c r="N521" s="13"/>
+      <c r="O521" s="11"/>
+      <c r="P521" s="11"/>
+      <c r="Q521" s="13"/>
+      <c r="R521" s="13"/>
+      <c r="S521" s="13"/>
+      <c r="T521" s="13"/>
+      <c r="U521" s="13">
         <v>137</v>
       </c>
-      <c r="V521" s="3">
+      <c r="V521" s="13">
         <v>7319</v>
       </c>
-      <c r="W521" s="3">
+      <c r="W521" s="13">
         <v>134.5</v>
       </c>
-      <c r="X521" s="3">
+      <c r="X521" s="13">
         <v>7076</v>
       </c>
+      <c r="Y521" s="11"/>
+      <c r="Z521" s="11"/>
+      <c r="AA521" s="11"/>
+      <c r="AB521" s="11"/>
+      <c r="AC521" s="11"/>
+      <c r="AD521" s="10"/>
     </row>
     <row r="522" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C522" s="4">
         <v>9</v>
       </c>
-      <c r="D522" t="s">
+      <c r="D522" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E522" s="4" t="s">
+      <c r="E522" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="F522" s="2" t="s">
+      <c r="F522" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="J522" s="3">
+      <c r="G522" s="11"/>
+      <c r="H522" s="13"/>
+      <c r="I522" s="11"/>
+      <c r="J522" s="13">
         <v>8</v>
       </c>
-      <c r="L522" s="3">
+      <c r="K522" s="11"/>
+      <c r="L522" s="13">
         <v>367</v>
       </c>
-      <c r="U522" s="3">
+      <c r="M522" s="11"/>
+      <c r="N522" s="13"/>
+      <c r="O522" s="11"/>
+      <c r="P522" s="11"/>
+      <c r="Q522" s="13"/>
+      <c r="R522" s="13"/>
+      <c r="S522" s="13"/>
+      <c r="T522" s="13"/>
+      <c r="U522" s="13">
         <v>312.8</v>
       </c>
-      <c r="V522" s="3">
+      <c r="V522" s="13">
         <v>6550</v>
       </c>
-      <c r="W522" s="3">
+      <c r="W522" s="13">
         <v>410.4</v>
       </c>
-      <c r="X522" s="3">
+      <c r="X522" s="13">
         <v>4479</v>
       </c>
-      <c r="Z522" t="s">
+      <c r="Y522" s="11"/>
+      <c r="Z522" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="AA522" t="s">
+      <c r="AA522" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AB522" t="s">
+      <c r="AB522" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD522" s="4">
+      <c r="AC522" s="11"/>
+      <c r="AD522" s="10">
         <v>45</v>
       </c>
     </row>
@@ -22061,46 +22212,59 @@
       <c r="C523" s="4">
         <v>10</v>
       </c>
-      <c r="D523" t="s">
+      <c r="D523" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E523" s="4" t="s">
+      <c r="E523" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="F523" s="2" t="s">
+      <c r="F523" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="G523" t="s">
+      <c r="G523" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="L523" s="3">
+      <c r="H523" s="13"/>
+      <c r="I523" s="11"/>
+      <c r="J523" s="13"/>
+      <c r="K523" s="11"/>
+      <c r="L523" s="13">
         <v>220</v>
       </c>
-      <c r="N523" s="3">
+      <c r="M523" s="11"/>
+      <c r="N523" s="13">
         <v>1981</v>
       </c>
-      <c r="U523" s="3">
+      <c r="O523" s="11"/>
+      <c r="P523" s="11"/>
+      <c r="Q523" s="13"/>
+      <c r="R523" s="13"/>
+      <c r="S523" s="13"/>
+      <c r="T523" s="13"/>
+      <c r="U523" s="13">
         <v>190.7</v>
       </c>
-      <c r="V523" s="3">
+      <c r="V523" s="13">
         <v>6165</v>
       </c>
-      <c r="W523" s="3">
+      <c r="W523" s="13">
         <v>280.89999999999998</v>
       </c>
-      <c r="X523" s="3">
+      <c r="X523" s="13">
         <v>4193</v>
       </c>
-      <c r="Z523" t="s">
+      <c r="Y523" s="11"/>
+      <c r="Z523" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AA523" t="s">
+      <c r="AA523" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AB523" t="s">
+      <c r="AB523" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD523" s="4">
+      <c r="AC523" s="11"/>
+      <c r="AD523" s="10">
         <v>0</v>
       </c>
     </row>
@@ -22108,55 +22272,65 @@
       <c r="C524" s="4">
         <v>11</v>
       </c>
-      <c r="D524" t="s">
+      <c r="D524" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E524" s="4" t="s">
+      <c r="E524" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="F524" s="2" t="s">
+      <c r="F524" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="J524" s="3">
+      <c r="G524" s="11"/>
+      <c r="H524" s="13"/>
+      <c r="I524" s="11"/>
+      <c r="J524" s="13">
         <v>6</v>
       </c>
-      <c r="L524" s="3">
+      <c r="K524" s="11"/>
+      <c r="L524" s="13">
         <v>306</v>
       </c>
-      <c r="Q524" s="3">
+      <c r="M524" s="11"/>
+      <c r="N524" s="13"/>
+      <c r="O524" s="11"/>
+      <c r="P524" s="11"/>
+      <c r="Q524" s="13">
         <v>336.6</v>
       </c>
-      <c r="R524" s="3">
+      <c r="R524" s="13">
         <v>5778</v>
       </c>
-      <c r="S524" s="3">
+      <c r="S524" s="13">
         <v>550</v>
       </c>
-      <c r="T524" s="3">
+      <c r="T524" s="13">
         <v>4222</v>
       </c>
-      <c r="U524" s="3">
+      <c r="U524" s="13">
         <v>341.5</v>
       </c>
-      <c r="V524" s="3">
+      <c r="V524" s="13">
         <v>4394</v>
       </c>
-      <c r="W524" s="3">
+      <c r="W524" s="13">
         <v>557.29999999999995</v>
       </c>
-      <c r="X524" s="3">
+      <c r="X524" s="13">
         <v>4310</v>
       </c>
-      <c r="Z524" t="s">
+      <c r="Y524" s="11"/>
+      <c r="Z524" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="AA524" t="s">
+      <c r="AA524" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="AB524" t="s">
+      <c r="AB524" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD524" s="4">
+      <c r="AC524" s="11"/>
+      <c r="AD524" s="10">
         <v>70</v>
       </c>
     </row>
@@ -22169,52 +22343,63 @@
       <c r="C526" s="4">
         <v>1</v>
       </c>
-      <c r="D526" t="s">
+      <c r="D526" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="E526" s="4" t="s">
+      <c r="E526" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="F526" s="2" t="s">
+      <c r="F526" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="L526" s="3">
+      <c r="G526" s="11"/>
+      <c r="H526" s="13"/>
+      <c r="I526" s="11"/>
+      <c r="J526" s="13"/>
+      <c r="K526" s="11"/>
+      <c r="L526" s="13">
         <v>169</v>
       </c>
-      <c r="Q526" s="3">
+      <c r="M526" s="11"/>
+      <c r="N526" s="13"/>
+      <c r="O526" s="11"/>
+      <c r="P526" s="11"/>
+      <c r="Q526" s="13">
         <v>184.2</v>
       </c>
-      <c r="R526" s="3">
+      <c r="R526" s="13">
         <v>6393</v>
       </c>
-      <c r="S526" s="3">
+      <c r="S526" s="13">
         <v>236.7</v>
       </c>
-      <c r="T526" s="3">
+      <c r="T526" s="13">
         <v>4499</v>
       </c>
-      <c r="U526" s="3">
+      <c r="U526" s="13">
         <v>186.4</v>
       </c>
-      <c r="V526" s="3">
+      <c r="V526" s="13">
         <v>6385</v>
       </c>
-      <c r="W526" s="3">
+      <c r="W526" s="13">
         <v>234.9</v>
       </c>
-      <c r="X526" s="3">
+      <c r="X526" s="13">
         <v>4542</v>
       </c>
-      <c r="Z526" t="s">
+      <c r="Y526" s="11"/>
+      <c r="Z526" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="AA526" t="s">
+      <c r="AA526" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="AB526" t="s">
+      <c r="AB526" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="AD526" s="4">
+      <c r="AC526" s="11"/>
+      <c r="AD526" s="10">
         <v>385</v>
       </c>
     </row>
@@ -22222,55 +22407,65 @@
       <c r="C527" s="4">
         <v>2</v>
       </c>
-      <c r="D527" t="s">
+      <c r="D527" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E527" s="4" t="s">
+      <c r="E527" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="F527" s="2" t="s">
+      <c r="F527" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="K527" t="s">
+      <c r="G527" s="11"/>
+      <c r="H527" s="13"/>
+      <c r="I527" s="11"/>
+      <c r="J527" s="13"/>
+      <c r="K527" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L527" s="3">
+      <c r="L527" s="13">
         <v>220</v>
       </c>
-      <c r="Q527" s="3">
+      <c r="M527" s="11"/>
+      <c r="N527" s="13"/>
+      <c r="O527" s="11"/>
+      <c r="P527" s="11"/>
+      <c r="Q527" s="13">
         <v>167</v>
       </c>
-      <c r="R527" s="3">
+      <c r="R527" s="13">
         <v>6189</v>
       </c>
-      <c r="S527" s="3">
+      <c r="S527" s="13">
         <v>226.7</v>
       </c>
-      <c r="T527" s="3">
+      <c r="T527" s="13">
         <v>3026</v>
       </c>
-      <c r="U527" s="3">
+      <c r="U527" s="13">
         <v>167.6</v>
       </c>
-      <c r="V527" s="3">
+      <c r="V527" s="13">
         <v>6627</v>
       </c>
-      <c r="W527" s="3">
+      <c r="W527" s="13">
         <v>232</v>
       </c>
-      <c r="X527" s="3">
+      <c r="X527" s="13">
         <v>3046</v>
       </c>
-      <c r="Z527" t="s">
+      <c r="Y527" s="11"/>
+      <c r="Z527" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="AA527" t="s">
+      <c r="AA527" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="AB527" t="s">
+      <c r="AB527" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD527" s="4">
+      <c r="AC527" s="11"/>
+      <c r="AD527" s="10">
         <v>75</v>
       </c>
     </row>
@@ -22278,43 +22473,57 @@
       <c r="C528" s="4">
         <v>3</v>
       </c>
-      <c r="D528" t="s">
+      <c r="D528" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E528" s="4" t="s">
+      <c r="E528" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="G528" t="s">
+      <c r="F528" s="12"/>
+      <c r="G528" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="K528" t="s">
+      <c r="H528" s="13"/>
+      <c r="I528" s="11"/>
+      <c r="J528" s="13"/>
+      <c r="K528" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L528" s="3">
+      <c r="L528" s="13">
         <v>180</v>
       </c>
-      <c r="U528" s="3">
+      <c r="M528" s="11"/>
+      <c r="N528" s="13"/>
+      <c r="O528" s="11"/>
+      <c r="P528" s="11"/>
+      <c r="Q528" s="13"/>
+      <c r="R528" s="13"/>
+      <c r="S528" s="13"/>
+      <c r="T528" s="13"/>
+      <c r="U528" s="13">
         <v>160.6</v>
       </c>
-      <c r="V528" s="3">
+      <c r="V528" s="13">
         <v>5334</v>
       </c>
-      <c r="W528" s="3">
+      <c r="W528" s="13">
         <v>200.5</v>
       </c>
-      <c r="X528" s="3">
+      <c r="X528" s="13">
         <v>4806</v>
       </c>
-      <c r="Z528" t="s">
+      <c r="Y528" s="11"/>
+      <c r="Z528" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AA528" t="s">
+      <c r="AA528" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AB528" t="s">
+      <c r="AB528" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD528" s="4">
+      <c r="AC528" s="11"/>
+      <c r="AD528" s="10">
         <v>0</v>
       </c>
     </row>
@@ -22322,46 +22531,59 @@
       <c r="C529" s="4">
         <v>4</v>
       </c>
-      <c r="D529" t="s">
+      <c r="D529" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E529" s="4" t="s">
+      <c r="E529" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="F529" s="2" t="s">
+      <c r="F529" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="J529" s="3">
+      <c r="G529" s="11"/>
+      <c r="H529" s="13"/>
+      <c r="I529" s="11"/>
+      <c r="J529" s="13">
         <v>6</v>
       </c>
-      <c r="L529" s="3">
+      <c r="K529" s="11"/>
+      <c r="L529" s="13">
         <v>150</v>
       </c>
-      <c r="M529" s="1">
+      <c r="M529" s="14">
         <v>293000</v>
       </c>
-      <c r="U529" s="3">
+      <c r="N529" s="13"/>
+      <c r="O529" s="11"/>
+      <c r="P529" s="11"/>
+      <c r="Q529" s="13"/>
+      <c r="R529" s="13"/>
+      <c r="S529" s="13"/>
+      <c r="T529" s="13"/>
+      <c r="U529" s="13">
         <v>142.4</v>
       </c>
-      <c r="V529" s="3">
+      <c r="V529" s="13">
         <v>4907</v>
       </c>
-      <c r="W529" s="3">
+      <c r="W529" s="13">
         <v>234.4</v>
       </c>
-      <c r="X529" s="3">
+      <c r="X529" s="13">
         <v>3859</v>
       </c>
-      <c r="Z529" t="s">
+      <c r="Y529" s="11"/>
+      <c r="Z529" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="AA529" t="s">
+      <c r="AA529" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="AB529" t="s">
+      <c r="AB529" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="AD529" s="4">
+      <c r="AC529" s="11"/>
+      <c r="AD529" s="10">
         <v>413</v>
       </c>
     </row>
@@ -22369,55 +22591,65 @@
       <c r="C530" s="4">
         <v>5</v>
       </c>
-      <c r="D530" t="s">
+      <c r="D530" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E530" s="4" t="s">
+      <c r="E530" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="F530" s="2" t="s">
+      <c r="F530" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="G530" t="s">
+      <c r="G530" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="L530" s="3">
+      <c r="H530" s="13"/>
+      <c r="I530" s="11"/>
+      <c r="J530" s="13"/>
+      <c r="K530" s="11"/>
+      <c r="L530" s="13">
         <v>120</v>
       </c>
-      <c r="Q530" s="3">
+      <c r="M530" s="11"/>
+      <c r="N530" s="13"/>
+      <c r="O530" s="11"/>
+      <c r="P530" s="11"/>
+      <c r="Q530" s="13">
         <v>122</v>
       </c>
-      <c r="R530" s="3">
+      <c r="R530" s="13">
         <v>6640</v>
       </c>
-      <c r="S530" s="3">
+      <c r="S530" s="13">
         <v>149.1</v>
       </c>
-      <c r="T530" s="3">
+      <c r="T530" s="13">
         <v>3067</v>
       </c>
-      <c r="U530" s="3">
+      <c r="U530" s="13">
         <v>130.1</v>
       </c>
-      <c r="V530" s="3">
+      <c r="V530" s="13">
         <v>6687</v>
       </c>
-      <c r="W530" s="3">
+      <c r="W530" s="13">
         <v>154.9</v>
       </c>
-      <c r="X530" s="3">
+      <c r="X530" s="13">
         <v>3043</v>
       </c>
-      <c r="Z530" t="s">
+      <c r="Y530" s="11"/>
+      <c r="Z530" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="AA530" t="s">
+      <c r="AA530" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="AB530" t="s">
+      <c r="AB530" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD530" s="4">
+      <c r="AC530" s="11"/>
+      <c r="AD530" s="10">
         <v>120</v>
       </c>
     </row>
@@ -22425,46 +22657,59 @@
       <c r="C531" s="4">
         <v>6</v>
       </c>
-      <c r="D531" t="s">
+      <c r="D531" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E531" s="4" t="s">
+      <c r="E531" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="F531" s="2" t="s">
+      <c r="F531" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="J531" s="3">
+      <c r="G531" s="11"/>
+      <c r="H531" s="13"/>
+      <c r="I531" s="11"/>
+      <c r="J531" s="13">
         <v>5</v>
       </c>
-      <c r="K531" t="s">
+      <c r="K531" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L531" s="3">
+      <c r="L531" s="13">
         <v>136</v>
       </c>
-      <c r="U531" s="3">
+      <c r="M531" s="11"/>
+      <c r="N531" s="13"/>
+      <c r="O531" s="11"/>
+      <c r="P531" s="11"/>
+      <c r="Q531" s="13"/>
+      <c r="R531" s="13"/>
+      <c r="S531" s="13"/>
+      <c r="T531" s="13"/>
+      <c r="U531" s="13">
         <v>115.1</v>
       </c>
-      <c r="V531" s="3">
+      <c r="V531" s="13">
         <v>6028</v>
       </c>
-      <c r="W531" s="3">
+      <c r="W531" s="13">
         <v>169.6</v>
       </c>
-      <c r="X531" s="3">
+      <c r="X531" s="13">
         <v>2501</v>
       </c>
-      <c r="Z531" t="s">
+      <c r="Y531" s="11"/>
+      <c r="Z531" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="AA531" t="s">
+      <c r="AA531" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="AC531" t="s">
+      <c r="AB531" s="11"/>
+      <c r="AC531" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="AD531" s="4">
+      <c r="AD531" s="10">
         <v>650</v>
       </c>
     </row>
@@ -22472,55 +22717,65 @@
       <c r="C532" s="4">
         <v>7</v>
       </c>
-      <c r="D532" t="s">
+      <c r="D532" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="E532" s="4" t="s">
+      <c r="E532" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="F532" s="2" t="s">
+      <c r="F532" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G532" t="s">
+      <c r="G532" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="L532" s="3">
+      <c r="H532" s="13"/>
+      <c r="I532" s="11"/>
+      <c r="J532" s="13"/>
+      <c r="K532" s="11"/>
+      <c r="L532" s="13">
         <v>265</v>
       </c>
-      <c r="Q532" s="3">
+      <c r="M532" s="11"/>
+      <c r="N532" s="13"/>
+      <c r="O532" s="11"/>
+      <c r="P532" s="11"/>
+      <c r="Q532" s="13">
         <v>266.89999999999998</v>
       </c>
-      <c r="R532" s="3">
+      <c r="R532" s="13">
         <v>6022</v>
       </c>
-      <c r="S532" s="3">
+      <c r="S532" s="13">
         <v>375.1</v>
       </c>
-      <c r="T532" s="3">
+      <c r="T532" s="13">
         <v>3212</v>
       </c>
-      <c r="U532" s="3">
+      <c r="U532" s="13">
         <v>283.60000000000002</v>
       </c>
-      <c r="V532" s="3">
+      <c r="V532" s="13">
         <v>5525</v>
       </c>
-      <c r="W532" s="3">
+      <c r="W532" s="13">
         <v>398.7</v>
       </c>
-      <c r="X532" s="3">
+      <c r="X532" s="13">
         <v>3621</v>
       </c>
-      <c r="Z532" t="s">
+      <c r="Y532" s="11"/>
+      <c r="Z532" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="AA532" t="s">
+      <c r="AA532" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="AB532" t="s">
+      <c r="AB532" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD532" s="4">
+      <c r="AC532" s="11"/>
+      <c r="AD532" s="10">
         <v>170</v>
       </c>
     </row>
@@ -22528,40 +22783,55 @@
       <c r="C533" s="4">
         <v>8</v>
       </c>
-      <c r="D533" t="s">
+      <c r="D533" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E533" s="4" t="s">
+      <c r="E533" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="G533" t="s">
+      <c r="F533" s="12"/>
+      <c r="G533" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="L533" s="3">
+      <c r="H533" s="13"/>
+      <c r="I533" s="11"/>
+      <c r="J533" s="13"/>
+      <c r="K533" s="11"/>
+      <c r="L533" s="13">
         <v>129</v>
       </c>
-      <c r="U533" s="3">
+      <c r="M533" s="11"/>
+      <c r="N533" s="13"/>
+      <c r="O533" s="11"/>
+      <c r="P533" s="11"/>
+      <c r="Q533" s="13"/>
+      <c r="R533" s="13"/>
+      <c r="S533" s="13"/>
+      <c r="T533" s="13"/>
+      <c r="U533" s="13">
         <v>181</v>
       </c>
-      <c r="V533" s="3">
+      <c r="V533" s="13">
         <v>5896</v>
       </c>
-      <c r="W533" s="3">
+      <c r="W533" s="13">
         <v>233</v>
       </c>
-      <c r="X533" s="3">
+      <c r="X533" s="13">
         <v>5296</v>
       </c>
-      <c r="Z533" t="s">
+      <c r="Y533" s="11"/>
+      <c r="Z533" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="AA533" t="s">
+      <c r="AA533" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="AB533" t="s">
+      <c r="AB533" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AD533" s="4">
+      <c r="AC533" s="11"/>
+      <c r="AD533" s="10">
         <v>170</v>
       </c>
     </row>
@@ -22569,43 +22839,57 @@
       <c r="C534" s="4">
         <v>9</v>
       </c>
-      <c r="D534" t="s">
+      <c r="D534" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E534" s="4" t="s">
+      <c r="E534" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="F534" s="2" t="s">
+      <c r="F534" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="G534" t="s">
+      <c r="G534" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="J534" s="3">
+      <c r="H534" s="13"/>
+      <c r="I534" s="11"/>
+      <c r="J534" s="13">
         <v>5</v>
       </c>
-      <c r="U534" s="3">
+      <c r="K534" s="11"/>
+      <c r="L534" s="13"/>
+      <c r="M534" s="11"/>
+      <c r="N534" s="13"/>
+      <c r="O534" s="11"/>
+      <c r="P534" s="11"/>
+      <c r="Q534" s="13"/>
+      <c r="R534" s="13"/>
+      <c r="S534" s="13"/>
+      <c r="T534" s="13"/>
+      <c r="U534" s="13">
         <v>227.8</v>
       </c>
-      <c r="V534" s="3">
+      <c r="V534" s="13">
         <v>5921</v>
       </c>
-      <c r="W534" s="3">
+      <c r="W534" s="13">
         <v>343</v>
       </c>
-      <c r="X534" s="3">
+      <c r="X534" s="13">
         <v>4521</v>
       </c>
-      <c r="Z534" t="s">
+      <c r="Y534" s="11"/>
+      <c r="Z534" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="AA534" t="s">
+      <c r="AA534" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="AB534" t="s">
+      <c r="AB534" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AD534" s="4">
+      <c r="AC534" s="11"/>
+      <c r="AD534" s="10">
         <v>130</v>
       </c>
     </row>
@@ -22613,37 +22897,53 @@
       <c r="C535" s="4">
         <v>10</v>
       </c>
-      <c r="D535" t="s">
+      <c r="D535" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="E535" s="4" t="s">
+      <c r="E535" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="L535" s="3">
+      <c r="F535" s="12"/>
+      <c r="G535" s="11"/>
+      <c r="H535" s="13"/>
+      <c r="I535" s="11"/>
+      <c r="J535" s="13"/>
+      <c r="K535" s="11"/>
+      <c r="L535" s="13">
         <v>135</v>
       </c>
-      <c r="U535" s="3">
+      <c r="M535" s="11"/>
+      <c r="N535" s="13"/>
+      <c r="O535" s="11"/>
+      <c r="P535" s="11"/>
+      <c r="Q535" s="13"/>
+      <c r="R535" s="13"/>
+      <c r="S535" s="13"/>
+      <c r="T535" s="13"/>
+      <c r="U535" s="13">
         <v>133.4</v>
       </c>
-      <c r="V535" s="3">
+      <c r="V535" s="13">
         <v>6587</v>
       </c>
-      <c r="W535" s="3">
+      <c r="W535" s="13">
         <v>148.5</v>
       </c>
-      <c r="X535" s="3">
+      <c r="X535" s="13">
         <v>4539</v>
       </c>
-      <c r="Z535" t="s">
+      <c r="Y535" s="11"/>
+      <c r="Z535" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="AA535" t="s">
+      <c r="AA535" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="AB535" t="s">
+      <c r="AB535" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD535" s="4">
+      <c r="AC535" s="11"/>
+      <c r="AD535" s="10">
         <v>80</v>
       </c>
     </row>
@@ -22651,58 +22951,67 @@
       <c r="C536" s="4">
         <v>11</v>
       </c>
-      <c r="D536" t="s">
+      <c r="D536" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E536" s="4" t="s">
+      <c r="E536" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="F536" s="2" t="s">
+      <c r="F536" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="G536" t="s">
+      <c r="G536" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="H536" s="3" t="s">
+      <c r="H536" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L536" s="3">
+      <c r="I536" s="11"/>
+      <c r="J536" s="13"/>
+      <c r="K536" s="11"/>
+      <c r="L536" s="13">
         <v>131</v>
       </c>
-      <c r="Q536" s="3">
+      <c r="M536" s="11"/>
+      <c r="N536" s="13"/>
+      <c r="O536" s="11"/>
+      <c r="P536" s="11"/>
+      <c r="Q536" s="13">
         <v>158.69999999999999</v>
       </c>
-      <c r="R536" s="3">
+      <c r="R536" s="13">
         <v>4020</v>
       </c>
-      <c r="S536" s="3">
+      <c r="S536" s="13">
         <v>348.9</v>
       </c>
-      <c r="T536" s="3">
+      <c r="T536" s="13">
         <v>2359</v>
       </c>
-      <c r="U536" s="3">
+      <c r="U536" s="13">
         <v>160.6</v>
       </c>
-      <c r="V536" s="3">
+      <c r="V536" s="13">
         <v>4049</v>
       </c>
-      <c r="W536" s="3">
+      <c r="W536" s="13">
         <v>350.3</v>
       </c>
-      <c r="X536" s="3">
+      <c r="X536" s="13">
         <v>2430</v>
       </c>
-      <c r="Z536" t="s">
+      <c r="Y536" s="11"/>
+      <c r="Z536" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="AA536" t="s">
+      <c r="AA536" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="AB536" t="s">
+      <c r="AB536" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD536" s="4">
+      <c r="AC536" s="11"/>
+      <c r="AD536" s="10">
         <v>40</v>
       </c>
     </row>
@@ -22710,93 +23019,119 @@
       <c r="C537" s="4">
         <v>12</v>
       </c>
-      <c r="D537" t="s">
+      <c r="D537" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E537" s="4" t="s">
+      <c r="E537" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="F537" s="2" t="s">
+      <c r="F537" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G537" t="s">
+      <c r="G537" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="L537" s="3">
+      <c r="H537" s="13"/>
+      <c r="I537" s="11"/>
+      <c r="J537" s="13"/>
+      <c r="K537" s="11"/>
+      <c r="L537" s="13">
         <v>220</v>
       </c>
-      <c r="Q537" s="3">
+      <c r="M537" s="11"/>
+      <c r="N537" s="13"/>
+      <c r="O537" s="11"/>
+      <c r="P537" s="11"/>
+      <c r="Q537" s="13">
         <v>309.60000000000002</v>
       </c>
-      <c r="R537" s="3">
+      <c r="R537" s="13">
         <v>6258</v>
       </c>
-      <c r="S537" s="3">
+      <c r="S537" s="13">
         <v>449.1</v>
       </c>
-      <c r="T537" s="3">
+      <c r="T537" s="13">
         <v>3927</v>
       </c>
-      <c r="U537" s="3">
+      <c r="U537" s="13">
         <v>308.89999999999998</v>
       </c>
-      <c r="V537" s="3">
+      <c r="V537" s="13">
         <v>6376</v>
       </c>
-      <c r="W537" s="3">
+      <c r="W537" s="13">
         <v>447.1</v>
       </c>
-      <c r="X537" s="3">
+      <c r="X537" s="13">
         <v>3904</v>
       </c>
-      <c r="Z537" t="s">
+      <c r="Y537" s="11"/>
+      <c r="Z537" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="AA537" t="s">
+      <c r="AA537" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AB537" t="s">
+      <c r="AB537" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD537" s="4">
+      <c r="AC537" s="11"/>
+      <c r="AD537" s="10">
         <v>45</v>
       </c>
     </row>
     <row r="538" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C538" s="4">
+      <c r="C538" s="10">
         <v>13</v>
       </c>
-      <c r="D538" t="s">
+      <c r="D538" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E538" s="4" t="s">
+      <c r="E538" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="F538" s="2" t="s">
+      <c r="F538" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="K538" t="s">
+      <c r="G538" s="11"/>
+      <c r="H538" s="13"/>
+      <c r="I538" s="11"/>
+      <c r="J538" s="13"/>
+      <c r="K538" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L538" s="3">
+      <c r="L538" s="13">
         <v>193</v>
       </c>
-      <c r="U538" s="3">
+      <c r="M538" s="11"/>
+      <c r="N538" s="13"/>
+      <c r="O538" s="11"/>
+      <c r="P538" s="11"/>
+      <c r="Q538" s="13"/>
+      <c r="R538" s="13"/>
+      <c r="S538" s="13"/>
+      <c r="T538" s="13"/>
+      <c r="U538" s="13">
         <v>205</v>
       </c>
-      <c r="W538" s="3">
+      <c r="V538" s="13"/>
+      <c r="W538" s="13">
         <v>240</v>
       </c>
-      <c r="Z538" t="s">
+      <c r="X538" s="13"/>
+      <c r="Y538" s="11"/>
+      <c r="Z538" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="AA538" t="s">
+      <c r="AA538" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="AB538" t="s">
+      <c r="AB538" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD538" s="4">
+      <c r="AC538" s="11"/>
+      <c r="AD538" s="10">
         <v>20</v>
       </c>
     </row>
@@ -22869,7 +23204,7 @@
         <v>161.19999999999999</v>
       </c>
       <c r="R541" s="3">
-        <v>25980</v>
+        <v>5980</v>
       </c>
       <c r="S541" s="3">
         <v>212.9</v>

--- a/devData/H77Dyno.xlsx
+++ b/devData/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\devData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D357CD-03EE-480A-A9B7-373FBEA094B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2B05D8-E6F9-4127-AF98-DC51E40B9A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3917,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="AB510" sqref="AB510"/>
+    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
+      <selection activeCell="D472" sqref="D472:Z472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19984,34 +19984,47 @@
       <c r="C472" s="4">
         <v>1</v>
       </c>
-      <c r="D472" t="s">
+      <c r="D472" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E472" s="4" t="s">
+      <c r="E472" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="F472" s="2" t="s">
+      <c r="F472" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G472" t="s">
+      <c r="G472" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="L472" s="3">
+      <c r="H472" s="9"/>
+      <c r="I472" s="7"/>
+      <c r="J472" s="9"/>
+      <c r="K472" s="7"/>
+      <c r="L472" s="9">
         <v>185</v>
       </c>
-      <c r="U472" s="3">
+      <c r="M472" s="7"/>
+      <c r="N472" s="9"/>
+      <c r="O472" s="7"/>
+      <c r="P472" s="7"/>
+      <c r="Q472" s="9"/>
+      <c r="R472" s="9"/>
+      <c r="S472" s="9"/>
+      <c r="T472" s="9"/>
+      <c r="U472" s="9">
         <v>198.9</v>
       </c>
-      <c r="V472" s="3">
+      <c r="V472" s="9">
         <v>4106</v>
       </c>
-      <c r="W472" s="3">
+      <c r="W472" s="9">
         <v>417.2</v>
       </c>
-      <c r="X472" s="3">
+      <c r="X472" s="9">
         <v>2732</v>
       </c>
-      <c r="Z472" t="s">
+      <c r="Y472" s="7"/>
+      <c r="Z472" s="7" t="s">
         <v>446</v>
       </c>
     </row>
@@ -20574,81 +20587,105 @@
       <c r="C488" s="4">
         <v>1</v>
       </c>
-      <c r="D488" t="s">
+      <c r="D488" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="E488" s="4" t="s">
+      <c r="E488" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="F488" s="2" t="s">
+      <c r="F488" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G488" t="s">
+      <c r="G488" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="L488" s="3">
+      <c r="H488" s="13"/>
+      <c r="I488" s="11"/>
+      <c r="J488" s="13"/>
+      <c r="K488" s="11"/>
+      <c r="L488" s="13">
         <v>200</v>
       </c>
-      <c r="U488" s="3">
+      <c r="M488" s="11"/>
+      <c r="N488" s="13"/>
+      <c r="O488" s="11"/>
+      <c r="P488" s="11"/>
+      <c r="Q488" s="13"/>
+      <c r="R488" s="13"/>
+      <c r="S488" s="13"/>
+      <c r="T488" s="13"/>
+      <c r="U488" s="13">
         <v>191.2</v>
       </c>
-      <c r="V488" s="3">
+      <c r="V488" s="13">
         <v>8095</v>
       </c>
-      <c r="W488" s="3">
+      <c r="W488" s="13">
         <v>184</v>
       </c>
-      <c r="X488" s="3">
+      <c r="X488" s="13">
         <v>6394</v>
       </c>
-      <c r="Z488" t="s">
+      <c r="Y488" s="11"/>
+      <c r="Z488" s="11" t="s">
         <v>409</v>
       </c>
+      <c r="AA488" s="11"/>
     </row>
     <row r="489" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C489" s="4">
         <v>2</v>
       </c>
-      <c r="D489" t="s">
+      <c r="D489" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E489" s="4" t="s">
+      <c r="E489" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="F489" s="2" t="s">
+      <c r="F489" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="L489" s="3">
+      <c r="G489" s="11"/>
+      <c r="H489" s="13"/>
+      <c r="I489" s="11"/>
+      <c r="J489" s="13"/>
+      <c r="K489" s="11"/>
+      <c r="L489" s="13">
         <v>95</v>
       </c>
-      <c r="Q489" s="3">
+      <c r="M489" s="11"/>
+      <c r="N489" s="13"/>
+      <c r="O489" s="11"/>
+      <c r="P489" s="11"/>
+      <c r="Q489" s="13">
         <v>77.400000000000006</v>
       </c>
-      <c r="R489" s="3">
+      <c r="R489" s="13">
         <v>6130</v>
       </c>
-      <c r="S489" s="3">
+      <c r="S489" s="13">
         <v>89.8</v>
       </c>
-      <c r="T489" s="3">
+      <c r="T489" s="13">
         <v>6020</v>
       </c>
-      <c r="U489" s="3">
+      <c r="U489" s="13">
         <v>78.7</v>
       </c>
-      <c r="V489" s="3">
+      <c r="V489" s="13">
         <v>6094</v>
       </c>
-      <c r="W489" s="3">
+      <c r="W489" s="13">
         <v>91.7</v>
       </c>
-      <c r="X489" s="3">
+      <c r="X489" s="13">
         <v>5966</v>
       </c>
-      <c r="Z489" t="s">
+      <c r="Y489" s="11"/>
+      <c r="Z489" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="AA489" t="s">
+      <c r="AA489" s="11" t="s">
         <v>680</v>
       </c>
       <c r="AB489" t="s">
@@ -20662,61 +20699,69 @@
       <c r="C490" s="4">
         <v>3</v>
       </c>
-      <c r="D490" t="s">
+      <c r="D490" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E490" s="4" t="s">
+      <c r="E490" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="F490" s="2" t="s">
+      <c r="F490" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="G490" t="s">
+      <c r="G490" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="J490" s="3">
+      <c r="H490" s="13"/>
+      <c r="I490" s="11"/>
+      <c r="J490" s="13">
         <v>6</v>
       </c>
-      <c r="L490" s="3">
+      <c r="K490" s="11"/>
+      <c r="L490" s="13">
         <v>231</v>
       </c>
-      <c r="M490" s="1">
+      <c r="M490" s="14">
         <v>377473</v>
       </c>
-      <c r="Q490" s="3">
+      <c r="N490" s="13"/>
+      <c r="O490" s="11"/>
+      <c r="P490" s="11"/>
+      <c r="Q490" s="13">
         <v>199.6</v>
       </c>
-      <c r="R490" s="3">
+      <c r="R490" s="13">
         <v>6123</v>
       </c>
-      <c r="S490" s="3">
+      <c r="S490" s="13">
         <v>268.2</v>
       </c>
-      <c r="T490" s="3">
+      <c r="T490" s="13">
         <v>3625</v>
       </c>
-      <c r="U490" s="3">
+      <c r="U490" s="13">
         <v>202.2</v>
       </c>
-      <c r="V490" s="3">
+      <c r="V490" s="13">
         <v>6211</v>
       </c>
-      <c r="W490" s="3">
+      <c r="W490" s="13">
         <v>269.60000000000002</v>
       </c>
-      <c r="X490" s="3">
+      <c r="X490" s="13">
         <v>3618</v>
       </c>
-      <c r="Z490" t="s">
+      <c r="Y490" s="11"/>
+      <c r="Z490" s="11" t="s">
         <v>682</v>
       </c>
-      <c r="AA490" t="s">
+      <c r="AA490" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="AB490" t="s">
+      <c r="AB490" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AD490" s="4">
+      <c r="AC490" s="11"/>
+      <c r="AD490" s="10">
         <v>252</v>
       </c>
     </row>
@@ -20724,81 +20769,104 @@
       <c r="C491" s="4">
         <v>4</v>
       </c>
-      <c r="D491" t="s">
+      <c r="D491" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E491" s="4" t="s">
+      <c r="E491" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="F491" s="2" t="s">
+      <c r="F491" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G491" t="s">
+      <c r="G491" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="L491" s="3">
+      <c r="H491" s="13"/>
+      <c r="I491" s="11"/>
+      <c r="J491" s="13"/>
+      <c r="K491" s="11"/>
+      <c r="L491" s="13">
         <v>240</v>
       </c>
-      <c r="U491" s="3">
+      <c r="M491" s="11"/>
+      <c r="N491" s="13"/>
+      <c r="O491" s="11"/>
+      <c r="P491" s="11"/>
+      <c r="Q491" s="13"/>
+      <c r="R491" s="13"/>
+      <c r="S491" s="13"/>
+      <c r="T491" s="13"/>
+      <c r="U491" s="13">
         <v>261.8</v>
       </c>
-      <c r="V491" s="3">
+      <c r="V491" s="13">
         <v>5721</v>
       </c>
-      <c r="W491" s="3">
+      <c r="W491" s="13">
         <v>406.3</v>
       </c>
-      <c r="X491" s="3">
+      <c r="X491" s="13">
         <v>4044</v>
       </c>
+      <c r="Y491" s="11"/>
+      <c r="Z491" s="11"/>
+      <c r="AA491" s="11"/>
     </row>
     <row r="492" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C492" s="4">
         <v>5</v>
       </c>
-      <c r="D492" t="s">
+      <c r="D492" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F492" s="2" t="s">
+      <c r="E492" s="10"/>
+      <c r="F492" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G492" t="s">
+      <c r="G492" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="K492" t="s">
+      <c r="H492" s="13"/>
+      <c r="I492" s="11"/>
+      <c r="J492" s="13"/>
+      <c r="K492" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L492" s="3">
+      <c r="L492" s="13">
         <v>113</v>
       </c>
-      <c r="M492" s="1">
+      <c r="M492" s="14">
         <v>137872</v>
       </c>
-      <c r="Q492" s="3">
+      <c r="N492" s="13"/>
+      <c r="O492" s="11"/>
+      <c r="P492" s="11"/>
+      <c r="Q492" s="13">
         <v>97</v>
       </c>
-      <c r="R492" s="3">
+      <c r="R492" s="13">
         <v>5372</v>
       </c>
-      <c r="S492" s="3">
+      <c r="S492" s="13">
         <v>168.8</v>
       </c>
-      <c r="T492" s="3">
+      <c r="T492" s="13">
         <v>3490</v>
       </c>
-      <c r="U492" s="3">
+      <c r="U492" s="13">
         <v>97.3</v>
       </c>
-      <c r="V492" s="3">
+      <c r="V492" s="13">
         <v>5749</v>
       </c>
-      <c r="W492" s="3">
+      <c r="W492" s="13">
         <v>147.9</v>
       </c>
-      <c r="X492" s="3">
+      <c r="X492" s="13">
         <v>3325</v>
       </c>
-      <c r="Z492" t="s">
+      <c r="Y492" s="11"/>
+      <c r="Z492" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -20806,40 +20874,51 @@
       <c r="C493" s="4">
         <v>6</v>
       </c>
-      <c r="D493" t="s">
+      <c r="D493" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E493" s="4" t="s">
+      <c r="E493" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="F493" s="2" t="s">
+      <c r="F493" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="J493" s="3">
+      <c r="G493" s="11"/>
+      <c r="H493" s="13"/>
+      <c r="I493" s="11"/>
+      <c r="J493" s="13">
         <v>6</v>
       </c>
-      <c r="L493" s="3">
+      <c r="K493" s="11"/>
+      <c r="L493" s="13">
         <v>174</v>
       </c>
-      <c r="M493" s="1">
+      <c r="M493" s="14">
         <v>320000</v>
       </c>
-      <c r="N493" s="3">
+      <c r="N493" s="13">
         <v>1983</v>
       </c>
-      <c r="U493" s="3">
+      <c r="O493" s="11"/>
+      <c r="P493" s="11"/>
+      <c r="Q493" s="13"/>
+      <c r="R493" s="13"/>
+      <c r="S493" s="13"/>
+      <c r="T493" s="13"/>
+      <c r="U493" s="13">
         <v>186.8</v>
       </c>
-      <c r="V493" s="3">
+      <c r="V493" s="13">
         <v>5977</v>
       </c>
-      <c r="W493" s="3">
+      <c r="W493" s="13">
         <v>237.9</v>
       </c>
-      <c r="X493" s="3">
+      <c r="X493" s="13">
         <v>4499</v>
       </c>
-      <c r="Z493" t="s">
+      <c r="Y493" s="11"/>
+      <c r="Z493" s="11" t="s">
         <v>195</v>
       </c>
     </row>
@@ -20847,92 +20926,109 @@
       <c r="C494" s="4">
         <v>7</v>
       </c>
-      <c r="D494" t="s">
+      <c r="D494" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E494" s="4" t="s">
+      <c r="E494" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="F494" s="2" t="s">
+      <c r="F494" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J494" s="3">
+      <c r="G494" s="11"/>
+      <c r="H494" s="13"/>
+      <c r="I494" s="11"/>
+      <c r="J494" s="13">
         <v>6</v>
       </c>
-      <c r="L494" s="3">
+      <c r="K494" s="11"/>
+      <c r="L494" s="13">
         <v>150</v>
       </c>
-      <c r="M494" s="1"/>
-      <c r="Q494" s="3">
+      <c r="M494" s="14"/>
+      <c r="N494" s="13"/>
+      <c r="O494" s="11"/>
+      <c r="P494" s="11"/>
+      <c r="Q494" s="13">
         <v>158.5</v>
       </c>
-      <c r="R494" s="3">
+      <c r="R494" s="13">
         <v>6233</v>
       </c>
-      <c r="S494" s="3">
+      <c r="S494" s="13">
         <v>188.2</v>
       </c>
-      <c r="T494" s="3">
+      <c r="T494" s="13">
         <v>4832</v>
       </c>
-      <c r="U494" s="3">
+      <c r="U494" s="13">
         <v>158.30000000000001</v>
       </c>
-      <c r="V494" s="3">
+      <c r="V494" s="13">
         <v>6308</v>
       </c>
-      <c r="W494" s="3">
+      <c r="W494" s="13">
         <v>191.7</v>
       </c>
-      <c r="X494" s="3">
+      <c r="X494" s="13">
         <v>4811</v>
       </c>
+      <c r="Y494" s="11"/>
+      <c r="Z494" s="11"/>
     </row>
     <row r="495" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C495" s="4">
         <v>8</v>
       </c>
-      <c r="D495" t="s">
+      <c r="D495" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E495" s="4" t="s">
+      <c r="E495" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="F495" s="2" t="s">
+      <c r="F495" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H495" s="3" t="s">
+      <c r="G495" s="11"/>
+      <c r="H495" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L495" s="3">
+      <c r="I495" s="11"/>
+      <c r="J495" s="13"/>
+      <c r="K495" s="11"/>
+      <c r="L495" s="13">
         <v>140</v>
       </c>
-      <c r="M495" s="1"/>
-      <c r="Q495" s="3">
+      <c r="M495" s="14"/>
+      <c r="N495" s="13"/>
+      <c r="O495" s="11"/>
+      <c r="P495" s="11"/>
+      <c r="Q495" s="13">
         <v>197.4</v>
       </c>
-      <c r="R495" s="3">
+      <c r="R495" s="13">
         <v>4140</v>
       </c>
-      <c r="S495" s="3">
+      <c r="S495" s="13">
         <v>445.5</v>
       </c>
-      <c r="T495" s="3">
+      <c r="T495" s="13">
         <v>2125</v>
       </c>
-      <c r="U495" s="3">
+      <c r="U495" s="13">
         <v>197.4</v>
       </c>
-      <c r="V495" s="3">
+      <c r="V495" s="13">
         <v>4141</v>
       </c>
-      <c r="W495" s="3">
+      <c r="W495" s="13">
         <v>449.4</v>
       </c>
-      <c r="X495" s="3">
+      <c r="X495" s="13">
         <v>2171</v>
       </c>
-      <c r="Z495" t="s">
+      <c r="Y495" s="11"/>
+      <c r="Z495" s="11" t="s">
         <v>330</v>
       </c>
     </row>
@@ -20940,35 +21036,47 @@
       <c r="C496" s="4">
         <v>9</v>
       </c>
-      <c r="D496" t="s">
+      <c r="D496" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E496" s="4" t="s">
+      <c r="E496" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="F496" s="2" t="s">
+      <c r="F496" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G496" t="s">
+      <c r="G496" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="L496" s="3">
+      <c r="H496" s="13"/>
+      <c r="I496" s="11"/>
+      <c r="J496" s="13"/>
+      <c r="K496" s="11"/>
+      <c r="L496" s="13">
         <v>200</v>
       </c>
-      <c r="M496" s="1"/>
-      <c r="U496" s="3">
+      <c r="M496" s="14"/>
+      <c r="N496" s="13"/>
+      <c r="O496" s="11"/>
+      <c r="P496" s="11"/>
+      <c r="Q496" s="13"/>
+      <c r="R496" s="13"/>
+      <c r="S496" s="13"/>
+      <c r="T496" s="13"/>
+      <c r="U496" s="13">
         <v>226.2</v>
       </c>
-      <c r="V496" s="3">
+      <c r="V496" s="13">
         <v>6399</v>
       </c>
-      <c r="W496" s="3">
+      <c r="W496" s="13">
         <v>319.89999999999998</v>
       </c>
-      <c r="X496" s="3">
+      <c r="X496" s="13">
         <v>3371</v>
       </c>
-      <c r="Z496" t="s">
+      <c r="Y496" s="11"/>
+      <c r="Z496" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -20976,37 +21084,49 @@
       <c r="C497" s="4">
         <v>10</v>
       </c>
-      <c r="D497" t="s">
+      <c r="D497" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="E497" s="4" t="s">
+      <c r="E497" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="F497" s="2" t="s">
+      <c r="F497" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G497" t="s">
+      <c r="G497" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="L497" s="3">
+      <c r="H497" s="13"/>
+      <c r="I497" s="11"/>
+      <c r="J497" s="13"/>
+      <c r="K497" s="11"/>
+      <c r="L497" s="13">
         <v>245</v>
       </c>
-      <c r="M497" s="1">
+      <c r="M497" s="14">
         <v>8000</v>
       </c>
-      <c r="U497" s="3">
+      <c r="N497" s="13"/>
+      <c r="O497" s="11"/>
+      <c r="P497" s="11"/>
+      <c r="Q497" s="13"/>
+      <c r="R497" s="13"/>
+      <c r="S497" s="13"/>
+      <c r="T497" s="13"/>
+      <c r="U497" s="13">
         <v>302.3</v>
       </c>
-      <c r="V497" s="3">
+      <c r="V497" s="13">
         <v>6386</v>
       </c>
-      <c r="W497" s="3">
+      <c r="W497" s="13">
         <v>424.8</v>
       </c>
-      <c r="X497" s="3">
+      <c r="X497" s="13">
         <v>3147</v>
       </c>
-      <c r="Z497" t="s">
+      <c r="Y497" s="11"/>
+      <c r="Z497" s="11" t="s">
         <v>386</v>
       </c>
     </row>
@@ -21019,57 +21139,57 @@
       <c r="C499" s="4">
         <v>1</v>
       </c>
-      <c r="D499" s="7" t="s">
+      <c r="D499" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E499" s="6" t="s">
+      <c r="E499" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="F499" s="8" t="s">
+      <c r="F499" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G499" s="7" t="s">
+      <c r="G499" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="H499" s="9"/>
-      <c r="I499" s="7"/>
-      <c r="J499" s="9"/>
-      <c r="K499" s="7" t="s">
+      <c r="H499" s="13"/>
+      <c r="I499" s="11"/>
+      <c r="J499" s="13"/>
+      <c r="K499" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L499" s="9">
+      <c r="L499" s="13">
         <v>140</v>
       </c>
-      <c r="M499" s="7"/>
-      <c r="N499" s="9"/>
-      <c r="O499" s="7"/>
-      <c r="P499" s="7"/>
-      <c r="Q499" s="9">
+      <c r="M499" s="11"/>
+      <c r="N499" s="13"/>
+      <c r="O499" s="11"/>
+      <c r="P499" s="11"/>
+      <c r="Q499" s="13">
         <v>154.6</v>
       </c>
-      <c r="R499" s="9">
-        <v>39115</v>
-      </c>
-      <c r="S499" s="9">
+      <c r="R499" s="13">
+        <v>3915</v>
+      </c>
+      <c r="S499" s="13">
         <v>367.9</v>
       </c>
-      <c r="T499" s="9">
+      <c r="T499" s="13">
         <v>2264</v>
       </c>
-      <c r="U499" s="9">
+      <c r="U499" s="13">
         <v>154.9</v>
       </c>
-      <c r="V499" s="9">
+      <c r="V499" s="13">
         <v>3982</v>
       </c>
-      <c r="W499" s="9">
+      <c r="W499" s="13">
         <v>368.3</v>
       </c>
-      <c r="X499" s="9">
+      <c r="X499" s="13">
         <v>2346</v>
       </c>
-      <c r="Y499" s="7"/>
-      <c r="Z499" s="7" t="s">
+      <c r="Y499" s="11"/>
+      <c r="Z499" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -21077,75 +21197,98 @@
       <c r="C500" s="4">
         <v>2</v>
       </c>
-      <c r="D500" t="s">
+      <c r="D500" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E500" s="4" t="s">
+      <c r="E500" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="L500" s="3">
+      <c r="F500" s="12"/>
+      <c r="G500" s="11"/>
+      <c r="H500" s="13"/>
+      <c r="I500" s="11"/>
+      <c r="J500" s="13"/>
+      <c r="K500" s="11"/>
+      <c r="L500" s="13">
         <v>241</v>
       </c>
-      <c r="Q500" s="3">
+      <c r="M500" s="11"/>
+      <c r="N500" s="13"/>
+      <c r="O500" s="11"/>
+      <c r="P500" s="11"/>
+      <c r="Q500" s="13">
         <v>227.4</v>
       </c>
-      <c r="R500" s="3">
+      <c r="R500" s="13">
         <v>5706</v>
       </c>
-      <c r="S500" s="3">
+      <c r="S500" s="13">
         <v>329.2</v>
       </c>
-      <c r="T500" s="3">
+      <c r="T500" s="13">
         <v>3772</v>
       </c>
-      <c r="U500" s="3">
+      <c r="U500" s="13">
         <v>216.6</v>
       </c>
-      <c r="V500" s="3">
+      <c r="V500" s="13">
         <v>5120</v>
       </c>
-      <c r="W500" s="3">
+      <c r="W500" s="13">
         <v>327.39999999999998</v>
       </c>
-      <c r="X500" s="3">
+      <c r="X500" s="13">
         <v>3780</v>
       </c>
+      <c r="Y500" s="11"/>
     </row>
     <row r="501" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C501" s="4">
         <v>3</v>
       </c>
-      <c r="D501" t="s">
+      <c r="D501" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E501" s="4" t="s">
+      <c r="E501" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="F501" s="2" t="s">
+      <c r="F501" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="G501" t="s">
+      <c r="G501" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="L501" s="3">
+      <c r="H501" s="13"/>
+      <c r="I501" s="11"/>
+      <c r="J501" s="13"/>
+      <c r="K501" s="11"/>
+      <c r="L501" s="13">
         <v>122</v>
       </c>
-      <c r="M501" s="1">
+      <c r="M501" s="14">
         <v>197000</v>
       </c>
-      <c r="U501" s="3">
+      <c r="N501" s="13"/>
+      <c r="O501" s="11"/>
+      <c r="P501" s="11"/>
+      <c r="Q501" s="13"/>
+      <c r="R501" s="13"/>
+      <c r="S501" s="13"/>
+      <c r="T501" s="13"/>
+      <c r="U501" s="13">
         <v>123.1</v>
       </c>
-      <c r="V501" s="3">
+      <c r="V501" s="13">
         <v>5319</v>
       </c>
-      <c r="W501" s="3">
+      <c r="W501" s="13">
         <v>195</v>
       </c>
-      <c r="X501" s="3">
+      <c r="X501" s="13">
         <v>3891</v>
       </c>
-      <c r="Z501" t="s">
+      <c r="Y501" s="11"/>
+      <c r="Z501" s="11" t="s">
         <v>386</v>
       </c>
     </row>
@@ -21153,46 +21296,55 @@
       <c r="C502" s="4">
         <v>4</v>
       </c>
-      <c r="D502" t="s">
+      <c r="D502" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E502" s="4" t="s">
+      <c r="E502" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="F502" s="2" t="s">
+      <c r="F502" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="G502" t="s">
+      <c r="G502" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="L502" s="3">
+      <c r="H502" s="13"/>
+      <c r="I502" s="11"/>
+      <c r="J502" s="13"/>
+      <c r="K502" s="11"/>
+      <c r="L502" s="13">
         <v>115</v>
       </c>
-      <c r="Q502" s="3">
+      <c r="M502" s="11"/>
+      <c r="N502" s="13"/>
+      <c r="O502" s="11"/>
+      <c r="P502" s="11"/>
+      <c r="Q502" s="13">
         <v>126.6</v>
       </c>
-      <c r="R502" s="3">
+      <c r="R502" s="13">
         <v>5245</v>
       </c>
-      <c r="S502" s="3">
+      <c r="S502" s="13">
         <v>225.8</v>
       </c>
-      <c r="T502" s="3">
+      <c r="T502" s="13">
         <v>3364</v>
       </c>
-      <c r="U502" s="3">
+      <c r="U502" s="13">
         <v>138.80000000000001</v>
       </c>
-      <c r="V502" s="3">
+      <c r="V502" s="13">
         <v>5784</v>
       </c>
-      <c r="W502" s="3">
-        <v>2440</v>
-      </c>
-      <c r="X502" s="3">
+      <c r="W502" s="13">
+        <v>244</v>
+      </c>
+      <c r="X502" s="13">
         <v>3011</v>
       </c>
-      <c r="Z502" t="s">
+      <c r="Y502" s="11"/>
+      <c r="Z502" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -21200,49 +21352,57 @@
       <c r="C503" s="4">
         <v>5</v>
       </c>
-      <c r="D503" t="s">
+      <c r="D503" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E503" s="4" t="s">
+      <c r="E503" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="F503" s="2" t="s">
+      <c r="F503" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="G503" t="s">
+      <c r="G503" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="L503" s="3">
+      <c r="H503" s="13"/>
+      <c r="I503" s="11"/>
+      <c r="J503" s="13"/>
+      <c r="K503" s="11"/>
+      <c r="L503" s="13">
         <v>102</v>
       </c>
-      <c r="M503" s="1">
+      <c r="M503" s="14">
         <v>550881</v>
       </c>
-      <c r="Q503" s="3">
+      <c r="N503" s="13"/>
+      <c r="O503" s="11"/>
+      <c r="P503" s="11"/>
+      <c r="Q503" s="13">
         <v>90.8</v>
       </c>
-      <c r="R503" s="3">
+      <c r="R503" s="13">
         <v>5587</v>
       </c>
-      <c r="S503" s="3">
+      <c r="S503" s="13">
         <v>127.1</v>
       </c>
-      <c r="T503" s="3">
+      <c r="T503" s="13">
         <v>4187</v>
       </c>
-      <c r="U503" s="3">
+      <c r="U503" s="13">
         <v>97.5</v>
       </c>
-      <c r="V503" s="3">
+      <c r="V503" s="13">
         <v>5617</v>
       </c>
-      <c r="W503" s="3">
+      <c r="W503" s="13">
         <v>137.19999999999999</v>
       </c>
-      <c r="X503" s="3">
+      <c r="X503" s="13">
         <v>4055</v>
       </c>
-      <c r="Z503" t="s">
+      <c r="Y503" s="11"/>
+      <c r="Z503" s="11" t="s">
         <v>152</v>
       </c>
     </row>
@@ -21250,87 +21410,109 @@
       <c r="C504" s="4">
         <v>6</v>
       </c>
-      <c r="D504" t="s">
+      <c r="D504" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E504" s="4" t="s">
+      <c r="E504" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="F504" s="2" t="s">
+      <c r="F504" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="J504" s="3">
+      <c r="G504" s="11"/>
+      <c r="H504" s="13"/>
+      <c r="I504" s="11"/>
+      <c r="J504" s="13">
         <v>5</v>
       </c>
-      <c r="L504" s="3">
+      <c r="K504" s="11"/>
+      <c r="L504" s="13">
         <v>133</v>
       </c>
-      <c r="Q504" s="3">
+      <c r="M504" s="11"/>
+      <c r="N504" s="13"/>
+      <c r="O504" s="11"/>
+      <c r="P504" s="11"/>
+      <c r="Q504" s="13">
         <v>113.3</v>
       </c>
-      <c r="R504" s="3">
+      <c r="R504" s="13">
         <v>6022</v>
       </c>
-      <c r="S504" s="3">
+      <c r="S504" s="13">
         <v>163.69999999999999</v>
       </c>
-      <c r="T504" s="3">
+      <c r="T504" s="13">
         <v>3992</v>
       </c>
-      <c r="U504" s="3">
+      <c r="U504" s="13">
         <v>117.4</v>
       </c>
-      <c r="V504" s="3">
+      <c r="V504" s="13">
         <v>5951</v>
       </c>
-      <c r="W504" s="3">
+      <c r="W504" s="13">
         <v>168.2</v>
       </c>
-      <c r="X504" s="3">
+      <c r="X504" s="13">
         <v>3955</v>
       </c>
-      <c r="Z504" t="s">
+      <c r="Y504" s="11"/>
+      <c r="Z504" s="11" t="s">
         <v>386</v>
       </c>
+      <c r="AA504" s="11"/>
     </row>
     <row r="505" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C505" s="4">
         <v>7</v>
       </c>
-      <c r="D505" t="s">
+      <c r="D505" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E505" s="4" t="s">
+      <c r="E505" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="F505" s="2" t="s">
+      <c r="F505" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="H505" s="3" t="s">
+      <c r="G505" s="11"/>
+      <c r="H505" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L505" s="3">
+      <c r="I505" s="11"/>
+      <c r="J505" s="13"/>
+      <c r="K505" s="11"/>
+      <c r="L505" s="13">
         <v>150</v>
       </c>
-      <c r="M505" s="1">
+      <c r="M505" s="14">
         <v>200000</v>
       </c>
-      <c r="U505" s="3">
+      <c r="N505" s="13"/>
+      <c r="O505" s="11"/>
+      <c r="P505" s="11"/>
+      <c r="Q505" s="13"/>
+      <c r="R505" s="13"/>
+      <c r="S505" s="13"/>
+      <c r="T505" s="13"/>
+      <c r="U505" s="13">
         <v>148.30000000000001</v>
       </c>
-      <c r="V505" s="3">
+      <c r="V505" s="13">
         <v>3922</v>
       </c>
-      <c r="W505" s="3">
+      <c r="W505" s="13">
         <v>334.3</v>
       </c>
-      <c r="X505" s="3">
+      <c r="X505" s="13">
         <v>2422</v>
       </c>
-      <c r="Z505" t="s">
+      <c r="Y505" s="11"/>
+      <c r="Z505" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="AA505" t="s">
+      <c r="AA505" s="11" t="s">
         <v>659</v>
       </c>
       <c r="AB505" t="s">
@@ -21344,105 +21526,126 @@
       <c r="C506" s="4">
         <v>8</v>
       </c>
-      <c r="D506" t="s">
+      <c r="D506" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E506" s="4" t="s">
+      <c r="E506" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="F506" s="2" t="s">
+      <c r="F506" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="G506" t="s">
+      <c r="G506" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="J506" s="3">
+      <c r="H506" s="13"/>
+      <c r="I506" s="11"/>
+      <c r="J506" s="13">
         <v>8</v>
       </c>
-      <c r="N506" s="3">
+      <c r="K506" s="11"/>
+      <c r="L506" s="13"/>
+      <c r="M506" s="11"/>
+      <c r="N506" s="13">
         <v>1969</v>
       </c>
-      <c r="Q506" s="3">
+      <c r="O506" s="11"/>
+      <c r="P506" s="11"/>
+      <c r="Q506" s="13">
         <v>328.3</v>
       </c>
-      <c r="R506" s="3">
+      <c r="R506" s="13">
         <v>4379</v>
       </c>
-      <c r="S506" s="3">
+      <c r="S506" s="13">
         <v>552.79999999999995</v>
       </c>
-      <c r="T506" s="3">
+      <c r="T506" s="13">
         <v>4015</v>
       </c>
-      <c r="U506" s="3">
+      <c r="U506" s="13">
         <v>339.5</v>
       </c>
-      <c r="V506" s="3">
+      <c r="V506" s="13">
         <v>5125</v>
       </c>
-      <c r="W506" s="3">
+      <c r="W506" s="13">
         <v>559.9</v>
       </c>
-      <c r="X506" s="3">
+      <c r="X506" s="13">
         <v>3873</v>
       </c>
+      <c r="Y506" s="11"/>
+      <c r="Z506" s="11"/>
+      <c r="AA506" s="11"/>
+      <c r="AB506" s="11"/>
+      <c r="AC506" s="11"/>
     </row>
     <row r="507" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C507" s="4">
         <v>9</v>
       </c>
-      <c r="D507" t="s">
+      <c r="D507" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E507" s="4" t="s">
+      <c r="E507" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="F507" s="2" t="s">
+      <c r="F507" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="G507" t="s">
+      <c r="G507" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="J507" s="3">
+      <c r="H507" s="13"/>
+      <c r="I507" s="11"/>
+      <c r="J507" s="13">
         <v>5</v>
       </c>
-      <c r="L507" s="3">
+      <c r="K507" s="11"/>
+      <c r="L507" s="13">
         <v>133</v>
       </c>
-      <c r="Q507" s="3">
+      <c r="M507" s="11"/>
+      <c r="N507" s="13"/>
+      <c r="O507" s="11"/>
+      <c r="P507" s="11"/>
+      <c r="Q507" s="13">
         <v>107.3</v>
       </c>
-      <c r="R507" s="3">
+      <c r="R507" s="13">
         <v>5214</v>
       </c>
-      <c r="S507" s="3">
+      <c r="S507" s="13">
         <v>163</v>
       </c>
-      <c r="T507" s="3">
+      <c r="T507" s="13">
         <v>3028</v>
       </c>
-      <c r="U507" s="3">
+      <c r="U507" s="13">
         <v>113.6</v>
       </c>
-      <c r="V507" s="3">
+      <c r="V507" s="13">
         <v>5412</v>
       </c>
-      <c r="W507" s="3">
+      <c r="W507" s="13">
         <v>169.7</v>
       </c>
-      <c r="X507" s="3">
+      <c r="X507" s="13">
         <v>3674</v>
       </c>
-      <c r="Z507" t="s">
+      <c r="Y507" s="11"/>
+      <c r="Z507" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="AA507" t="s">
+      <c r="AA507" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="AB507" t="s">
+      <c r="AB507" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="AD507" s="4">
+      <c r="AC507" s="11"/>
+      <c r="AD507" s="10">
         <v>580</v>
       </c>
     </row>
@@ -21450,166 +21653,220 @@
       <c r="C508" s="4">
         <v>10</v>
       </c>
-      <c r="D508" t="s">
+      <c r="D508" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E508" s="4" t="s">
+      <c r="E508" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="F508" s="2" t="s">
+      <c r="F508" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="J508" s="3">
+      <c r="G508" s="11"/>
+      <c r="H508" s="13"/>
+      <c r="I508" s="11"/>
+      <c r="J508" s="13">
         <v>6</v>
       </c>
-      <c r="L508" s="3">
+      <c r="K508" s="11"/>
+      <c r="L508" s="13">
         <v>136</v>
       </c>
-      <c r="Q508" s="3">
+      <c r="M508" s="11"/>
+      <c r="N508" s="13"/>
+      <c r="O508" s="11"/>
+      <c r="P508" s="11"/>
+      <c r="Q508" s="13">
         <v>178.2</v>
       </c>
-      <c r="R508" s="3">
+      <c r="R508" s="13">
         <v>6323</v>
       </c>
-      <c r="S508" s="3">
+      <c r="S508" s="13">
         <v>213.5</v>
       </c>
-      <c r="T508" s="3">
+      <c r="T508" s="13">
         <v>5093</v>
       </c>
-      <c r="U508" s="3">
+      <c r="U508" s="13">
         <v>179.5</v>
       </c>
-      <c r="V508" s="3">
+      <c r="V508" s="13">
         <v>6252</v>
       </c>
-      <c r="W508" s="3">
+      <c r="W508" s="13">
         <v>216.8</v>
       </c>
-      <c r="X508" s="3">
+      <c r="X508" s="13">
         <v>5084</v>
       </c>
-      <c r="Z508" t="s">
+      <c r="Y508" s="11"/>
+      <c r="Z508" s="11" t="s">
         <v>152</v>
       </c>
+      <c r="AA508" s="11"/>
+      <c r="AB508" s="11"/>
     </row>
     <row r="509" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C509" s="4">
         <v>11</v>
       </c>
-      <c r="D509" t="s">
+      <c r="D509" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E509" s="4" t="s">
+      <c r="E509" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="G509" t="s">
+      <c r="F509" s="12"/>
+      <c r="G509" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="L509" s="3">
+      <c r="H509" s="13"/>
+      <c r="I509" s="11"/>
+      <c r="J509" s="13"/>
+      <c r="K509" s="11"/>
+      <c r="L509" s="13">
         <v>136</v>
       </c>
-      <c r="U509" s="3">
+      <c r="M509" s="11"/>
+      <c r="N509" s="13"/>
+      <c r="O509" s="11"/>
+      <c r="P509" s="11"/>
+      <c r="Q509" s="13"/>
+      <c r="R509" s="13"/>
+      <c r="S509" s="13"/>
+      <c r="T509" s="13"/>
+      <c r="U509" s="13">
         <v>125.1</v>
       </c>
-      <c r="V509" s="3">
+      <c r="V509" s="13">
         <v>5351</v>
       </c>
-      <c r="W509" s="3">
+      <c r="W509" s="13">
         <v>190.2</v>
       </c>
-      <c r="X509" s="3">
+      <c r="X509" s="13">
         <v>4523</v>
       </c>
-      <c r="Z509" t="s">
+      <c r="Y509" s="11"/>
+      <c r="Z509" s="11" t="s">
         <v>104</v>
       </c>
+      <c r="AA509" s="11"/>
     </row>
     <row r="510" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C510" s="4">
         <v>12</v>
       </c>
-      <c r="D510" t="s">
+      <c r="D510" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="E510" s="4" t="s">
+      <c r="E510" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="F510" s="2" t="s">
+      <c r="F510" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="H510" s="3" t="s">
+      <c r="G510" s="11"/>
+      <c r="H510" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L510" s="3">
+      <c r="I510" s="11"/>
+      <c r="J510" s="13"/>
+      <c r="K510" s="11"/>
+      <c r="L510" s="13">
         <v>145</v>
       </c>
-      <c r="Q510" s="3">
+      <c r="M510" s="11"/>
+      <c r="N510" s="13"/>
+      <c r="O510" s="11"/>
+      <c r="P510" s="11"/>
+      <c r="Q510" s="13">
         <v>145.6</v>
       </c>
-      <c r="R510" s="3">
+      <c r="R510" s="13">
         <v>3370</v>
       </c>
-      <c r="S510" s="3">
+      <c r="S510" s="13">
         <v>383.7</v>
       </c>
-      <c r="T510" s="3">
+      <c r="T510" s="13">
         <v>2295</v>
       </c>
-      <c r="U510" s="3">
+      <c r="U510" s="13">
         <v>147</v>
       </c>
-      <c r="V510" s="3">
+      <c r="V510" s="13">
         <v>3405</v>
       </c>
-      <c r="W510" s="3">
+      <c r="W510" s="13">
         <v>386.1</v>
       </c>
-      <c r="X510" s="3">
+      <c r="X510" s="13">
         <v>2295</v>
       </c>
-      <c r="Z510" t="s">
+      <c r="Y510" s="11"/>
+      <c r="Z510" s="11" t="s">
         <v>64</v>
       </c>
+      <c r="AA510" s="11"/>
+      <c r="AB510" s="11"/>
+      <c r="AC510" s="11"/>
+      <c r="AD510" s="10"/>
     </row>
     <row r="511" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C511" s="4">
         <v>13</v>
       </c>
-      <c r="D511" t="s">
+      <c r="D511" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F511" s="2" t="s">
+      <c r="E511" s="10"/>
+      <c r="F511" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="L511" s="3">
+      <c r="G511" s="11"/>
+      <c r="H511" s="13"/>
+      <c r="I511" s="11"/>
+      <c r="J511" s="13"/>
+      <c r="K511" s="11"/>
+      <c r="L511" s="13">
         <v>131</v>
       </c>
-      <c r="M511" s="1">
+      <c r="M511" s="14">
         <v>300000</v>
       </c>
-      <c r="U511" s="3">
+      <c r="N511" s="13"/>
+      <c r="O511" s="11"/>
+      <c r="P511" s="11"/>
+      <c r="Q511" s="13"/>
+      <c r="R511" s="13"/>
+      <c r="S511" s="13"/>
+      <c r="T511" s="13"/>
+      <c r="U511" s="13">
         <v>128.9</v>
       </c>
-      <c r="V511" s="3">
+      <c r="V511" s="13">
         <v>4106</v>
       </c>
-      <c r="W511" s="3">
+      <c r="W511" s="13">
         <v>317.2</v>
       </c>
-      <c r="X511" s="3">
+      <c r="X511" s="13">
         <v>2094</v>
       </c>
-      <c r="Z511" t="s">
+      <c r="Y511" s="11"/>
+      <c r="Z511" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="AA511" t="s">
+      <c r="AA511" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="AB511" t="s">
+      <c r="AB511" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AD511" s="4">
+      <c r="AC511" s="11"/>
+      <c r="AD511" s="10">
         <v>180</v>
       </c>
     </row>
@@ -21617,55 +21874,65 @@
       <c r="C512" s="4">
         <v>14</v>
       </c>
-      <c r="D512" t="s">
+      <c r="D512" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E512" s="4" t="s">
+      <c r="E512" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="G512" t="s">
+      <c r="F512" s="12"/>
+      <c r="G512" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="L512" s="3">
+      <c r="H512" s="13"/>
+      <c r="I512" s="11"/>
+      <c r="J512" s="13"/>
+      <c r="K512" s="11"/>
+      <c r="L512" s="13">
         <v>193</v>
       </c>
-      <c r="M512" s="1">
+      <c r="M512" s="14">
         <v>335000</v>
       </c>
-      <c r="Q512" s="3">
+      <c r="N512" s="13"/>
+      <c r="O512" s="11"/>
+      <c r="P512" s="11"/>
+      <c r="Q512" s="13">
         <v>193.1</v>
       </c>
-      <c r="R512" s="3">
+      <c r="R512" s="13">
         <v>6562</v>
       </c>
-      <c r="S512" s="3">
+      <c r="S512" s="13">
         <v>262</v>
       </c>
-      <c r="T512" s="3">
+      <c r="T512" s="13">
         <v>195.3</v>
       </c>
-      <c r="U512" s="3">
+      <c r="U512" s="13">
         <v>195.3</v>
       </c>
-      <c r="V512" s="3">
+      <c r="V512" s="13">
         <v>6605</v>
       </c>
-      <c r="W512" s="3">
+      <c r="W512" s="13">
         <v>267.60000000000002</v>
       </c>
-      <c r="X512" s="3">
+      <c r="X512" s="13">
         <v>3696</v>
       </c>
-      <c r="Z512" t="s">
+      <c r="Y512" s="11"/>
+      <c r="Z512" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="AA512" t="s">
+      <c r="AA512" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="AB512" t="s">
+      <c r="AB512" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AD512" s="4">
+      <c r="AC512" s="11"/>
+      <c r="AD512" s="10">
         <v>250</v>
       </c>
     </row>

--- a/devData/H77Dyno.xlsx
+++ b/devData/H77Dyno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\devData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C3D576-2AE9-4FF8-A32E-D1CBAA5471EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F62A46B-3E2C-40BF-AEB5-AE14E90B9021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H77Dyno" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="1071">
   <si>
     <t>Episode</t>
   </si>
@@ -3089,6 +3089,150 @@
   </si>
   <si>
     <t>129.7,5894,173.6,4118</t>
+  </si>
+  <si>
+    <t>198.9,4106,417.2,2732</t>
+  </si>
+  <si>
+    <t>141.2,6642,153.7,6342</t>
+  </si>
+  <si>
+    <t>199.3,6844,173.9,7611</t>
+  </si>
+  <si>
+    <t>121.6,6112,170.6,4285</t>
+  </si>
+  <si>
+    <t>124.6,6041,158.5,3470</t>
+  </si>
+  <si>
+    <t>79.4,5100,121.3,4012</t>
+  </si>
+  <si>
+    <t>152.5,3952,324.8,2672</t>
+  </si>
+  <si>
+    <t>75.4,6471,102.3,3908</t>
+  </si>
+  <si>
+    <t>107.2,5650,147.1,3736</t>
+  </si>
+  <si>
+    <t>108.5,5746,148.3,3810</t>
+  </si>
+  <si>
+    <t>309.1,5360,487.0,4061</t>
+  </si>
+  <si>
+    <t>168.1,3725,369.0,2941</t>
+  </si>
+  <si>
+    <t>141.4,5198,214.6,3910</t>
+  </si>
+  <si>
+    <t>145.2,5158,519.6,3838</t>
+  </si>
+  <si>
+    <t>178.3,4540,315.2,3784</t>
+  </si>
+  <si>
+    <t>92.1,3973,168.5,3702</t>
+  </si>
+  <si>
+    <t>94.0,4062,170.1,3731</t>
+  </si>
+  <si>
+    <t>185.9,5885,230.5,5266</t>
+  </si>
+  <si>
+    <t>189.3,5956,236.6,5217</t>
+  </si>
+  <si>
+    <t>149.0,5088,256.3,3222</t>
+  </si>
+  <si>
+    <t>123.0,5022,201.8,3539</t>
+  </si>
+  <si>
+    <t>121.3,4886,198.9,3255</t>
+  </si>
+  <si>
+    <t>139.3,5962,187.8,4474</t>
+  </si>
+  <si>
+    <t>140.8,5991,190.9,4443</t>
+  </si>
+  <si>
+    <t>64.3,4313,123.7,2182</t>
+  </si>
+  <si>
+    <t>185.0,6689,158.1,7544</t>
+  </si>
+  <si>
+    <t>184.2,8500,161.3,7376</t>
+  </si>
+  <si>
+    <t>193.1,6068,237.4,4703</t>
+  </si>
+  <si>
+    <t>193.4,7495,222.1,4933</t>
+  </si>
+  <si>
+    <t>191.2,7157,223.4,4886</t>
+  </si>
+  <si>
+    <t>161.4,6432,201.3,4502</t>
+  </si>
+  <si>
+    <t>84.9,5620,127.0,2176</t>
+  </si>
+  <si>
+    <t>80.9,5530,118.3,2458</t>
+  </si>
+  <si>
+    <t>151.9,4596,253.0,3321</t>
+  </si>
+  <si>
+    <t>119.0,5516,169.3,3794</t>
+  </si>
+  <si>
+    <t>117.8,5647,155.0,5079</t>
+  </si>
+  <si>
+    <t>141.4,6603,164.2,5340</t>
+  </si>
+  <si>
+    <t>201.8,5839,307.0,2772</t>
+  </si>
+  <si>
+    <t>227.5,5702,381.0,3108</t>
+  </si>
+  <si>
+    <t>173.9,5780,226.1,4666</t>
+  </si>
+  <si>
+    <t>174.6,5804,228.6,4669</t>
+  </si>
+  <si>
+    <t>184.4,6059,247.5,4445</t>
+  </si>
+  <si>
+    <t>205.8,6150,256.9,4021</t>
+  </si>
+  <si>
+    <t>212.3,6103,266.7,5039</t>
+  </si>
+  <si>
+    <t>238.9,5907,370.3,4512</t>
+  </si>
+  <si>
+    <t>249.1,4570,393.6,4433</t>
+  </si>
+  <si>
+    <t>104.7,5285,164.4,3305</t>
+  </si>
+  <si>
+    <t>106.5,5219,167.5,3223</t>
   </si>
 </sst>
 </file>
@@ -3413,7 +3557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3591,14 +3735,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3608,6 +3744,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3965,8 +4109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B451" workbookViewId="0">
+      <selection activeCell="U478" sqref="U478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19448,48 +19592,49 @@
       <c r="C462" s="4">
         <v>1</v>
       </c>
-      <c r="D462" t="s">
+      <c r="D462" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E462" s="4" t="s">
+      <c r="E462" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="F462" s="2" t="s">
+      <c r="F462" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="J462" s="3">
+      <c r="G462" s="11"/>
+      <c r="H462" s="14"/>
+      <c r="I462" s="11"/>
+      <c r="J462" s="14">
         <v>5</v>
       </c>
-      <c r="L462" s="3">
+      <c r="K462" s="11"/>
+      <c r="L462" s="14">
         <v>136</v>
       </c>
-      <c r="Q462" s="3">
-        <v>123</v>
-      </c>
-      <c r="R462" s="3">
-        <v>5022</v>
-      </c>
-      <c r="S462" s="3">
-        <v>201.8</v>
-      </c>
-      <c r="T462" s="3">
-        <v>3539</v>
-      </c>
-      <c r="U462" s="3">
-        <v>121.3</v>
-      </c>
-      <c r="V462" s="3">
-        <v>4886</v>
-      </c>
-      <c r="W462" s="3">
-        <v>198.9</v>
-      </c>
-      <c r="X462" s="3">
-        <v>3255</v>
-      </c>
-      <c r="Z462" t="s">
+      <c r="M462" s="11"/>
+      <c r="N462" s="14"/>
+      <c r="O462" s="11"/>
+      <c r="P462" s="11"/>
+      <c r="Q462" s="14" t="s">
+        <v>1043</v>
+      </c>
+      <c r="R462" s="14"/>
+      <c r="S462" s="14"/>
+      <c r="T462" s="14"/>
+      <c r="U462" s="14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="V462" s="14"/>
+      <c r="W462" s="14"/>
+      <c r="X462" s="14"/>
+      <c r="Y462" s="11"/>
+      <c r="Z462" s="11" t="s">
         <v>523</v>
       </c>
+      <c r="AA462" s="11"/>
+      <c r="AB462" s="11"/>
+      <c r="AC462" s="11"/>
+      <c r="AD462" s="12"/>
     </row>
     <row r="463" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C463" s="4">
@@ -19510,29 +19655,11 @@
       <c r="L463" s="3">
         <v>170</v>
       </c>
-      <c r="Q463" s="3">
-        <v>139.30000000000001</v>
-      </c>
-      <c r="R463" s="3">
-        <v>5962</v>
-      </c>
-      <c r="S463" s="3">
-        <v>187.8</v>
-      </c>
-      <c r="T463" s="3">
-        <v>4474</v>
-      </c>
-      <c r="U463" s="3">
-        <v>140.80000000000001</v>
-      </c>
-      <c r="V463" s="3">
-        <v>5991</v>
-      </c>
-      <c r="W463" s="3">
-        <v>190.9</v>
-      </c>
-      <c r="X463" s="3">
-        <v>4443</v>
+      <c r="Q463" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="U463" s="3" t="s">
+        <v>1046</v>
       </c>
       <c r="Z463" t="s">
         <v>195</v>
@@ -19554,17 +19681,8 @@
       <c r="L464" s="3">
         <v>70</v>
       </c>
-      <c r="U464" s="3">
-        <v>64.3</v>
-      </c>
-      <c r="V464" s="3">
-        <v>4313</v>
-      </c>
-      <c r="W464" s="3">
-        <v>123.7</v>
-      </c>
-      <c r="X464" s="3">
-        <v>2182</v>
+      <c r="U464" s="3" t="s">
+        <v>1047</v>
       </c>
       <c r="Z464" t="s">
         <v>568</v>
@@ -19589,17 +19707,8 @@
       <c r="L465" s="3">
         <v>170</v>
       </c>
-      <c r="U465" s="3">
-        <v>193.1</v>
-      </c>
-      <c r="V465" s="3">
-        <v>6068</v>
-      </c>
-      <c r="W465" s="3">
-        <v>237.4</v>
-      </c>
-      <c r="X465" s="3">
-        <v>4703</v>
+      <c r="U465" s="3" t="s">
+        <v>1050</v>
       </c>
       <c r="Z465" t="s">
         <v>721</v>
@@ -19633,29 +19742,11 @@
       <c r="L466" s="3">
         <v>190</v>
       </c>
-      <c r="Q466" s="3">
-        <v>185</v>
-      </c>
-      <c r="R466" s="3">
-        <v>6689</v>
-      </c>
-      <c r="S466" s="3">
-        <v>158.1</v>
-      </c>
-      <c r="T466" s="3">
-        <v>7544</v>
-      </c>
-      <c r="U466" s="3">
-        <v>184.2</v>
-      </c>
-      <c r="V466" s="3">
-        <v>8500</v>
-      </c>
-      <c r="W466" s="3">
-        <v>161.30000000000001</v>
-      </c>
-      <c r="X466" s="3">
-        <v>7376</v>
+      <c r="Q466" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="U466" s="3" t="s">
+        <v>1049</v>
       </c>
       <c r="Z466" t="s">
         <v>215</v>
@@ -19674,29 +19765,11 @@
       <c r="L467" s="3">
         <v>195</v>
       </c>
-      <c r="Q467" s="3">
-        <v>193.4</v>
-      </c>
-      <c r="R467" s="3">
-        <v>7495</v>
-      </c>
-      <c r="S467" s="3">
-        <v>222.1</v>
-      </c>
-      <c r="T467" s="3">
-        <v>4933</v>
-      </c>
-      <c r="U467" s="3">
-        <v>191.2</v>
-      </c>
-      <c r="V467" s="3">
-        <v>7157</v>
-      </c>
-      <c r="W467" s="3">
-        <v>223.4</v>
-      </c>
-      <c r="X467" s="3">
-        <v>4886</v>
+      <c r="Q467" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="U467" s="3" t="s">
+        <v>1052</v>
       </c>
       <c r="Z467" t="s">
         <v>725</v>
@@ -19730,17 +19803,8 @@
       <c r="L468" s="3">
         <v>156</v>
       </c>
-      <c r="Q468" s="3">
-        <v>161.4</v>
-      </c>
-      <c r="R468" s="3">
-        <v>6432</v>
-      </c>
-      <c r="S468" s="3">
-        <v>201.3</v>
-      </c>
-      <c r="T468" s="3">
-        <v>4502</v>
+      <c r="Q468" s="3" t="s">
+        <v>1053</v>
       </c>
       <c r="Z468" t="s">
         <v>728</v>
@@ -19777,29 +19841,11 @@
       <c r="M469" s="1">
         <v>850000</v>
       </c>
-      <c r="Q469" s="3">
-        <v>84.9</v>
-      </c>
-      <c r="R469" s="3">
-        <v>5620</v>
-      </c>
-      <c r="S469" s="3">
-        <v>127</v>
-      </c>
-      <c r="T469" s="3">
-        <v>2176</v>
-      </c>
-      <c r="U469" s="3">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="V469" s="3">
-        <v>553</v>
-      </c>
-      <c r="W469" s="3">
-        <v>118.3</v>
-      </c>
-      <c r="X469" s="3">
-        <v>2458</v>
+      <c r="Q469" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="U469" s="3" t="s">
+        <v>1055</v>
       </c>
       <c r="Z469" t="s">
         <v>731</v>
@@ -19833,17 +19879,8 @@
       <c r="L470" s="3">
         <v>180</v>
       </c>
-      <c r="U470" s="3">
-        <v>151.9</v>
-      </c>
-      <c r="V470" s="3">
-        <v>4596</v>
-      </c>
-      <c r="W470" s="3">
-        <v>253</v>
-      </c>
-      <c r="X470" s="3">
-        <v>3321</v>
+      <c r="U470" s="3" t="s">
+        <v>1056</v>
       </c>
       <c r="Z470" t="s">
         <v>737</v>
@@ -19874,29 +19911,11 @@
       <c r="L471" s="3">
         <v>125</v>
       </c>
-      <c r="Q471" s="3">
-        <v>119</v>
-      </c>
-      <c r="R471" s="3">
-        <v>5516</v>
-      </c>
-      <c r="S471" s="3">
-        <v>169.3</v>
-      </c>
-      <c r="T471" s="3">
-        <v>3794</v>
-      </c>
-      <c r="U471" s="3">
-        <v>117.8</v>
-      </c>
-      <c r="V471" s="3">
-        <v>5647</v>
-      </c>
-      <c r="W471" s="3">
-        <v>155</v>
-      </c>
-      <c r="X471" s="3">
-        <v>5079</v>
+      <c r="Q471" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="U471" s="3" t="s">
+        <v>1058</v>
       </c>
       <c r="Z471" t="s">
         <v>599</v>
@@ -19921,17 +19940,8 @@
       <c r="M472" s="1">
         <v>167000</v>
       </c>
-      <c r="U472" s="3">
-        <v>141.4</v>
-      </c>
-      <c r="V472" s="3">
-        <v>6603</v>
-      </c>
-      <c r="W472" s="3">
-        <v>164.2</v>
-      </c>
-      <c r="X472" s="3">
-        <v>5340</v>
+      <c r="U472" s="3" t="s">
+        <v>1059</v>
       </c>
       <c r="Z472" t="s">
         <v>740</v>
@@ -19965,29 +19975,11 @@
       <c r="L473" s="3">
         <v>250</v>
       </c>
-      <c r="Q473" s="3">
-        <v>201.8</v>
-      </c>
-      <c r="R473" s="3">
-        <v>5839</v>
-      </c>
-      <c r="S473" s="3">
-        <v>307</v>
-      </c>
-      <c r="T473" s="3">
-        <v>2772</v>
-      </c>
-      <c r="U473" s="3">
-        <v>227.5</v>
-      </c>
-      <c r="V473" s="3">
-        <v>5702</v>
-      </c>
-      <c r="W473" s="3">
-        <v>381</v>
-      </c>
-      <c r="X473" s="3">
-        <v>3108</v>
+      <c r="Q473" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="U473" s="3" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="474" spans="2:30" x14ac:dyDescent="0.25">
@@ -20012,29 +20004,11 @@
       <c r="L474" s="3">
         <v>170</v>
       </c>
-      <c r="Q474" s="3">
-        <v>173.9</v>
-      </c>
-      <c r="R474" s="3">
-        <v>5780</v>
-      </c>
-      <c r="S474" s="3">
-        <v>226.1</v>
-      </c>
-      <c r="T474" s="3">
-        <v>4666</v>
-      </c>
-      <c r="U474" s="3">
-        <v>174.6</v>
-      </c>
-      <c r="V474" s="3">
-        <v>5804</v>
-      </c>
-      <c r="W474" s="3">
-        <v>228.6</v>
-      </c>
-      <c r="X474" s="3">
-        <v>4669</v>
+      <c r="Q474" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="U474" s="3" t="s">
+        <v>1063</v>
       </c>
       <c r="Z474" t="s">
         <v>326</v>
@@ -20056,17 +20030,8 @@
       <c r="L475" s="3">
         <v>174</v>
       </c>
-      <c r="U475" s="3">
-        <v>184.4</v>
-      </c>
-      <c r="V475" s="3">
-        <v>6059</v>
-      </c>
-      <c r="W475" s="3">
-        <v>247.5</v>
-      </c>
-      <c r="X475" s="3">
-        <v>4445</v>
+      <c r="U475" s="3" t="s">
+        <v>1064</v>
       </c>
       <c r="Z475" t="s">
         <v>745</v>
@@ -20100,29 +20065,11 @@
       <c r="M476" t="s">
         <v>749</v>
       </c>
-      <c r="Q476" s="3">
-        <v>205.8</v>
-      </c>
-      <c r="R476" s="3">
-        <v>6150</v>
-      </c>
-      <c r="S476" s="3">
-        <v>256.89999999999998</v>
-      </c>
-      <c r="T476" s="3">
-        <v>4021</v>
-      </c>
-      <c r="U476" s="3">
-        <v>212.3</v>
-      </c>
-      <c r="V476" s="3">
-        <v>6103</v>
-      </c>
-      <c r="W476" s="3">
-        <v>266.7</v>
-      </c>
-      <c r="X476" s="3">
-        <v>5039</v>
+      <c r="Q476" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="U476" s="3" t="s">
+        <v>1066</v>
       </c>
       <c r="Z476" t="s">
         <v>47</v>
@@ -20147,29 +20094,11 @@
       <c r="L477" s="3">
         <v>240</v>
       </c>
-      <c r="Q477" s="3">
-        <v>238.9</v>
-      </c>
-      <c r="R477" s="3">
-        <v>5907</v>
-      </c>
-      <c r="S477" s="3">
-        <v>370.3</v>
-      </c>
-      <c r="T477" s="3">
-        <v>4512</v>
-      </c>
-      <c r="U477" s="3">
-        <v>249.1</v>
-      </c>
-      <c r="V477" s="3">
-        <v>4570</v>
-      </c>
-      <c r="W477" s="3">
-        <v>393.6</v>
-      </c>
-      <c r="X477" s="3">
-        <v>4433</v>
+      <c r="Q477" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="U477" s="3" t="s">
+        <v>1068</v>
       </c>
       <c r="Z477" t="s">
         <v>750</v>
@@ -20200,29 +20129,11 @@
       <c r="L478" s="3">
         <v>116</v>
       </c>
-      <c r="Q478" s="3">
-        <v>104.7</v>
-      </c>
-      <c r="R478" s="3">
-        <v>5285</v>
-      </c>
-      <c r="S478" s="3">
-        <v>164.4</v>
-      </c>
-      <c r="T478" s="3">
-        <v>3305</v>
-      </c>
-      <c r="U478" s="3">
-        <v>106.5</v>
-      </c>
-      <c r="V478" s="3">
-        <v>5219</v>
-      </c>
-      <c r="W478" s="3">
-        <v>167.5</v>
-      </c>
-      <c r="X478" s="3">
-        <v>3223</v>
+      <c r="Q478" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="U478" s="3" t="s">
+        <v>1070</v>
       </c>
       <c r="Z478" t="s">
         <v>753</v>
@@ -20273,18 +20184,12 @@
       <c r="R480" s="9"/>
       <c r="S480" s="9"/>
       <c r="T480" s="9"/>
-      <c r="U480" s="9">
-        <v>198.9</v>
-      </c>
-      <c r="V480" s="9">
-        <v>4106</v>
-      </c>
-      <c r="W480" s="9">
-        <v>417.2</v>
-      </c>
-      <c r="X480" s="9">
-        <v>2732</v>
-      </c>
+      <c r="U480" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="V480" s="9"/>
+      <c r="W480" s="9"/>
+      <c r="X480" s="9"/>
       <c r="Y480" s="7"/>
       <c r="Z480" s="7" t="s">
         <v>446</v>
@@ -20294,34 +20199,41 @@
       <c r="C481" s="4">
         <v>2</v>
       </c>
-      <c r="D481" t="s">
+      <c r="D481" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E481" s="4" t="s">
+      <c r="E481" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="F481" s="2" t="s">
+      <c r="F481" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G481" t="s">
+      <c r="G481" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="L481" s="3">
+      <c r="H481" s="9"/>
+      <c r="I481" s="7"/>
+      <c r="J481" s="9"/>
+      <c r="K481" s="7"/>
+      <c r="L481" s="9">
         <v>135</v>
       </c>
-      <c r="U481" s="3">
-        <v>141.19999999999999</v>
-      </c>
-      <c r="V481" s="3">
-        <v>6642</v>
-      </c>
-      <c r="W481" s="3">
-        <v>153.69999999999999</v>
-      </c>
-      <c r="X481" s="3">
-        <v>6342</v>
-      </c>
-      <c r="Z481" t="s">
+      <c r="M481" s="7"/>
+      <c r="N481" s="9"/>
+      <c r="O481" s="7"/>
+      <c r="P481" s="7"/>
+      <c r="Q481" s="9"/>
+      <c r="R481" s="9"/>
+      <c r="S481" s="9"/>
+      <c r="T481" s="9"/>
+      <c r="U481" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="V481" s="9"/>
+      <c r="W481" s="9"/>
+      <c r="X481" s="9"/>
+      <c r="Y481" s="7"/>
+      <c r="Z481" s="7" t="s">
         <v>552</v>
       </c>
     </row>
@@ -20329,40 +20241,45 @@
       <c r="C482" s="4">
         <v>3</v>
       </c>
-      <c r="D482" t="s">
+      <c r="D482" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E482" s="4" t="s">
+      <c r="E482" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="F482" s="2" t="s">
+      <c r="F482" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="G482" t="s">
+      <c r="G482" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="L482" s="3">
+      <c r="H482" s="9"/>
+      <c r="I482" s="7"/>
+      <c r="J482" s="9"/>
+      <c r="K482" s="7"/>
+      <c r="L482" s="9">
         <v>231</v>
       </c>
-      <c r="M482" s="1">
+      <c r="M482" s="10">
         <v>157115</v>
       </c>
-      <c r="N482" s="3">
+      <c r="N482" s="9">
         <v>2004</v>
       </c>
-      <c r="U482" s="3">
-        <v>199.3</v>
-      </c>
-      <c r="V482" s="3">
-        <v>6844</v>
-      </c>
-      <c r="W482" s="3">
-        <v>173.9</v>
-      </c>
-      <c r="X482" s="3">
-        <v>7611</v>
-      </c>
-      <c r="Z482" t="s">
+      <c r="O482" s="7"/>
+      <c r="P482" s="7"/>
+      <c r="Q482" s="9"/>
+      <c r="R482" s="9"/>
+      <c r="S482" s="9"/>
+      <c r="T482" s="9"/>
+      <c r="U482" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="V482" s="9"/>
+      <c r="W482" s="9"/>
+      <c r="X482" s="9"/>
+      <c r="Y482" s="7"/>
+      <c r="Z482" s="7" t="s">
         <v>432</v>
       </c>
     </row>
@@ -20370,75 +20287,92 @@
       <c r="C483" s="4">
         <v>4</v>
       </c>
-      <c r="D483" t="s">
+      <c r="D483" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E483" s="4" t="s">
+      <c r="E483" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="F483" s="2" t="s">
+      <c r="F483" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="L483" s="3">
+      <c r="G483" s="7"/>
+      <c r="H483" s="9"/>
+      <c r="I483" s="7"/>
+      <c r="J483" s="9"/>
+      <c r="K483" s="7"/>
+      <c r="L483" s="9">
         <v>115</v>
       </c>
-      <c r="M483" s="1">
+      <c r="M483" s="10">
         <v>396000</v>
       </c>
-      <c r="U483" s="3">
-        <v>121.6</v>
-      </c>
-      <c r="V483" s="3">
-        <v>6112</v>
-      </c>
-      <c r="W483" s="3">
-        <v>170.6</v>
-      </c>
-      <c r="X483" s="3">
-        <v>4285</v>
-      </c>
-      <c r="Z483" t="s">
+      <c r="N483" s="9"/>
+      <c r="O483" s="7"/>
+      <c r="P483" s="7"/>
+      <c r="Q483" s="9"/>
+      <c r="R483" s="9"/>
+      <c r="S483" s="9"/>
+      <c r="T483" s="9"/>
+      <c r="U483" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="V483" s="9"/>
+      <c r="W483" s="9"/>
+      <c r="X483" s="9"/>
+      <c r="Y483" s="7"/>
+      <c r="Z483" s="7" t="s">
         <v>251</v>
       </c>
+      <c r="AA483" s="7"/>
     </row>
     <row r="484" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C484" s="4">
         <v>5</v>
       </c>
-      <c r="D484" t="s">
+      <c r="D484" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E484" s="4" t="s">
+      <c r="E484" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="F484" s="2" t="s">
+      <c r="F484" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="L484" s="3">
+      <c r="G484" s="7"/>
+      <c r="H484" s="9"/>
+      <c r="I484" s="7"/>
+      <c r="J484" s="9"/>
+      <c r="K484" s="7"/>
+      <c r="L484" s="9">
         <v>125</v>
       </c>
-      <c r="U484" s="3">
-        <v>124.6</v>
-      </c>
-      <c r="V484" s="3">
-        <v>6041</v>
-      </c>
-      <c r="W484" s="3">
-        <v>158.5</v>
-      </c>
-      <c r="X484" s="3">
-        <v>3470</v>
-      </c>
-      <c r="Z484" t="s">
+      <c r="M484" s="7"/>
+      <c r="N484" s="9"/>
+      <c r="O484" s="7"/>
+      <c r="P484" s="7"/>
+      <c r="Q484" s="9"/>
+      <c r="R484" s="9"/>
+      <c r="S484" s="9"/>
+      <c r="T484" s="9"/>
+      <c r="U484" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="V484" s="9"/>
+      <c r="W484" s="9"/>
+      <c r="X484" s="9"/>
+      <c r="Y484" s="7"/>
+      <c r="Z484" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="AA484" t="s">
+      <c r="AA484" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="AB484" t="s">
+      <c r="AB484" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="AD484" s="4">
+      <c r="AC484" s="7"/>
+      <c r="AD484" s="6">
         <v>380</v>
       </c>
     </row>
@@ -20446,186 +20380,210 @@
       <c r="C485" s="4">
         <v>6</v>
       </c>
-      <c r="D485" t="s">
+      <c r="D485" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E485" s="4" t="s">
+      <c r="E485" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="F485" s="2" t="s">
+      <c r="F485" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="L485" s="3">
+      <c r="G485" s="7"/>
+      <c r="H485" s="9"/>
+      <c r="I485" s="7"/>
+      <c r="J485" s="9"/>
+      <c r="K485" s="7"/>
+      <c r="L485" s="9">
         <v>75</v>
       </c>
-      <c r="M485" s="1">
+      <c r="M485" s="10">
         <v>464568</v>
       </c>
-      <c r="U485" s="3">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="V485" s="3">
-        <v>5100</v>
-      </c>
-      <c r="W485" s="3">
-        <v>121.3</v>
-      </c>
-      <c r="X485" s="3">
-        <v>4012</v>
-      </c>
-      <c r="Z485" t="s">
+      <c r="N485" s="9"/>
+      <c r="O485" s="7"/>
+      <c r="P485" s="7"/>
+      <c r="Q485" s="9"/>
+      <c r="R485" s="9"/>
+      <c r="S485" s="9"/>
+      <c r="T485" s="9"/>
+      <c r="U485" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="V485" s="9"/>
+      <c r="W485" s="9"/>
+      <c r="X485" s="9"/>
+      <c r="Y485" s="7"/>
+      <c r="Z485" s="7" t="s">
         <v>599</v>
       </c>
+      <c r="AA485" s="7"/>
+      <c r="AB485" s="7"/>
+      <c r="AC485" s="7"/>
     </row>
     <row r="486" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C486" s="4">
         <v>7</v>
       </c>
-      <c r="D486" t="s">
+      <c r="D486" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E486" s="4" t="s">
+      <c r="E486" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="L486" s="3">
+      <c r="F486" s="8"/>
+      <c r="G486" s="7"/>
+      <c r="H486" s="9"/>
+      <c r="I486" s="7"/>
+      <c r="J486" s="9"/>
+      <c r="K486" s="7"/>
+      <c r="L486" s="9">
         <v>90</v>
       </c>
-      <c r="Q486" s="3">
-        <v>107.2</v>
-      </c>
-      <c r="R486" s="3">
-        <v>5650</v>
-      </c>
-      <c r="S486" s="3">
-        <v>147.1</v>
-      </c>
-      <c r="T486" s="3">
-        <v>3736</v>
-      </c>
-      <c r="U486" s="3">
-        <v>108.5</v>
-      </c>
-      <c r="V486" s="3">
-        <v>5746</v>
-      </c>
-      <c r="W486" s="3">
-        <v>148.30000000000001</v>
-      </c>
-      <c r="X486" s="3">
-        <v>3810</v>
-      </c>
-      <c r="Z486" t="s">
+      <c r="M486" s="7"/>
+      <c r="N486" s="9"/>
+      <c r="O486" s="7"/>
+      <c r="P486" s="7"/>
+      <c r="Q486" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="R486" s="9"/>
+      <c r="S486" s="9"/>
+      <c r="T486" s="9"/>
+      <c r="U486" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="V486" s="9"/>
+      <c r="W486" s="9"/>
+      <c r="X486" s="9"/>
+      <c r="Y486" s="7"/>
+      <c r="Z486" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="AA486" s="7"/>
     </row>
     <row r="487" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C487" s="4">
         <v>8</v>
       </c>
-      <c r="D487" t="s">
+      <c r="D487" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E487" s="4" t="s">
+      <c r="E487" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="F487" s="2" t="s">
+      <c r="F487" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="L487" s="3">
+      <c r="G487" s="7"/>
+      <c r="H487" s="9"/>
+      <c r="I487" s="7"/>
+      <c r="J487" s="9"/>
+      <c r="K487" s="7"/>
+      <c r="L487" s="9">
         <v>285</v>
       </c>
-      <c r="U487" s="3">
-        <v>309.10000000000002</v>
-      </c>
-      <c r="V487" s="3">
-        <v>5360</v>
-      </c>
-      <c r="W487" s="3">
-        <v>487</v>
-      </c>
-      <c r="X487" s="3">
-        <v>4061</v>
-      </c>
+      <c r="M487" s="7"/>
+      <c r="N487" s="9"/>
+      <c r="O487" s="7"/>
+      <c r="P487" s="7"/>
+      <c r="Q487" s="9"/>
+      <c r="R487" s="9"/>
+      <c r="S487" s="9"/>
+      <c r="T487" s="9"/>
+      <c r="U487" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="V487" s="9"/>
+      <c r="W487" s="9"/>
+      <c r="X487" s="9"/>
+      <c r="Y487" s="7"/>
     </row>
     <row r="488" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C488" s="4">
         <v>9</v>
       </c>
-      <c r="D488" t="s">
+      <c r="D488" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E488" s="4" t="s">
+      <c r="E488" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="F488" s="2" t="s">
+      <c r="F488" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="H488" s="3" t="s">
+      <c r="G488" s="7"/>
+      <c r="H488" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L488" s="3">
+      <c r="I488" s="7"/>
+      <c r="J488" s="9"/>
+      <c r="K488" s="7"/>
+      <c r="L488" s="9">
         <v>116</v>
       </c>
-      <c r="U488" s="3">
-        <v>168.1</v>
-      </c>
-      <c r="V488" s="3">
-        <v>3725</v>
-      </c>
-      <c r="W488" s="3">
-        <v>369</v>
-      </c>
-      <c r="X488" s="3">
-        <v>2941</v>
-      </c>
+      <c r="M488" s="7"/>
+      <c r="N488" s="9"/>
+      <c r="O488" s="7"/>
+      <c r="P488" s="7"/>
+      <c r="Q488" s="9"/>
+      <c r="R488" s="9"/>
+      <c r="S488" s="9"/>
+      <c r="T488" s="9"/>
+      <c r="U488" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="V488" s="9"/>
+      <c r="W488" s="9"/>
+      <c r="X488" s="9"/>
+      <c r="Y488" s="7"/>
+      <c r="Z488" s="7"/>
+      <c r="AA488" s="7"/>
     </row>
     <row r="489" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C489" s="4">
         <v>10</v>
       </c>
-      <c r="D489" t="s">
+      <c r="D489" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E489" s="4" t="s">
+      <c r="E489" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="F489" s="2" t="s">
+      <c r="F489" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G489" t="s">
+      <c r="G489" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="L489" s="3">
+      <c r="H489" s="9"/>
+      <c r="I489" s="7"/>
+      <c r="J489" s="9"/>
+      <c r="K489" s="7"/>
+      <c r="L489" s="9">
         <v>150</v>
       </c>
-      <c r="Q489" s="3">
-        <v>141.4</v>
-      </c>
-      <c r="R489" s="3">
-        <v>5198</v>
-      </c>
-      <c r="S489" s="3">
-        <v>214.6</v>
-      </c>
-      <c r="T489" s="3">
-        <v>3910</v>
-      </c>
-      <c r="U489" s="3">
-        <v>145.19999999999999</v>
-      </c>
-      <c r="V489" s="3">
-        <v>5158</v>
-      </c>
-      <c r="W489" s="3">
-        <v>219.6</v>
-      </c>
-      <c r="X489" s="3">
-        <v>3838</v>
-      </c>
-      <c r="Z489" t="s">
+      <c r="M489" s="7"/>
+      <c r="N489" s="9"/>
+      <c r="O489" s="7"/>
+      <c r="P489" s="7"/>
+      <c r="Q489" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="R489" s="9"/>
+      <c r="S489" s="9"/>
+      <c r="T489" s="9"/>
+      <c r="U489" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="V489" s="9"/>
+      <c r="W489" s="9"/>
+      <c r="X489" s="9"/>
+      <c r="Y489" s="7"/>
+      <c r="Z489" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="AA489" t="s">
+      <c r="AA489" s="7" t="s">
         <v>708</v>
       </c>
       <c r="AB489" t="s">
@@ -20639,84 +20597,92 @@
       <c r="C490" s="4">
         <v>11</v>
       </c>
-      <c r="D490" t="s">
+      <c r="D490" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E490" s="4" t="s">
+      <c r="E490" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="L490" s="3">
+      <c r="F490" s="8"/>
+      <c r="G490" s="7"/>
+      <c r="H490" s="9"/>
+      <c r="I490" s="7"/>
+      <c r="J490" s="9"/>
+      <c r="K490" s="7"/>
+      <c r="L490" s="9">
         <v>150</v>
       </c>
-      <c r="M490" s="1">
+      <c r="M490" s="10">
         <v>250000</v>
       </c>
-      <c r="U490" s="3">
-        <v>152.5</v>
-      </c>
-      <c r="V490" s="3">
-        <v>3952</v>
-      </c>
-      <c r="W490" s="3">
-        <v>324.8</v>
-      </c>
-      <c r="X490" s="3">
-        <v>2672</v>
-      </c>
-      <c r="Z490" t="s">
+      <c r="N490" s="9"/>
+      <c r="O490" s="7"/>
+      <c r="P490" s="7"/>
+      <c r="Q490" s="9"/>
+      <c r="R490" s="9"/>
+      <c r="S490" s="9"/>
+      <c r="T490" s="9"/>
+      <c r="U490" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="V490" s="9"/>
+      <c r="W490" s="9"/>
+      <c r="X490" s="9"/>
+      <c r="Y490" s="7"/>
+      <c r="Z490" s="7" t="s">
         <v>99</v>
       </c>
+      <c r="AA490" s="7"/>
     </row>
     <row r="491" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C491" s="4">
         <v>12</v>
       </c>
-      <c r="D491" t="s">
+      <c r="D491" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E491" s="4" t="s">
+      <c r="E491" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="G491" t="s">
+      <c r="F491" s="8"/>
+      <c r="G491" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="L491" s="3">
+      <c r="H491" s="9"/>
+      <c r="I491" s="7"/>
+      <c r="J491" s="9"/>
+      <c r="K491" s="7"/>
+      <c r="L491" s="9">
         <v>147</v>
       </c>
-      <c r="Q491" s="3">
-        <v>178.3</v>
-      </c>
-      <c r="R491" s="3">
-        <v>4540</v>
-      </c>
-      <c r="S491" s="3">
-        <v>315.2</v>
-      </c>
-      <c r="T491" s="3">
-        <v>3784</v>
-      </c>
-      <c r="U491" s="3">
-        <v>149</v>
-      </c>
-      <c r="V491" s="3">
-        <v>5088</v>
-      </c>
-      <c r="W491" s="3">
-        <v>256.3</v>
-      </c>
-      <c r="X491" s="3">
-        <v>3222</v>
-      </c>
-      <c r="Z491" t="s">
+      <c r="M491" s="7"/>
+      <c r="N491" s="9"/>
+      <c r="O491" s="7"/>
+      <c r="P491" s="7"/>
+      <c r="Q491" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="R491" s="9"/>
+      <c r="S491" s="9"/>
+      <c r="T491" s="9"/>
+      <c r="U491" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="V491" s="9"/>
+      <c r="W491" s="9"/>
+      <c r="X491" s="9"/>
+      <c r="Y491" s="7"/>
+      <c r="Z491" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="AA491" t="s">
+      <c r="AA491" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="AB491" t="s">
+      <c r="AB491" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="AD491" s="4">
+      <c r="AC491" s="7"/>
+      <c r="AD491" s="6">
         <v>500</v>
       </c>
     </row>
@@ -20724,77 +20690,88 @@
       <c r="C492" s="4">
         <v>13</v>
       </c>
-      <c r="D492" t="s">
+      <c r="D492" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E492" s="4" t="s">
+      <c r="E492" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="F492" s="2" t="s">
+      <c r="F492" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="L492" s="3">
+      <c r="G492" s="7"/>
+      <c r="H492" s="9"/>
+      <c r="I492" s="7"/>
+      <c r="J492" s="9"/>
+      <c r="K492" s="7"/>
+      <c r="L492" s="9">
         <v>55</v>
       </c>
-      <c r="U492" s="3">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="V492" s="3">
-        <v>6471</v>
-      </c>
-      <c r="W492" s="3">
-        <v>102.3</v>
-      </c>
-      <c r="X492" s="3">
-        <v>3908</v>
-      </c>
+      <c r="M492" s="7"/>
+      <c r="N492" s="9"/>
+      <c r="O492" s="7"/>
+      <c r="P492" s="7"/>
+      <c r="Q492" s="9"/>
+      <c r="R492" s="9"/>
+      <c r="S492" s="9"/>
+      <c r="T492" s="9"/>
+      <c r="U492" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="V492" s="9"/>
+      <c r="W492" s="9"/>
+      <c r="X492" s="9"/>
+      <c r="Y492" s="7"/>
+      <c r="Z492" s="7"/>
+      <c r="AA492" s="7"/>
+      <c r="AB492" s="7"/>
+      <c r="AC492" s="7"/>
+      <c r="AD492" s="6"/>
     </row>
     <row r="493" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C493" s="4">
         <v>14</v>
       </c>
-      <c r="D493" t="s">
+      <c r="D493" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E493" s="4" t="s">
+      <c r="E493" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="F493" s="2" t="s">
+      <c r="F493" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="J493" s="3">
+      <c r="G493" s="7"/>
+      <c r="H493" s="9"/>
+      <c r="I493" s="7"/>
+      <c r="J493" s="9">
         <v>5</v>
       </c>
-      <c r="L493" s="3">
+      <c r="K493" s="7"/>
+      <c r="L493" s="9">
         <v>133</v>
       </c>
-      <c r="Q493" s="3">
-        <v>92.1</v>
-      </c>
-      <c r="R493" s="3">
-        <v>3973</v>
-      </c>
-      <c r="S493" s="3">
-        <v>168.5</v>
-      </c>
-      <c r="T493" s="3">
-        <v>3702</v>
-      </c>
-      <c r="U493" s="3">
-        <v>94</v>
-      </c>
-      <c r="V493" s="3">
-        <v>4062</v>
-      </c>
-      <c r="W493" s="3">
-        <v>170.1</v>
-      </c>
-      <c r="X493" s="3">
-        <v>3731</v>
-      </c>
-      <c r="Z493" t="s">
+      <c r="M493" s="7"/>
+      <c r="N493" s="9"/>
+      <c r="O493" s="7"/>
+      <c r="P493" s="7"/>
+      <c r="Q493" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="R493" s="9"/>
+      <c r="S493" s="9"/>
+      <c r="T493" s="9"/>
+      <c r="U493" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="V493" s="9"/>
+      <c r="W493" s="9"/>
+      <c r="X493" s="9"/>
+      <c r="Y493" s="7"/>
+      <c r="Z493" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="AA493" s="7"/>
     </row>
     <row r="494" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C494" s="4">
@@ -20812,29 +20789,11 @@
       <c r="L494" s="3">
         <v>220</v>
       </c>
-      <c r="Q494" s="3">
-        <v>185.9</v>
-      </c>
-      <c r="R494" s="3">
-        <v>5885</v>
-      </c>
-      <c r="S494" s="3">
-        <v>230.5</v>
-      </c>
-      <c r="T494" s="3">
-        <v>5266</v>
-      </c>
-      <c r="U494" s="3">
-        <v>189.3</v>
-      </c>
-      <c r="V494" s="3">
-        <v>5956</v>
-      </c>
-      <c r="W494" s="3">
-        <v>236.6</v>
-      </c>
-      <c r="X494" s="3">
-        <v>5217</v>
+      <c r="Q494" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="U494" s="3" t="s">
+        <v>1041</v>
       </c>
       <c r="Z494" t="s">
         <v>47</v>
@@ -20849,105 +20808,105 @@
       <c r="C496" s="4">
         <v>1</v>
       </c>
-      <c r="D496" s="11" t="s">
+      <c r="D496" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="E496" s="10" t="s">
+      <c r="E496" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="F496" s="12" t="s">
+      <c r="F496" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G496" s="11" t="s">
+      <c r="G496" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="H496" s="13"/>
-      <c r="I496" s="11"/>
-      <c r="J496" s="13"/>
-      <c r="K496" s="11"/>
-      <c r="L496" s="13">
+      <c r="H496" s="9"/>
+      <c r="I496" s="7"/>
+      <c r="J496" s="9"/>
+      <c r="K496" s="7"/>
+      <c r="L496" s="9">
         <v>200</v>
       </c>
-      <c r="M496" s="11"/>
-      <c r="N496" s="13"/>
-      <c r="O496" s="11"/>
-      <c r="P496" s="11"/>
-      <c r="Q496" s="13"/>
-      <c r="R496" s="13"/>
-      <c r="S496" s="13"/>
-      <c r="T496" s="13"/>
-      <c r="U496" s="13">
+      <c r="M496" s="7"/>
+      <c r="N496" s="9"/>
+      <c r="O496" s="7"/>
+      <c r="P496" s="7"/>
+      <c r="Q496" s="9"/>
+      <c r="R496" s="9"/>
+      <c r="S496" s="9"/>
+      <c r="T496" s="9"/>
+      <c r="U496" s="9">
         <v>191.2</v>
       </c>
-      <c r="V496" s="13">
+      <c r="V496" s="9">
         <v>8095</v>
       </c>
-      <c r="W496" s="13">
+      <c r="W496" s="9">
         <v>184</v>
       </c>
-      <c r="X496" s="13">
+      <c r="X496" s="9">
         <v>6394</v>
       </c>
-      <c r="Y496" s="11"/>
-      <c r="Z496" s="11" t="s">
+      <c r="Y496" s="7"/>
+      <c r="Z496" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="AA496" s="11"/>
+      <c r="AA496" s="7"/>
     </row>
     <row r="497" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C497" s="4">
         <v>2</v>
       </c>
-      <c r="D497" s="11" t="s">
+      <c r="D497" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E497" s="10" t="s">
+      <c r="E497" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="F497" s="12" t="s">
+      <c r="F497" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G497" s="11"/>
-      <c r="H497" s="13"/>
-      <c r="I497" s="11"/>
-      <c r="J497" s="13"/>
-      <c r="K497" s="11"/>
-      <c r="L497" s="13">
+      <c r="G497" s="7"/>
+      <c r="H497" s="9"/>
+      <c r="I497" s="7"/>
+      <c r="J497" s="9"/>
+      <c r="K497" s="7"/>
+      <c r="L497" s="9">
         <v>95</v>
       </c>
-      <c r="M497" s="11"/>
-      <c r="N497" s="13"/>
-      <c r="O497" s="11"/>
-      <c r="P497" s="11"/>
-      <c r="Q497" s="13">
+      <c r="M497" s="7"/>
+      <c r="N497" s="9"/>
+      <c r="O497" s="7"/>
+      <c r="P497" s="7"/>
+      <c r="Q497" s="9">
         <v>77.400000000000006</v>
       </c>
-      <c r="R497" s="13">
+      <c r="R497" s="9">
         <v>6130</v>
       </c>
-      <c r="S497" s="13">
+      <c r="S497" s="9">
         <v>89.8</v>
       </c>
-      <c r="T497" s="13">
+      <c r="T497" s="9">
         <v>6020</v>
       </c>
-      <c r="U497" s="13">
+      <c r="U497" s="9">
         <v>78.7</v>
       </c>
-      <c r="V497" s="13">
+      <c r="V497" s="9">
         <v>6094</v>
       </c>
-      <c r="W497" s="13">
+      <c r="W497" s="9">
         <v>91.7</v>
       </c>
-      <c r="X497" s="13">
+      <c r="X497" s="9">
         <v>5966</v>
       </c>
-      <c r="Y497" s="11"/>
-      <c r="Z497" s="11" t="s">
+      <c r="Y497" s="7"/>
+      <c r="Z497" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="AA497" s="11" t="s">
+      <c r="AA497" s="7" t="s">
         <v>680</v>
       </c>
       <c r="AB497" t="s">
@@ -20961,69 +20920,69 @@
       <c r="C498" s="4">
         <v>3</v>
       </c>
-      <c r="D498" s="11" t="s">
+      <c r="D498" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E498" s="10" t="s">
+      <c r="E498" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="F498" s="12" t="s">
+      <c r="F498" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="G498" s="11" t="s">
+      <c r="G498" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="H498" s="13"/>
-      <c r="I498" s="11"/>
-      <c r="J498" s="13">
+      <c r="H498" s="9"/>
+      <c r="I498" s="7"/>
+      <c r="J498" s="9">
         <v>6</v>
       </c>
-      <c r="K498" s="11"/>
-      <c r="L498" s="13">
+      <c r="K498" s="7"/>
+      <c r="L498" s="9">
         <v>231</v>
       </c>
-      <c r="M498" s="14">
+      <c r="M498" s="10">
         <v>377473</v>
       </c>
-      <c r="N498" s="13"/>
-      <c r="O498" s="11"/>
-      <c r="P498" s="11"/>
-      <c r="Q498" s="13">
+      <c r="N498" s="9"/>
+      <c r="O498" s="7"/>
+      <c r="P498" s="7"/>
+      <c r="Q498" s="9">
         <v>199.6</v>
       </c>
-      <c r="R498" s="13">
+      <c r="R498" s="9">
         <v>6123</v>
       </c>
-      <c r="S498" s="13">
+      <c r="S498" s="9">
         <v>268.2</v>
       </c>
-      <c r="T498" s="13">
+      <c r="T498" s="9">
         <v>3625</v>
       </c>
-      <c r="U498" s="13">
+      <c r="U498" s="9">
         <v>202.2</v>
       </c>
-      <c r="V498" s="13">
+      <c r="V498" s="9">
         <v>6211</v>
       </c>
-      <c r="W498" s="13">
+      <c r="W498" s="9">
         <v>269.60000000000002</v>
       </c>
-      <c r="X498" s="13">
+      <c r="X498" s="9">
         <v>3618</v>
       </c>
-      <c r="Y498" s="11"/>
-      <c r="Z498" s="11" t="s">
+      <c r="Y498" s="7"/>
+      <c r="Z498" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="AA498" s="11" t="s">
+      <c r="AA498" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="AB498" s="11" t="s">
+      <c r="AB498" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AC498" s="11"/>
-      <c r="AD498" s="10">
+      <c r="AC498" s="7"/>
+      <c r="AD498" s="6">
         <v>252</v>
       </c>
     </row>
@@ -21031,104 +20990,104 @@
       <c r="C499" s="4">
         <v>4</v>
       </c>
-      <c r="D499" s="11" t="s">
+      <c r="D499" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E499" s="10" t="s">
+      <c r="E499" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="F499" s="12" t="s">
+      <c r="F499" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G499" s="11" t="s">
+      <c r="G499" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="H499" s="13"/>
-      <c r="I499" s="11"/>
-      <c r="J499" s="13"/>
-      <c r="K499" s="11"/>
-      <c r="L499" s="13">
+      <c r="H499" s="9"/>
+      <c r="I499" s="7"/>
+      <c r="J499" s="9"/>
+      <c r="K499" s="7"/>
+      <c r="L499" s="9">
         <v>240</v>
       </c>
-      <c r="M499" s="11"/>
-      <c r="N499" s="13"/>
-      <c r="O499" s="11"/>
-      <c r="P499" s="11"/>
-      <c r="Q499" s="13"/>
-      <c r="R499" s="13"/>
-      <c r="S499" s="13"/>
-      <c r="T499" s="13"/>
-      <c r="U499" s="13">
+      <c r="M499" s="7"/>
+      <c r="N499" s="9"/>
+      <c r="O499" s="7"/>
+      <c r="P499" s="7"/>
+      <c r="Q499" s="9"/>
+      <c r="R499" s="9"/>
+      <c r="S499" s="9"/>
+      <c r="T499" s="9"/>
+      <c r="U499" s="9">
         <v>261.8</v>
       </c>
-      <c r="V499" s="13">
+      <c r="V499" s="9">
         <v>5721</v>
       </c>
-      <c r="W499" s="13">
+      <c r="W499" s="9">
         <v>406.3</v>
       </c>
-      <c r="X499" s="13">
+      <c r="X499" s="9">
         <v>4044</v>
       </c>
-      <c r="Y499" s="11"/>
-      <c r="Z499" s="11"/>
-      <c r="AA499" s="11"/>
+      <c r="Y499" s="7"/>
+      <c r="Z499" s="7"/>
+      <c r="AA499" s="7"/>
     </row>
     <row r="500" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C500" s="4">
         <v>5</v>
       </c>
-      <c r="D500" s="11" t="s">
+      <c r="D500" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E500" s="10"/>
-      <c r="F500" s="12" t="s">
+      <c r="E500" s="6"/>
+      <c r="F500" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G500" s="11" t="s">
+      <c r="G500" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="H500" s="13"/>
-      <c r="I500" s="11"/>
-      <c r="J500" s="13"/>
-      <c r="K500" s="11" t="s">
+      <c r="H500" s="9"/>
+      <c r="I500" s="7"/>
+      <c r="J500" s="9"/>
+      <c r="K500" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L500" s="13">
+      <c r="L500" s="9">
         <v>113</v>
       </c>
-      <c r="M500" s="14">
+      <c r="M500" s="10">
         <v>137872</v>
       </c>
-      <c r="N500" s="13"/>
-      <c r="O500" s="11"/>
-      <c r="P500" s="11"/>
-      <c r="Q500" s="13">
+      <c r="N500" s="9"/>
+      <c r="O500" s="7"/>
+      <c r="P500" s="7"/>
+      <c r="Q500" s="9">
         <v>97</v>
       </c>
-      <c r="R500" s="13">
+      <c r="R500" s="9">
         <v>5372</v>
       </c>
-      <c r="S500" s="13">
+      <c r="S500" s="9">
         <v>168.8</v>
       </c>
-      <c r="T500" s="13">
+      <c r="T500" s="9">
         <v>3490</v>
       </c>
-      <c r="U500" s="13">
+      <c r="U500" s="9">
         <v>97.3</v>
       </c>
-      <c r="V500" s="13">
+      <c r="V500" s="9">
         <v>5749</v>
       </c>
-      <c r="W500" s="13">
+      <c r="W500" s="9">
         <v>147.9</v>
       </c>
-      <c r="X500" s="13">
+      <c r="X500" s="9">
         <v>3325</v>
       </c>
-      <c r="Y500" s="11"/>
-      <c r="Z500" s="11" t="s">
+      <c r="Y500" s="7"/>
+      <c r="Z500" s="7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -21136,51 +21095,51 @@
       <c r="C501" s="4">
         <v>6</v>
       </c>
-      <c r="D501" s="11" t="s">
+      <c r="D501" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E501" s="10" t="s">
+      <c r="E501" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="F501" s="12" t="s">
+      <c r="F501" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G501" s="11"/>
-      <c r="H501" s="13"/>
-      <c r="I501" s="11"/>
-      <c r="J501" s="13">
+      <c r="G501" s="7"/>
+      <c r="H501" s="9"/>
+      <c r="I501" s="7"/>
+      <c r="J501" s="9">
         <v>6</v>
       </c>
-      <c r="K501" s="11"/>
-      <c r="L501" s="13">
+      <c r="K501" s="7"/>
+      <c r="L501" s="9">
         <v>174</v>
       </c>
-      <c r="M501" s="14">
+      <c r="M501" s="10">
         <v>320000</v>
       </c>
-      <c r="N501" s="13">
+      <c r="N501" s="9">
         <v>1983</v>
       </c>
-      <c r="O501" s="11"/>
-      <c r="P501" s="11"/>
-      <c r="Q501" s="13"/>
-      <c r="R501" s="13"/>
-      <c r="S501" s="13"/>
-      <c r="T501" s="13"/>
-      <c r="U501" s="13">
+      <c r="O501" s="7"/>
+      <c r="P501" s="7"/>
+      <c r="Q501" s="9"/>
+      <c r="R501" s="9"/>
+      <c r="S501" s="9"/>
+      <c r="T501" s="9"/>
+      <c r="U501" s="9">
         <v>186.8</v>
       </c>
-      <c r="V501" s="13">
+      <c r="V501" s="9">
         <v>5977</v>
       </c>
-      <c r="W501" s="13">
+      <c r="W501" s="9">
         <v>237.9</v>
       </c>
-      <c r="X501" s="13">
+      <c r="X501" s="9">
         <v>4499</v>
       </c>
-      <c r="Y501" s="11"/>
-      <c r="Z501" s="11" t="s">
+      <c r="Y501" s="7"/>
+      <c r="Z501" s="7" t="s">
         <v>195</v>
       </c>
     </row>
@@ -21188,109 +21147,109 @@
       <c r="C502" s="4">
         <v>7</v>
       </c>
-      <c r="D502" s="11" t="s">
+      <c r="D502" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E502" s="10" t="s">
+      <c r="E502" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="F502" s="12" t="s">
+      <c r="F502" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G502" s="11"/>
-      <c r="H502" s="13"/>
-      <c r="I502" s="11"/>
-      <c r="J502" s="13">
+      <c r="G502" s="7"/>
+      <c r="H502" s="9"/>
+      <c r="I502" s="7"/>
+      <c r="J502" s="9">
         <v>6</v>
       </c>
-      <c r="K502" s="11"/>
-      <c r="L502" s="13">
+      <c r="K502" s="7"/>
+      <c r="L502" s="9">
         <v>150</v>
       </c>
-      <c r="M502" s="14"/>
-      <c r="N502" s="13"/>
-      <c r="O502" s="11"/>
-      <c r="P502" s="11"/>
-      <c r="Q502" s="13">
+      <c r="M502" s="10"/>
+      <c r="N502" s="9"/>
+      <c r="O502" s="7"/>
+      <c r="P502" s="7"/>
+      <c r="Q502" s="9">
         <v>158.5</v>
       </c>
-      <c r="R502" s="13">
+      <c r="R502" s="9">
         <v>6233</v>
       </c>
-      <c r="S502" s="13">
+      <c r="S502" s="9">
         <v>188.2</v>
       </c>
-      <c r="T502" s="13">
+      <c r="T502" s="9">
         <v>4832</v>
       </c>
-      <c r="U502" s="13">
+      <c r="U502" s="9">
         <v>158.30000000000001</v>
       </c>
-      <c r="V502" s="13">
+      <c r="V502" s="9">
         <v>6308</v>
       </c>
-      <c r="W502" s="13">
+      <c r="W502" s="9">
         <v>191.7</v>
       </c>
-      <c r="X502" s="13">
+      <c r="X502" s="9">
         <v>4811</v>
       </c>
-      <c r="Y502" s="11"/>
-      <c r="Z502" s="11"/>
+      <c r="Y502" s="7"/>
+      <c r="Z502" s="7"/>
     </row>
     <row r="503" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C503" s="4">
         <v>8</v>
       </c>
-      <c r="D503" s="11" t="s">
+      <c r="D503" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E503" s="10" t="s">
+      <c r="E503" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="F503" s="12" t="s">
+      <c r="F503" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G503" s="11"/>
-      <c r="H503" s="13" t="s">
+      <c r="G503" s="7"/>
+      <c r="H503" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I503" s="11"/>
-      <c r="J503" s="13"/>
-      <c r="K503" s="11"/>
-      <c r="L503" s="13">
+      <c r="I503" s="7"/>
+      <c r="J503" s="9"/>
+      <c r="K503" s="7"/>
+      <c r="L503" s="9">
         <v>140</v>
       </c>
-      <c r="M503" s="14"/>
-      <c r="N503" s="13"/>
-      <c r="O503" s="11"/>
-      <c r="P503" s="11"/>
-      <c r="Q503" s="13">
+      <c r="M503" s="10"/>
+      <c r="N503" s="9"/>
+      <c r="O503" s="7"/>
+      <c r="P503" s="7"/>
+      <c r="Q503" s="9">
         <v>197.4</v>
       </c>
-      <c r="R503" s="13">
+      <c r="R503" s="9">
         <v>4140</v>
       </c>
-      <c r="S503" s="13">
+      <c r="S503" s="9">
         <v>445.5</v>
       </c>
-      <c r="T503" s="13">
+      <c r="T503" s="9">
         <v>2125</v>
       </c>
-      <c r="U503" s="13">
+      <c r="U503" s="9">
         <v>197.4</v>
       </c>
-      <c r="V503" s="13">
+      <c r="V503" s="9">
         <v>4141</v>
       </c>
-      <c r="W503" s="13">
+      <c r="W503" s="9">
         <v>449.4</v>
       </c>
-      <c r="X503" s="13">
+      <c r="X503" s="9">
         <v>2171</v>
       </c>
-      <c r="Y503" s="11"/>
-      <c r="Z503" s="11" t="s">
+      <c r="Y503" s="7"/>
+      <c r="Z503" s="7" t="s">
         <v>330</v>
       </c>
     </row>
@@ -21298,47 +21257,47 @@
       <c r="C504" s="4">
         <v>9</v>
       </c>
-      <c r="D504" s="11" t="s">
+      <c r="D504" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E504" s="10" t="s">
+      <c r="E504" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="F504" s="12" t="s">
+      <c r="F504" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G504" s="11" t="s">
+      <c r="G504" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="H504" s="13"/>
-      <c r="I504" s="11"/>
-      <c r="J504" s="13"/>
-      <c r="K504" s="11"/>
-      <c r="L504" s="13">
+      <c r="H504" s="9"/>
+      <c r="I504" s="7"/>
+      <c r="J504" s="9"/>
+      <c r="K504" s="7"/>
+      <c r="L504" s="9">
         <v>200</v>
       </c>
-      <c r="M504" s="14"/>
-      <c r="N504" s="13"/>
-      <c r="O504" s="11"/>
-      <c r="P504" s="11"/>
-      <c r="Q504" s="13"/>
-      <c r="R504" s="13"/>
-      <c r="S504" s="13"/>
-      <c r="T504" s="13"/>
-      <c r="U504" s="13">
+      <c r="M504" s="10"/>
+      <c r="N504" s="9"/>
+      <c r="O504" s="7"/>
+      <c r="P504" s="7"/>
+      <c r="Q504" s="9"/>
+      <c r="R504" s="9"/>
+      <c r="S504" s="9"/>
+      <c r="T504" s="9"/>
+      <c r="U504" s="9">
         <v>226.2</v>
       </c>
-      <c r="V504" s="13">
+      <c r="V504" s="9">
         <v>6399</v>
       </c>
-      <c r="W504" s="13">
+      <c r="W504" s="9">
         <v>319.89999999999998</v>
       </c>
-      <c r="X504" s="13">
+      <c r="X504" s="9">
         <v>3371</v>
       </c>
-      <c r="Y504" s="11"/>
-      <c r="Z504" s="11" t="s">
+      <c r="Y504" s="7"/>
+      <c r="Z504" s="7" t="s">
         <v>156</v>
       </c>
     </row>
@@ -21346,49 +21305,49 @@
       <c r="C505" s="4">
         <v>10</v>
       </c>
-      <c r="D505" s="11" t="s">
+      <c r="D505" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="E505" s="10" t="s">
+      <c r="E505" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="F505" s="12" t="s">
+      <c r="F505" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G505" s="11" t="s">
+      <c r="G505" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="H505" s="13"/>
-      <c r="I505" s="11"/>
-      <c r="J505" s="13"/>
-      <c r="K505" s="11"/>
-      <c r="L505" s="13">
+      <c r="H505" s="9"/>
+      <c r="I505" s="7"/>
+      <c r="J505" s="9"/>
+      <c r="K505" s="7"/>
+      <c r="L505" s="9">
         <v>245</v>
       </c>
-      <c r="M505" s="14">
+      <c r="M505" s="10">
         <v>8000</v>
       </c>
-      <c r="N505" s="13"/>
-      <c r="O505" s="11"/>
-      <c r="P505" s="11"/>
-      <c r="Q505" s="13"/>
-      <c r="R505" s="13"/>
-      <c r="S505" s="13"/>
-      <c r="T505" s="13"/>
-      <c r="U505" s="13">
+      <c r="N505" s="9"/>
+      <c r="O505" s="7"/>
+      <c r="P505" s="7"/>
+      <c r="Q505" s="9"/>
+      <c r="R505" s="9"/>
+      <c r="S505" s="9"/>
+      <c r="T505" s="9"/>
+      <c r="U505" s="9">
         <v>302.3</v>
       </c>
-      <c r="V505" s="13">
+      <c r="V505" s="9">
         <v>6386</v>
       </c>
-      <c r="W505" s="13">
+      <c r="W505" s="9">
         <v>424.8</v>
       </c>
-      <c r="X505" s="13">
+      <c r="X505" s="9">
         <v>3147</v>
       </c>
-      <c r="Y505" s="11"/>
-      <c r="Z505" s="11" t="s">
+      <c r="Y505" s="7"/>
+      <c r="Z505" s="7" t="s">
         <v>386</v>
       </c>
     </row>
@@ -21401,57 +21360,57 @@
       <c r="C507" s="4">
         <v>1</v>
       </c>
-      <c r="D507" s="11" t="s">
+      <c r="D507" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E507" s="10" t="s">
+      <c r="E507" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="F507" s="12" t="s">
+      <c r="F507" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G507" s="11" t="s">
+      <c r="G507" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="H507" s="13"/>
-      <c r="I507" s="11"/>
-      <c r="J507" s="13"/>
-      <c r="K507" s="11" t="s">
+      <c r="H507" s="9"/>
+      <c r="I507" s="7"/>
+      <c r="J507" s="9"/>
+      <c r="K507" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L507" s="13">
+      <c r="L507" s="9">
         <v>140</v>
       </c>
-      <c r="M507" s="11"/>
-      <c r="N507" s="13"/>
-      <c r="O507" s="11"/>
-      <c r="P507" s="11"/>
-      <c r="Q507" s="13">
+      <c r="M507" s="7"/>
+      <c r="N507" s="9"/>
+      <c r="O507" s="7"/>
+      <c r="P507" s="7"/>
+      <c r="Q507" s="9">
         <v>154.6</v>
       </c>
-      <c r="R507" s="13">
+      <c r="R507" s="9">
         <v>3915</v>
       </c>
-      <c r="S507" s="13">
+      <c r="S507" s="9">
         <v>367.9</v>
       </c>
-      <c r="T507" s="13">
+      <c r="T507" s="9">
         <v>2264</v>
       </c>
-      <c r="U507" s="13">
+      <c r="U507" s="9">
         <v>154.9</v>
       </c>
-      <c r="V507" s="13">
+      <c r="V507" s="9">
         <v>3982</v>
       </c>
-      <c r="W507" s="13">
+      <c r="W507" s="9">
         <v>368.3</v>
       </c>
-      <c r="X507" s="13">
+      <c r="X507" s="9">
         <v>2346</v>
       </c>
-      <c r="Y507" s="11"/>
-      <c r="Z507" s="11" t="s">
+      <c r="Y507" s="7"/>
+      <c r="Z507" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -21459,98 +21418,98 @@
       <c r="C508" s="4">
         <v>2</v>
       </c>
-      <c r="D508" s="11" t="s">
+      <c r="D508" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E508" s="10" t="s">
+      <c r="E508" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="F508" s="12"/>
-      <c r="G508" s="11"/>
-      <c r="H508" s="13"/>
-      <c r="I508" s="11"/>
-      <c r="J508" s="13"/>
-      <c r="K508" s="11"/>
-      <c r="L508" s="13">
+      <c r="F508" s="8"/>
+      <c r="G508" s="7"/>
+      <c r="H508" s="9"/>
+      <c r="I508" s="7"/>
+      <c r="J508" s="9"/>
+      <c r="K508" s="7"/>
+      <c r="L508" s="9">
         <v>241</v>
       </c>
-      <c r="M508" s="11"/>
-      <c r="N508" s="13"/>
-      <c r="O508" s="11"/>
-      <c r="P508" s="11"/>
-      <c r="Q508" s="13">
+      <c r="M508" s="7"/>
+      <c r="N508" s="9"/>
+      <c r="O508" s="7"/>
+      <c r="P508" s="7"/>
+      <c r="Q508" s="9">
         <v>227.4</v>
       </c>
-      <c r="R508" s="13">
+      <c r="R508" s="9">
         <v>5706</v>
       </c>
-      <c r="S508" s="13">
+      <c r="S508" s="9">
         <v>329.2</v>
       </c>
-      <c r="T508" s="13">
+      <c r="T508" s="9">
         <v>3772</v>
       </c>
-      <c r="U508" s="13">
+      <c r="U508" s="9">
         <v>216.6</v>
       </c>
-      <c r="V508" s="13">
+      <c r="V508" s="9">
         <v>5120</v>
       </c>
-      <c r="W508" s="13">
+      <c r="W508" s="9">
         <v>327.39999999999998</v>
       </c>
-      <c r="X508" s="13">
+      <c r="X508" s="9">
         <v>3780</v>
       </c>
-      <c r="Y508" s="11"/>
+      <c r="Y508" s="7"/>
     </row>
     <row r="509" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C509" s="4">
         <v>3</v>
       </c>
-      <c r="D509" s="11" t="s">
+      <c r="D509" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E509" s="10" t="s">
+      <c r="E509" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="F509" s="12" t="s">
+      <c r="F509" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G509" s="11" t="s">
+      <c r="G509" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="H509" s="13"/>
-      <c r="I509" s="11"/>
-      <c r="J509" s="13"/>
-      <c r="K509" s="11"/>
-      <c r="L509" s="13">
+      <c r="H509" s="9"/>
+      <c r="I509" s="7"/>
+      <c r="J509" s="9"/>
+      <c r="K509" s="7"/>
+      <c r="L509" s="9">
         <v>122</v>
       </c>
-      <c r="M509" s="14">
+      <c r="M509" s="10">
         <v>197000</v>
       </c>
-      <c r="N509" s="13"/>
-      <c r="O509" s="11"/>
-      <c r="P509" s="11"/>
-      <c r="Q509" s="13"/>
-      <c r="R509" s="13"/>
-      <c r="S509" s="13"/>
-      <c r="T509" s="13"/>
-      <c r="U509" s="13">
+      <c r="N509" s="9"/>
+      <c r="O509" s="7"/>
+      <c r="P509" s="7"/>
+      <c r="Q509" s="9"/>
+      <c r="R509" s="9"/>
+      <c r="S509" s="9"/>
+      <c r="T509" s="9"/>
+      <c r="U509" s="9">
         <v>123.1</v>
       </c>
-      <c r="V509" s="13">
+      <c r="V509" s="9">
         <v>5319</v>
       </c>
-      <c r="W509" s="13">
+      <c r="W509" s="9">
         <v>195</v>
       </c>
-      <c r="X509" s="13">
+      <c r="X509" s="9">
         <v>3891</v>
       </c>
-      <c r="Y509" s="11"/>
-      <c r="Z509" s="11" t="s">
+      <c r="Y509" s="7"/>
+      <c r="Z509" s="7" t="s">
         <v>386</v>
       </c>
     </row>
@@ -21558,55 +21517,55 @@
       <c r="C510" s="4">
         <v>4</v>
       </c>
-      <c r="D510" s="11" t="s">
+      <c r="D510" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E510" s="10" t="s">
+      <c r="E510" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="F510" s="12" t="s">
+      <c r="F510" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="G510" s="11" t="s">
+      <c r="G510" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="H510" s="13"/>
-      <c r="I510" s="11"/>
-      <c r="J510" s="13"/>
-      <c r="K510" s="11"/>
-      <c r="L510" s="13">
+      <c r="H510" s="9"/>
+      <c r="I510" s="7"/>
+      <c r="J510" s="9"/>
+      <c r="K510" s="7"/>
+      <c r="L510" s="9">
         <v>115</v>
       </c>
-      <c r="M510" s="11"/>
-      <c r="N510" s="13"/>
-      <c r="O510" s="11"/>
-      <c r="P510" s="11"/>
-      <c r="Q510" s="13">
+      <c r="M510" s="7"/>
+      <c r="N510" s="9"/>
+      <c r="O510" s="7"/>
+      <c r="P510" s="7"/>
+      <c r="Q510" s="9">
         <v>126.6</v>
       </c>
-      <c r="R510" s="13">
+      <c r="R510" s="9">
         <v>5245</v>
       </c>
-      <c r="S510" s="13">
+      <c r="S510" s="9">
         <v>225.8</v>
       </c>
-      <c r="T510" s="13">
+      <c r="T510" s="9">
         <v>3364</v>
       </c>
-      <c r="U510" s="13">
+      <c r="U510" s="9">
         <v>138.80000000000001</v>
       </c>
-      <c r="V510" s="13">
+      <c r="V510" s="9">
         <v>5784</v>
       </c>
-      <c r="W510" s="13">
+      <c r="W510" s="9">
         <v>244</v>
       </c>
-      <c r="X510" s="13">
+      <c r="X510" s="9">
         <v>3011</v>
       </c>
-      <c r="Y510" s="11"/>
-      <c r="Z510" s="11" t="s">
+      <c r="Y510" s="7"/>
+      <c r="Z510" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -21614,57 +21573,57 @@
       <c r="C511" s="4">
         <v>5</v>
       </c>
-      <c r="D511" s="11" t="s">
+      <c r="D511" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E511" s="10" t="s">
+      <c r="E511" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="F511" s="12" t="s">
+      <c r="F511" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G511" s="11" t="s">
+      <c r="G511" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="H511" s="13"/>
-      <c r="I511" s="11"/>
-      <c r="J511" s="13"/>
-      <c r="K511" s="11"/>
-      <c r="L511" s="13">
+      <c r="H511" s="9"/>
+      <c r="I511" s="7"/>
+      <c r="J511" s="9"/>
+      <c r="K511" s="7"/>
+      <c r="L511" s="9">
         <v>102</v>
       </c>
-      <c r="M511" s="14">
+      <c r="M511" s="10">
         <v>550881</v>
       </c>
-      <c r="N511" s="13"/>
-      <c r="O511" s="11"/>
-      <c r="P511" s="11"/>
-      <c r="Q511" s="13">
+      <c r="N511" s="9"/>
+      <c r="O511" s="7"/>
+      <c r="P511" s="7"/>
+      <c r="Q511" s="9">
         <v>90.8</v>
       </c>
-      <c r="R511" s="13">
+      <c r="R511" s="9">
         <v>5587</v>
       </c>
-      <c r="S511" s="13">
+      <c r="S511" s="9">
         <v>127.1</v>
       </c>
-      <c r="T511" s="13">
+      <c r="T511" s="9">
         <v>4187</v>
       </c>
-      <c r="U511" s="13">
+      <c r="U511" s="9">
         <v>97.5</v>
       </c>
-      <c r="V511" s="13">
+      <c r="V511" s="9">
         <v>5617</v>
       </c>
-      <c r="W511" s="13">
+      <c r="W511" s="9">
         <v>137.19999999999999</v>
       </c>
-      <c r="X511" s="13">
+      <c r="X511" s="9">
         <v>4055</v>
       </c>
-      <c r="Y511" s="11"/>
-      <c r="Z511" s="11" t="s">
+      <c r="Y511" s="7"/>
+      <c r="Z511" s="7" t="s">
         <v>152</v>
       </c>
     </row>
@@ -21672,109 +21631,109 @@
       <c r="C512" s="4">
         <v>6</v>
       </c>
-      <c r="D512" s="11" t="s">
+      <c r="D512" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E512" s="10" t="s">
+      <c r="E512" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="F512" s="12" t="s">
+      <c r="F512" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="G512" s="11"/>
-      <c r="H512" s="13"/>
-      <c r="I512" s="11"/>
-      <c r="J512" s="13">
+      <c r="G512" s="7"/>
+      <c r="H512" s="9"/>
+      <c r="I512" s="7"/>
+      <c r="J512" s="9">
         <v>5</v>
       </c>
-      <c r="K512" s="11"/>
-      <c r="L512" s="13">
+      <c r="K512" s="7"/>
+      <c r="L512" s="9">
         <v>133</v>
       </c>
-      <c r="M512" s="11"/>
-      <c r="N512" s="13"/>
-      <c r="O512" s="11"/>
-      <c r="P512" s="11"/>
-      <c r="Q512" s="13">
+      <c r="M512" s="7"/>
+      <c r="N512" s="9"/>
+      <c r="O512" s="7"/>
+      <c r="P512" s="7"/>
+      <c r="Q512" s="9">
         <v>113.3</v>
       </c>
-      <c r="R512" s="13">
+      <c r="R512" s="9">
         <v>6022</v>
       </c>
-      <c r="S512" s="13">
+      <c r="S512" s="9">
         <v>163.69999999999999</v>
       </c>
-      <c r="T512" s="13">
+      <c r="T512" s="9">
         <v>3992</v>
       </c>
-      <c r="U512" s="13">
+      <c r="U512" s="9">
         <v>117.4</v>
       </c>
-      <c r="V512" s="13">
+      <c r="V512" s="9">
         <v>5951</v>
       </c>
-      <c r="W512" s="13">
+      <c r="W512" s="9">
         <v>168.2</v>
       </c>
-      <c r="X512" s="13">
+      <c r="X512" s="9">
         <v>3955</v>
       </c>
-      <c r="Y512" s="11"/>
-      <c r="Z512" s="11" t="s">
+      <c r="Y512" s="7"/>
+      <c r="Z512" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="AA512" s="11"/>
+      <c r="AA512" s="7"/>
     </row>
     <row r="513" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C513" s="4">
         <v>7</v>
       </c>
-      <c r="D513" s="11" t="s">
+      <c r="D513" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E513" s="10" t="s">
+      <c r="E513" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="F513" s="12" t="s">
+      <c r="F513" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="G513" s="11"/>
-      <c r="H513" s="13" t="s">
+      <c r="G513" s="7"/>
+      <c r="H513" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I513" s="11"/>
-      <c r="J513" s="13"/>
-      <c r="K513" s="11"/>
-      <c r="L513" s="13">
+      <c r="I513" s="7"/>
+      <c r="J513" s="9"/>
+      <c r="K513" s="7"/>
+      <c r="L513" s="9">
         <v>150</v>
       </c>
-      <c r="M513" s="14">
+      <c r="M513" s="10">
         <v>200000</v>
       </c>
-      <c r="N513" s="13"/>
-      <c r="O513" s="11"/>
-      <c r="P513" s="11"/>
-      <c r="Q513" s="13"/>
-      <c r="R513" s="13"/>
-      <c r="S513" s="13"/>
-      <c r="T513" s="13"/>
-      <c r="U513" s="13">
+      <c r="N513" s="9"/>
+      <c r="O513" s="7"/>
+      <c r="P513" s="7"/>
+      <c r="Q513" s="9"/>
+      <c r="R513" s="9"/>
+      <c r="S513" s="9"/>
+      <c r="T513" s="9"/>
+      <c r="U513" s="9">
         <v>148.30000000000001</v>
       </c>
-      <c r="V513" s="13">
+      <c r="V513" s="9">
         <v>3922</v>
       </c>
-      <c r="W513" s="13">
+      <c r="W513" s="9">
         <v>334.3</v>
       </c>
-      <c r="X513" s="13">
+      <c r="X513" s="9">
         <v>2422</v>
       </c>
-      <c r="Y513" s="11"/>
-      <c r="Z513" s="11" t="s">
+      <c r="Y513" s="7"/>
+      <c r="Z513" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="AA513" s="11" t="s">
+      <c r="AA513" s="7" t="s">
         <v>659</v>
       </c>
       <c r="AB513" t="s">
@@ -21788,126 +21747,126 @@
       <c r="C514" s="4">
         <v>8</v>
       </c>
-      <c r="D514" s="11" t="s">
+      <c r="D514" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E514" s="10" t="s">
+      <c r="E514" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="F514" s="12" t="s">
+      <c r="F514" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="G514" s="11" t="s">
+      <c r="G514" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="H514" s="13"/>
-      <c r="I514" s="11"/>
-      <c r="J514" s="13">
+      <c r="H514" s="9"/>
+      <c r="I514" s="7"/>
+      <c r="J514" s="9">
         <v>8</v>
       </c>
-      <c r="K514" s="11"/>
-      <c r="L514" s="13"/>
-      <c r="M514" s="11"/>
-      <c r="N514" s="13">
+      <c r="K514" s="7"/>
+      <c r="L514" s="9"/>
+      <c r="M514" s="7"/>
+      <c r="N514" s="9">
         <v>1969</v>
       </c>
-      <c r="O514" s="11"/>
-      <c r="P514" s="11"/>
-      <c r="Q514" s="13">
+      <c r="O514" s="7"/>
+      <c r="P514" s="7"/>
+      <c r="Q514" s="9">
         <v>328.3</v>
       </c>
-      <c r="R514" s="13">
+      <c r="R514" s="9">
         <v>4379</v>
       </c>
-      <c r="S514" s="13">
+      <c r="S514" s="9">
         <v>552.79999999999995</v>
       </c>
-      <c r="T514" s="13">
+      <c r="T514" s="9">
         <v>4015</v>
       </c>
-      <c r="U514" s="13">
+      <c r="U514" s="9">
         <v>339.5</v>
       </c>
-      <c r="V514" s="13">
+      <c r="V514" s="9">
         <v>5125</v>
       </c>
-      <c r="W514" s="13">
+      <c r="W514" s="9">
         <v>559.9</v>
       </c>
-      <c r="X514" s="13">
+      <c r="X514" s="9">
         <v>3873</v>
       </c>
-      <c r="Y514" s="11"/>
-      <c r="Z514" s="11"/>
-      <c r="AA514" s="11"/>
-      <c r="AB514" s="11"/>
-      <c r="AC514" s="11"/>
+      <c r="Y514" s="7"/>
+      <c r="Z514" s="7"/>
+      <c r="AA514" s="7"/>
+      <c r="AB514" s="7"/>
+      <c r="AC514" s="7"/>
     </row>
     <row r="515" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C515" s="4">
         <v>9</v>
       </c>
-      <c r="D515" s="11" t="s">
+      <c r="D515" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E515" s="10" t="s">
+      <c r="E515" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="F515" s="12" t="s">
+      <c r="F515" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="G515" s="11" t="s">
+      <c r="G515" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="H515" s="13"/>
-      <c r="I515" s="11"/>
-      <c r="J515" s="13">
+      <c r="H515" s="9"/>
+      <c r="I515" s="7"/>
+      <c r="J515" s="9">
         <v>5</v>
       </c>
-      <c r="K515" s="11"/>
-      <c r="L515" s="13">
+      <c r="K515" s="7"/>
+      <c r="L515" s="9">
         <v>133</v>
       </c>
-      <c r="M515" s="11"/>
-      <c r="N515" s="13"/>
-      <c r="O515" s="11"/>
-      <c r="P515" s="11"/>
-      <c r="Q515" s="13">
+      <c r="M515" s="7"/>
+      <c r="N515" s="9"/>
+      <c r="O515" s="7"/>
+      <c r="P515" s="7"/>
+      <c r="Q515" s="9">
         <v>107.3</v>
       </c>
-      <c r="R515" s="13">
+      <c r="R515" s="9">
         <v>5214</v>
       </c>
-      <c r="S515" s="13">
+      <c r="S515" s="9">
         <v>163</v>
       </c>
-      <c r="T515" s="13">
+      <c r="T515" s="9">
         <v>3028</v>
       </c>
-      <c r="U515" s="13">
+      <c r="U515" s="9">
         <v>113.6</v>
       </c>
-      <c r="V515" s="13">
+      <c r="V515" s="9">
         <v>5412</v>
       </c>
-      <c r="W515" s="13">
+      <c r="W515" s="9">
         <v>169.7</v>
       </c>
-      <c r="X515" s="13">
+      <c r="X515" s="9">
         <v>3674</v>
       </c>
-      <c r="Y515" s="11"/>
-      <c r="Z515" s="11" t="s">
+      <c r="Y515" s="7"/>
+      <c r="Z515" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="AA515" s="11" t="s">
+      <c r="AA515" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="AB515" s="11" t="s">
+      <c r="AB515" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AC515" s="11"/>
-      <c r="AD515" s="10">
+      <c r="AC515" s="7"/>
+      <c r="AD515" s="6">
         <v>580</v>
       </c>
     </row>
@@ -21915,220 +21874,220 @@
       <c r="C516" s="4">
         <v>10</v>
       </c>
-      <c r="D516" s="11" t="s">
+      <c r="D516" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E516" s="10" t="s">
+      <c r="E516" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="F516" s="12" t="s">
+      <c r="F516" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G516" s="11"/>
-      <c r="H516" s="13"/>
-      <c r="I516" s="11"/>
-      <c r="J516" s="13">
+      <c r="G516" s="7"/>
+      <c r="H516" s="9"/>
+      <c r="I516" s="7"/>
+      <c r="J516" s="9">
         <v>6</v>
       </c>
-      <c r="K516" s="11"/>
-      <c r="L516" s="13">
+      <c r="K516" s="7"/>
+      <c r="L516" s="9">
         <v>136</v>
       </c>
-      <c r="M516" s="11"/>
-      <c r="N516" s="13"/>
-      <c r="O516" s="11"/>
-      <c r="P516" s="11"/>
-      <c r="Q516" s="13">
+      <c r="M516" s="7"/>
+      <c r="N516" s="9"/>
+      <c r="O516" s="7"/>
+      <c r="P516" s="7"/>
+      <c r="Q516" s="9">
         <v>178.2</v>
       </c>
-      <c r="R516" s="13">
+      <c r="R516" s="9">
         <v>6323</v>
       </c>
-      <c r="S516" s="13">
+      <c r="S516" s="9">
         <v>213.5</v>
       </c>
-      <c r="T516" s="13">
+      <c r="T516" s="9">
         <v>5093</v>
       </c>
-      <c r="U516" s="13">
+      <c r="U516" s="9">
         <v>179.5</v>
       </c>
-      <c r="V516" s="13">
+      <c r="V516" s="9">
         <v>6252</v>
       </c>
-      <c r="W516" s="13">
+      <c r="W516" s="9">
         <v>216.8</v>
       </c>
-      <c r="X516" s="13">
+      <c r="X516" s="9">
         <v>5084</v>
       </c>
-      <c r="Y516" s="11"/>
-      <c r="Z516" s="11" t="s">
+      <c r="Y516" s="7"/>
+      <c r="Z516" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AA516" s="11"/>
-      <c r="AB516" s="11"/>
+      <c r="AA516" s="7"/>
+      <c r="AB516" s="7"/>
     </row>
     <row r="517" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C517" s="4">
         <v>11</v>
       </c>
-      <c r="D517" s="11" t="s">
+      <c r="D517" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E517" s="10" t="s">
+      <c r="E517" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F517" s="12"/>
-      <c r="G517" s="11" t="s">
+      <c r="F517" s="8"/>
+      <c r="G517" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="H517" s="13"/>
-      <c r="I517" s="11"/>
-      <c r="J517" s="13"/>
-      <c r="K517" s="11"/>
-      <c r="L517" s="13">
+      <c r="H517" s="9"/>
+      <c r="I517" s="7"/>
+      <c r="J517" s="9"/>
+      <c r="K517" s="7"/>
+      <c r="L517" s="9">
         <v>136</v>
       </c>
-      <c r="M517" s="11"/>
-      <c r="N517" s="13"/>
-      <c r="O517" s="11"/>
-      <c r="P517" s="11"/>
-      <c r="Q517" s="13"/>
-      <c r="R517" s="13"/>
-      <c r="S517" s="13"/>
-      <c r="T517" s="13"/>
-      <c r="U517" s="13">
+      <c r="M517" s="7"/>
+      <c r="N517" s="9"/>
+      <c r="O517" s="7"/>
+      <c r="P517" s="7"/>
+      <c r="Q517" s="9"/>
+      <c r="R517" s="9"/>
+      <c r="S517" s="9"/>
+      <c r="T517" s="9"/>
+      <c r="U517" s="9">
         <v>125.1</v>
       </c>
-      <c r="V517" s="13">
+      <c r="V517" s="9">
         <v>5351</v>
       </c>
-      <c r="W517" s="13">
+      <c r="W517" s="9">
         <v>190.2</v>
       </c>
-      <c r="X517" s="13">
+      <c r="X517" s="9">
         <v>4523</v>
       </c>
-      <c r="Y517" s="11"/>
-      <c r="Z517" s="11" t="s">
+      <c r="Y517" s="7"/>
+      <c r="Z517" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AA517" s="11"/>
+      <c r="AA517" s="7"/>
     </row>
     <row r="518" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C518" s="4">
         <v>12</v>
       </c>
-      <c r="D518" s="11" t="s">
+      <c r="D518" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="E518" s="10" t="s">
+      <c r="E518" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="F518" s="12" t="s">
+      <c r="F518" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="G518" s="11"/>
-      <c r="H518" s="13" t="s">
+      <c r="G518" s="7"/>
+      <c r="H518" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I518" s="11"/>
-      <c r="J518" s="13"/>
-      <c r="K518" s="11"/>
-      <c r="L518" s="13">
+      <c r="I518" s="7"/>
+      <c r="J518" s="9"/>
+      <c r="K518" s="7"/>
+      <c r="L518" s="9">
         <v>145</v>
       </c>
-      <c r="M518" s="11"/>
-      <c r="N518" s="13"/>
-      <c r="O518" s="11"/>
-      <c r="P518" s="11"/>
-      <c r="Q518" s="13">
+      <c r="M518" s="7"/>
+      <c r="N518" s="9"/>
+      <c r="O518" s="7"/>
+      <c r="P518" s="7"/>
+      <c r="Q518" s="9">
         <v>145.6</v>
       </c>
-      <c r="R518" s="13">
+      <c r="R518" s="9">
         <v>3370</v>
       </c>
-      <c r="S518" s="13">
+      <c r="S518" s="9">
         <v>383.7</v>
       </c>
-      <c r="T518" s="13">
+      <c r="T518" s="9">
         <v>2295</v>
       </c>
-      <c r="U518" s="13">
+      <c r="U518" s="9">
         <v>147</v>
       </c>
-      <c r="V518" s="13">
+      <c r="V518" s="9">
         <v>3405</v>
       </c>
-      <c r="W518" s="13">
+      <c r="W518" s="9">
         <v>386.1</v>
       </c>
-      <c r="X518" s="13">
+      <c r="X518" s="9">
         <v>2295</v>
       </c>
-      <c r="Y518" s="11"/>
-      <c r="Z518" s="11" t="s">
+      <c r="Y518" s="7"/>
+      <c r="Z518" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AA518" s="11"/>
-      <c r="AB518" s="11"/>
-      <c r="AC518" s="11"/>
-      <c r="AD518" s="10"/>
+      <c r="AA518" s="7"/>
+      <c r="AB518" s="7"/>
+      <c r="AC518" s="7"/>
+      <c r="AD518" s="6"/>
     </row>
     <row r="519" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C519" s="4">
         <v>13</v>
       </c>
-      <c r="D519" s="11" t="s">
+      <c r="D519" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E519" s="10"/>
-      <c r="F519" s="12" t="s">
+      <c r="E519" s="6"/>
+      <c r="F519" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="G519" s="11"/>
-      <c r="H519" s="13"/>
-      <c r="I519" s="11"/>
-      <c r="J519" s="13"/>
-      <c r="K519" s="11"/>
-      <c r="L519" s="13">
+      <c r="G519" s="7"/>
+      <c r="H519" s="9"/>
+      <c r="I519" s="7"/>
+      <c r="J519" s="9"/>
+      <c r="K519" s="7"/>
+      <c r="L519" s="9">
         <v>131</v>
       </c>
-      <c r="M519" s="14">
+      <c r="M519" s="10">
         <v>300000</v>
       </c>
-      <c r="N519" s="13"/>
-      <c r="O519" s="11"/>
-      <c r="P519" s="11"/>
-      <c r="Q519" s="13"/>
-      <c r="R519" s="13"/>
-      <c r="S519" s="13"/>
-      <c r="T519" s="13"/>
-      <c r="U519" s="13">
+      <c r="N519" s="9"/>
+      <c r="O519" s="7"/>
+      <c r="P519" s="7"/>
+      <c r="Q519" s="9"/>
+      <c r="R519" s="9"/>
+      <c r="S519" s="9"/>
+      <c r="T519" s="9"/>
+      <c r="U519" s="9">
         <v>128.9</v>
       </c>
-      <c r="V519" s="13">
+      <c r="V519" s="9">
         <v>4106</v>
       </c>
-      <c r="W519" s="13">
+      <c r="W519" s="9">
         <v>317.2</v>
       </c>
-      <c r="X519" s="13">
+      <c r="X519" s="9">
         <v>2094</v>
       </c>
-      <c r="Y519" s="11"/>
-      <c r="Z519" s="11" t="s">
+      <c r="Y519" s="7"/>
+      <c r="Z519" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="AA519" s="11" t="s">
+      <c r="AA519" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="AB519" s="11" t="s">
+      <c r="AB519" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AC519" s="11"/>
-      <c r="AD519" s="10">
+      <c r="AC519" s="7"/>
+      <c r="AD519" s="6">
         <v>180</v>
       </c>
     </row>
@@ -22136,65 +22095,65 @@
       <c r="C520" s="4">
         <v>14</v>
       </c>
-      <c r="D520" s="11" t="s">
+      <c r="D520" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E520" s="10" t="s">
+      <c r="E520" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="F520" s="12"/>
-      <c r="G520" s="11" t="s">
+      <c r="F520" s="8"/>
+      <c r="G520" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="H520" s="13"/>
-      <c r="I520" s="11"/>
-      <c r="J520" s="13"/>
-      <c r="K520" s="11"/>
-      <c r="L520" s="13">
+      <c r="H520" s="9"/>
+      <c r="I520" s="7"/>
+      <c r="J520" s="9"/>
+      <c r="K520" s="7"/>
+      <c r="L520" s="9">
         <v>193</v>
       </c>
-      <c r="M520" s="14">
+      <c r="M520" s="10">
         <v>335000</v>
       </c>
-      <c r="N520" s="13"/>
-      <c r="O520" s="11"/>
-      <c r="P520" s="11"/>
-      <c r="Q520" s="13">
+      <c r="N520" s="9"/>
+      <c r="O520" s="7"/>
+      <c r="P520" s="7"/>
+      <c r="Q520" s="9">
         <v>193.1</v>
       </c>
-      <c r="R520" s="13">
+      <c r="R520" s="9">
         <v>6562</v>
       </c>
-      <c r="S520" s="13">
+      <c r="S520" s="9">
         <v>262</v>
       </c>
-      <c r="T520" s="13">
+      <c r="T520" s="9">
         <v>195.3</v>
       </c>
-      <c r="U520" s="13">
+      <c r="U520" s="9">
         <v>195.3</v>
       </c>
-      <c r="V520" s="13">
+      <c r="V520" s="9">
         <v>6605</v>
       </c>
-      <c r="W520" s="13">
+      <c r="W520" s="9">
         <v>267.60000000000002</v>
       </c>
-      <c r="X520" s="13">
+      <c r="X520" s="9">
         <v>3696</v>
       </c>
-      <c r="Y520" s="11"/>
-      <c r="Z520" s="11" t="s">
+      <c r="Y520" s="7"/>
+      <c r="Z520" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="AA520" s="11" t="s">
+      <c r="AA520" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="AB520" s="11" t="s">
+      <c r="AB520" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AC520" s="11"/>
-      <c r="AD520" s="10">
+      <c r="AC520" s="7"/>
+      <c r="AD520" s="6">
         <v>250</v>
       </c>
     </row>
@@ -22207,63 +22166,63 @@
       <c r="C522" s="4">
         <v>1</v>
       </c>
-      <c r="D522" s="11" t="s">
+      <c r="D522" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E522" s="10">
+      <c r="E522" s="6">
         <v>968</v>
       </c>
-      <c r="F522" s="12" t="s">
+      <c r="F522" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="G522" s="11"/>
-      <c r="H522" s="13"/>
-      <c r="I522" s="11"/>
-      <c r="J522" s="13"/>
-      <c r="K522" s="11"/>
-      <c r="L522" s="13">
+      <c r="G522" s="7"/>
+      <c r="H522" s="9"/>
+      <c r="I522" s="7"/>
+      <c r="J522" s="9"/>
+      <c r="K522" s="7"/>
+      <c r="L522" s="9">
         <v>240</v>
       </c>
-      <c r="M522" s="11"/>
-      <c r="N522" s="13"/>
-      <c r="O522" s="11"/>
-      <c r="P522" s="11"/>
-      <c r="Q522" s="13">
+      <c r="M522" s="7"/>
+      <c r="N522" s="9"/>
+      <c r="O522" s="7"/>
+      <c r="P522" s="7"/>
+      <c r="Q522" s="9">
         <v>213.8</v>
       </c>
-      <c r="R522" s="13">
+      <c r="R522" s="9">
         <v>6430</v>
       </c>
-      <c r="S522" s="13">
+      <c r="S522" s="9">
         <v>272.3</v>
       </c>
-      <c r="T522" s="13">
+      <c r="T522" s="9">
         <v>4390</v>
       </c>
-      <c r="U522" s="13">
+      <c r="U522" s="9">
         <v>216.9</v>
       </c>
-      <c r="V522" s="13">
+      <c r="V522" s="9">
         <v>6411</v>
       </c>
-      <c r="W522" s="13">
+      <c r="W522" s="9">
         <v>276.2</v>
       </c>
-      <c r="X522" s="13">
+      <c r="X522" s="9">
         <v>4383</v>
       </c>
-      <c r="Y522" s="11"/>
-      <c r="Z522" s="11" t="s">
+      <c r="Y522" s="7"/>
+      <c r="Z522" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="AA522" s="11" t="s">
+      <c r="AA522" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="AB522" s="11" t="s">
+      <c r="AB522" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="AC522" s="11"/>
-      <c r="AD522" s="10">
+      <c r="AC522" s="7"/>
+      <c r="AD522" s="6">
         <v>400</v>
       </c>
     </row>
@@ -22271,105 +22230,105 @@
       <c r="C523" s="4">
         <v>2</v>
       </c>
-      <c r="D523" s="11" t="s">
+      <c r="D523" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E523" s="10" t="s">
+      <c r="E523" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="F523" s="12" t="s">
+      <c r="F523" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G523" s="11" t="s">
+      <c r="G523" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="H523" s="13"/>
-      <c r="I523" s="11"/>
-      <c r="J523" s="13"/>
-      <c r="K523" s="11"/>
-      <c r="L523" s="13">
+      <c r="H523" s="9"/>
+      <c r="I523" s="7"/>
+      <c r="J523" s="9"/>
+      <c r="K523" s="7"/>
+      <c r="L523" s="9">
         <v>165</v>
       </c>
-      <c r="M523" s="11"/>
-      <c r="N523" s="13"/>
-      <c r="O523" s="11"/>
-      <c r="P523" s="11"/>
-      <c r="Q523" s="13"/>
-      <c r="R523" s="13"/>
-      <c r="S523" s="13"/>
-      <c r="T523" s="13"/>
-      <c r="U523" s="13">
+      <c r="M523" s="7"/>
+      <c r="N523" s="9"/>
+      <c r="O523" s="7"/>
+      <c r="P523" s="7"/>
+      <c r="Q523" s="9"/>
+      <c r="R523" s="9"/>
+      <c r="S523" s="9"/>
+      <c r="T523" s="9"/>
+      <c r="U523" s="9">
         <v>205.7</v>
       </c>
-      <c r="V523" s="13">
+      <c r="V523" s="9">
         <v>5632</v>
       </c>
-      <c r="W523" s="13">
+      <c r="W523" s="9">
         <v>328.8</v>
       </c>
-      <c r="X523" s="13">
+      <c r="X523" s="9">
         <v>3799</v>
       </c>
-      <c r="Y523" s="11"/>
-      <c r="Z523" s="11"/>
-      <c r="AA523" s="11"/>
-      <c r="AB523" s="11"/>
-      <c r="AC523" s="11"/>
-      <c r="AD523" s="10"/>
+      <c r="Y523" s="7"/>
+      <c r="Z523" s="7"/>
+      <c r="AA523" s="7"/>
+      <c r="AB523" s="7"/>
+      <c r="AC523" s="7"/>
+      <c r="AD523" s="6"/>
     </row>
     <row r="524" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C524" s="4">
         <v>3</v>
       </c>
-      <c r="D524" s="11" t="s">
+      <c r="D524" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E524" s="10" t="s">
+      <c r="E524" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="F524" s="12" t="s">
+      <c r="F524" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G524" s="11"/>
-      <c r="H524" s="13"/>
-      <c r="I524" s="11"/>
-      <c r="J524" s="13"/>
-      <c r="K524" s="11"/>
-      <c r="L524" s="13">
+      <c r="G524" s="7"/>
+      <c r="H524" s="9"/>
+      <c r="I524" s="7"/>
+      <c r="J524" s="9"/>
+      <c r="K524" s="7"/>
+      <c r="L524" s="9">
         <v>230</v>
       </c>
-      <c r="M524" s="11"/>
-      <c r="N524" s="13"/>
-      <c r="O524" s="11"/>
-      <c r="P524" s="11"/>
-      <c r="Q524" s="13"/>
-      <c r="R524" s="13"/>
-      <c r="S524" s="13"/>
-      <c r="T524" s="13"/>
-      <c r="U524" s="13">
+      <c r="M524" s="7"/>
+      <c r="N524" s="9"/>
+      <c r="O524" s="7"/>
+      <c r="P524" s="7"/>
+      <c r="Q524" s="9"/>
+      <c r="R524" s="9"/>
+      <c r="S524" s="9"/>
+      <c r="T524" s="9"/>
+      <c r="U524" s="9">
         <v>243.4</v>
       </c>
-      <c r="V524" s="13">
+      <c r="V524" s="9">
         <v>5400</v>
       </c>
-      <c r="W524" s="13">
+      <c r="W524" s="9">
         <v>354.6</v>
       </c>
-      <c r="X524" s="13">
+      <c r="X524" s="9">
         <v>3056</v>
       </c>
-      <c r="Y524" s="11"/>
-      <c r="Z524" s="11" t="s">
+      <c r="Y524" s="7"/>
+      <c r="Z524" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="AA524" s="11" t="s">
+      <c r="AA524" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="AB524" s="11" t="s">
+      <c r="AB524" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC524" s="11"/>
-      <c r="AD524" s="10">
+      <c r="AC524" s="7"/>
+      <c r="AD524" s="6">
         <v>70</v>
       </c>
     </row>
@@ -22377,65 +22336,65 @@
       <c r="C525" s="4">
         <v>4</v>
       </c>
-      <c r="D525" s="11" t="s">
+      <c r="D525" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E525" s="10" t="s">
+      <c r="E525" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="F525" s="12" t="s">
+      <c r="F525" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G525" s="11"/>
-      <c r="H525" s="13"/>
-      <c r="I525" s="11"/>
-      <c r="J525" s="13">
+      <c r="G525" s="7"/>
+      <c r="H525" s="9"/>
+      <c r="I525" s="7"/>
+      <c r="J525" s="9">
         <v>5</v>
       </c>
-      <c r="K525" s="11"/>
-      <c r="L525" s="13">
+      <c r="K525" s="7"/>
+      <c r="L525" s="9">
         <v>305</v>
       </c>
-      <c r="M525" s="11"/>
-      <c r="N525" s="13"/>
-      <c r="O525" s="11"/>
-      <c r="P525" s="11"/>
-      <c r="Q525" s="13">
+      <c r="M525" s="7"/>
+      <c r="N525" s="9"/>
+      <c r="O525" s="7"/>
+      <c r="P525" s="7"/>
+      <c r="Q525" s="9">
         <v>294.39999999999998</v>
       </c>
-      <c r="R525" s="13">
+      <c r="R525" s="9">
         <v>6190</v>
       </c>
-      <c r="S525" s="13">
+      <c r="S525" s="9">
         <v>404.5</v>
       </c>
-      <c r="T525" s="13">
+      <c r="T525" s="9">
         <v>4616</v>
       </c>
-      <c r="U525" s="13">
+      <c r="U525" s="9">
         <v>293.10000000000002</v>
       </c>
-      <c r="V525" s="13">
+      <c r="V525" s="9">
         <v>6708</v>
       </c>
-      <c r="W525" s="13">
+      <c r="W525" s="9">
         <v>405.5</v>
       </c>
-      <c r="X525" s="13">
+      <c r="X525" s="9">
         <v>4650</v>
       </c>
-      <c r="Y525" s="11"/>
-      <c r="Z525" s="11" t="s">
+      <c r="Y525" s="7"/>
+      <c r="Z525" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="AA525" s="11" t="s">
+      <c r="AA525" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="AB525" s="11" t="s">
+      <c r="AB525" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC525" s="11"/>
-      <c r="AD525" s="10">
+      <c r="AC525" s="7"/>
+      <c r="AD525" s="6">
         <v>70</v>
       </c>
     </row>
@@ -22443,65 +22402,65 @@
       <c r="C526" s="4">
         <v>5</v>
       </c>
-      <c r="D526" s="11" t="s">
+      <c r="D526" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E526" s="10" t="s">
+      <c r="E526" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="F526" s="12" t="s">
+      <c r="F526" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G526" s="11"/>
-      <c r="H526" s="13"/>
-      <c r="I526" s="11"/>
-      <c r="J526" s="13"/>
-      <c r="K526" s="11"/>
-      <c r="L526" s="13">
+      <c r="G526" s="7"/>
+      <c r="H526" s="9"/>
+      <c r="I526" s="7"/>
+      <c r="J526" s="9"/>
+      <c r="K526" s="7"/>
+      <c r="L526" s="9">
         <v>75</v>
       </c>
-      <c r="M526" s="14">
+      <c r="M526" s="10">
         <v>226000</v>
       </c>
-      <c r="N526" s="13"/>
-      <c r="O526" s="11"/>
-      <c r="P526" s="11"/>
-      <c r="Q526" s="13">
+      <c r="N526" s="9"/>
+      <c r="O526" s="7"/>
+      <c r="P526" s="7"/>
+      <c r="Q526" s="9">
         <v>76.5</v>
       </c>
-      <c r="R526" s="13">
+      <c r="R526" s="9">
         <v>5116</v>
       </c>
-      <c r="S526" s="13">
+      <c r="S526" s="9">
         <v>115.9</v>
       </c>
-      <c r="T526" s="13">
+      <c r="T526" s="9">
         <v>3629</v>
       </c>
-      <c r="U526" s="13">
+      <c r="U526" s="9">
         <v>77.099999999999994</v>
       </c>
-      <c r="V526" s="13">
+      <c r="V526" s="9">
         <v>4943</v>
       </c>
-      <c r="W526" s="13">
+      <c r="W526" s="9">
         <v>115.9</v>
       </c>
-      <c r="X526" s="13">
+      <c r="X526" s="9">
         <v>3522</v>
       </c>
-      <c r="Y526" s="11"/>
-      <c r="Z526" s="11" t="s">
+      <c r="Y526" s="7"/>
+      <c r="Z526" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="AA526" s="11" t="s">
+      <c r="AA526" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="AB526" s="11" t="s">
+      <c r="AB526" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC526" s="11"/>
-      <c r="AD526" s="10">
+      <c r="AC526" s="7"/>
+      <c r="AD526" s="6">
         <v>70</v>
       </c>
     </row>
@@ -22509,55 +22468,55 @@
       <c r="C527" s="4">
         <v>6</v>
       </c>
-      <c r="D527" s="11" t="s">
+      <c r="D527" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E527" s="10" t="s">
+      <c r="E527" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="F527" s="12" t="s">
+      <c r="F527" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G527" s="11"/>
-      <c r="H527" s="13"/>
-      <c r="I527" s="11"/>
-      <c r="J527" s="13"/>
-      <c r="K527" s="11"/>
-      <c r="L527" s="13">
+      <c r="G527" s="7"/>
+      <c r="H527" s="9"/>
+      <c r="I527" s="7"/>
+      <c r="J527" s="9"/>
+      <c r="K527" s="7"/>
+      <c r="L527" s="9">
         <v>150</v>
       </c>
-      <c r="M527" s="11"/>
-      <c r="N527" s="13"/>
-      <c r="O527" s="11"/>
-      <c r="P527" s="11"/>
-      <c r="Q527" s="13"/>
-      <c r="R527" s="13"/>
-      <c r="S527" s="13"/>
-      <c r="T527" s="13"/>
-      <c r="U527" s="13">
+      <c r="M527" s="7"/>
+      <c r="N527" s="9"/>
+      <c r="O527" s="7"/>
+      <c r="P527" s="7"/>
+      <c r="Q527" s="9"/>
+      <c r="R527" s="9"/>
+      <c r="S527" s="9"/>
+      <c r="T527" s="9"/>
+      <c r="U527" s="9">
         <v>186.1</v>
       </c>
-      <c r="V527" s="13">
+      <c r="V527" s="9">
         <v>3265</v>
       </c>
-      <c r="W527" s="13">
+      <c r="W527" s="9">
         <v>451.4</v>
       </c>
-      <c r="X527" s="13">
+      <c r="X527" s="9">
         <v>2059</v>
       </c>
-      <c r="Y527" s="11"/>
-      <c r="Z527" s="11" t="s">
+      <c r="Y527" s="7"/>
+      <c r="Z527" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="AA527" s="11" t="s">
+      <c r="AA527" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AB527" s="11" t="s">
+      <c r="AB527" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AC527" s="11"/>
-      <c r="AD527" s="10">
+      <c r="AC527" s="7"/>
+      <c r="AD527" s="6">
         <v>220</v>
       </c>
     </row>
@@ -22565,67 +22524,67 @@
       <c r="C528" s="4">
         <v>7</v>
       </c>
-      <c r="D528" s="11" t="s">
+      <c r="D528" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E528" s="10" t="s">
+      <c r="E528" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="F528" s="12"/>
-      <c r="G528" s="11"/>
-      <c r="H528" s="13"/>
-      <c r="I528" s="11"/>
-      <c r="J528" s="13">
+      <c r="F528" s="8"/>
+      <c r="G528" s="7"/>
+      <c r="H528" s="9"/>
+      <c r="I528" s="7"/>
+      <c r="J528" s="9">
         <v>8</v>
       </c>
-      <c r="K528" s="11" t="s">
+      <c r="K528" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L528" s="13">
+      <c r="L528" s="9">
         <v>306</v>
       </c>
-      <c r="M528" s="14">
+      <c r="M528" s="10">
         <v>303000</v>
       </c>
-      <c r="N528" s="13"/>
-      <c r="O528" s="11"/>
-      <c r="P528" s="11"/>
-      <c r="Q528" s="13">
+      <c r="N528" s="9"/>
+      <c r="O528" s="7"/>
+      <c r="P528" s="7"/>
+      <c r="Q528" s="9">
         <v>248</v>
       </c>
-      <c r="R528" s="13">
+      <c r="R528" s="9">
         <v>5970</v>
       </c>
-      <c r="S528" s="13">
+      <c r="S528" s="9">
         <v>339.7</v>
       </c>
-      <c r="T528" s="13">
+      <c r="T528" s="9">
         <v>3305</v>
       </c>
-      <c r="U528" s="13">
+      <c r="U528" s="9">
         <v>247.9</v>
       </c>
-      <c r="V528" s="13">
+      <c r="V528" s="9">
         <v>6245</v>
       </c>
-      <c r="W528" s="13">
+      <c r="W528" s="9">
         <v>342.5</v>
       </c>
-      <c r="X528" s="13">
+      <c r="X528" s="9">
         <v>3314</v>
       </c>
-      <c r="Y528" s="11"/>
-      <c r="Z528" s="11" t="s">
+      <c r="Y528" s="7"/>
+      <c r="Z528" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="AA528" s="11" t="s">
+      <c r="AA528" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="AB528" s="11" t="s">
+      <c r="AB528" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC528" s="11"/>
-      <c r="AD528" s="10">
+      <c r="AC528" s="7"/>
+      <c r="AD528" s="6">
         <v>30</v>
       </c>
     </row>
@@ -22633,107 +22592,107 @@
       <c r="C529" s="4">
         <v>8</v>
       </c>
-      <c r="D529" s="11" t="s">
+      <c r="D529" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="E529" s="10" t="s">
+      <c r="E529" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="F529" s="12" t="s">
+      <c r="F529" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G529" s="11" t="s">
+      <c r="G529" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="H529" s="13"/>
-      <c r="I529" s="11"/>
-      <c r="J529" s="13"/>
-      <c r="K529" s="11"/>
-      <c r="L529" s="13">
+      <c r="H529" s="9"/>
+      <c r="I529" s="7"/>
+      <c r="J529" s="9"/>
+      <c r="K529" s="7"/>
+      <c r="L529" s="9">
         <v>125</v>
       </c>
-      <c r="M529" s="11"/>
-      <c r="N529" s="13"/>
-      <c r="O529" s="11"/>
-      <c r="P529" s="11"/>
-      <c r="Q529" s="13"/>
-      <c r="R529" s="13"/>
-      <c r="S529" s="13"/>
-      <c r="T529" s="13"/>
-      <c r="U529" s="13">
+      <c r="M529" s="7"/>
+      <c r="N529" s="9"/>
+      <c r="O529" s="7"/>
+      <c r="P529" s="7"/>
+      <c r="Q529" s="9"/>
+      <c r="R529" s="9"/>
+      <c r="S529" s="9"/>
+      <c r="T529" s="9"/>
+      <c r="U529" s="9">
         <v>137</v>
       </c>
-      <c r="V529" s="13">
+      <c r="V529" s="9">
         <v>7319</v>
       </c>
-      <c r="W529" s="13">
+      <c r="W529" s="9">
         <v>134.5</v>
       </c>
-      <c r="X529" s="13">
+      <c r="X529" s="9">
         <v>7076</v>
       </c>
-      <c r="Y529" s="11"/>
-      <c r="Z529" s="11"/>
-      <c r="AA529" s="11"/>
-      <c r="AB529" s="11"/>
-      <c r="AC529" s="11"/>
-      <c r="AD529" s="10"/>
+      <c r="Y529" s="7"/>
+      <c r="Z529" s="7"/>
+      <c r="AA529" s="7"/>
+      <c r="AB529" s="7"/>
+      <c r="AC529" s="7"/>
+      <c r="AD529" s="6"/>
     </row>
     <row r="530" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C530" s="4">
         <v>9</v>
       </c>
-      <c r="D530" s="11" t="s">
+      <c r="D530" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E530" s="10" t="s">
+      <c r="E530" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="F530" s="12" t="s">
+      <c r="F530" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="G530" s="11"/>
-      <c r="H530" s="13"/>
-      <c r="I530" s="11"/>
-      <c r="J530" s="13">
+      <c r="G530" s="7"/>
+      <c r="H530" s="9"/>
+      <c r="I530" s="7"/>
+      <c r="J530" s="9">
         <v>8</v>
       </c>
-      <c r="K530" s="11"/>
-      <c r="L530" s="13">
+      <c r="K530" s="7"/>
+      <c r="L530" s="9">
         <v>367</v>
       </c>
-      <c r="M530" s="11"/>
-      <c r="N530" s="13"/>
-      <c r="O530" s="11"/>
-      <c r="P530" s="11"/>
-      <c r="Q530" s="13"/>
-      <c r="R530" s="13"/>
-      <c r="S530" s="13"/>
-      <c r="T530" s="13"/>
-      <c r="U530" s="13">
+      <c r="M530" s="7"/>
+      <c r="N530" s="9"/>
+      <c r="O530" s="7"/>
+      <c r="P530" s="7"/>
+      <c r="Q530" s="9"/>
+      <c r="R530" s="9"/>
+      <c r="S530" s="9"/>
+      <c r="T530" s="9"/>
+      <c r="U530" s="9">
         <v>312.8</v>
       </c>
-      <c r="V530" s="13">
+      <c r="V530" s="9">
         <v>6550</v>
       </c>
-      <c r="W530" s="13">
+      <c r="W530" s="9">
         <v>410.4</v>
       </c>
-      <c r="X530" s="13">
+      <c r="X530" s="9">
         <v>4479</v>
       </c>
-      <c r="Y530" s="11"/>
-      <c r="Z530" s="11" t="s">
+      <c r="Y530" s="7"/>
+      <c r="Z530" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AA530" s="11" t="s">
+      <c r="AA530" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AB530" s="11" t="s">
+      <c r="AB530" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC530" s="11"/>
-      <c r="AD530" s="10">
+      <c r="AC530" s="7"/>
+      <c r="AD530" s="6">
         <v>45</v>
       </c>
     </row>
@@ -22741,59 +22700,59 @@
       <c r="C531" s="4">
         <v>10</v>
       </c>
-      <c r="D531" s="11" t="s">
+      <c r="D531" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E531" s="10" t="s">
+      <c r="E531" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="F531" s="12" t="s">
+      <c r="F531" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G531" s="11" t="s">
+      <c r="G531" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="H531" s="13"/>
-      <c r="I531" s="11"/>
-      <c r="J531" s="13"/>
-      <c r="K531" s="11"/>
-      <c r="L531" s="13">
+      <c r="H531" s="9"/>
+      <c r="I531" s="7"/>
+      <c r="J531" s="9"/>
+      <c r="K531" s="7"/>
+      <c r="L531" s="9">
         <v>220</v>
       </c>
-      <c r="M531" s="11"/>
-      <c r="N531" s="13">
+      <c r="M531" s="7"/>
+      <c r="N531" s="9">
         <v>1981</v>
       </c>
-      <c r="O531" s="11"/>
-      <c r="P531" s="11"/>
-      <c r="Q531" s="13"/>
-      <c r="R531" s="13"/>
-      <c r="S531" s="13"/>
-      <c r="T531" s="13"/>
-      <c r="U531" s="13">
+      <c r="O531" s="7"/>
+      <c r="P531" s="7"/>
+      <c r="Q531" s="9"/>
+      <c r="R531" s="9"/>
+      <c r="S531" s="9"/>
+      <c r="T531" s="9"/>
+      <c r="U531" s="9">
         <v>190.7</v>
       </c>
-      <c r="V531" s="13">
+      <c r="V531" s="9">
         <v>6165</v>
       </c>
-      <c r="W531" s="13">
+      <c r="W531" s="9">
         <v>280.89999999999998</v>
       </c>
-      <c r="X531" s="13">
+      <c r="X531" s="9">
         <v>4193</v>
       </c>
-      <c r="Y531" s="11"/>
-      <c r="Z531" s="11" t="s">
+      <c r="Y531" s="7"/>
+      <c r="Z531" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AA531" s="11" t="s">
+      <c r="AA531" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AB531" s="11" t="s">
+      <c r="AB531" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC531" s="11"/>
-      <c r="AD531" s="10">
+      <c r="AC531" s="7"/>
+      <c r="AD531" s="6">
         <v>0</v>
       </c>
     </row>
@@ -22801,65 +22760,65 @@
       <c r="C532" s="4">
         <v>11</v>
       </c>
-      <c r="D532" s="11" t="s">
+      <c r="D532" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E532" s="10" t="s">
+      <c r="E532" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="F532" s="12" t="s">
+      <c r="F532" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G532" s="11"/>
-      <c r="H532" s="13"/>
-      <c r="I532" s="11"/>
-      <c r="J532" s="13">
+      <c r="G532" s="7"/>
+      <c r="H532" s="9"/>
+      <c r="I532" s="7"/>
+      <c r="J532" s="9">
         <v>6</v>
       </c>
-      <c r="K532" s="11"/>
-      <c r="L532" s="13">
+      <c r="K532" s="7"/>
+      <c r="L532" s="9">
         <v>306</v>
       </c>
-      <c r="M532" s="11"/>
-      <c r="N532" s="13"/>
-      <c r="O532" s="11"/>
-      <c r="P532" s="11"/>
-      <c r="Q532" s="13">
+      <c r="M532" s="7"/>
+      <c r="N532" s="9"/>
+      <c r="O532" s="7"/>
+      <c r="P532" s="7"/>
+      <c r="Q532" s="9">
         <v>336.6</v>
       </c>
-      <c r="R532" s="13">
+      <c r="R532" s="9">
         <v>5778</v>
       </c>
-      <c r="S532" s="13">
+      <c r="S532" s="9">
         <v>550</v>
       </c>
-      <c r="T532" s="13">
+      <c r="T532" s="9">
         <v>4222</v>
       </c>
-      <c r="U532" s="13">
+      <c r="U532" s="9">
         <v>341.5</v>
       </c>
-      <c r="V532" s="13">
+      <c r="V532" s="9">
         <v>4394</v>
       </c>
-      <c r="W532" s="13">
+      <c r="W532" s="9">
         <v>557.29999999999995</v>
       </c>
-      <c r="X532" s="13">
+      <c r="X532" s="9">
         <v>4310</v>
       </c>
-      <c r="Y532" s="11"/>
-      <c r="Z532" s="11" t="s">
+      <c r="Y532" s="7"/>
+      <c r="Z532" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="AA532" s="11" t="s">
+      <c r="AA532" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="AB532" s="11" t="s">
+      <c r="AB532" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC532" s="11"/>
-      <c r="AD532" s="10">
+      <c r="AC532" s="7"/>
+      <c r="AD532" s="6">
         <v>70</v>
       </c>
     </row>
@@ -22872,63 +22831,63 @@
       <c r="C534" s="4">
         <v>1</v>
       </c>
-      <c r="D534" s="11" t="s">
+      <c r="D534" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="E534" s="10" t="s">
+      <c r="E534" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="F534" s="12" t="s">
+      <c r="F534" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G534" s="11"/>
-      <c r="H534" s="13"/>
-      <c r="I534" s="11"/>
-      <c r="J534" s="13"/>
-      <c r="K534" s="11"/>
-      <c r="L534" s="13">
+      <c r="G534" s="7"/>
+      <c r="H534" s="9"/>
+      <c r="I534" s="7"/>
+      <c r="J534" s="9"/>
+      <c r="K534" s="7"/>
+      <c r="L534" s="9">
         <v>169</v>
       </c>
-      <c r="M534" s="11"/>
-      <c r="N534" s="13"/>
-      <c r="O534" s="11"/>
-      <c r="P534" s="11"/>
-      <c r="Q534" s="13">
+      <c r="M534" s="7"/>
+      <c r="N534" s="9"/>
+      <c r="O534" s="7"/>
+      <c r="P534" s="7"/>
+      <c r="Q534" s="9">
         <v>184.2</v>
       </c>
-      <c r="R534" s="13">
+      <c r="R534" s="9">
         <v>6393</v>
       </c>
-      <c r="S534" s="13">
+      <c r="S534" s="9">
         <v>236.7</v>
       </c>
-      <c r="T534" s="13">
+      <c r="T534" s="9">
         <v>4499</v>
       </c>
-      <c r="U534" s="13">
+      <c r="U534" s="9">
         <v>186.4</v>
       </c>
-      <c r="V534" s="13">
+      <c r="V534" s="9">
         <v>6385</v>
       </c>
-      <c r="W534" s="13">
+      <c r="W534" s="9">
         <v>234.9</v>
       </c>
-      <c r="X534" s="13">
+      <c r="X534" s="9">
         <v>4542</v>
       </c>
-      <c r="Y534" s="11"/>
-      <c r="Z534" s="11" t="s">
+      <c r="Y534" s="7"/>
+      <c r="Z534" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="AA534" s="11" t="s">
+      <c r="AA534" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="AB534" s="11" t="s">
+      <c r="AB534" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="AC534" s="11"/>
-      <c r="AD534" s="10">
+      <c r="AC534" s="7"/>
+      <c r="AD534" s="6">
         <v>385</v>
       </c>
     </row>
@@ -22936,65 +22895,65 @@
       <c r="C535" s="4">
         <v>2</v>
       </c>
-      <c r="D535" s="11" t="s">
+      <c r="D535" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E535" s="10" t="s">
+      <c r="E535" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="F535" s="12" t="s">
+      <c r="F535" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="G535" s="11"/>
-      <c r="H535" s="13"/>
-      <c r="I535" s="11"/>
-      <c r="J535" s="13"/>
-      <c r="K535" s="11" t="s">
+      <c r="G535" s="7"/>
+      <c r="H535" s="9"/>
+      <c r="I535" s="7"/>
+      <c r="J535" s="9"/>
+      <c r="K535" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L535" s="13">
+      <c r="L535" s="9">
         <v>220</v>
       </c>
-      <c r="M535" s="11"/>
-      <c r="N535" s="13"/>
-      <c r="O535" s="11"/>
-      <c r="P535" s="11"/>
-      <c r="Q535" s="13">
+      <c r="M535" s="7"/>
+      <c r="N535" s="9"/>
+      <c r="O535" s="7"/>
+      <c r="P535" s="7"/>
+      <c r="Q535" s="9">
         <v>167</v>
       </c>
-      <c r="R535" s="13">
+      <c r="R535" s="9">
         <v>6189</v>
       </c>
-      <c r="S535" s="13">
+      <c r="S535" s="9">
         <v>226.7</v>
       </c>
-      <c r="T535" s="13">
+      <c r="T535" s="9">
         <v>3026</v>
       </c>
-      <c r="U535" s="13">
+      <c r="U535" s="9">
         <v>167.6</v>
       </c>
-      <c r="V535" s="13">
+      <c r="V535" s="9">
         <v>6627</v>
       </c>
-      <c r="W535" s="13">
+      <c r="W535" s="9">
         <v>232</v>
       </c>
-      <c r="X535" s="13">
+      <c r="X535" s="9">
         <v>3046</v>
       </c>
-      <c r="Y535" s="11"/>
-      <c r="Z535" s="11" t="s">
+      <c r="Y535" s="7"/>
+      <c r="Z535" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="AA535" s="11" t="s">
+      <c r="AA535" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="AB535" s="11" t="s">
+      <c r="AB535" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC535" s="11"/>
-      <c r="AD535" s="10">
+      <c r="AC535" s="7"/>
+      <c r="AD535" s="6">
         <v>75</v>
       </c>
     </row>
@@ -23002,57 +22961,57 @@
       <c r="C536" s="4">
         <v>3</v>
       </c>
-      <c r="D536" s="11" t="s">
+      <c r="D536" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E536" s="10" t="s">
+      <c r="E536" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="F536" s="12"/>
-      <c r="G536" s="11" t="s">
+      <c r="F536" s="8"/>
+      <c r="G536" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="H536" s="13"/>
-      <c r="I536" s="11"/>
-      <c r="J536" s="13"/>
-      <c r="K536" s="11" t="s">
+      <c r="H536" s="9"/>
+      <c r="I536" s="7"/>
+      <c r="J536" s="9"/>
+      <c r="K536" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L536" s="13">
+      <c r="L536" s="9">
         <v>180</v>
       </c>
-      <c r="M536" s="11"/>
-      <c r="N536" s="13"/>
-      <c r="O536" s="11"/>
-      <c r="P536" s="11"/>
-      <c r="Q536" s="13"/>
-      <c r="R536" s="13"/>
-      <c r="S536" s="13"/>
-      <c r="T536" s="13"/>
-      <c r="U536" s="13">
+      <c r="M536" s="7"/>
+      <c r="N536" s="9"/>
+      <c r="O536" s="7"/>
+      <c r="P536" s="7"/>
+      <c r="Q536" s="9"/>
+      <c r="R536" s="9"/>
+      <c r="S536" s="9"/>
+      <c r="T536" s="9"/>
+      <c r="U536" s="9">
         <v>160.6</v>
       </c>
-      <c r="V536" s="13">
+      <c r="V536" s="9">
         <v>5334</v>
       </c>
-      <c r="W536" s="13">
+      <c r="W536" s="9">
         <v>200.5</v>
       </c>
-      <c r="X536" s="13">
+      <c r="X536" s="9">
         <v>4806</v>
       </c>
-      <c r="Y536" s="11"/>
-      <c r="Z536" s="11" t="s">
+      <c r="Y536" s="7"/>
+      <c r="Z536" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AA536" s="11" t="s">
+      <c r="AA536" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AB536" s="11" t="s">
+      <c r="AB536" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC536" s="11"/>
-      <c r="AD536" s="10">
+      <c r="AC536" s="7"/>
+      <c r="AD536" s="6">
         <v>0</v>
       </c>
     </row>
@@ -23060,59 +23019,59 @@
       <c r="C537" s="4">
         <v>4</v>
       </c>
-      <c r="D537" s="11" t="s">
+      <c r="D537" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E537" s="10" t="s">
+      <c r="E537" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="F537" s="12" t="s">
+      <c r="F537" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="G537" s="11"/>
-      <c r="H537" s="13"/>
-      <c r="I537" s="11"/>
-      <c r="J537" s="13">
+      <c r="G537" s="7"/>
+      <c r="H537" s="9"/>
+      <c r="I537" s="7"/>
+      <c r="J537" s="9">
         <v>6</v>
       </c>
-      <c r="K537" s="11"/>
-      <c r="L537" s="13">
+      <c r="K537" s="7"/>
+      <c r="L537" s="9">
         <v>150</v>
       </c>
-      <c r="M537" s="14">
+      <c r="M537" s="10">
         <v>293000</v>
       </c>
-      <c r="N537" s="13"/>
-      <c r="O537" s="11"/>
-      <c r="P537" s="11"/>
-      <c r="Q537" s="13"/>
-      <c r="R537" s="13"/>
-      <c r="S537" s="13"/>
-      <c r="T537" s="13"/>
-      <c r="U537" s="13">
+      <c r="N537" s="9"/>
+      <c r="O537" s="7"/>
+      <c r="P537" s="7"/>
+      <c r="Q537" s="9"/>
+      <c r="R537" s="9"/>
+      <c r="S537" s="9"/>
+      <c r="T537" s="9"/>
+      <c r="U537" s="9">
         <v>142.4</v>
       </c>
-      <c r="V537" s="13">
+      <c r="V537" s="9">
         <v>4907</v>
       </c>
-      <c r="W537" s="13">
+      <c r="W537" s="9">
         <v>234.4</v>
       </c>
-      <c r="X537" s="13">
+      <c r="X537" s="9">
         <v>3859</v>
       </c>
-      <c r="Y537" s="11"/>
-      <c r="Z537" s="11" t="s">
+      <c r="Y537" s="7"/>
+      <c r="Z537" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="AA537" s="11" t="s">
+      <c r="AA537" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="AB537" s="11" t="s">
+      <c r="AB537" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AC537" s="11"/>
-      <c r="AD537" s="10">
+      <c r="AC537" s="7"/>
+      <c r="AD537" s="6">
         <v>413</v>
       </c>
     </row>
@@ -23120,65 +23079,65 @@
       <c r="C538" s="4">
         <v>5</v>
       </c>
-      <c r="D538" s="11" t="s">
+      <c r="D538" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E538" s="10" t="s">
+      <c r="E538" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="F538" s="12" t="s">
+      <c r="F538" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G538" s="11" t="s">
+      <c r="G538" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="H538" s="13"/>
-      <c r="I538" s="11"/>
-      <c r="J538" s="13"/>
-      <c r="K538" s="11"/>
-      <c r="L538" s="13">
+      <c r="H538" s="9"/>
+      <c r="I538" s="7"/>
+      <c r="J538" s="9"/>
+      <c r="K538" s="7"/>
+      <c r="L538" s="9">
         <v>120</v>
       </c>
-      <c r="M538" s="11"/>
-      <c r="N538" s="13"/>
-      <c r="O538" s="11"/>
-      <c r="P538" s="11"/>
-      <c r="Q538" s="13">
+      <c r="M538" s="7"/>
+      <c r="N538" s="9"/>
+      <c r="O538" s="7"/>
+      <c r="P538" s="7"/>
+      <c r="Q538" s="9">
         <v>122</v>
       </c>
-      <c r="R538" s="13">
+      <c r="R538" s="9">
         <v>6640</v>
       </c>
-      <c r="S538" s="13">
+      <c r="S538" s="9">
         <v>149.1</v>
       </c>
-      <c r="T538" s="13">
+      <c r="T538" s="9">
         <v>3067</v>
       </c>
-      <c r="U538" s="13">
+      <c r="U538" s="9">
         <v>130.1</v>
       </c>
-      <c r="V538" s="13">
+      <c r="V538" s="9">
         <v>6687</v>
       </c>
-      <c r="W538" s="13">
+      <c r="W538" s="9">
         <v>154.9</v>
       </c>
-      <c r="X538" s="13">
+      <c r="X538" s="9">
         <v>3043</v>
       </c>
-      <c r="Y538" s="11"/>
-      <c r="Z538" s="11" t="s">
+      <c r="Y538" s="7"/>
+      <c r="Z538" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="AA538" s="11" t="s">
+      <c r="AA538" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="AB538" s="11" t="s">
+      <c r="AB538" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC538" s="11"/>
-      <c r="AD538" s="10">
+      <c r="AC538" s="7"/>
+      <c r="AD538" s="6">
         <v>120</v>
       </c>
     </row>
@@ -23186,59 +23145,59 @@
       <c r="C539" s="4">
         <v>6</v>
       </c>
-      <c r="D539" s="11" t="s">
+      <c r="D539" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E539" s="10" t="s">
+      <c r="E539" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="F539" s="12" t="s">
+      <c r="F539" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="G539" s="11"/>
-      <c r="H539" s="13"/>
-      <c r="I539" s="11"/>
-      <c r="J539" s="13">
+      <c r="G539" s="7"/>
+      <c r="H539" s="9"/>
+      <c r="I539" s="7"/>
+      <c r="J539" s="9">
         <v>5</v>
       </c>
-      <c r="K539" s="11" t="s">
+      <c r="K539" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L539" s="13">
+      <c r="L539" s="9">
         <v>136</v>
       </c>
-      <c r="M539" s="11"/>
-      <c r="N539" s="13"/>
-      <c r="O539" s="11"/>
-      <c r="P539" s="11"/>
-      <c r="Q539" s="13"/>
-      <c r="R539" s="13"/>
-      <c r="S539" s="13"/>
-      <c r="T539" s="13"/>
-      <c r="U539" s="13">
+      <c r="M539" s="7"/>
+      <c r="N539" s="9"/>
+      <c r="O539" s="7"/>
+      <c r="P539" s="7"/>
+      <c r="Q539" s="9"/>
+      <c r="R539" s="9"/>
+      <c r="S539" s="9"/>
+      <c r="T539" s="9"/>
+      <c r="U539" s="9">
         <v>115.1</v>
       </c>
-      <c r="V539" s="13">
+      <c r="V539" s="9">
         <v>6028</v>
       </c>
-      <c r="W539" s="13">
+      <c r="W539" s="9">
         <v>169.6</v>
       </c>
-      <c r="X539" s="13">
+      <c r="X539" s="9">
         <v>2501</v>
       </c>
-      <c r="Y539" s="11"/>
-      <c r="Z539" s="11" t="s">
+      <c r="Y539" s="7"/>
+      <c r="Z539" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="AA539" s="11" t="s">
+      <c r="AA539" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="AB539" s="11"/>
-      <c r="AC539" s="11" t="s">
+      <c r="AB539" s="7"/>
+      <c r="AC539" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="AD539" s="10">
+      <c r="AD539" s="6">
         <v>650</v>
       </c>
     </row>
@@ -23246,65 +23205,65 @@
       <c r="C540" s="4">
         <v>7</v>
       </c>
-      <c r="D540" s="11" t="s">
+      <c r="D540" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E540" s="10" t="s">
+      <c r="E540" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="F540" s="12" t="s">
+      <c r="F540" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G540" s="11" t="s">
+      <c r="G540" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="H540" s="13"/>
-      <c r="I540" s="11"/>
-      <c r="J540" s="13"/>
-      <c r="K540" s="11"/>
-      <c r="L540" s="13">
+      <c r="H540" s="9"/>
+      <c r="I540" s="7"/>
+      <c r="J540" s="9"/>
+      <c r="K540" s="7"/>
+      <c r="L540" s="9">
         <v>265</v>
       </c>
-      <c r="M540" s="11"/>
-      <c r="N540" s="13"/>
-      <c r="O540" s="11"/>
-      <c r="P540" s="11"/>
-      <c r="Q540" s="13">
+      <c r="M540" s="7"/>
+      <c r="N540" s="9"/>
+      <c r="O540" s="7"/>
+      <c r="P540" s="7"/>
+      <c r="Q540" s="9">
         <v>266.89999999999998</v>
       </c>
-      <c r="R540" s="13">
+      <c r="R540" s="9">
         <v>6022</v>
       </c>
-      <c r="S540" s="13">
+      <c r="S540" s="9">
         <v>375.1</v>
       </c>
-      <c r="T540" s="13">
+      <c r="T540" s="9">
         <v>3212</v>
       </c>
-      <c r="U540" s="13">
+      <c r="U540" s="9">
         <v>283.60000000000002</v>
       </c>
-      <c r="V540" s="13">
+      <c r="V540" s="9">
         <v>5525</v>
       </c>
-      <c r="W540" s="13">
+      <c r="W540" s="9">
         <v>398.7</v>
       </c>
-      <c r="X540" s="13">
+      <c r="X540" s="9">
         <v>3621</v>
       </c>
-      <c r="Y540" s="11"/>
-      <c r="Z540" s="11" t="s">
+      <c r="Y540" s="7"/>
+      <c r="Z540" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="AA540" s="11" t="s">
+      <c r="AA540" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="AB540" s="11" t="s">
+      <c r="AB540" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC540" s="11"/>
-      <c r="AD540" s="10">
+      <c r="AC540" s="7"/>
+      <c r="AD540" s="6">
         <v>170</v>
       </c>
     </row>
@@ -23312,55 +23271,55 @@
       <c r="C541" s="4">
         <v>8</v>
       </c>
-      <c r="D541" s="11" t="s">
+      <c r="D541" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E541" s="10" t="s">
+      <c r="E541" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="F541" s="12"/>
-      <c r="G541" s="11" t="s">
+      <c r="F541" s="8"/>
+      <c r="G541" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="H541" s="13"/>
-      <c r="I541" s="11"/>
-      <c r="J541" s="13"/>
-      <c r="K541" s="11"/>
-      <c r="L541" s="13">
+      <c r="H541" s="9"/>
+      <c r="I541" s="7"/>
+      <c r="J541" s="9"/>
+      <c r="K541" s="7"/>
+      <c r="L541" s="9">
         <v>129</v>
       </c>
-      <c r="M541" s="11"/>
-      <c r="N541" s="13"/>
-      <c r="O541" s="11"/>
-      <c r="P541" s="11"/>
-      <c r="Q541" s="13"/>
-      <c r="R541" s="13"/>
-      <c r="S541" s="13"/>
-      <c r="T541" s="13"/>
-      <c r="U541" s="13">
+      <c r="M541" s="7"/>
+      <c r="N541" s="9"/>
+      <c r="O541" s="7"/>
+      <c r="P541" s="7"/>
+      <c r="Q541" s="9"/>
+      <c r="R541" s="9"/>
+      <c r="S541" s="9"/>
+      <c r="T541" s="9"/>
+      <c r="U541" s="9">
         <v>181</v>
       </c>
-      <c r="V541" s="13">
+      <c r="V541" s="9">
         <v>5896</v>
       </c>
-      <c r="W541" s="13">
+      <c r="W541" s="9">
         <v>233</v>
       </c>
-      <c r="X541" s="13">
+      <c r="X541" s="9">
         <v>5296</v>
       </c>
-      <c r="Y541" s="11"/>
-      <c r="Z541" s="11" t="s">
+      <c r="Y541" s="7"/>
+      <c r="Z541" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="AA541" s="11" t="s">
+      <c r="AA541" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="AB541" s="11" t="s">
+      <c r="AB541" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AC541" s="11"/>
-      <c r="AD541" s="10">
+      <c r="AC541" s="7"/>
+      <c r="AD541" s="6">
         <v>170</v>
       </c>
     </row>
@@ -23368,57 +23327,57 @@
       <c r="C542" s="4">
         <v>9</v>
       </c>
-      <c r="D542" s="11" t="s">
+      <c r="D542" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E542" s="10" t="s">
+      <c r="E542" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="F542" s="12" t="s">
+      <c r="F542" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G542" s="11" t="s">
+      <c r="G542" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="H542" s="13"/>
-      <c r="I542" s="11"/>
-      <c r="J542" s="13">
+      <c r="H542" s="9"/>
+      <c r="I542" s="7"/>
+      <c r="J542" s="9">
         <v>5</v>
       </c>
-      <c r="K542" s="11"/>
-      <c r="L542" s="13"/>
-      <c r="M542" s="11"/>
-      <c r="N542" s="13"/>
-      <c r="O542" s="11"/>
-      <c r="P542" s="11"/>
-      <c r="Q542" s="13"/>
-      <c r="R542" s="13"/>
-      <c r="S542" s="13"/>
-      <c r="T542" s="13"/>
-      <c r="U542" s="13">
+      <c r="K542" s="7"/>
+      <c r="L542" s="9"/>
+      <c r="M542" s="7"/>
+      <c r="N542" s="9"/>
+      <c r="O542" s="7"/>
+      <c r="P542" s="7"/>
+      <c r="Q542" s="9"/>
+      <c r="R542" s="9"/>
+      <c r="S542" s="9"/>
+      <c r="T542" s="9"/>
+      <c r="U542" s="9">
         <v>227.8</v>
       </c>
-      <c r="V542" s="13">
+      <c r="V542" s="9">
         <v>5921</v>
       </c>
-      <c r="W542" s="13">
+      <c r="W542" s="9">
         <v>343</v>
       </c>
-      <c r="X542" s="13">
+      <c r="X542" s="9">
         <v>4521</v>
       </c>
-      <c r="Y542" s="11"/>
-      <c r="Z542" s="11" t="s">
+      <c r="Y542" s="7"/>
+      <c r="Z542" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="AA542" s="11" t="s">
+      <c r="AA542" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="AB542" s="11" t="s">
+      <c r="AB542" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AC542" s="11"/>
-      <c r="AD542" s="10">
+      <c r="AC542" s="7"/>
+      <c r="AD542" s="6">
         <v>130</v>
       </c>
     </row>
@@ -23426,53 +23385,53 @@
       <c r="C543" s="4">
         <v>10</v>
       </c>
-      <c r="D543" s="11" t="s">
+      <c r="D543" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E543" s="10" t="s">
+      <c r="E543" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="F543" s="12"/>
-      <c r="G543" s="11"/>
-      <c r="H543" s="13"/>
-      <c r="I543" s="11"/>
-      <c r="J543" s="13"/>
-      <c r="K543" s="11"/>
-      <c r="L543" s="13">
+      <c r="F543" s="8"/>
+      <c r="G543" s="7"/>
+      <c r="H543" s="9"/>
+      <c r="I543" s="7"/>
+      <c r="J543" s="9"/>
+      <c r="K543" s="7"/>
+      <c r="L543" s="9">
         <v>135</v>
       </c>
-      <c r="M543" s="11"/>
-      <c r="N543" s="13"/>
-      <c r="O543" s="11"/>
-      <c r="P543" s="11"/>
-      <c r="Q543" s="13"/>
-      <c r="R543" s="13"/>
-      <c r="S543" s="13"/>
-      <c r="T543" s="13"/>
-      <c r="U543" s="13">
+      <c r="M543" s="7"/>
+      <c r="N543" s="9"/>
+      <c r="O543" s="7"/>
+      <c r="P543" s="7"/>
+      <c r="Q543" s="9"/>
+      <c r="R543" s="9"/>
+      <c r="S543" s="9"/>
+      <c r="T543" s="9"/>
+      <c r="U543" s="9">
         <v>133.4</v>
       </c>
-      <c r="V543" s="13">
+      <c r="V543" s="9">
         <v>6587</v>
       </c>
-      <c r="W543" s="13">
+      <c r="W543" s="9">
         <v>148.5</v>
       </c>
-      <c r="X543" s="13">
+      <c r="X543" s="9">
         <v>4539</v>
       </c>
-      <c r="Y543" s="11"/>
-      <c r="Z543" s="11" t="s">
+      <c r="Y543" s="7"/>
+      <c r="Z543" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="AA543" s="11" t="s">
+      <c r="AA543" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="AB543" s="11" t="s">
+      <c r="AB543" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC543" s="11"/>
-      <c r="AD543" s="10">
+      <c r="AC543" s="7"/>
+      <c r="AD543" s="6">
         <v>80</v>
       </c>
     </row>
@@ -23480,67 +23439,67 @@
       <c r="C544" s="4">
         <v>11</v>
       </c>
-      <c r="D544" s="11" t="s">
+      <c r="D544" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E544" s="10" t="s">
+      <c r="E544" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="F544" s="12" t="s">
+      <c r="F544" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="G544" s="11" t="s">
+      <c r="G544" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="H544" s="13" t="s">
+      <c r="H544" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I544" s="11"/>
-      <c r="J544" s="13"/>
-      <c r="K544" s="11"/>
-      <c r="L544" s="13">
+      <c r="I544" s="7"/>
+      <c r="J544" s="9"/>
+      <c r="K544" s="7"/>
+      <c r="L544" s="9">
         <v>131</v>
       </c>
-      <c r="M544" s="11"/>
-      <c r="N544" s="13"/>
-      <c r="O544" s="11"/>
-      <c r="P544" s="11"/>
-      <c r="Q544" s="13">
+      <c r="M544" s="7"/>
+      <c r="N544" s="9"/>
+      <c r="O544" s="7"/>
+      <c r="P544" s="7"/>
+      <c r="Q544" s="9">
         <v>158.69999999999999</v>
       </c>
-      <c r="R544" s="13">
+      <c r="R544" s="9">
         <v>4020</v>
       </c>
-      <c r="S544" s="13">
+      <c r="S544" s="9">
         <v>348.9</v>
       </c>
-      <c r="T544" s="13">
+      <c r="T544" s="9">
         <v>2359</v>
       </c>
-      <c r="U544" s="13">
+      <c r="U544" s="9">
         <v>160.6</v>
       </c>
-      <c r="V544" s="13">
+      <c r="V544" s="9">
         <v>4049</v>
       </c>
-      <c r="W544" s="13">
+      <c r="W544" s="9">
         <v>350.3</v>
       </c>
-      <c r="X544" s="13">
+      <c r="X544" s="9">
         <v>2430</v>
       </c>
-      <c r="Y544" s="11"/>
-      <c r="Z544" s="11" t="s">
+      <c r="Y544" s="7"/>
+      <c r="Z544" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="AA544" s="11" t="s">
+      <c r="AA544" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="AB544" s="11" t="s">
+      <c r="AB544" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC544" s="11"/>
-      <c r="AD544" s="10">
+      <c r="AC544" s="7"/>
+      <c r="AD544" s="6">
         <v>40</v>
       </c>
     </row>
@@ -23548,119 +23507,119 @@
       <c r="C545" s="4">
         <v>12</v>
       </c>
-      <c r="D545" s="11" t="s">
+      <c r="D545" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E545" s="10" t="s">
+      <c r="E545" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="F545" s="12" t="s">
+      <c r="F545" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G545" s="11" t="s">
+      <c r="G545" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="H545" s="13"/>
-      <c r="I545" s="11"/>
-      <c r="J545" s="13"/>
-      <c r="K545" s="11"/>
-      <c r="L545" s="13">
+      <c r="H545" s="9"/>
+      <c r="I545" s="7"/>
+      <c r="J545" s="9"/>
+      <c r="K545" s="7"/>
+      <c r="L545" s="9">
         <v>220</v>
       </c>
-      <c r="M545" s="11"/>
-      <c r="N545" s="13"/>
-      <c r="O545" s="11"/>
-      <c r="P545" s="11"/>
-      <c r="Q545" s="13">
+      <c r="M545" s="7"/>
+      <c r="N545" s="9"/>
+      <c r="O545" s="7"/>
+      <c r="P545" s="7"/>
+      <c r="Q545" s="9">
         <v>309.60000000000002</v>
       </c>
-      <c r="R545" s="13">
+      <c r="R545" s="9">
         <v>6258</v>
       </c>
-      <c r="S545" s="13">
+      <c r="S545" s="9">
         <v>449.1</v>
       </c>
-      <c r="T545" s="13">
+      <c r="T545" s="9">
         <v>3927</v>
       </c>
-      <c r="U545" s="13">
+      <c r="U545" s="9">
         <v>308.89999999999998</v>
       </c>
-      <c r="V545" s="13">
+      <c r="V545" s="9">
         <v>6376</v>
       </c>
-      <c r="W545" s="13">
+      <c r="W545" s="9">
         <v>447.1</v>
       </c>
-      <c r="X545" s="13">
+      <c r="X545" s="9">
         <v>3904</v>
       </c>
-      <c r="Y545" s="11"/>
-      <c r="Z545" s="11" t="s">
+      <c r="Y545" s="7"/>
+      <c r="Z545" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AA545" s="11" t="s">
+      <c r="AA545" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AB545" s="11" t="s">
+      <c r="AB545" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC545" s="11"/>
-      <c r="AD545" s="10">
+      <c r="AC545" s="7"/>
+      <c r="AD545" s="6">
         <v>45</v>
       </c>
     </row>
     <row r="546" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C546" s="10">
+      <c r="C546" s="6">
         <v>13</v>
       </c>
-      <c r="D546" s="11" t="s">
+      <c r="D546" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E546" s="10" t="s">
+      <c r="E546" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="F546" s="12" t="s">
+      <c r="F546" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G546" s="11"/>
-      <c r="H546" s="13"/>
-      <c r="I546" s="11"/>
-      <c r="J546" s="13"/>
-      <c r="K546" s="11" t="s">
+      <c r="G546" s="7"/>
+      <c r="H546" s="9"/>
+      <c r="I546" s="7"/>
+      <c r="J546" s="9"/>
+      <c r="K546" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L546" s="13">
+      <c r="L546" s="9">
         <v>193</v>
       </c>
-      <c r="M546" s="11"/>
-      <c r="N546" s="13"/>
-      <c r="O546" s="11"/>
-      <c r="P546" s="11"/>
-      <c r="Q546" s="13"/>
-      <c r="R546" s="13"/>
-      <c r="S546" s="13"/>
-      <c r="T546" s="13"/>
-      <c r="U546" s="13">
+      <c r="M546" s="7"/>
+      <c r="N546" s="9"/>
+      <c r="O546" s="7"/>
+      <c r="P546" s="7"/>
+      <c r="Q546" s="9"/>
+      <c r="R546" s="9"/>
+      <c r="S546" s="9"/>
+      <c r="T546" s="9"/>
+      <c r="U546" s="9">
         <v>205</v>
       </c>
-      <c r="V546" s="13"/>
-      <c r="W546" s="13">
+      <c r="V546" s="9"/>
+      <c r="W546" s="9">
         <v>240</v>
       </c>
-      <c r="X546" s="13"/>
-      <c r="Y546" s="11"/>
-      <c r="Z546" s="11" t="s">
+      <c r="X546" s="9"/>
+      <c r="Y546" s="7"/>
+      <c r="Z546" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="AA546" s="11" t="s">
+      <c r="AA546" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="AB546" s="11" t="s">
+      <c r="AB546" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC546" s="11"/>
-      <c r="AD546" s="10">
+      <c r="AC546" s="7"/>
+      <c r="AD546" s="6">
         <v>20</v>
       </c>
     </row>

--- a/devData/H77Dyno.xlsx
+++ b/devData/H77Dyno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\devData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8BE38B-2D2F-42E3-9AF7-43BA619DA727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00F679C-239D-4C95-97D6-C0BF377CA888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H77Dyno" sheetId="1" r:id="rId1"/>
@@ -4980,7 +4980,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5162,13 +5162,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5333,7 +5339,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5341,9 +5347,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5357,20 +5360,24 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5728,8 +5735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="C301" sqref="C301"/>
+    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="D465" sqref="D465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5743,13 +5750,13 @@
     <col min="12" max="12" width="4.5703125" style="3" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="3" customWidth="1"/>
     <col min="15" max="15" width="5.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="1.85546875" style="15" customWidth="1"/>
+    <col min="16" max="16" width="1.85546875" style="18" customWidth="1"/>
     <col min="17" max="17" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2" style="16" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="1.7109375" style="16" customWidth="1"/>
+    <col min="18" max="18" width="2" style="11" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="1.7109375" style="19" customWidth="1"/>
     <col min="20" max="20" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.7109375" style="16" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="1.85546875" style="16" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" style="11" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="1.85546875" style="19" customWidth="1"/>
     <col min="23" max="23" width="2.140625" customWidth="1"/>
     <col min="24" max="24" width="4.7109375" customWidth="1"/>
     <col min="27" max="27" width="5.5703125" customWidth="1"/>
@@ -5760,132 +5767,132 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="15"/>
-      <c r="Q1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="10"/>
+      <c r="Q1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="15"/>
-      <c r="Q2" s="16" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="10"/>
+      <c r="Q2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="17" t="s">
+      <c r="T2" s="11"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="15"/>
+      <c r="AD2" s="10"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="11" t="s">
         <v>1550</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="11" t="s">
         <v>1549</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -18060,22 +18067,31 @@
       <c r="C465" s="4">
         <v>1</v>
       </c>
-      <c r="D465" t="s">
+      <c r="D465" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="E465" s="5" t="s">
+      <c r="E465" s="17" t="s">
         <v>745</v>
       </c>
-      <c r="F465" s="2" t="s">
+      <c r="F465" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="L465" s="3">
+      <c r="G465" s="14"/>
+      <c r="H465" s="16"/>
+      <c r="I465" s="14"/>
+      <c r="J465" s="16"/>
+      <c r="K465" s="14"/>
+      <c r="L465" s="16">
         <v>170</v>
       </c>
-      <c r="Q465" s="3" t="s">
+      <c r="M465" s="14"/>
+      <c r="N465" s="16"/>
+      <c r="O465" s="14"/>
+      <c r="Q465" s="16" t="s">
         <v>1075</v>
       </c>
-      <c r="T465" s="3" t="s">
+      <c r="R465" s="16"/>
+      <c r="T465" s="16" t="s">
         <v>1060</v>
       </c>
       <c r="X465" t="s">
@@ -18506,69 +18522,81 @@
       <c r="C481" s="4">
         <v>1</v>
       </c>
-      <c r="D481" s="11" t="s">
+      <c r="D481" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E481" s="12" t="s">
+      <c r="E481" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="F481" s="13" t="s">
+      <c r="F481" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G481" s="11"/>
-      <c r="H481" s="14"/>
-      <c r="I481" s="11"/>
-      <c r="J481" s="14">
+      <c r="G481" s="6"/>
+      <c r="H481" s="8"/>
+      <c r="I481" s="6"/>
+      <c r="J481" s="8">
         <v>5</v>
       </c>
-      <c r="K481" s="11"/>
-      <c r="L481" s="14">
+      <c r="K481" s="6"/>
+      <c r="L481" s="8">
         <v>136</v>
       </c>
-      <c r="M481" s="11"/>
-      <c r="N481" s="14"/>
-      <c r="O481" s="11"/>
-      <c r="Q481" s="14" t="s">
+      <c r="M481" s="6"/>
+      <c r="N481" s="8"/>
+      <c r="O481" s="6"/>
+      <c r="Q481" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="T481" s="14" t="s">
+      <c r="R481" s="8"/>
+      <c r="T481" s="8" t="s">
         <v>1033</v>
       </c>
-      <c r="W481" s="11"/>
-      <c r="X481" s="11" t="s">
+      <c r="U481" s="8"/>
+      <c r="W481" s="6"/>
+      <c r="X481" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="Y481" s="11"/>
-      <c r="Z481" s="11"/>
-      <c r="AA481" s="11"/>
-      <c r="AB481" s="12"/>
+      <c r="Y481" s="6"/>
+      <c r="Z481" s="6"/>
+      <c r="AA481" s="6"/>
+      <c r="AB481" s="5"/>
     </row>
     <row r="482" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C482" s="4">
         <v>2</v>
       </c>
-      <c r="D482" t="s">
+      <c r="D482" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E482" s="4" t="s">
+      <c r="E482" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="F482" s="2" t="s">
+      <c r="F482" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G482" t="s">
+      <c r="G482" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="L482" s="3">
+      <c r="H482" s="8"/>
+      <c r="I482" s="6"/>
+      <c r="J482" s="8"/>
+      <c r="K482" s="6"/>
+      <c r="L482" s="8">
         <v>170</v>
       </c>
-      <c r="Q482" s="3" t="s">
+      <c r="M482" s="6"/>
+      <c r="N482" s="8"/>
+      <c r="O482" s="6"/>
+      <c r="Q482" s="8" t="s">
         <v>1034</v>
       </c>
-      <c r="T482" s="3" t="s">
+      <c r="R482" s="8"/>
+      <c r="T482" s="8" t="s">
         <v>1035</v>
       </c>
-      <c r="X482" t="s">
+      <c r="U482" s="8"/>
+      <c r="W482" s="6"/>
+      <c r="X482" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -18576,21 +18604,32 @@
       <c r="C483" s="4">
         <v>3</v>
       </c>
-      <c r="D483" t="s">
+      <c r="D483" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E483" s="4" t="s">
+      <c r="E483" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="F483" s="2" t="s">
+      <c r="F483" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="L483" s="3">
+      <c r="G483" s="6"/>
+      <c r="H483" s="8"/>
+      <c r="I483" s="6"/>
+      <c r="J483" s="8"/>
+      <c r="K483" s="6"/>
+      <c r="L483" s="8">
         <v>70</v>
       </c>
-      <c r="T483" s="3" t="s">
+      <c r="M483" s="6"/>
+      <c r="N483" s="8"/>
+      <c r="O483" s="6"/>
+      <c r="Q483" s="8"/>
+      <c r="R483" s="8"/>
+      <c r="T483" s="8" t="s">
         <v>1036</v>
       </c>
+      <c r="U483" s="8"/>
       <c r="X483" t="s">
         <v>557</v>
       </c>
@@ -18599,24 +18638,34 @@
       <c r="C484" s="4">
         <v>4</v>
       </c>
-      <c r="D484" t="s">
+      <c r="D484" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="E484" s="4" t="s">
+      <c r="E484" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="F484" s="2" t="s">
+      <c r="F484" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="J484" s="3">
+      <c r="G484" s="6"/>
+      <c r="H484" s="8"/>
+      <c r="I484" s="6"/>
+      <c r="J484" s="8">
         <v>6</v>
       </c>
-      <c r="L484" s="3">
+      <c r="K484" s="6"/>
+      <c r="L484" s="8">
         <v>170</v>
       </c>
-      <c r="T484" s="3" t="s">
+      <c r="M484" s="6"/>
+      <c r="N484" s="8"/>
+      <c r="O484" s="6"/>
+      <c r="Q484" s="8"/>
+      <c r="R484" s="8"/>
+      <c r="T484" s="8" t="s">
         <v>1039</v>
       </c>
+      <c r="U484" s="8"/>
       <c r="X484" t="s">
         <v>710</v>
       </c>
@@ -18634,27 +18683,36 @@
       <c r="C485" s="4">
         <v>5</v>
       </c>
-      <c r="D485" t="s">
+      <c r="D485" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="E485" s="4" t="s">
+      <c r="E485" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="F485" s="2" t="s">
+      <c r="F485" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G485" t="s">
+      <c r="G485" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="L485" s="3">
+      <c r="H485" s="8"/>
+      <c r="I485" s="6"/>
+      <c r="J485" s="8"/>
+      <c r="K485" s="6"/>
+      <c r="L485" s="8">
         <v>190</v>
       </c>
-      <c r="Q485" s="3" t="s">
+      <c r="M485" s="6"/>
+      <c r="N485" s="8"/>
+      <c r="O485" s="6"/>
+      <c r="Q485" s="8" t="s">
         <v>1037</v>
       </c>
-      <c r="T485" s="3" t="s">
+      <c r="R485" s="8"/>
+      <c r="T485" s="8" t="s">
         <v>1038</v>
       </c>
+      <c r="U485" s="8"/>
       <c r="X485" t="s">
         <v>205</v>
       </c>
@@ -18663,21 +18721,32 @@
       <c r="C486" s="4">
         <v>6</v>
       </c>
-      <c r="D486" t="s">
+      <c r="D486" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E486" s="4" t="s">
+      <c r="E486" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="L486" s="3">
+      <c r="F486" s="7"/>
+      <c r="G486" s="6"/>
+      <c r="H486" s="8"/>
+      <c r="I486" s="6"/>
+      <c r="J486" s="8"/>
+      <c r="K486" s="6"/>
+      <c r="L486" s="8">
         <v>195</v>
       </c>
-      <c r="Q486" s="3" t="s">
+      <c r="M486" s="6"/>
+      <c r="N486" s="8"/>
+      <c r="O486" s="6"/>
+      <c r="Q486" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="T486" s="3" t="s">
+      <c r="R486" s="8"/>
+      <c r="T486" s="8" t="s">
         <v>1041</v>
       </c>
+      <c r="U486" s="8"/>
       <c r="X486" t="s">
         <v>714</v>
       </c>
@@ -18695,24 +18764,33 @@
       <c r="C487" s="4">
         <v>7</v>
       </c>
-      <c r="D487" t="s">
+      <c r="D487" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E487" s="4" t="s">
+      <c r="E487" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="F487" s="2" t="s">
+      <c r="F487" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G487" t="s">
+      <c r="G487" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="L487" s="3">
+      <c r="H487" s="8"/>
+      <c r="I487" s="6"/>
+      <c r="J487" s="8"/>
+      <c r="K487" s="6"/>
+      <c r="L487" s="8">
         <v>156</v>
       </c>
-      <c r="Q487" s="3" t="s">
+      <c r="M487" s="6"/>
+      <c r="N487" s="8"/>
+      <c r="O487" s="6"/>
+      <c r="Q487" s="8" t="s">
         <v>1042</v>
       </c>
+      <c r="R487" s="8"/>
+      <c r="T487" s="8"/>
       <c r="X487" t="s">
         <v>717</v>
       </c>
@@ -18730,28 +18808,35 @@
       <c r="C488" s="4">
         <v>8</v>
       </c>
-      <c r="D488" t="s">
+      <c r="D488" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E488" s="4" t="s">
+      <c r="E488" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="F488" s="2" t="s">
+      <c r="F488" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="G488" t="s">
+      <c r="G488" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="L488" s="3">
+      <c r="H488" s="8"/>
+      <c r="I488" s="6"/>
+      <c r="J488" s="8"/>
+      <c r="K488" s="6"/>
+      <c r="L488" s="8">
         <v>90</v>
       </c>
-      <c r="M488" s="1">
+      <c r="M488" s="9">
         <v>850000</v>
       </c>
-      <c r="Q488" s="3" t="s">
+      <c r="N488" s="8"/>
+      <c r="O488" s="6"/>
+      <c r="Q488" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="T488" s="3" t="s">
+      <c r="R488" s="8"/>
+      <c r="T488" s="8" t="s">
         <v>1044</v>
       </c>
       <c r="X488" t="s">
@@ -18771,22 +18856,31 @@
       <c r="C489" s="4">
         <v>9</v>
       </c>
-      <c r="D489" t="s">
+      <c r="D489" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E489" s="4" t="s">
+      <c r="E489" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="G489" t="s">
+      <c r="F489" s="7"/>
+      <c r="G489" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="J489" s="3">
+      <c r="H489" s="8"/>
+      <c r="I489" s="6"/>
+      <c r="J489" s="8">
         <v>5</v>
       </c>
-      <c r="L489" s="3">
+      <c r="K489" s="6"/>
+      <c r="L489" s="8">
         <v>180</v>
       </c>
-      <c r="T489" s="3" t="s">
+      <c r="M489" s="6"/>
+      <c r="N489" s="8"/>
+      <c r="O489" s="6"/>
+      <c r="Q489" s="8"/>
+      <c r="R489" s="8"/>
+      <c r="T489" s="8" t="s">
         <v>1045</v>
       </c>
       <c r="X489" t="s">
@@ -18806,22 +18900,31 @@
       <c r="C490" s="4">
         <v>10</v>
       </c>
-      <c r="D490" t="s">
+      <c r="D490" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E490" s="4" t="s">
+      <c r="E490" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="J490" s="3">
+      <c r="F490" s="7"/>
+      <c r="G490" s="6"/>
+      <c r="H490" s="8"/>
+      <c r="I490" s="6"/>
+      <c r="J490" s="8">
         <v>5</v>
       </c>
-      <c r="L490" s="3">
+      <c r="K490" s="6"/>
+      <c r="L490" s="8">
         <v>125</v>
       </c>
-      <c r="Q490" s="3" t="s">
+      <c r="M490" s="6"/>
+      <c r="N490" s="8"/>
+      <c r="O490" s="6"/>
+      <c r="Q490" s="8" t="s">
         <v>1046</v>
       </c>
-      <c r="T490" s="3" t="s">
+      <c r="R490" s="8"/>
+      <c r="T490" s="8" t="s">
         <v>1047</v>
       </c>
       <c r="X490" t="s">
@@ -18832,22 +18935,31 @@
       <c r="C491" s="4">
         <v>11</v>
       </c>
-      <c r="D491" t="s">
+      <c r="D491" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E491" s="4" t="s">
+      <c r="E491" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F491" s="2" t="s">
+      <c r="F491" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L491" s="3">
+      <c r="G491" s="6"/>
+      <c r="H491" s="8"/>
+      <c r="I491" s="6"/>
+      <c r="J491" s="8"/>
+      <c r="K491" s="6"/>
+      <c r="L491" s="8">
         <v>139</v>
       </c>
-      <c r="M491" s="1">
+      <c r="M491" s="9">
         <v>167000</v>
       </c>
-      <c r="T491" s="3" t="s">
+      <c r="N491" s="8"/>
+      <c r="O491" s="6"/>
+      <c r="Q491" s="8"/>
+      <c r="R491" s="8"/>
+      <c r="T491" s="8" t="s">
         <v>1048</v>
       </c>
       <c r="X491" t="s">
@@ -18867,25 +18979,33 @@
       <c r="C492" s="4">
         <v>12</v>
       </c>
-      <c r="D492" t="s">
+      <c r="D492" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="E492" s="4">
+      <c r="E492" s="5">
         <v>95</v>
       </c>
-      <c r="F492" s="2" t="s">
+      <c r="F492" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G492" t="s">
+      <c r="G492" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="L492" s="3">
+      <c r="H492" s="8"/>
+      <c r="I492" s="6"/>
+      <c r="J492" s="8"/>
+      <c r="K492" s="6"/>
+      <c r="L492" s="8">
         <v>250</v>
       </c>
-      <c r="Q492" s="3" t="s">
+      <c r="M492" s="6"/>
+      <c r="N492" s="8"/>
+      <c r="O492" s="6"/>
+      <c r="Q492" s="8" t="s">
         <v>1049</v>
       </c>
-      <c r="T492" s="3" t="s">
+      <c r="R492" s="8"/>
+      <c r="T492" s="8" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -18893,28 +19013,35 @@
       <c r="C493" s="4">
         <v>13</v>
       </c>
-      <c r="D493" t="s">
+      <c r="D493" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E493" s="4" t="s">
+      <c r="E493" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="F493" s="2" t="s">
+      <c r="F493" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G493" s="4" t="s">
+      <c r="G493" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="J493" s="3">
+      <c r="H493" s="8"/>
+      <c r="I493" s="6"/>
+      <c r="J493" s="8">
         <v>6</v>
       </c>
-      <c r="L493" s="3">
+      <c r="K493" s="6"/>
+      <c r="L493" s="8">
         <v>170</v>
       </c>
-      <c r="Q493" s="3" t="s">
+      <c r="M493" s="6"/>
+      <c r="N493" s="8"/>
+      <c r="O493" s="6"/>
+      <c r="Q493" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="T493" s="3" t="s">
+      <c r="R493" s="8"/>
+      <c r="T493" s="8" t="s">
         <v>1052</v>
       </c>
       <c r="X493" t="s">
@@ -18925,19 +19052,29 @@
       <c r="C494" s="4">
         <v>14</v>
       </c>
-      <c r="D494" t="s">
+      <c r="D494" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E494" s="4" t="s">
+      <c r="E494" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="F494" s="2" t="s">
+      <c r="F494" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="L494" s="3">
+      <c r="G494" s="6"/>
+      <c r="H494" s="8"/>
+      <c r="I494" s="6"/>
+      <c r="J494" s="8"/>
+      <c r="K494" s="6"/>
+      <c r="L494" s="8">
         <v>174</v>
       </c>
-      <c r="T494" s="3" t="s">
+      <c r="M494" s="6"/>
+      <c r="N494" s="8"/>
+      <c r="O494" s="6"/>
+      <c r="Q494" s="8"/>
+      <c r="R494" s="8"/>
+      <c r="T494" s="8" t="s">
         <v>1053</v>
       </c>
       <c r="X494" t="s">
@@ -18957,25 +19094,33 @@
       <c r="C495" s="4">
         <v>15</v>
       </c>
-      <c r="D495" t="s">
+      <c r="D495" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E495" s="4" t="s">
+      <c r="E495" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="F495" s="2" t="s">
+      <c r="F495" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="L495" s="3">
+      <c r="G495" s="6"/>
+      <c r="H495" s="8"/>
+      <c r="I495" s="6"/>
+      <c r="J495" s="8"/>
+      <c r="K495" s="6"/>
+      <c r="L495" s="8">
         <v>231</v>
       </c>
-      <c r="M495" t="s">
+      <c r="M495" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="Q495" s="3" t="s">
+      <c r="N495" s="8"/>
+      <c r="O495" s="6"/>
+      <c r="Q495" s="8" t="s">
         <v>1054</v>
       </c>
-      <c r="T495" s="3" t="s">
+      <c r="R495" s="8"/>
+      <c r="T495" s="8" t="s">
         <v>1055</v>
       </c>
       <c r="X495" t="s">
@@ -18986,25 +19131,33 @@
       <c r="C496" s="4">
         <v>16</v>
       </c>
-      <c r="D496" t="s">
+      <c r="D496" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E496" s="4" t="s">
+      <c r="E496" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="F496" s="2" t="s">
+      <c r="F496" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="J496" s="3">
+      <c r="G496" s="6"/>
+      <c r="H496" s="8"/>
+      <c r="I496" s="6"/>
+      <c r="J496" s="8">
         <v>5</v>
       </c>
-      <c r="L496" s="3">
+      <c r="K496" s="6"/>
+      <c r="L496" s="8">
         <v>240</v>
       </c>
-      <c r="Q496" s="3" t="s">
+      <c r="M496" s="6"/>
+      <c r="N496" s="8"/>
+      <c r="O496" s="6"/>
+      <c r="Q496" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="T496" s="3" t="s">
+      <c r="R496" s="8"/>
+      <c r="T496" s="8" t="s">
         <v>1057</v>
       </c>
       <c r="X496" t="s">
@@ -19024,22 +19177,31 @@
       <c r="C497" s="4">
         <v>17</v>
       </c>
-      <c r="D497" t="s">
+      <c r="D497" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E497" s="4">
+      <c r="E497" s="5">
         <v>80</v>
       </c>
-      <c r="F497" s="2" t="s">
+      <c r="F497" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L497" s="3">
+      <c r="G497" s="6"/>
+      <c r="H497" s="8"/>
+      <c r="I497" s="6"/>
+      <c r="J497" s="8"/>
+      <c r="K497" s="6"/>
+      <c r="L497" s="8">
         <v>116</v>
       </c>
-      <c r="Q497" s="3" t="s">
+      <c r="M497" s="6"/>
+      <c r="N497" s="8"/>
+      <c r="O497" s="6"/>
+      <c r="Q497" s="8" t="s">
         <v>1058</v>
       </c>
-      <c r="T497" s="3" t="s">
+      <c r="R497" s="8"/>
+      <c r="T497" s="8" t="s">
         <v>1059</v>
       </c>
       <c r="X497" t="s">
@@ -19064,34 +19226,34 @@
       <c r="C499" s="4">
         <v>1</v>
       </c>
-      <c r="D499" s="7" t="s">
+      <c r="D499" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E499" s="6" t="s">
+      <c r="E499" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="F499" s="8" t="s">
+      <c r="F499" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G499" s="7" t="s">
+      <c r="G499" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="H499" s="9"/>
-      <c r="I499" s="7"/>
-      <c r="J499" s="9"/>
-      <c r="K499" s="7"/>
-      <c r="L499" s="9">
+      <c r="H499" s="8"/>
+      <c r="I499" s="6"/>
+      <c r="J499" s="8"/>
+      <c r="K499" s="6"/>
+      <c r="L499" s="8">
         <v>185</v>
       </c>
-      <c r="M499" s="7"/>
-      <c r="N499" s="9"/>
-      <c r="O499" s="7"/>
-      <c r="Q499" s="9"/>
-      <c r="T499" s="9" t="s">
+      <c r="M499" s="6"/>
+      <c r="N499" s="8"/>
+      <c r="O499" s="6"/>
+      <c r="Q499" s="8"/>
+      <c r="T499" s="8" t="s">
         <v>1012</v>
       </c>
-      <c r="W499" s="7"/>
-      <c r="X499" s="7" t="s">
+      <c r="W499" s="6"/>
+      <c r="X499" s="6" t="s">
         <v>436</v>
       </c>
     </row>
@@ -19099,34 +19261,34 @@
       <c r="C500" s="4">
         <v>2</v>
       </c>
-      <c r="D500" s="7" t="s">
+      <c r="D500" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E500" s="6" t="s">
+      <c r="E500" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="F500" s="8" t="s">
+      <c r="F500" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G500" s="7" t="s">
+      <c r="G500" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="H500" s="9"/>
-      <c r="I500" s="7"/>
-      <c r="J500" s="9"/>
-      <c r="K500" s="7"/>
-      <c r="L500" s="9">
+      <c r="H500" s="8"/>
+      <c r="I500" s="6"/>
+      <c r="J500" s="8"/>
+      <c r="K500" s="6"/>
+      <c r="L500" s="8">
         <v>135</v>
       </c>
-      <c r="M500" s="7"/>
-      <c r="N500" s="9"/>
-      <c r="O500" s="7"/>
-      <c r="Q500" s="9"/>
-      <c r="T500" s="9" t="s">
+      <c r="M500" s="6"/>
+      <c r="N500" s="8"/>
+      <c r="O500" s="6"/>
+      <c r="Q500" s="8"/>
+      <c r="T500" s="8" t="s">
         <v>1013</v>
       </c>
-      <c r="W500" s="7"/>
-      <c r="X500" s="7" t="s">
+      <c r="W500" s="6"/>
+      <c r="X500" s="6" t="s">
         <v>541</v>
       </c>
     </row>
@@ -19134,38 +19296,38 @@
       <c r="C501" s="4">
         <v>3</v>
       </c>
-      <c r="D501" s="7" t="s">
+      <c r="D501" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="E501" s="6" t="s">
+      <c r="E501" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="F501" s="8" t="s">
+      <c r="F501" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G501" s="7" t="s">
+      <c r="G501" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="H501" s="9"/>
-      <c r="I501" s="7"/>
-      <c r="J501" s="9"/>
-      <c r="K501" s="7"/>
-      <c r="L501" s="9">
+      <c r="H501" s="8"/>
+      <c r="I501" s="6"/>
+      <c r="J501" s="8"/>
+      <c r="K501" s="6"/>
+      <c r="L501" s="8">
         <v>231</v>
       </c>
-      <c r="M501" s="10">
+      <c r="M501" s="9">
         <v>157115</v>
       </c>
-      <c r="N501" s="9">
+      <c r="N501" s="8">
         <v>2004</v>
       </c>
-      <c r="O501" s="7"/>
-      <c r="Q501" s="9"/>
-      <c r="T501" s="9" t="s">
+      <c r="O501" s="6"/>
+      <c r="Q501" s="8"/>
+      <c r="T501" s="8" t="s">
         <v>1014</v>
       </c>
-      <c r="W501" s="7"/>
-      <c r="X501" s="7" t="s">
+      <c r="W501" s="6"/>
+      <c r="X501" s="6" t="s">
         <v>422</v>
       </c>
     </row>
@@ -19173,78 +19335,78 @@
       <c r="C502" s="4">
         <v>4</v>
       </c>
-      <c r="D502" s="7" t="s">
+      <c r="D502" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E502" s="6" t="s">
+      <c r="E502" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="F502" s="8" t="s">
+      <c r="F502" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G502" s="7"/>
-      <c r="H502" s="9"/>
-      <c r="I502" s="7"/>
-      <c r="J502" s="9"/>
-      <c r="K502" s="7"/>
-      <c r="L502" s="9">
+      <c r="G502" s="6"/>
+      <c r="H502" s="8"/>
+      <c r="I502" s="6"/>
+      <c r="J502" s="8"/>
+      <c r="K502" s="6"/>
+      <c r="L502" s="8">
         <v>115</v>
       </c>
-      <c r="M502" s="10">
+      <c r="M502" s="9">
         <v>396000</v>
       </c>
-      <c r="N502" s="9"/>
-      <c r="O502" s="7"/>
-      <c r="Q502" s="9"/>
-      <c r="T502" s="9" t="s">
+      <c r="N502" s="8"/>
+      <c r="O502" s="6"/>
+      <c r="Q502" s="8"/>
+      <c r="T502" s="8" t="s">
         <v>1015</v>
       </c>
-      <c r="W502" s="7"/>
-      <c r="X502" s="7" t="s">
+      <c r="W502" s="6"/>
+      <c r="X502" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="Y502" s="7"/>
+      <c r="Y502" s="6"/>
     </row>
     <row r="503" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C503" s="4">
         <v>5</v>
       </c>
-      <c r="D503" s="7" t="s">
+      <c r="D503" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E503" s="6" t="s">
+      <c r="E503" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="F503" s="8" t="s">
+      <c r="F503" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G503" s="7"/>
-      <c r="H503" s="9"/>
-      <c r="I503" s="7"/>
-      <c r="J503" s="9"/>
-      <c r="K503" s="7"/>
-      <c r="L503" s="9">
+      <c r="G503" s="6"/>
+      <c r="H503" s="8"/>
+      <c r="I503" s="6"/>
+      <c r="J503" s="8"/>
+      <c r="K503" s="6"/>
+      <c r="L503" s="8">
         <v>125</v>
       </c>
-      <c r="M503" s="7"/>
-      <c r="N503" s="9"/>
-      <c r="O503" s="7"/>
-      <c r="Q503" s="9"/>
-      <c r="T503" s="9" t="s">
+      <c r="M503" s="6"/>
+      <c r="N503" s="8"/>
+      <c r="O503" s="6"/>
+      <c r="Q503" s="8"/>
+      <c r="T503" s="8" t="s">
         <v>1016</v>
       </c>
-      <c r="W503" s="7"/>
-      <c r="X503" s="7" t="s">
+      <c r="W503" s="6"/>
+      <c r="X503" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="Y503" s="7" t="s">
+      <c r="Y503" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="Z503" s="7" t="s">
+      <c r="Z503" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="AA503" s="7"/>
-      <c r="AB503" s="6">
+      <c r="AA503" s="6"/>
+      <c r="AB503" s="5">
         <v>380</v>
       </c>
     </row>
@@ -19252,175 +19414,175 @@
       <c r="C504" s="4">
         <v>6</v>
       </c>
-      <c r="D504" s="7" t="s">
+      <c r="D504" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E504" s="6" t="s">
+      <c r="E504" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="F504" s="8" t="s">
+      <c r="F504" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G504" s="7"/>
-      <c r="H504" s="9"/>
-      <c r="I504" s="7"/>
-      <c r="J504" s="9"/>
-      <c r="K504" s="7"/>
-      <c r="L504" s="9">
+      <c r="G504" s="6"/>
+      <c r="H504" s="8"/>
+      <c r="I504" s="6"/>
+      <c r="J504" s="8"/>
+      <c r="K504" s="6"/>
+      <c r="L504" s="8">
         <v>75</v>
       </c>
-      <c r="M504" s="10">
+      <c r="M504" s="9">
         <v>464568</v>
       </c>
-      <c r="N504" s="9"/>
-      <c r="O504" s="7"/>
-      <c r="Q504" s="9"/>
-      <c r="T504" s="9" t="s">
+      <c r="N504" s="8"/>
+      <c r="O504" s="6"/>
+      <c r="Q504" s="8"/>
+      <c r="T504" s="8" t="s">
         <v>1017</v>
       </c>
-      <c r="W504" s="7"/>
-      <c r="X504" s="7" t="s">
+      <c r="W504" s="6"/>
+      <c r="X504" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="Y504" s="7"/>
-      <c r="Z504" s="7"/>
-      <c r="AA504" s="7"/>
+      <c r="Y504" s="6"/>
+      <c r="Z504" s="6"/>
+      <c r="AA504" s="6"/>
     </row>
     <row r="505" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C505" s="4">
         <v>7</v>
       </c>
-      <c r="D505" s="7" t="s">
+      <c r="D505" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E505" s="6" t="s">
+      <c r="E505" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="F505" s="8"/>
-      <c r="G505" s="7"/>
-      <c r="H505" s="9"/>
-      <c r="I505" s="7"/>
-      <c r="J505" s="9"/>
-      <c r="K505" s="7"/>
-      <c r="L505" s="9">
+      <c r="F505" s="7"/>
+      <c r="G505" s="6"/>
+      <c r="H505" s="8"/>
+      <c r="I505" s="6"/>
+      <c r="J505" s="8"/>
+      <c r="K505" s="6"/>
+      <c r="L505" s="8">
         <v>90</v>
       </c>
-      <c r="M505" s="7"/>
-      <c r="N505" s="9"/>
-      <c r="O505" s="7"/>
-      <c r="Q505" s="9" t="s">
+      <c r="M505" s="6"/>
+      <c r="N505" s="8"/>
+      <c r="O505" s="6"/>
+      <c r="Q505" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="T505" s="9" t="s">
+      <c r="T505" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="W505" s="7"/>
-      <c r="X505" s="7" t="s">
+      <c r="W505" s="6"/>
+      <c r="X505" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="Y505" s="7"/>
+      <c r="Y505" s="6"/>
     </row>
     <row r="506" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C506" s="4">
         <v>8</v>
       </c>
-      <c r="D506" s="7" t="s">
+      <c r="D506" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E506" s="6" t="s">
+      <c r="E506" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="F506" s="8" t="s">
+      <c r="F506" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G506" s="7"/>
-      <c r="H506" s="9"/>
-      <c r="I506" s="7"/>
-      <c r="J506" s="9"/>
-      <c r="K506" s="7"/>
-      <c r="L506" s="9">
+      <c r="G506" s="6"/>
+      <c r="H506" s="8"/>
+      <c r="I506" s="6"/>
+      <c r="J506" s="8"/>
+      <c r="K506" s="6"/>
+      <c r="L506" s="8">
         <v>285</v>
       </c>
-      <c r="M506" s="7"/>
-      <c r="N506" s="9"/>
-      <c r="O506" s="7"/>
-      <c r="Q506" s="9"/>
-      <c r="T506" s="9" t="s">
+      <c r="M506" s="6"/>
+      <c r="N506" s="8"/>
+      <c r="O506" s="6"/>
+      <c r="Q506" s="8"/>
+      <c r="T506" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="W506" s="7"/>
+      <c r="W506" s="6"/>
     </row>
     <row r="507" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C507" s="4">
         <v>9</v>
       </c>
-      <c r="D507" s="7" t="s">
+      <c r="D507" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E507" s="6" t="s">
+      <c r="E507" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="F507" s="8" t="s">
+      <c r="F507" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G507" s="7"/>
-      <c r="H507" s="9" t="s">
+      <c r="G507" s="6"/>
+      <c r="H507" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I507" s="7"/>
-      <c r="J507" s="9"/>
-      <c r="K507" s="7"/>
-      <c r="L507" s="9">
+      <c r="I507" s="6"/>
+      <c r="J507" s="8"/>
+      <c r="K507" s="6"/>
+      <c r="L507" s="8">
         <v>116</v>
       </c>
-      <c r="M507" s="7"/>
-      <c r="N507" s="9"/>
-      <c r="O507" s="7"/>
-      <c r="Q507" s="9"/>
-      <c r="T507" s="9" t="s">
+      <c r="M507" s="6"/>
+      <c r="N507" s="8"/>
+      <c r="O507" s="6"/>
+      <c r="Q507" s="8"/>
+      <c r="T507" s="8" t="s">
         <v>1023</v>
       </c>
-      <c r="W507" s="7"/>
-      <c r="X507" s="7"/>
-      <c r="Y507" s="7"/>
+      <c r="W507" s="6"/>
+      <c r="X507" s="6"/>
+      <c r="Y507" s="6"/>
     </row>
     <row r="508" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C508" s="4">
         <v>10</v>
       </c>
-      <c r="D508" s="7" t="s">
+      <c r="D508" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E508" s="6" t="s">
+      <c r="E508" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="F508" s="8" t="s">
+      <c r="F508" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G508" s="7" t="s">
+      <c r="G508" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="H508" s="9"/>
-      <c r="I508" s="7"/>
-      <c r="J508" s="9"/>
-      <c r="K508" s="7"/>
-      <c r="L508" s="9">
+      <c r="H508" s="8"/>
+      <c r="I508" s="6"/>
+      <c r="J508" s="8"/>
+      <c r="K508" s="6"/>
+      <c r="L508" s="8">
         <v>150</v>
       </c>
-      <c r="M508" s="7"/>
-      <c r="N508" s="9"/>
-      <c r="O508" s="7"/>
-      <c r="Q508" s="9" t="s">
+      <c r="M508" s="6"/>
+      <c r="N508" s="8"/>
+      <c r="O508" s="6"/>
+      <c r="Q508" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="T508" s="9" t="s">
+      <c r="T508" s="8" t="s">
         <v>1025</v>
       </c>
-      <c r="W508" s="7"/>
-      <c r="X508" s="7" t="s">
+      <c r="W508" s="6"/>
+      <c r="X508" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="Y508" s="7" t="s">
+      <c r="Y508" s="6" t="s">
         <v>697</v>
       </c>
       <c r="Z508" t="s">
@@ -19434,78 +19596,78 @@
       <c r="C509" s="4">
         <v>11</v>
       </c>
-      <c r="D509" s="7" t="s">
+      <c r="D509" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E509" s="6" t="s">
+      <c r="E509" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="F509" s="8"/>
-      <c r="G509" s="7"/>
-      <c r="H509" s="9"/>
-      <c r="I509" s="7"/>
-      <c r="J509" s="9"/>
-      <c r="K509" s="7"/>
-      <c r="L509" s="9">
+      <c r="F509" s="7"/>
+      <c r="G509" s="6"/>
+      <c r="H509" s="8"/>
+      <c r="I509" s="6"/>
+      <c r="J509" s="8"/>
+      <c r="K509" s="6"/>
+      <c r="L509" s="8">
         <v>150</v>
       </c>
-      <c r="M509" s="10">
+      <c r="M509" s="9">
         <v>250000</v>
       </c>
-      <c r="N509" s="9"/>
-      <c r="O509" s="7"/>
-      <c r="Q509" s="9"/>
-      <c r="T509" s="9" t="s">
+      <c r="N509" s="8"/>
+      <c r="O509" s="6"/>
+      <c r="Q509" s="8"/>
+      <c r="T509" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="W509" s="7"/>
-      <c r="X509" s="7" t="s">
+      <c r="W509" s="6"/>
+      <c r="X509" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y509" s="7"/>
+      <c r="Y509" s="6"/>
     </row>
     <row r="510" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C510" s="4">
         <v>12</v>
       </c>
-      <c r="D510" s="7" t="s">
+      <c r="D510" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E510" s="6" t="s">
+      <c r="E510" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F510" s="8"/>
-      <c r="G510" s="7" t="s">
+      <c r="F510" s="7"/>
+      <c r="G510" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="H510" s="9"/>
-      <c r="I510" s="7"/>
-      <c r="J510" s="9"/>
-      <c r="K510" s="7"/>
-      <c r="L510" s="9">
+      <c r="H510" s="8"/>
+      <c r="I510" s="6"/>
+      <c r="J510" s="8"/>
+      <c r="K510" s="6"/>
+      <c r="L510" s="8">
         <v>147</v>
       </c>
-      <c r="M510" s="7"/>
-      <c r="N510" s="9"/>
-      <c r="O510" s="7"/>
-      <c r="Q510" s="9" t="s">
+      <c r="M510" s="6"/>
+      <c r="N510" s="8"/>
+      <c r="O510" s="6"/>
+      <c r="Q510" s="8" t="s">
         <v>1026</v>
       </c>
-      <c r="T510" s="9" t="s">
+      <c r="T510" s="8" t="s">
         <v>1031</v>
       </c>
-      <c r="W510" s="7"/>
-      <c r="X510" s="7" t="s">
+      <c r="W510" s="6"/>
+      <c r="X510" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="Y510" s="7" t="s">
+      <c r="Y510" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="Z510" s="7" t="s">
+      <c r="Z510" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AA510" s="7"/>
-      <c r="AB510" s="6">
+      <c r="AA510" s="6"/>
+      <c r="AB510" s="5">
         <v>500</v>
       </c>
     </row>
@@ -19513,74 +19675,74 @@
       <c r="C511" s="4">
         <v>13</v>
       </c>
-      <c r="D511" s="7" t="s">
+      <c r="D511" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E511" s="6" t="s">
+      <c r="E511" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="F511" s="8" t="s">
+      <c r="F511" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G511" s="7"/>
-      <c r="H511" s="9"/>
-      <c r="I511" s="7"/>
-      <c r="J511" s="9"/>
-      <c r="K511" s="7"/>
-      <c r="L511" s="9">
+      <c r="G511" s="6"/>
+      <c r="H511" s="8"/>
+      <c r="I511" s="6"/>
+      <c r="J511" s="8"/>
+      <c r="K511" s="6"/>
+      <c r="L511" s="8">
         <v>55</v>
       </c>
-      <c r="M511" s="7"/>
-      <c r="N511" s="9"/>
-      <c r="O511" s="7"/>
-      <c r="Q511" s="9"/>
-      <c r="T511" s="9" t="s">
+      <c r="M511" s="6"/>
+      <c r="N511" s="8"/>
+      <c r="O511" s="6"/>
+      <c r="Q511" s="8"/>
+      <c r="T511" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="W511" s="7"/>
-      <c r="X511" s="7"/>
-      <c r="Y511" s="7"/>
-      <c r="Z511" s="7"/>
-      <c r="AA511" s="7"/>
-      <c r="AB511" s="6"/>
+      <c r="W511" s="6"/>
+      <c r="X511" s="6"/>
+      <c r="Y511" s="6"/>
+      <c r="Z511" s="6"/>
+      <c r="AA511" s="6"/>
+      <c r="AB511" s="5"/>
     </row>
     <row r="512" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C512" s="4">
         <v>14</v>
       </c>
-      <c r="D512" s="7" t="s">
+      <c r="D512" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E512" s="6" t="s">
+      <c r="E512" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="F512" s="8" t="s">
+      <c r="F512" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G512" s="7"/>
-      <c r="H512" s="9"/>
-      <c r="I512" s="7"/>
-      <c r="J512" s="9">
+      <c r="G512" s="6"/>
+      <c r="H512" s="8"/>
+      <c r="I512" s="6"/>
+      <c r="J512" s="8">
         <v>5</v>
       </c>
-      <c r="K512" s="7"/>
-      <c r="L512" s="9">
+      <c r="K512" s="6"/>
+      <c r="L512" s="8">
         <v>133</v>
       </c>
-      <c r="M512" s="7"/>
-      <c r="N512" s="9"/>
-      <c r="O512" s="7"/>
-      <c r="Q512" s="9" t="s">
+      <c r="M512" s="6"/>
+      <c r="N512" s="8"/>
+      <c r="O512" s="6"/>
+      <c r="Q512" s="8" t="s">
         <v>1027</v>
       </c>
-      <c r="T512" s="9" t="s">
+      <c r="T512" s="8" t="s">
         <v>1028</v>
       </c>
-      <c r="W512" s="7"/>
-      <c r="X512" s="7" t="s">
+      <c r="W512" s="6"/>
+      <c r="X512" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="Y512" s="7"/>
+      <c r="Y512" s="6"/>
     </row>
     <row r="513" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C513" s="4">
@@ -19617,75 +19779,75 @@
       <c r="C515" s="4">
         <v>1</v>
       </c>
-      <c r="D515" s="7" t="s">
+      <c r="D515" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="E515" s="6" t="s">
+      <c r="E515" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="F515" s="8" t="s">
+      <c r="F515" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G515" s="7" t="s">
+      <c r="G515" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="H515" s="9"/>
-      <c r="I515" s="7"/>
-      <c r="J515" s="9"/>
-      <c r="K515" s="7"/>
-      <c r="L515" s="9">
+      <c r="H515" s="8"/>
+      <c r="I515" s="6"/>
+      <c r="J515" s="8"/>
+      <c r="K515" s="6"/>
+      <c r="L515" s="8">
         <v>200</v>
       </c>
-      <c r="M515" s="7"/>
-      <c r="N515" s="9"/>
-      <c r="O515" s="7"/>
-      <c r="Q515" s="9" t="s">
+      <c r="M515" s="6"/>
+      <c r="N515" s="8"/>
+      <c r="O515" s="6"/>
+      <c r="Q515" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T515" s="9" t="s">
+      <c r="T515" s="8" t="s">
         <v>1154</v>
       </c>
-      <c r="W515" s="7"/>
-      <c r="X515" s="7" t="s">
+      <c r="W515" s="6"/>
+      <c r="X515" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="Y515" s="7"/>
+      <c r="Y515" s="6"/>
     </row>
     <row r="516" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C516" s="4">
         <v>2</v>
       </c>
-      <c r="D516" s="7" t="s">
+      <c r="D516" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E516" s="6" t="s">
+      <c r="E516" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="F516" s="8" t="s">
+      <c r="F516" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G516" s="7"/>
-      <c r="H516" s="9"/>
-      <c r="I516" s="7"/>
-      <c r="J516" s="9"/>
-      <c r="K516" s="7"/>
-      <c r="L516" s="9">
+      <c r="G516" s="6"/>
+      <c r="H516" s="8"/>
+      <c r="I516" s="6"/>
+      <c r="J516" s="8"/>
+      <c r="K516" s="6"/>
+      <c r="L516" s="8">
         <v>95</v>
       </c>
-      <c r="M516" s="7"/>
-      <c r="N516" s="9"/>
-      <c r="O516" s="7"/>
-      <c r="Q516" s="9" t="s">
+      <c r="M516" s="6"/>
+      <c r="N516" s="8"/>
+      <c r="O516" s="6"/>
+      <c r="Q516" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="T516" s="9" t="s">
+      <c r="T516" s="8" t="s">
         <v>1155</v>
       </c>
-      <c r="W516" s="7"/>
-      <c r="X516" s="7" t="s">
+      <c r="W516" s="6"/>
+      <c r="X516" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="Y516" s="7" t="s">
+      <c r="Y516" s="6" t="s">
         <v>669</v>
       </c>
       <c r="Z516" t="s">
@@ -19699,50 +19861,50 @@
       <c r="C517" s="4">
         <v>3</v>
       </c>
-      <c r="D517" s="7" t="s">
+      <c r="D517" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E517" s="6" t="s">
+      <c r="E517" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="F517" s="8" t="s">
+      <c r="F517" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="G517" s="7" t="s">
+      <c r="G517" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="H517" s="9"/>
-      <c r="I517" s="7"/>
-      <c r="J517" s="9">
+      <c r="H517" s="8"/>
+      <c r="I517" s="6"/>
+      <c r="J517" s="8">
         <v>6</v>
       </c>
-      <c r="K517" s="7"/>
-      <c r="L517" s="9">
+      <c r="K517" s="6"/>
+      <c r="L517" s="8">
         <v>231</v>
       </c>
-      <c r="M517" s="10">
+      <c r="M517" s="9">
         <v>377473</v>
       </c>
-      <c r="N517" s="9"/>
-      <c r="O517" s="7"/>
-      <c r="Q517" s="9" t="s">
+      <c r="N517" s="8"/>
+      <c r="O517" s="6"/>
+      <c r="Q517" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="T517" s="9" t="s">
+      <c r="T517" s="8" t="s">
         <v>1156</v>
       </c>
-      <c r="W517" s="7"/>
-      <c r="X517" s="7" t="s">
+      <c r="W517" s="6"/>
+      <c r="X517" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="Y517" s="7" t="s">
+      <c r="Y517" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="Z517" s="7" t="s">
+      <c r="Z517" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AA517" s="7"/>
-      <c r="AB517" s="6">
+      <c r="AA517" s="6"/>
+      <c r="AB517" s="5">
         <v>252</v>
       </c>
     </row>
@@ -19750,74 +19912,74 @@
       <c r="C518" s="4">
         <v>4</v>
       </c>
-      <c r="D518" s="7" t="s">
+      <c r="D518" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E518" s="6" t="s">
+      <c r="E518" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="F518" s="8" t="s">
+      <c r="F518" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G518" s="7" t="s">
+      <c r="G518" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="H518" s="9"/>
-      <c r="I518" s="7"/>
-      <c r="J518" s="9"/>
-      <c r="K518" s="7"/>
-      <c r="L518" s="9">
+      <c r="H518" s="8"/>
+      <c r="I518" s="6"/>
+      <c r="J518" s="8"/>
+      <c r="K518" s="6"/>
+      <c r="L518" s="8">
         <v>240</v>
       </c>
-      <c r="M518" s="7"/>
-      <c r="N518" s="9"/>
-      <c r="O518" s="7"/>
-      <c r="Q518" s="9" t="s">
+      <c r="M518" s="6"/>
+      <c r="N518" s="8"/>
+      <c r="O518" s="6"/>
+      <c r="Q518" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T518" s="9" t="s">
+      <c r="T518" s="8" t="s">
         <v>1157</v>
       </c>
-      <c r="W518" s="7"/>
-      <c r="X518" s="7"/>
-      <c r="Y518" s="7"/>
+      <c r="W518" s="6"/>
+      <c r="X518" s="6"/>
+      <c r="Y518" s="6"/>
     </row>
     <row r="519" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C519" s="4">
         <v>5</v>
       </c>
-      <c r="D519" s="7" t="s">
+      <c r="D519" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E519" s="6"/>
-      <c r="F519" s="8" t="s">
+      <c r="E519" s="5"/>
+      <c r="F519" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G519" s="7" t="s">
+      <c r="G519" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="H519" s="9"/>
-      <c r="I519" s="7"/>
-      <c r="J519" s="9"/>
-      <c r="K519" s="7" t="s">
+      <c r="H519" s="8"/>
+      <c r="I519" s="6"/>
+      <c r="J519" s="8"/>
+      <c r="K519" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L519" s="9">
+      <c r="L519" s="8">
         <v>113</v>
       </c>
-      <c r="M519" s="10">
+      <c r="M519" s="9">
         <v>137872</v>
       </c>
-      <c r="N519" s="9"/>
-      <c r="O519" s="7"/>
-      <c r="Q519" s="9" t="s">
+      <c r="N519" s="8"/>
+      <c r="O519" s="6"/>
+      <c r="Q519" s="8" t="s">
         <v>1151</v>
       </c>
-      <c r="T519" s="9" t="s">
+      <c r="T519" s="8" t="s">
         <v>1158</v>
       </c>
-      <c r="W519" s="7"/>
-      <c r="X519" s="7" t="s">
+      <c r="W519" s="6"/>
+      <c r="X519" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -19825,40 +19987,40 @@
       <c r="C520" s="4">
         <v>6</v>
       </c>
-      <c r="D520" s="7" t="s">
+      <c r="D520" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E520" s="6" t="s">
+      <c r="E520" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="F520" s="8" t="s">
+      <c r="F520" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G520" s="7"/>
-      <c r="H520" s="9"/>
-      <c r="I520" s="7"/>
-      <c r="J520" s="9">
+      <c r="G520" s="6"/>
+      <c r="H520" s="8"/>
+      <c r="I520" s="6"/>
+      <c r="J520" s="8">
         <v>6</v>
       </c>
-      <c r="K520" s="7"/>
-      <c r="L520" s="9">
+      <c r="K520" s="6"/>
+      <c r="L520" s="8">
         <v>174</v>
       </c>
-      <c r="M520" s="10">
+      <c r="M520" s="9">
         <v>320000</v>
       </c>
-      <c r="N520" s="9">
+      <c r="N520" s="8">
         <v>1983</v>
       </c>
-      <c r="O520" s="7"/>
-      <c r="Q520" s="9" t="s">
+      <c r="O520" s="6"/>
+      <c r="Q520" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T520" s="9" t="s">
+      <c r="T520" s="8" t="s">
         <v>1159</v>
       </c>
-      <c r="W520" s="7"/>
-      <c r="X520" s="7" t="s">
+      <c r="W520" s="6"/>
+      <c r="X520" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -19866,71 +20028,71 @@
       <c r="C521" s="4">
         <v>7</v>
       </c>
-      <c r="D521" s="7" t="s">
+      <c r="D521" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E521" s="6" t="s">
+      <c r="E521" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="F521" s="8" t="s">
+      <c r="F521" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G521" s="7"/>
-      <c r="H521" s="9"/>
-      <c r="I521" s="7"/>
-      <c r="J521" s="9">
+      <c r="G521" s="6"/>
+      <c r="H521" s="8"/>
+      <c r="I521" s="6"/>
+      <c r="J521" s="8">
         <v>6</v>
       </c>
-      <c r="K521" s="7"/>
-      <c r="L521" s="9">
+      <c r="K521" s="6"/>
+      <c r="L521" s="8">
         <v>150</v>
       </c>
-      <c r="M521" s="10"/>
-      <c r="N521" s="9"/>
-      <c r="O521" s="7"/>
-      <c r="Q521" s="9" t="s">
+      <c r="M521" s="9"/>
+      <c r="N521" s="8"/>
+      <c r="O521" s="6"/>
+      <c r="Q521" s="8" t="s">
         <v>1152</v>
       </c>
-      <c r="T521" s="9" t="s">
+      <c r="T521" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="W521" s="7"/>
-      <c r="X521" s="7"/>
+      <c r="W521" s="6"/>
+      <c r="X521" s="6"/>
     </row>
     <row r="522" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C522" s="4">
         <v>8</v>
       </c>
-      <c r="D522" s="7" t="s">
+      <c r="D522" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E522" s="6" t="s">
+      <c r="E522" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="F522" s="8" t="s">
+      <c r="F522" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G522" s="7"/>
-      <c r="H522" s="9" t="s">
+      <c r="G522" s="6"/>
+      <c r="H522" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I522" s="7"/>
-      <c r="J522" s="9"/>
-      <c r="K522" s="7"/>
-      <c r="L522" s="9">
+      <c r="I522" s="6"/>
+      <c r="J522" s="8"/>
+      <c r="K522" s="6"/>
+      <c r="L522" s="8">
         <v>140</v>
       </c>
-      <c r="M522" s="10"/>
-      <c r="N522" s="9"/>
-      <c r="O522" s="7"/>
-      <c r="Q522" s="9" t="s">
+      <c r="M522" s="9"/>
+      <c r="N522" s="8"/>
+      <c r="O522" s="6"/>
+      <c r="Q522" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="T522" s="9" t="s">
+      <c r="T522" s="8" t="s">
         <v>1161</v>
       </c>
-      <c r="W522" s="7"/>
-      <c r="X522" s="7" t="s">
+      <c r="W522" s="6"/>
+      <c r="X522" s="6" t="s">
         <v>320</v>
       </c>
     </row>
@@ -19938,34 +20100,34 @@
       <c r="C523" s="4">
         <v>9</v>
       </c>
-      <c r="D523" s="7" t="s">
+      <c r="D523" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E523" s="6" t="s">
+      <c r="E523" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="F523" s="8" t="s">
+      <c r="F523" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G523" s="7" t="s">
+      <c r="G523" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="H523" s="9"/>
-      <c r="I523" s="7"/>
-      <c r="J523" s="9"/>
-      <c r="K523" s="7"/>
-      <c r="L523" s="9">
+      <c r="H523" s="8"/>
+      <c r="I523" s="6"/>
+      <c r="J523" s="8"/>
+      <c r="K523" s="6"/>
+      <c r="L523" s="8">
         <v>200</v>
       </c>
-      <c r="M523" s="10"/>
-      <c r="N523" s="9"/>
-      <c r="O523" s="7"/>
-      <c r="Q523" s="9"/>
-      <c r="T523" s="9" t="s">
+      <c r="M523" s="9"/>
+      <c r="N523" s="8"/>
+      <c r="O523" s="6"/>
+      <c r="Q523" s="8"/>
+      <c r="T523" s="8" t="s">
         <v>1162</v>
       </c>
-      <c r="W523" s="7"/>
-      <c r="X523" s="7" t="s">
+      <c r="W523" s="6"/>
+      <c r="X523" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -19973,36 +20135,36 @@
       <c r="C524" s="4">
         <v>10</v>
       </c>
-      <c r="D524" s="7" t="s">
+      <c r="D524" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="E524" s="6" t="s">
+      <c r="E524" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="F524" s="8" t="s">
+      <c r="F524" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G524" s="7" t="s">
+      <c r="G524" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="H524" s="9"/>
-      <c r="I524" s="7"/>
-      <c r="J524" s="9"/>
-      <c r="K524" s="7"/>
-      <c r="L524" s="9">
+      <c r="H524" s="8"/>
+      <c r="I524" s="6"/>
+      <c r="J524" s="8"/>
+      <c r="K524" s="6"/>
+      <c r="L524" s="8">
         <v>245</v>
       </c>
-      <c r="M524" s="10">
+      <c r="M524" s="9">
         <v>8000</v>
       </c>
-      <c r="N524" s="9"/>
-      <c r="O524" s="7"/>
-      <c r="Q524" s="9"/>
-      <c r="T524" s="9" t="s">
+      <c r="N524" s="8"/>
+      <c r="O524" s="6"/>
+      <c r="Q524" s="8"/>
+      <c r="T524" s="8" t="s">
         <v>1163</v>
       </c>
-      <c r="W524" s="7"/>
-      <c r="X524" s="7" t="s">
+      <c r="W524" s="6"/>
+      <c r="X524" s="6" t="s">
         <v>376</v>
       </c>
     </row>
@@ -20015,38 +20177,38 @@
       <c r="C526" s="4">
         <v>1</v>
       </c>
-      <c r="D526" s="7" t="s">
+      <c r="D526" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E526" s="6" t="s">
+      <c r="E526" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="F526" s="8" t="s">
+      <c r="F526" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G526" s="7" t="s">
+      <c r="G526" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="H526" s="9"/>
-      <c r="I526" s="7"/>
-      <c r="J526" s="9"/>
-      <c r="K526" s="7" t="s">
+      <c r="H526" s="8"/>
+      <c r="I526" s="6"/>
+      <c r="J526" s="8"/>
+      <c r="K526" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L526" s="9">
+      <c r="L526" s="8">
         <v>140</v>
       </c>
-      <c r="M526" s="7"/>
-      <c r="N526" s="9"/>
-      <c r="O526" s="7"/>
-      <c r="Q526" s="9" t="s">
+      <c r="M526" s="6"/>
+      <c r="N526" s="8"/>
+      <c r="O526" s="6"/>
+      <c r="Q526" s="8" t="s">
         <v>1124</v>
       </c>
-      <c r="T526" s="9" t="s">
+      <c r="T526" s="8" t="s">
         <v>1135</v>
       </c>
-      <c r="W526" s="7"/>
-      <c r="X526" s="7" t="s">
+      <c r="W526" s="6"/>
+      <c r="X526" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -20054,68 +20216,68 @@
       <c r="C527" s="4">
         <v>2</v>
       </c>
-      <c r="D527" s="7" t="s">
+      <c r="D527" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E527" s="6" t="s">
+      <c r="E527" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="F527" s="8"/>
-      <c r="G527" s="7"/>
-      <c r="H527" s="9"/>
-      <c r="I527" s="7"/>
-      <c r="J527" s="9"/>
-      <c r="K527" s="7"/>
-      <c r="L527" s="9">
+      <c r="F527" s="7"/>
+      <c r="G527" s="6"/>
+      <c r="H527" s="8"/>
+      <c r="I527" s="6"/>
+      <c r="J527" s="8"/>
+      <c r="K527" s="6"/>
+      <c r="L527" s="8">
         <v>241</v>
       </c>
-      <c r="M527" s="7"/>
-      <c r="N527" s="9"/>
-      <c r="O527" s="7"/>
-      <c r="Q527" s="9" t="s">
+      <c r="M527" s="6"/>
+      <c r="N527" s="8"/>
+      <c r="O527" s="6"/>
+      <c r="Q527" s="8" t="s">
         <v>1125</v>
       </c>
-      <c r="T527" s="9" t="s">
+      <c r="T527" s="8" t="s">
         <v>1136</v>
       </c>
-      <c r="W527" s="7"/>
+      <c r="W527" s="6"/>
     </row>
     <row r="528" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C528" s="4">
         <v>3</v>
       </c>
-      <c r="D528" s="7" t="s">
+      <c r="D528" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E528" s="6" t="s">
+      <c r="E528" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="F528" s="8" t="s">
+      <c r="F528" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G528" s="7" t="s">
+      <c r="G528" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="H528" s="9"/>
-      <c r="I528" s="7"/>
-      <c r="J528" s="9"/>
-      <c r="K528" s="7"/>
-      <c r="L528" s="9">
+      <c r="H528" s="8"/>
+      <c r="I528" s="6"/>
+      <c r="J528" s="8"/>
+      <c r="K528" s="6"/>
+      <c r="L528" s="8">
         <v>122</v>
       </c>
-      <c r="M528" s="10">
+      <c r="M528" s="9">
         <v>197000</v>
       </c>
-      <c r="N528" s="9"/>
-      <c r="O528" s="7"/>
-      <c r="Q528" s="9" t="s">
+      <c r="N528" s="8"/>
+      <c r="O528" s="6"/>
+      <c r="Q528" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T528" s="9" t="s">
+      <c r="T528" s="8" t="s">
         <v>1137</v>
       </c>
-      <c r="W528" s="7"/>
-      <c r="X528" s="7" t="s">
+      <c r="W528" s="6"/>
+      <c r="X528" s="6" t="s">
         <v>376</v>
       </c>
     </row>
@@ -20123,36 +20285,36 @@
       <c r="C529" s="4">
         <v>4</v>
       </c>
-      <c r="D529" s="7" t="s">
+      <c r="D529" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E529" s="6" t="s">
+      <c r="E529" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="F529" s="8" t="s">
+      <c r="F529" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="G529" s="7" t="s">
+      <c r="G529" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="H529" s="9"/>
-      <c r="I529" s="7"/>
-      <c r="J529" s="9"/>
-      <c r="K529" s="7"/>
-      <c r="L529" s="9">
+      <c r="H529" s="8"/>
+      <c r="I529" s="6"/>
+      <c r="J529" s="8"/>
+      <c r="K529" s="6"/>
+      <c r="L529" s="8">
         <v>115</v>
       </c>
-      <c r="M529" s="7"/>
-      <c r="N529" s="9"/>
-      <c r="O529" s="7"/>
-      <c r="Q529" s="9" t="s">
+      <c r="M529" s="6"/>
+      <c r="N529" s="8"/>
+      <c r="O529" s="6"/>
+      <c r="Q529" s="8" t="s">
         <v>1127</v>
       </c>
-      <c r="T529" s="9" t="s">
+      <c r="T529" s="8" t="s">
         <v>1138</v>
       </c>
-      <c r="W529" s="7"/>
-      <c r="X529" s="7" t="s">
+      <c r="W529" s="6"/>
+      <c r="X529" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -20160,38 +20322,38 @@
       <c r="C530" s="4">
         <v>5</v>
       </c>
-      <c r="D530" s="7" t="s">
+      <c r="D530" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E530" s="6" t="s">
+      <c r="E530" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F530" s="8" t="s">
+      <c r="F530" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G530" s="7" t="s">
+      <c r="G530" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="H530" s="9"/>
-      <c r="I530" s="7"/>
-      <c r="J530" s="9"/>
-      <c r="K530" s="7"/>
-      <c r="L530" s="9">
+      <c r="H530" s="8"/>
+      <c r="I530" s="6"/>
+      <c r="J530" s="8"/>
+      <c r="K530" s="6"/>
+      <c r="L530" s="8">
         <v>102</v>
       </c>
-      <c r="M530" s="10">
+      <c r="M530" s="9">
         <v>550881</v>
       </c>
-      <c r="N530" s="9"/>
-      <c r="O530" s="7"/>
-      <c r="Q530" s="9" t="s">
+      <c r="N530" s="8"/>
+      <c r="O530" s="6"/>
+      <c r="Q530" s="8" t="s">
         <v>1128</v>
       </c>
-      <c r="T530" s="9" t="s">
+      <c r="T530" s="8" t="s">
         <v>1139</v>
       </c>
-      <c r="W530" s="7"/>
-      <c r="X530" s="7" t="s">
+      <c r="W530" s="6"/>
+      <c r="X530" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -20199,79 +20361,79 @@
       <c r="C531" s="4">
         <v>6</v>
       </c>
-      <c r="D531" s="7" t="s">
+      <c r="D531" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E531" s="6" t="s">
+      <c r="E531" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="F531" s="8" t="s">
+      <c r="F531" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G531" s="7"/>
-      <c r="H531" s="9"/>
-      <c r="I531" s="7"/>
-      <c r="J531" s="9">
+      <c r="G531" s="6"/>
+      <c r="H531" s="8"/>
+      <c r="I531" s="6"/>
+      <c r="J531" s="8">
         <v>5</v>
       </c>
-      <c r="K531" s="7"/>
-      <c r="L531" s="9">
+      <c r="K531" s="6"/>
+      <c r="L531" s="8">
         <v>133</v>
       </c>
-      <c r="M531" s="7"/>
-      <c r="N531" s="9"/>
-      <c r="O531" s="7"/>
-      <c r="Q531" s="9" t="s">
+      <c r="M531" s="6"/>
+      <c r="N531" s="8"/>
+      <c r="O531" s="6"/>
+      <c r="Q531" s="8" t="s">
         <v>1129</v>
       </c>
-      <c r="T531" s="9" t="s">
+      <c r="T531" s="8" t="s">
         <v>1140</v>
       </c>
-      <c r="W531" s="7"/>
-      <c r="X531" s="7" t="s">
+      <c r="W531" s="6"/>
+      <c r="X531" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="Y531" s="7"/>
+      <c r="Y531" s="6"/>
     </row>
     <row r="532" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C532" s="4">
         <v>7</v>
       </c>
-      <c r="D532" s="7" t="s">
+      <c r="D532" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E532" s="6" t="s">
+      <c r="E532" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="F532" s="8" t="s">
+      <c r="F532" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="G532" s="7"/>
-      <c r="H532" s="9" t="s">
+      <c r="G532" s="6"/>
+      <c r="H532" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I532" s="7"/>
-      <c r="J532" s="9"/>
-      <c r="K532" s="7"/>
-      <c r="L532" s="9">
+      <c r="I532" s="6"/>
+      <c r="J532" s="8"/>
+      <c r="K532" s="6"/>
+      <c r="L532" s="8">
         <v>150</v>
       </c>
-      <c r="M532" s="10">
+      <c r="M532" s="9">
         <v>200000</v>
       </c>
-      <c r="N532" s="9"/>
-      <c r="O532" s="7"/>
-      <c r="Q532" s="9" t="s">
+      <c r="N532" s="8"/>
+      <c r="O532" s="6"/>
+      <c r="Q532" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T532" s="9" t="s">
+      <c r="T532" s="8" t="s">
         <v>1141</v>
       </c>
-      <c r="W532" s="7"/>
-      <c r="X532" s="7" t="s">
+      <c r="W532" s="6"/>
+      <c r="X532" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="Y532" s="7" t="s">
+      <c r="Y532" s="6" t="s">
         <v>648</v>
       </c>
       <c r="Z532" t="s">
@@ -20285,88 +20447,88 @@
       <c r="C533" s="4">
         <v>8</v>
       </c>
-      <c r="D533" s="7" t="s">
+      <c r="D533" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E533" s="6" t="s">
+      <c r="E533" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="F533" s="8" t="s">
+      <c r="F533" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="G533" s="7" t="s">
+      <c r="G533" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="H533" s="9"/>
-      <c r="I533" s="7"/>
-      <c r="J533" s="9">
+      <c r="H533" s="8"/>
+      <c r="I533" s="6"/>
+      <c r="J533" s="8">
         <v>8</v>
       </c>
-      <c r="K533" s="7"/>
-      <c r="L533" s="9"/>
-      <c r="M533" s="7"/>
-      <c r="N533" s="9">
+      <c r="K533" s="6"/>
+      <c r="L533" s="8"/>
+      <c r="M533" s="6"/>
+      <c r="N533" s="8">
         <v>1969</v>
       </c>
-      <c r="O533" s="7"/>
-      <c r="Q533" s="9" t="s">
+      <c r="O533" s="6"/>
+      <c r="Q533" s="8" t="s">
         <v>1130</v>
       </c>
-      <c r="T533" s="9" t="s">
+      <c r="T533" s="8" t="s">
         <v>1142</v>
       </c>
-      <c r="W533" s="7"/>
-      <c r="X533" s="7"/>
-      <c r="Y533" s="7"/>
-      <c r="Z533" s="7"/>
-      <c r="AA533" s="7"/>
+      <c r="W533" s="6"/>
+      <c r="X533" s="6"/>
+      <c r="Y533" s="6"/>
+      <c r="Z533" s="6"/>
+      <c r="AA533" s="6"/>
     </row>
     <row r="534" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C534" s="4">
         <v>9</v>
       </c>
-      <c r="D534" s="7" t="s">
+      <c r="D534" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E534" s="6" t="s">
+      <c r="E534" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="F534" s="8" t="s">
+      <c r="F534" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G534" s="7" t="s">
+      <c r="G534" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="H534" s="9"/>
-      <c r="I534" s="7"/>
-      <c r="J534" s="9">
+      <c r="H534" s="8"/>
+      <c r="I534" s="6"/>
+      <c r="J534" s="8">
         <v>5</v>
       </c>
-      <c r="K534" s="7"/>
-      <c r="L534" s="9">
+      <c r="K534" s="6"/>
+      <c r="L534" s="8">
         <v>133</v>
       </c>
-      <c r="M534" s="7"/>
-      <c r="N534" s="9"/>
-      <c r="O534" s="7"/>
-      <c r="Q534" s="9" t="s">
+      <c r="M534" s="6"/>
+      <c r="N534" s="8"/>
+      <c r="O534" s="6"/>
+      <c r="Q534" s="8" t="s">
         <v>1131</v>
       </c>
-      <c r="T534" s="9" t="s">
+      <c r="T534" s="8" t="s">
         <v>1143</v>
       </c>
-      <c r="W534" s="7"/>
-      <c r="X534" s="7" t="s">
+      <c r="W534" s="6"/>
+      <c r="X534" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="Y534" s="7" t="s">
+      <c r="Y534" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="Z534" s="7" t="s">
+      <c r="Z534" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AA534" s="7"/>
-      <c r="AB534" s="6">
+      <c r="AA534" s="6"/>
+      <c r="AB534" s="5">
         <v>580</v>
       </c>
     </row>
@@ -20374,160 +20536,160 @@
       <c r="C535" s="4">
         <v>10</v>
       </c>
-      <c r="D535" s="7" t="s">
+      <c r="D535" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E535" s="6" t="s">
+      <c r="E535" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="F535" s="8" t="s">
+      <c r="F535" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G535" s="7"/>
-      <c r="H535" s="9"/>
-      <c r="I535" s="7"/>
-      <c r="J535" s="9">
+      <c r="G535" s="6"/>
+      <c r="H535" s="8"/>
+      <c r="I535" s="6"/>
+      <c r="J535" s="8">
         <v>6</v>
       </c>
-      <c r="K535" s="7"/>
-      <c r="L535" s="9">
+      <c r="K535" s="6"/>
+      <c r="L535" s="8">
         <v>136</v>
       </c>
-      <c r="M535" s="7"/>
-      <c r="N535" s="9"/>
-      <c r="O535" s="7"/>
-      <c r="Q535" s="9" t="s">
+      <c r="M535" s="6"/>
+      <c r="N535" s="8"/>
+      <c r="O535" s="6"/>
+      <c r="Q535" s="8" t="s">
         <v>1132</v>
       </c>
-      <c r="T535" s="9" t="s">
+      <c r="T535" s="8" t="s">
         <v>1144</v>
       </c>
-      <c r="W535" s="7"/>
-      <c r="X535" s="7" t="s">
+      <c r="W535" s="6"/>
+      <c r="X535" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Y535" s="7"/>
-      <c r="Z535" s="7"/>
+      <c r="Y535" s="6"/>
+      <c r="Z535" s="6"/>
     </row>
     <row r="536" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C536" s="4">
         <v>11</v>
       </c>
-      <c r="D536" s="7" t="s">
+      <c r="D536" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E536" s="6" t="s">
+      <c r="E536" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="F536" s="8"/>
-      <c r="G536" s="7" t="s">
+      <c r="F536" s="7"/>
+      <c r="G536" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="H536" s="9"/>
-      <c r="I536" s="7"/>
-      <c r="J536" s="9"/>
-      <c r="K536" s="7"/>
-      <c r="L536" s="9">
+      <c r="H536" s="8"/>
+      <c r="I536" s="6"/>
+      <c r="J536" s="8"/>
+      <c r="K536" s="6"/>
+      <c r="L536" s="8">
         <v>136</v>
       </c>
-      <c r="M536" s="7"/>
-      <c r="N536" s="9"/>
-      <c r="O536" s="7"/>
-      <c r="Q536" s="9" t="s">
+      <c r="M536" s="6"/>
+      <c r="N536" s="8"/>
+      <c r="O536" s="6"/>
+      <c r="Q536" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T536" s="9" t="s">
+      <c r="T536" s="8" t="s">
         <v>1145</v>
       </c>
-      <c r="W536" s="7"/>
-      <c r="X536" s="7" t="s">
+      <c r="W536" s="6"/>
+      <c r="X536" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="Y536" s="7"/>
+      <c r="Y536" s="6"/>
     </row>
     <row r="537" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C537" s="4">
         <v>12</v>
       </c>
-      <c r="D537" s="7" t="s">
+      <c r="D537" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="E537" s="6" t="s">
+      <c r="E537" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="F537" s="8" t="s">
+      <c r="F537" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="G537" s="7"/>
-      <c r="H537" s="9" t="s">
+      <c r="G537" s="6"/>
+      <c r="H537" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I537" s="7"/>
-      <c r="J537" s="9"/>
-      <c r="K537" s="7"/>
-      <c r="L537" s="9">
+      <c r="I537" s="6"/>
+      <c r="J537" s="8"/>
+      <c r="K537" s="6"/>
+      <c r="L537" s="8">
         <v>145</v>
       </c>
-      <c r="M537" s="7"/>
-      <c r="N537" s="9"/>
-      <c r="O537" s="7"/>
-      <c r="Q537" s="9" t="s">
+      <c r="M537" s="6"/>
+      <c r="N537" s="8"/>
+      <c r="O537" s="6"/>
+      <c r="Q537" s="8" t="s">
         <v>1133</v>
       </c>
-      <c r="T537" s="9" t="s">
+      <c r="T537" s="8" t="s">
         <v>1146</v>
       </c>
-      <c r="W537" s="7"/>
-      <c r="X537" s="7" t="s">
+      <c r="W537" s="6"/>
+      <c r="X537" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Y537" s="7"/>
-      <c r="Z537" s="7"/>
-      <c r="AA537" s="7"/>
-      <c r="AB537" s="6"/>
+      <c r="Y537" s="6"/>
+      <c r="Z537" s="6"/>
+      <c r="AA537" s="6"/>
+      <c r="AB537" s="5"/>
     </row>
     <row r="538" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C538" s="4">
         <v>13</v>
       </c>
-      <c r="D538" s="7" t="s">
+      <c r="D538" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E538" s="6"/>
-      <c r="F538" s="8" t="s">
+      <c r="E538" s="5"/>
+      <c r="F538" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G538" s="7"/>
-      <c r="H538" s="9"/>
-      <c r="I538" s="7"/>
-      <c r="J538" s="9"/>
-      <c r="K538" s="7"/>
-      <c r="L538" s="9">
+      <c r="G538" s="6"/>
+      <c r="H538" s="8"/>
+      <c r="I538" s="6"/>
+      <c r="J538" s="8"/>
+      <c r="K538" s="6"/>
+      <c r="L538" s="8">
         <v>131</v>
       </c>
-      <c r="M538" s="10">
+      <c r="M538" s="9">
         <v>300000</v>
       </c>
-      <c r="N538" s="9"/>
-      <c r="O538" s="7"/>
-      <c r="Q538" s="9" t="s">
+      <c r="N538" s="8"/>
+      <c r="O538" s="6"/>
+      <c r="Q538" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T538" s="9" t="s">
+      <c r="T538" s="8" t="s">
         <v>1147</v>
       </c>
-      <c r="W538" s="7"/>
-      <c r="X538" s="7" t="s">
+      <c r="W538" s="6"/>
+      <c r="X538" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="Y538" s="7" t="s">
+      <c r="Y538" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="Z538" s="7" t="s">
+      <c r="Z538" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AA538" s="7"/>
-      <c r="AB538" s="6">
+      <c r="AA538" s="6"/>
+      <c r="AB538" s="5">
         <v>180</v>
       </c>
     </row>
@@ -20535,46 +20697,46 @@
       <c r="C539" s="4">
         <v>14</v>
       </c>
-      <c r="D539" s="7" t="s">
+      <c r="D539" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E539" s="6" t="s">
+      <c r="E539" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="F539" s="8"/>
-      <c r="G539" s="7" t="s">
+      <c r="F539" s="7"/>
+      <c r="G539" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="H539" s="9"/>
-      <c r="I539" s="7"/>
-      <c r="J539" s="9"/>
-      <c r="K539" s="7"/>
-      <c r="L539" s="9">
+      <c r="H539" s="8"/>
+      <c r="I539" s="6"/>
+      <c r="J539" s="8"/>
+      <c r="K539" s="6"/>
+      <c r="L539" s="8">
         <v>193</v>
       </c>
-      <c r="M539" s="10">
+      <c r="M539" s="9">
         <v>335000</v>
       </c>
-      <c r="N539" s="9"/>
-      <c r="O539" s="7"/>
-      <c r="Q539" s="9" t="s">
+      <c r="N539" s="8"/>
+      <c r="O539" s="6"/>
+      <c r="Q539" s="8" t="s">
         <v>1134</v>
       </c>
-      <c r="T539" s="9" t="s">
+      <c r="T539" s="8" t="s">
         <v>1148</v>
       </c>
-      <c r="W539" s="7"/>
-      <c r="X539" s="7" t="s">
+      <c r="W539" s="6"/>
+      <c r="X539" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="Y539" s="7" t="s">
+      <c r="Y539" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="Z539" s="7" t="s">
+      <c r="Z539" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AA539" s="7"/>
-      <c r="AB539" s="6">
+      <c r="AA539" s="6"/>
+      <c r="AB539" s="5">
         <v>250</v>
       </c>
     </row>
@@ -20587,44 +20749,44 @@
       <c r="C541" s="4">
         <v>1</v>
       </c>
-      <c r="D541" s="7" t="s">
+      <c r="D541" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E541" s="6">
+      <c r="E541" s="5">
         <v>968</v>
       </c>
-      <c r="F541" s="8" t="s">
+      <c r="F541" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="G541" s="7"/>
-      <c r="H541" s="9"/>
-      <c r="I541" s="7"/>
-      <c r="J541" s="9"/>
-      <c r="K541" s="7"/>
-      <c r="L541" s="9">
+      <c r="G541" s="6"/>
+      <c r="H541" s="8"/>
+      <c r="I541" s="6"/>
+      <c r="J541" s="8"/>
+      <c r="K541" s="6"/>
+      <c r="L541" s="8">
         <v>240</v>
       </c>
-      <c r="M541" s="7"/>
-      <c r="N541" s="9"/>
-      <c r="O541" s="7"/>
-      <c r="Q541" s="9" t="s">
+      <c r="M541" s="6"/>
+      <c r="N541" s="8"/>
+      <c r="O541" s="6"/>
+      <c r="Q541" s="8" t="s">
         <v>1108</v>
       </c>
-      <c r="T541" s="9" t="s">
+      <c r="T541" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="W541" s="7"/>
-      <c r="X541" s="7" t="s">
+      <c r="W541" s="6"/>
+      <c r="X541" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="Y541" s="7" t="s">
+      <c r="Y541" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="Z541" s="7" t="s">
+      <c r="Z541" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="AA541" s="7"/>
-      <c r="AB541" s="6">
+      <c r="AA541" s="6"/>
+      <c r="AB541" s="5">
         <v>400</v>
       </c>
     </row>
@@ -20632,79 +20794,79 @@
       <c r="C542" s="4">
         <v>2</v>
       </c>
-      <c r="D542" s="7" t="s">
+      <c r="D542" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E542" s="6" t="s">
+      <c r="E542" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="F542" s="8" t="s">
+      <c r="F542" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G542" s="7" t="s">
+      <c r="G542" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="H542" s="9"/>
-      <c r="I542" s="7"/>
-      <c r="J542" s="9"/>
-      <c r="K542" s="7"/>
-      <c r="L542" s="9">
+      <c r="H542" s="8"/>
+      <c r="I542" s="6"/>
+      <c r="J542" s="8"/>
+      <c r="K542" s="6"/>
+      <c r="L542" s="8">
         <v>165</v>
       </c>
-      <c r="M542" s="7"/>
-      <c r="N542" s="9"/>
-      <c r="O542" s="7"/>
-      <c r="Q542" s="9"/>
-      <c r="T542" s="9" t="s">
+      <c r="M542" s="6"/>
+      <c r="N542" s="8"/>
+      <c r="O542" s="6"/>
+      <c r="Q542" s="8"/>
+      <c r="T542" s="8" t="s">
         <v>1114</v>
       </c>
-      <c r="W542" s="7"/>
-      <c r="X542" s="7"/>
-      <c r="Y542" s="7"/>
-      <c r="Z542" s="7"/>
-      <c r="AA542" s="7"/>
-      <c r="AB542" s="6"/>
+      <c r="W542" s="6"/>
+      <c r="X542" s="6"/>
+      <c r="Y542" s="6"/>
+      <c r="Z542" s="6"/>
+      <c r="AA542" s="6"/>
+      <c r="AB542" s="5"/>
     </row>
     <row r="543" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C543" s="4">
         <v>3</v>
       </c>
-      <c r="D543" s="7" t="s">
+      <c r="D543" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E543" s="6" t="s">
+      <c r="E543" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="F543" s="8" t="s">
+      <c r="F543" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G543" s="7"/>
-      <c r="H543" s="9"/>
-      <c r="I543" s="7"/>
-      <c r="J543" s="9"/>
-      <c r="K543" s="7"/>
-      <c r="L543" s="9">
+      <c r="G543" s="6"/>
+      <c r="H543" s="8"/>
+      <c r="I543" s="6"/>
+      <c r="J543" s="8"/>
+      <c r="K543" s="6"/>
+      <c r="L543" s="8">
         <v>230</v>
       </c>
-      <c r="M543" s="7"/>
-      <c r="N543" s="9"/>
-      <c r="O543" s="7"/>
-      <c r="Q543" s="9"/>
-      <c r="T543" s="9" t="s">
+      <c r="M543" s="6"/>
+      <c r="N543" s="8"/>
+      <c r="O543" s="6"/>
+      <c r="Q543" s="8"/>
+      <c r="T543" s="8" t="s">
         <v>1115</v>
       </c>
-      <c r="W543" s="7"/>
-      <c r="X543" s="7" t="s">
+      <c r="W543" s="6"/>
+      <c r="X543" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="Y543" s="7" t="s">
+      <c r="Y543" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="Z543" s="7" t="s">
+      <c r="Z543" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA543" s="7"/>
-      <c r="AB543" s="6">
+      <c r="AA543" s="6"/>
+      <c r="AB543" s="5">
         <v>70</v>
       </c>
     </row>
@@ -20712,46 +20874,46 @@
       <c r="C544" s="4">
         <v>4</v>
       </c>
-      <c r="D544" s="7" t="s">
+      <c r="D544" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E544" s="6" t="s">
+      <c r="E544" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="F544" s="8" t="s">
+      <c r="F544" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G544" s="7"/>
-      <c r="H544" s="9"/>
-      <c r="I544" s="7"/>
-      <c r="J544" s="9">
+      <c r="G544" s="6"/>
+      <c r="H544" s="8"/>
+      <c r="I544" s="6"/>
+      <c r="J544" s="8">
         <v>5</v>
       </c>
-      <c r="K544" s="7"/>
-      <c r="L544" s="9">
+      <c r="K544" s="6"/>
+      <c r="L544" s="8">
         <v>305</v>
       </c>
-      <c r="M544" s="7"/>
-      <c r="N544" s="9"/>
-      <c r="O544" s="7"/>
-      <c r="Q544" s="9" t="s">
+      <c r="M544" s="6"/>
+      <c r="N544" s="8"/>
+      <c r="O544" s="6"/>
+      <c r="Q544" s="8" t="s">
         <v>1109</v>
       </c>
-      <c r="T544" s="9" t="s">
+      <c r="T544" s="8" t="s">
         <v>1116</v>
       </c>
-      <c r="W544" s="7"/>
-      <c r="X544" s="7" t="s">
+      <c r="W544" s="6"/>
+      <c r="X544" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="Y544" s="7" t="s">
+      <c r="Y544" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="Z544" s="7" t="s">
+      <c r="Z544" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA544" s="7"/>
-      <c r="AB544" s="6">
+      <c r="AA544" s="6"/>
+      <c r="AB544" s="5">
         <v>70</v>
       </c>
     </row>
@@ -20759,46 +20921,46 @@
       <c r="C545" s="4">
         <v>5</v>
       </c>
-      <c r="D545" s="7" t="s">
+      <c r="D545" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E545" s="6" t="s">
+      <c r="E545" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="F545" s="8" t="s">
+      <c r="F545" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G545" s="7"/>
-      <c r="H545" s="9"/>
-      <c r="I545" s="7"/>
-      <c r="J545" s="9"/>
-      <c r="K545" s="7"/>
-      <c r="L545" s="9">
+      <c r="G545" s="6"/>
+      <c r="H545" s="8"/>
+      <c r="I545" s="6"/>
+      <c r="J545" s="8"/>
+      <c r="K545" s="6"/>
+      <c r="L545" s="8">
         <v>75</v>
       </c>
-      <c r="M545" s="10">
+      <c r="M545" s="9">
         <v>226000</v>
       </c>
-      <c r="N545" s="9"/>
-      <c r="O545" s="7"/>
-      <c r="Q545" s="9" t="s">
+      <c r="N545" s="8"/>
+      <c r="O545" s="6"/>
+      <c r="Q545" s="8" t="s">
         <v>1110</v>
       </c>
-      <c r="T545" s="9" t="s">
+      <c r="T545" s="8" t="s">
         <v>1117</v>
       </c>
-      <c r="W545" s="7"/>
-      <c r="X545" s="7" t="s">
+      <c r="W545" s="6"/>
+      <c r="X545" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="Y545" s="7" t="s">
+      <c r="Y545" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="Z545" s="7" t="s">
+      <c r="Z545" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA545" s="7"/>
-      <c r="AB545" s="6">
+      <c r="AA545" s="6"/>
+      <c r="AB545" s="5">
         <v>70</v>
       </c>
     </row>
@@ -20806,42 +20968,42 @@
       <c r="C546" s="4">
         <v>6</v>
       </c>
-      <c r="D546" s="7" t="s">
+      <c r="D546" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E546" s="6" t="s">
+      <c r="E546" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="F546" s="8" t="s">
+      <c r="F546" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G546" s="7"/>
-      <c r="H546" s="9"/>
-      <c r="I546" s="7"/>
-      <c r="J546" s="9"/>
-      <c r="K546" s="7"/>
-      <c r="L546" s="9">
+      <c r="G546" s="6"/>
+      <c r="H546" s="8"/>
+      <c r="I546" s="6"/>
+      <c r="J546" s="8"/>
+      <c r="K546" s="6"/>
+      <c r="L546" s="8">
         <v>150</v>
       </c>
-      <c r="M546" s="7"/>
-      <c r="N546" s="9"/>
-      <c r="O546" s="7"/>
-      <c r="Q546" s="9"/>
-      <c r="T546" s="9" t="s">
+      <c r="M546" s="6"/>
+      <c r="N546" s="8"/>
+      <c r="O546" s="6"/>
+      <c r="Q546" s="8"/>
+      <c r="T546" s="8" t="s">
         <v>1118</v>
       </c>
-      <c r="W546" s="7"/>
-      <c r="X546" s="7" t="s">
+      <c r="W546" s="6"/>
+      <c r="X546" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="Y546" s="7" t="s">
+      <c r="Y546" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="Z546" s="7" t="s">
+      <c r="Z546" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AA546" s="7"/>
-      <c r="AB546" s="6">
+      <c r="AA546" s="6"/>
+      <c r="AB546" s="5">
         <v>220</v>
       </c>
     </row>
@@ -20849,48 +21011,48 @@
       <c r="C547" s="4">
         <v>7</v>
       </c>
-      <c r="D547" s="7" t="s">
+      <c r="D547" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E547" s="6" t="s">
+      <c r="E547" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="F547" s="8"/>
-      <c r="G547" s="7"/>
-      <c r="H547" s="9"/>
-      <c r="I547" s="7"/>
-      <c r="J547" s="9">
+      <c r="F547" s="7"/>
+      <c r="G547" s="6"/>
+      <c r="H547" s="8"/>
+      <c r="I547" s="6"/>
+      <c r="J547" s="8">
         <v>8</v>
       </c>
-      <c r="K547" s="7" t="s">
+      <c r="K547" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L547" s="9">
+      <c r="L547" s="8">
         <v>306</v>
       </c>
-      <c r="M547" s="10">
+      <c r="M547" s="9">
         <v>303000</v>
       </c>
-      <c r="N547" s="9"/>
-      <c r="O547" s="7"/>
-      <c r="Q547" s="9" t="s">
+      <c r="N547" s="8"/>
+      <c r="O547" s="6"/>
+      <c r="Q547" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="T547" s="9" t="s">
+      <c r="T547" s="8" t="s">
         <v>1119</v>
       </c>
-      <c r="W547" s="7"/>
-      <c r="X547" s="7" t="s">
+      <c r="W547" s="6"/>
+      <c r="X547" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="Y547" s="7" t="s">
+      <c r="Y547" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="Z547" s="7" t="s">
+      <c r="Z547" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA547" s="7"/>
-      <c r="AB547" s="6">
+      <c r="AA547" s="6"/>
+      <c r="AB547" s="5">
         <v>30</v>
       </c>
     </row>
@@ -20898,81 +21060,81 @@
       <c r="C548" s="4">
         <v>8</v>
       </c>
-      <c r="D548" s="7" t="s">
+      <c r="D548" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="E548" s="6" t="s">
+      <c r="E548" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="F548" s="8" t="s">
+      <c r="F548" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G548" s="7" t="s">
+      <c r="G548" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="H548" s="9"/>
-      <c r="I548" s="7"/>
-      <c r="J548" s="9"/>
-      <c r="K548" s="7"/>
-      <c r="L548" s="9">
+      <c r="H548" s="8"/>
+      <c r="I548" s="6"/>
+      <c r="J548" s="8"/>
+      <c r="K548" s="6"/>
+      <c r="L548" s="8">
         <v>125</v>
       </c>
-      <c r="M548" s="7"/>
-      <c r="N548" s="9"/>
-      <c r="O548" s="7"/>
-      <c r="Q548" s="9"/>
-      <c r="T548" s="9" t="s">
+      <c r="M548" s="6"/>
+      <c r="N548" s="8"/>
+      <c r="O548" s="6"/>
+      <c r="Q548" s="8"/>
+      <c r="T548" s="8" t="s">
         <v>1120</v>
       </c>
-      <c r="W548" s="7"/>
-      <c r="X548" s="7"/>
-      <c r="Y548" s="7"/>
-      <c r="Z548" s="7"/>
-      <c r="AA548" s="7"/>
-      <c r="AB548" s="6"/>
+      <c r="W548" s="6"/>
+      <c r="X548" s="6"/>
+      <c r="Y548" s="6"/>
+      <c r="Z548" s="6"/>
+      <c r="AA548" s="6"/>
+      <c r="AB548" s="5"/>
     </row>
     <row r="549" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C549" s="4">
         <v>9</v>
       </c>
-      <c r="D549" s="7" t="s">
+      <c r="D549" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E549" s="6" t="s">
+      <c r="E549" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="F549" s="8" t="s">
+      <c r="F549" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="G549" s="7"/>
-      <c r="H549" s="9"/>
-      <c r="I549" s="7"/>
-      <c r="J549" s="9">
+      <c r="G549" s="6"/>
+      <c r="H549" s="8"/>
+      <c r="I549" s="6"/>
+      <c r="J549" s="8">
         <v>8</v>
       </c>
-      <c r="K549" s="7"/>
-      <c r="L549" s="9">
+      <c r="K549" s="6"/>
+      <c r="L549" s="8">
         <v>367</v>
       </c>
-      <c r="M549" s="7"/>
-      <c r="N549" s="9"/>
-      <c r="O549" s="7"/>
-      <c r="Q549" s="9"/>
-      <c r="T549" s="9" t="s">
+      <c r="M549" s="6"/>
+      <c r="N549" s="8"/>
+      <c r="O549" s="6"/>
+      <c r="Q549" s="8"/>
+      <c r="T549" s="8" t="s">
         <v>1121</v>
       </c>
-      <c r="W549" s="7"/>
-      <c r="X549" s="7" t="s">
+      <c r="W549" s="6"/>
+      <c r="X549" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="Y549" s="7" t="s">
+      <c r="Y549" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="Z549" s="7" t="s">
+      <c r="Z549" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA549" s="7"/>
-      <c r="AB549" s="6">
+      <c r="AA549" s="6"/>
+      <c r="AB549" s="5">
         <v>45</v>
       </c>
     </row>
@@ -20980,46 +21142,46 @@
       <c r="C550" s="4">
         <v>10</v>
       </c>
-      <c r="D550" s="7" t="s">
+      <c r="D550" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E550" s="6" t="s">
+      <c r="E550" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="F550" s="8" t="s">
+      <c r="F550" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="G550" s="7" t="s">
+      <c r="G550" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="H550" s="9"/>
-      <c r="I550" s="7"/>
-      <c r="J550" s="9"/>
-      <c r="K550" s="7"/>
-      <c r="L550" s="9">
+      <c r="H550" s="8"/>
+      <c r="I550" s="6"/>
+      <c r="J550" s="8"/>
+      <c r="K550" s="6"/>
+      <c r="L550" s="8">
         <v>220</v>
       </c>
-      <c r="M550" s="7"/>
-      <c r="N550" s="9">
+      <c r="M550" s="6"/>
+      <c r="N550" s="8">
         <v>1981</v>
       </c>
-      <c r="O550" s="7"/>
-      <c r="Q550" s="9"/>
-      <c r="T550" s="9" t="s">
+      <c r="O550" s="6"/>
+      <c r="Q550" s="8"/>
+      <c r="T550" s="8" t="s">
         <v>1122</v>
       </c>
-      <c r="W550" s="7"/>
-      <c r="X550" s="7" t="s">
+      <c r="W550" s="6"/>
+      <c r="X550" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="Y550" s="7" t="s">
+      <c r="Y550" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="Z550" s="7" t="s">
+      <c r="Z550" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA550" s="7"/>
-      <c r="AB550" s="6">
+      <c r="AA550" s="6"/>
+      <c r="AB550" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21027,46 +21189,46 @@
       <c r="C551" s="4">
         <v>11</v>
       </c>
-      <c r="D551" s="7" t="s">
+      <c r="D551" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E551" s="6" t="s">
+      <c r="E551" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="F551" s="8" t="s">
+      <c r="F551" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="G551" s="7"/>
-      <c r="H551" s="9"/>
-      <c r="I551" s="7"/>
-      <c r="J551" s="9">
+      <c r="G551" s="6"/>
+      <c r="H551" s="8"/>
+      <c r="I551" s="6"/>
+      <c r="J551" s="8">
         <v>6</v>
       </c>
-      <c r="K551" s="7"/>
-      <c r="L551" s="9">
+      <c r="K551" s="6"/>
+      <c r="L551" s="8">
         <v>306</v>
       </c>
-      <c r="M551" s="7"/>
-      <c r="N551" s="9"/>
-      <c r="O551" s="7"/>
-      <c r="Q551" s="9" t="s">
+      <c r="M551" s="6"/>
+      <c r="N551" s="8"/>
+      <c r="O551" s="6"/>
+      <c r="Q551" s="8" t="s">
         <v>1112</v>
       </c>
-      <c r="T551" s="9" t="s">
+      <c r="T551" s="8" t="s">
         <v>1123</v>
       </c>
-      <c r="W551" s="7"/>
-      <c r="X551" s="7" t="s">
+      <c r="W551" s="6"/>
+      <c r="X551" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="Y551" s="7" t="s">
+      <c r="Y551" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="Z551" s="7" t="s">
+      <c r="Z551" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA551" s="7"/>
-      <c r="AB551" s="6">
+      <c r="AA551" s="6"/>
+      <c r="AB551" s="5">
         <v>70</v>
       </c>
     </row>
@@ -21079,44 +21241,44 @@
       <c r="C553" s="4">
         <v>1</v>
       </c>
-      <c r="D553" s="7" t="s">
+      <c r="D553" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E553" s="6" t="s">
+      <c r="E553" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="F553" s="8" t="s">
+      <c r="F553" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G553" s="7"/>
-      <c r="H553" s="9"/>
-      <c r="I553" s="7"/>
-      <c r="J553" s="9"/>
-      <c r="K553" s="7"/>
-      <c r="L553" s="9">
+      <c r="G553" s="6"/>
+      <c r="H553" s="8"/>
+      <c r="I553" s="6"/>
+      <c r="J553" s="8"/>
+      <c r="K553" s="6"/>
+      <c r="L553" s="8">
         <v>169</v>
       </c>
-      <c r="M553" s="7"/>
-      <c r="N553" s="9"/>
-      <c r="O553" s="7"/>
-      <c r="Q553" s="9" t="s">
+      <c r="M553" s="6"/>
+      <c r="N553" s="8"/>
+      <c r="O553" s="6"/>
+      <c r="Q553" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="T553" s="9" t="s">
+      <c r="T553" s="8" t="s">
         <v>1095</v>
       </c>
-      <c r="W553" s="7"/>
-      <c r="X553" s="7" t="s">
+      <c r="W553" s="6"/>
+      <c r="X553" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="Y553" s="7" t="s">
+      <c r="Y553" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="Z553" s="7" t="s">
+      <c r="Z553" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="AA553" s="7"/>
-      <c r="AB553" s="6">
+      <c r="AA553" s="6"/>
+      <c r="AB553" s="5">
         <v>385</v>
       </c>
     </row>
@@ -21124,46 +21286,46 @@
       <c r="C554" s="4">
         <v>2</v>
       </c>
-      <c r="D554" s="7" t="s">
+      <c r="D554" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E554" s="6" t="s">
+      <c r="E554" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="F554" s="8" t="s">
+      <c r="F554" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="G554" s="7"/>
-      <c r="H554" s="9"/>
-      <c r="I554" s="7"/>
-      <c r="J554" s="9"/>
-      <c r="K554" s="7" t="s">
+      <c r="G554" s="6"/>
+      <c r="H554" s="8"/>
+      <c r="I554" s="6"/>
+      <c r="J554" s="8"/>
+      <c r="K554" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L554" s="9">
+      <c r="L554" s="8">
         <v>220</v>
       </c>
-      <c r="M554" s="7"/>
-      <c r="N554" s="9"/>
-      <c r="O554" s="7"/>
-      <c r="Q554" s="9" t="s">
+      <c r="M554" s="6"/>
+      <c r="N554" s="8"/>
+      <c r="O554" s="6"/>
+      <c r="Q554" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="T554" s="9" t="s">
+      <c r="T554" s="8" t="s">
         <v>1096</v>
       </c>
-      <c r="W554" s="7"/>
-      <c r="X554" s="7" t="s">
+      <c r="W554" s="6"/>
+      <c r="X554" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="Y554" s="7" t="s">
+      <c r="Y554" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="Z554" s="7" t="s">
+      <c r="Z554" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA554" s="7"/>
-      <c r="AB554" s="6">
+      <c r="AA554" s="6"/>
+      <c r="AB554" s="5">
         <v>75</v>
       </c>
     </row>
@@ -21171,44 +21333,44 @@
       <c r="C555" s="4">
         <v>3</v>
       </c>
-      <c r="D555" s="7" t="s">
+      <c r="D555" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E555" s="6" t="s">
+      <c r="E555" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="F555" s="8"/>
-      <c r="G555" s="7" t="s">
+      <c r="F555" s="7"/>
+      <c r="G555" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="H555" s="9"/>
-      <c r="I555" s="7"/>
-      <c r="J555" s="9"/>
-      <c r="K555" s="7" t="s">
+      <c r="H555" s="8"/>
+      <c r="I555" s="6"/>
+      <c r="J555" s="8"/>
+      <c r="K555" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L555" s="9">
+      <c r="L555" s="8">
         <v>180</v>
       </c>
-      <c r="M555" s="7"/>
-      <c r="N555" s="9"/>
-      <c r="O555" s="7"/>
-      <c r="Q555" s="9"/>
-      <c r="T555" s="9" t="s">
+      <c r="M555" s="6"/>
+      <c r="N555" s="8"/>
+      <c r="O555" s="6"/>
+      <c r="Q555" s="8"/>
+      <c r="T555" s="8" t="s">
         <v>1097</v>
       </c>
-      <c r="W555" s="7"/>
-      <c r="X555" s="7" t="s">
+      <c r="W555" s="6"/>
+      <c r="X555" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="Y555" s="7" t="s">
+      <c r="Y555" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="Z555" s="7" t="s">
+      <c r="Z555" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA555" s="7"/>
-      <c r="AB555" s="6">
+      <c r="AA555" s="6"/>
+      <c r="AB555" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21216,46 +21378,46 @@
       <c r="C556" s="4">
         <v>4</v>
       </c>
-      <c r="D556" s="7" t="s">
+      <c r="D556" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E556" s="6" t="s">
+      <c r="E556" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="F556" s="8" t="s">
+      <c r="F556" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="G556" s="7"/>
-      <c r="H556" s="9"/>
-      <c r="I556" s="7"/>
-      <c r="J556" s="9">
+      <c r="G556" s="6"/>
+      <c r="H556" s="8"/>
+      <c r="I556" s="6"/>
+      <c r="J556" s="8">
         <v>6</v>
       </c>
-      <c r="K556" s="7"/>
-      <c r="L556" s="9">
+      <c r="K556" s="6"/>
+      <c r="L556" s="8">
         <v>150</v>
       </c>
-      <c r="M556" s="10">
+      <c r="M556" s="9">
         <v>293000</v>
       </c>
-      <c r="N556" s="9"/>
-      <c r="O556" s="7"/>
-      <c r="Q556" s="9"/>
-      <c r="T556" s="9" t="s">
+      <c r="N556" s="8"/>
+      <c r="O556" s="6"/>
+      <c r="Q556" s="8"/>
+      <c r="T556" s="8" t="s">
         <v>1098</v>
       </c>
-      <c r="W556" s="7"/>
-      <c r="X556" s="7" t="s">
+      <c r="W556" s="6"/>
+      <c r="X556" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="Y556" s="7" t="s">
+      <c r="Y556" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="Z556" s="7" t="s">
+      <c r="Z556" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AA556" s="7"/>
-      <c r="AB556" s="6">
+      <c r="AA556" s="6"/>
+      <c r="AB556" s="5">
         <v>413</v>
       </c>
     </row>
@@ -21263,46 +21425,46 @@
       <c r="C557" s="4">
         <v>5</v>
       </c>
-      <c r="D557" s="7" t="s">
+      <c r="D557" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E557" s="6" t="s">
+      <c r="E557" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="F557" s="8" t="s">
+      <c r="F557" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G557" s="7" t="s">
+      <c r="G557" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="H557" s="9"/>
-      <c r="I557" s="7"/>
-      <c r="J557" s="9"/>
-      <c r="K557" s="7"/>
-      <c r="L557" s="9">
+      <c r="H557" s="8"/>
+      <c r="I557" s="6"/>
+      <c r="J557" s="8"/>
+      <c r="K557" s="6"/>
+      <c r="L557" s="8">
         <v>120</v>
       </c>
-      <c r="M557" s="7"/>
-      <c r="N557" s="9"/>
-      <c r="O557" s="7"/>
-      <c r="Q557" s="9" t="s">
+      <c r="M557" s="6"/>
+      <c r="N557" s="8"/>
+      <c r="O557" s="6"/>
+      <c r="Q557" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="T557" s="9" t="s">
+      <c r="T557" s="8" t="s">
         <v>1099</v>
       </c>
-      <c r="W557" s="7"/>
-      <c r="X557" s="7" t="s">
+      <c r="W557" s="6"/>
+      <c r="X557" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="Y557" s="7" t="s">
+      <c r="Y557" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="Z557" s="7" t="s">
+      <c r="Z557" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA557" s="7"/>
-      <c r="AB557" s="6">
+      <c r="AA557" s="6"/>
+      <c r="AB557" s="5">
         <v>120</v>
       </c>
     </row>
@@ -21310,46 +21472,46 @@
       <c r="C558" s="4">
         <v>6</v>
       </c>
-      <c r="D558" s="7" t="s">
+      <c r="D558" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E558" s="6" t="s">
+      <c r="E558" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="F558" s="8" t="s">
+      <c r="F558" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G558" s="7"/>
-      <c r="H558" s="9"/>
-      <c r="I558" s="7"/>
-      <c r="J558" s="9">
+      <c r="G558" s="6"/>
+      <c r="H558" s="8"/>
+      <c r="I558" s="6"/>
+      <c r="J558" s="8">
         <v>5</v>
       </c>
-      <c r="K558" s="7" t="s">
+      <c r="K558" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L558" s="9">
+      <c r="L558" s="8">
         <v>136</v>
       </c>
-      <c r="M558" s="7"/>
-      <c r="N558" s="9"/>
-      <c r="O558" s="7"/>
-      <c r="Q558" s="9"/>
-      <c r="T558" s="9" t="s">
+      <c r="M558" s="6"/>
+      <c r="N558" s="8"/>
+      <c r="O558" s="6"/>
+      <c r="Q558" s="8"/>
+      <c r="T558" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="W558" s="7"/>
-      <c r="X558" s="7" t="s">
+      <c r="W558" s="6"/>
+      <c r="X558" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="Y558" s="7" t="s">
+      <c r="Y558" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="Z558" s="7"/>
-      <c r="AA558" s="7" t="s">
+      <c r="Z558" s="6"/>
+      <c r="AA558" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="AB558" s="6">
+      <c r="AB558" s="5">
         <v>650</v>
       </c>
     </row>
@@ -21357,46 +21519,46 @@
       <c r="C559" s="4">
         <v>7</v>
       </c>
-      <c r="D559" s="7" t="s">
+      <c r="D559" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E559" s="6" t="s">
+      <c r="E559" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="F559" s="8" t="s">
+      <c r="F559" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G559" s="7" t="s">
+      <c r="G559" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="H559" s="9"/>
-      <c r="I559" s="7"/>
-      <c r="J559" s="9"/>
-      <c r="K559" s="7"/>
-      <c r="L559" s="9">
+      <c r="H559" s="8"/>
+      <c r="I559" s="6"/>
+      <c r="J559" s="8"/>
+      <c r="K559" s="6"/>
+      <c r="L559" s="8">
         <v>265</v>
       </c>
-      <c r="M559" s="7"/>
-      <c r="N559" s="9"/>
-      <c r="O559" s="7"/>
-      <c r="Q559" s="9" t="s">
+      <c r="M559" s="6"/>
+      <c r="N559" s="8"/>
+      <c r="O559" s="6"/>
+      <c r="Q559" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="T559" s="9" t="s">
+      <c r="T559" s="8" t="s">
         <v>1101</v>
       </c>
-      <c r="W559" s="7"/>
-      <c r="X559" s="7" t="s">
+      <c r="W559" s="6"/>
+      <c r="X559" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="Y559" s="7" t="s">
+      <c r="Y559" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="Z559" s="7" t="s">
+      <c r="Z559" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA559" s="7"/>
-      <c r="AB559" s="6">
+      <c r="AA559" s="6"/>
+      <c r="AB559" s="5">
         <v>170</v>
       </c>
     </row>
@@ -21404,42 +21566,42 @@
       <c r="C560" s="4">
         <v>8</v>
       </c>
-      <c r="D560" s="7" t="s">
+      <c r="D560" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E560" s="6" t="s">
+      <c r="E560" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="F560" s="8"/>
-      <c r="G560" s="7" t="s">
+      <c r="F560" s="7"/>
+      <c r="G560" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="H560" s="9"/>
-      <c r="I560" s="7"/>
-      <c r="J560" s="9"/>
-      <c r="K560" s="7"/>
-      <c r="L560" s="9">
+      <c r="H560" s="8"/>
+      <c r="I560" s="6"/>
+      <c r="J560" s="8"/>
+      <c r="K560" s="6"/>
+      <c r="L560" s="8">
         <v>129</v>
       </c>
-      <c r="M560" s="7"/>
-      <c r="N560" s="9"/>
-      <c r="O560" s="7"/>
-      <c r="Q560" s="9"/>
-      <c r="T560" s="9" t="s">
+      <c r="M560" s="6"/>
+      <c r="N560" s="8"/>
+      <c r="O560" s="6"/>
+      <c r="Q560" s="8"/>
+      <c r="T560" s="8" t="s">
         <v>1102</v>
       </c>
-      <c r="W560" s="7"/>
-      <c r="X560" s="7" t="s">
+      <c r="W560" s="6"/>
+      <c r="X560" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="Y560" s="7" t="s">
+      <c r="Y560" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="Z560" s="7" t="s">
+      <c r="Z560" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AA560" s="7"/>
-      <c r="AB560" s="6">
+      <c r="AA560" s="6"/>
+      <c r="AB560" s="5">
         <v>170</v>
       </c>
     </row>
@@ -21447,44 +21609,44 @@
       <c r="C561" s="4">
         <v>9</v>
       </c>
-      <c r="D561" s="7" t="s">
+      <c r="D561" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E561" s="6" t="s">
+      <c r="E561" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="F561" s="8" t="s">
+      <c r="F561" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G561" s="7" t="s">
+      <c r="G561" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="H561" s="9"/>
-      <c r="I561" s="7"/>
-      <c r="J561" s="9">
+      <c r="H561" s="8"/>
+      <c r="I561" s="6"/>
+      <c r="J561" s="8">
         <v>5</v>
       </c>
-      <c r="K561" s="7"/>
-      <c r="L561" s="9"/>
-      <c r="M561" s="7"/>
-      <c r="N561" s="9"/>
-      <c r="O561" s="7"/>
-      <c r="Q561" s="9"/>
-      <c r="T561" s="9" t="s">
+      <c r="K561" s="6"/>
+      <c r="L561" s="8"/>
+      <c r="M561" s="6"/>
+      <c r="N561" s="8"/>
+      <c r="O561" s="6"/>
+      <c r="Q561" s="8"/>
+      <c r="T561" s="8" t="s">
         <v>1103</v>
       </c>
-      <c r="W561" s="7"/>
-      <c r="X561" s="7" t="s">
+      <c r="W561" s="6"/>
+      <c r="X561" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="Y561" s="7" t="s">
+      <c r="Y561" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="Z561" s="7" t="s">
+      <c r="Z561" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AA561" s="7"/>
-      <c r="AB561" s="6">
+      <c r="AA561" s="6"/>
+      <c r="AB561" s="5">
         <v>130</v>
       </c>
     </row>
@@ -21492,40 +21654,40 @@
       <c r="C562" s="4">
         <v>10</v>
       </c>
-      <c r="D562" s="7" t="s">
+      <c r="D562" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E562" s="6" t="s">
+      <c r="E562" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="F562" s="8"/>
-      <c r="G562" s="7"/>
-      <c r="H562" s="9"/>
-      <c r="I562" s="7"/>
-      <c r="J562" s="9"/>
-      <c r="K562" s="7"/>
-      <c r="L562" s="9">
+      <c r="F562" s="7"/>
+      <c r="G562" s="6"/>
+      <c r="H562" s="8"/>
+      <c r="I562" s="6"/>
+      <c r="J562" s="8"/>
+      <c r="K562" s="6"/>
+      <c r="L562" s="8">
         <v>135</v>
       </c>
-      <c r="M562" s="7"/>
-      <c r="N562" s="9"/>
-      <c r="O562" s="7"/>
-      <c r="Q562" s="9"/>
-      <c r="T562" s="9" t="s">
+      <c r="M562" s="6"/>
+      <c r="N562" s="8"/>
+      <c r="O562" s="6"/>
+      <c r="Q562" s="8"/>
+      <c r="T562" s="8" t="s">
         <v>1104</v>
       </c>
-      <c r="W562" s="7"/>
-      <c r="X562" s="7" t="s">
+      <c r="W562" s="6"/>
+      <c r="X562" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="Y562" s="7" t="s">
+      <c r="Y562" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="Z562" s="7" t="s">
+      <c r="Z562" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA562" s="7"/>
-      <c r="AB562" s="6">
+      <c r="AA562" s="6"/>
+      <c r="AB562" s="5">
         <v>80</v>
       </c>
     </row>
@@ -21533,48 +21695,48 @@
       <c r="C563" s="4">
         <v>11</v>
       </c>
-      <c r="D563" s="7" t="s">
+      <c r="D563" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E563" s="6" t="s">
+      <c r="E563" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="F563" s="8" t="s">
+      <c r="F563" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G563" s="7" t="s">
+      <c r="G563" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="H563" s="9" t="s">
+      <c r="H563" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I563" s="7"/>
-      <c r="J563" s="9"/>
-      <c r="K563" s="7"/>
-      <c r="L563" s="9">
+      <c r="I563" s="6"/>
+      <c r="J563" s="8"/>
+      <c r="K563" s="6"/>
+      <c r="L563" s="8">
         <v>131</v>
       </c>
-      <c r="M563" s="7"/>
-      <c r="N563" s="9"/>
-      <c r="O563" s="7"/>
-      <c r="Q563" s="9" t="s">
+      <c r="M563" s="6"/>
+      <c r="N563" s="8"/>
+      <c r="O563" s="6"/>
+      <c r="Q563" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="T563" s="9" t="s">
+      <c r="T563" s="8" t="s">
         <v>1105</v>
       </c>
-      <c r="W563" s="7"/>
-      <c r="X563" s="7" t="s">
+      <c r="W563" s="6"/>
+      <c r="X563" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="Y563" s="7" t="s">
+      <c r="Y563" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="Z563" s="7" t="s">
+      <c r="Z563" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA563" s="7"/>
-      <c r="AB563" s="6">
+      <c r="AA563" s="6"/>
+      <c r="AB563" s="5">
         <v>40</v>
       </c>
     </row>
@@ -21582,91 +21744,91 @@
       <c r="C564" s="4">
         <v>12</v>
       </c>
-      <c r="D564" s="7" t="s">
+      <c r="D564" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E564" s="6" t="s">
+      <c r="E564" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="F564" s="8" t="s">
+      <c r="F564" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G564" s="7" t="s">
+      <c r="G564" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="H564" s="9"/>
-      <c r="I564" s="7"/>
-      <c r="J564" s="9"/>
-      <c r="K564" s="7"/>
-      <c r="L564" s="9">
+      <c r="H564" s="8"/>
+      <c r="I564" s="6"/>
+      <c r="J564" s="8"/>
+      <c r="K564" s="6"/>
+      <c r="L564" s="8">
         <v>220</v>
       </c>
-      <c r="M564" s="7"/>
-      <c r="N564" s="9"/>
-      <c r="O564" s="7"/>
-      <c r="Q564" s="9" t="s">
+      <c r="M564" s="6"/>
+      <c r="N564" s="8"/>
+      <c r="O564" s="6"/>
+      <c r="Q564" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="T564" s="9" t="s">
+      <c r="T564" s="8" t="s">
         <v>1106</v>
       </c>
-      <c r="W564" s="7"/>
-      <c r="X564" s="7" t="s">
+      <c r="W564" s="6"/>
+      <c r="X564" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="Y564" s="7" t="s">
+      <c r="Y564" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="Z564" s="7" t="s">
+      <c r="Z564" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA564" s="7"/>
-      <c r="AB564" s="6">
+      <c r="AA564" s="6"/>
+      <c r="AB564" s="5">
         <v>45</v>
       </c>
     </row>
     <row r="565" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="C565" s="6">
+      <c r="C565" s="5">
         <v>13</v>
       </c>
-      <c r="D565" s="7" t="s">
+      <c r="D565" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E565" s="6" t="s">
+      <c r="E565" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="F565" s="8" t="s">
+      <c r="F565" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G565" s="7"/>
-      <c r="H565" s="9"/>
-      <c r="I565" s="7"/>
-      <c r="J565" s="9"/>
-      <c r="K565" s="7" t="s">
+      <c r="G565" s="6"/>
+      <c r="H565" s="8"/>
+      <c r="I565" s="6"/>
+      <c r="J565" s="8"/>
+      <c r="K565" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L565" s="9">
+      <c r="L565" s="8">
         <v>193</v>
       </c>
-      <c r="M565" s="7"/>
-      <c r="N565" s="9"/>
-      <c r="O565" s="7"/>
-      <c r="Q565" s="9"/>
-      <c r="T565" s="9" t="s">
+      <c r="M565" s="6"/>
+      <c r="N565" s="8"/>
+      <c r="O565" s="6"/>
+      <c r="Q565" s="8"/>
+      <c r="T565" s="8" t="s">
         <v>1107</v>
       </c>
-      <c r="W565" s="7"/>
-      <c r="X565" s="7" t="s">
+      <c r="W565" s="6"/>
+      <c r="X565" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="Y565" s="7" t="s">
+      <c r="Y565" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="Z565" s="7" t="s">
+      <c r="Z565" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA565" s="7"/>
-      <c r="AB565" s="6">
+      <c r="AA565" s="6"/>
+      <c r="AB565" s="5">
         <v>20</v>
       </c>
     </row>

--- a/devData/H77Dyno.xlsx
+++ b/devData/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\devData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00F679C-239D-4C95-97D6-C0BF377CA888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EDD834-3291-4828-8B9D-1A9A04E83B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5339,7 +5339,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5371,12 +5371,15 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -5735,8 +5738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="D465" sqref="D465"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="D427" sqref="D427:T427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5750,13 +5753,13 @@
     <col min="12" max="12" width="4.5703125" style="3" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="3" customWidth="1"/>
     <col min="15" max="15" width="5.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="1.85546875" style="18" customWidth="1"/>
+    <col min="16" max="16" width="1.85546875" style="17" customWidth="1"/>
     <col min="17" max="17" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" style="11" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="1.7109375" style="19" customWidth="1"/>
+    <col min="19" max="19" width="1.7109375" style="18" customWidth="1"/>
     <col min="20" max="20" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="1.7109375" style="11" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="1.85546875" style="19" customWidth="1"/>
+    <col min="22" max="22" width="1.85546875" style="18" customWidth="1"/>
     <col min="23" max="23" width="2.140625" customWidth="1"/>
     <col min="24" max="24" width="4.7109375" customWidth="1"/>
     <col min="27" max="27" width="5.5703125" customWidth="1"/>
@@ -17003,22 +17006,33 @@
       <c r="C427" s="4">
         <v>1</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D427" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E427" s="4" t="s">
+      <c r="E427" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="F427" s="2" t="s">
+      <c r="F427" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="G427" t="s">
+      <c r="G427" s="14" t="s">
         <v>816</v>
       </c>
-      <c r="L427" s="3">
+      <c r="H427" s="16"/>
+      <c r="I427" s="14"/>
+      <c r="J427" s="16"/>
+      <c r="K427" s="14"/>
+      <c r="L427" s="16">
         <v>150</v>
       </c>
-      <c r="T427" s="3" t="s">
+      <c r="M427" s="14"/>
+      <c r="N427" s="16"/>
+      <c r="O427" s="14"/>
+      <c r="P427" s="14"/>
+      <c r="Q427" s="16"/>
+      <c r="R427" s="16"/>
+      <c r="S427" s="16"/>
+      <c r="T427" s="16" t="s">
         <v>1192</v>
       </c>
       <c r="X427" t="s">
@@ -17488,7 +17502,7 @@
     </row>
     <row r="445" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C445" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D445" t="s">
         <v>31</v>
@@ -17521,25 +17535,35 @@
       <c r="C447" s="4">
         <v>1</v>
       </c>
-      <c r="D447" t="s">
+      <c r="D447" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E447" s="4" t="s">
+      <c r="E447" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F447" s="2" t="s">
+      <c r="F447" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G447" t="s">
+      <c r="G447" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="L447" s="3">
+      <c r="H447" s="8"/>
+      <c r="I447" s="6"/>
+      <c r="J447" s="8"/>
+      <c r="K447" s="6"/>
+      <c r="L447" s="8">
         <v>150</v>
       </c>
-      <c r="Q447" s="3" t="s">
+      <c r="M447" s="6"/>
+      <c r="N447" s="8"/>
+      <c r="O447" s="6"/>
+      <c r="P447" s="6"/>
+      <c r="Q447" s="8" t="s">
         <v>1164</v>
       </c>
-      <c r="T447" s="3" t="s">
+      <c r="R447" s="8"/>
+      <c r="S447" s="8"/>
+      <c r="T447" s="8" t="s">
         <v>1172</v>
       </c>
       <c r="X447" t="s">
@@ -17550,28 +17574,37 @@
       <c r="C448" s="4">
         <v>2</v>
       </c>
-      <c r="D448" t="s">
+      <c r="D448" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E448" s="4">
+      <c r="E448" s="5">
         <v>90</v>
       </c>
-      <c r="F448" s="2" t="s">
+      <c r="F448" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="J448" s="3">
+      <c r="G448" s="6"/>
+      <c r="H448" s="8"/>
+      <c r="I448" s="6"/>
+      <c r="J448" s="8">
         <v>5</v>
       </c>
-      <c r="L448" s="3">
+      <c r="K448" s="6"/>
+      <c r="L448" s="8">
         <v>136</v>
       </c>
-      <c r="M448" s="1">
+      <c r="M448" s="9">
         <v>67120</v>
       </c>
-      <c r="Q448" s="3" t="s">
+      <c r="N448" s="8"/>
+      <c r="O448" s="6"/>
+      <c r="P448" s="6"/>
+      <c r="Q448" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T448" s="3" t="s">
+      <c r="R448" s="8"/>
+      <c r="S448" s="8"/>
+      <c r="T448" s="8" t="s">
         <v>1173</v>
       </c>
       <c r="X448" t="s">
@@ -17591,25 +17624,35 @@
       <c r="C449" s="4">
         <v>3</v>
       </c>
-      <c r="D449" t="s">
+      <c r="D449" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E449" s="4" t="s">
+      <c r="E449" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F449" s="2" t="s">
+      <c r="F449" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L449" s="3">
+      <c r="G449" s="6"/>
+      <c r="H449" s="8"/>
+      <c r="I449" s="6"/>
+      <c r="J449" s="8"/>
+      <c r="K449" s="6"/>
+      <c r="L449" s="8">
         <v>90</v>
       </c>
-      <c r="N449" s="3">
+      <c r="M449" s="6"/>
+      <c r="N449" s="8">
         <v>1978</v>
       </c>
-      <c r="Q449" s="3" t="s">
+      <c r="O449" s="6"/>
+      <c r="P449" s="6"/>
+      <c r="Q449" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T449" s="3" t="s">
+      <c r="R449" s="8"/>
+      <c r="S449" s="8"/>
+      <c r="T449" s="8" t="s">
         <v>1174</v>
       </c>
       <c r="X449" t="s">
@@ -17629,22 +17672,33 @@
       <c r="C450" s="4">
         <v>4</v>
       </c>
-      <c r="D450" t="s">
+      <c r="D450" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E450" s="4" t="s">
+      <c r="E450" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="F450" s="2" t="s">
+      <c r="F450" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="L450" s="3">
+      <c r="G450" s="6"/>
+      <c r="H450" s="8"/>
+      <c r="I450" s="6"/>
+      <c r="J450" s="8"/>
+      <c r="K450" s="6"/>
+      <c r="L450" s="8">
         <v>231</v>
       </c>
-      <c r="Q450" s="3" t="s">
+      <c r="M450" s="6"/>
+      <c r="N450" s="8"/>
+      <c r="O450" s="6"/>
+      <c r="P450" s="6"/>
+      <c r="Q450" s="8" t="s">
         <v>1165</v>
       </c>
-      <c r="T450" s="3" t="s">
+      <c r="R450" s="8"/>
+      <c r="S450" s="8"/>
+      <c r="T450" s="8" t="s">
         <v>1175</v>
       </c>
       <c r="X450" t="s">
@@ -17655,25 +17709,35 @@
       <c r="C451" s="4">
         <v>5</v>
       </c>
-      <c r="D451" t="s">
+      <c r="D451" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E451" s="4" t="s">
+      <c r="E451" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="F451" s="2" t="s">
+      <c r="F451" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G451" t="s">
+      <c r="G451" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="L451" s="3">
+      <c r="H451" s="8"/>
+      <c r="I451" s="6"/>
+      <c r="J451" s="8"/>
+      <c r="K451" s="6"/>
+      <c r="L451" s="8">
         <v>169</v>
       </c>
-      <c r="Q451" s="3" t="s">
+      <c r="M451" s="6"/>
+      <c r="N451" s="8"/>
+      <c r="O451" s="6"/>
+      <c r="P451" s="6"/>
+      <c r="Q451" s="8" t="s">
         <v>1166</v>
       </c>
-      <c r="T451" s="3" t="s">
+      <c r="R451" s="8"/>
+      <c r="S451" s="8"/>
+      <c r="T451" s="8" t="s">
         <v>1176</v>
       </c>
     </row>
@@ -17681,28 +17745,37 @@
       <c r="C452" s="4">
         <v>6</v>
       </c>
-      <c r="D452" t="s">
+      <c r="D452" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E452" s="4">
+      <c r="E452" s="5">
         <v>90</v>
       </c>
-      <c r="F452" s="2" t="s">
+      <c r="F452" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G452" t="s">
+      <c r="G452" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="J452" s="3">
+      <c r="H452" s="8"/>
+      <c r="I452" s="6"/>
+      <c r="J452" s="8">
         <v>5</v>
       </c>
-      <c r="L452" s="3">
+      <c r="K452" s="6"/>
+      <c r="L452" s="8">
         <v>136</v>
       </c>
-      <c r="Q452" s="3" t="s">
+      <c r="M452" s="6"/>
+      <c r="N452" s="8"/>
+      <c r="O452" s="6"/>
+      <c r="P452" s="6"/>
+      <c r="Q452" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T452" s="3" t="s">
+      <c r="R452" s="8"/>
+      <c r="S452" s="8"/>
+      <c r="T452" s="8" t="s">
         <v>1177</v>
       </c>
       <c r="X452" t="s">
@@ -17722,22 +17795,33 @@
       <c r="C453" s="4">
         <v>7</v>
       </c>
-      <c r="D453" t="s">
+      <c r="D453" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E453" s="4" t="s">
+      <c r="E453" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="F453" s="2" t="s">
+      <c r="F453" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L453" s="3">
+      <c r="G453" s="6"/>
+      <c r="H453" s="8"/>
+      <c r="I453" s="6"/>
+      <c r="J453" s="8"/>
+      <c r="K453" s="6"/>
+      <c r="L453" s="8">
         <v>150</v>
       </c>
-      <c r="Q453" s="3" t="s">
+      <c r="M453" s="6"/>
+      <c r="N453" s="8"/>
+      <c r="O453" s="6"/>
+      <c r="P453" s="6"/>
+      <c r="Q453" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T453" s="3" t="s">
+      <c r="R453" s="8"/>
+      <c r="S453" s="8"/>
+      <c r="T453" s="8" t="s">
         <v>1178</v>
       </c>
       <c r="X453" t="s">
@@ -17748,22 +17832,33 @@
       <c r="C454" s="4">
         <v>8</v>
       </c>
-      <c r="D454" t="s">
+      <c r="D454" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E454" s="4" t="s">
+      <c r="E454" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="F454" s="2" t="s">
+      <c r="F454" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L454" s="3">
+      <c r="G454" s="6"/>
+      <c r="H454" s="8"/>
+      <c r="I454" s="6"/>
+      <c r="J454" s="8"/>
+      <c r="K454" s="6"/>
+      <c r="L454" s="8">
         <v>110</v>
       </c>
-      <c r="Q454" s="3" t="s">
+      <c r="M454" s="6"/>
+      <c r="N454" s="8"/>
+      <c r="O454" s="6"/>
+      <c r="P454" s="6"/>
+      <c r="Q454" s="8" t="s">
         <v>1167</v>
       </c>
-      <c r="T454" s="3" t="s">
+      <c r="R454" s="8"/>
+      <c r="S454" s="8"/>
+      <c r="T454" s="8" t="s">
         <v>1179</v>
       </c>
       <c r="X454" t="s">
@@ -17783,22 +17878,33 @@
       <c r="C455" s="4">
         <v>9</v>
       </c>
-      <c r="D455" t="s">
+      <c r="D455" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E455" s="4" t="s">
+      <c r="E455" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="F455" s="2" t="s">
+      <c r="F455" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="L455" s="3">
+      <c r="G455" s="6"/>
+      <c r="H455" s="8"/>
+      <c r="I455" s="6"/>
+      <c r="J455" s="8"/>
+      <c r="K455" s="6"/>
+      <c r="L455" s="8">
         <v>113</v>
       </c>
-      <c r="Q455" s="3" t="s">
+      <c r="M455" s="6"/>
+      <c r="N455" s="8"/>
+      <c r="O455" s="6"/>
+      <c r="P455" s="6"/>
+      <c r="Q455" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T455" s="3" t="s">
+      <c r="R455" s="8"/>
+      <c r="S455" s="8"/>
+      <c r="T455" s="8" t="s">
         <v>1180</v>
       </c>
       <c r="X455" t="s">
@@ -17818,25 +17924,35 @@
       <c r="C456" s="4">
         <v>10</v>
       </c>
-      <c r="D456" t="s">
+      <c r="D456" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E456" s="4" t="s">
+      <c r="E456" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="F456" s="2" t="s">
+      <c r="F456" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L456" s="3">
+      <c r="G456" s="6"/>
+      <c r="H456" s="8"/>
+      <c r="I456" s="6"/>
+      <c r="J456" s="8"/>
+      <c r="K456" s="6"/>
+      <c r="L456" s="8">
         <v>90</v>
       </c>
-      <c r="M456" s="1">
+      <c r="M456" s="9">
         <v>150000</v>
       </c>
-      <c r="Q456" s="3" t="s">
+      <c r="N456" s="8"/>
+      <c r="O456" s="6"/>
+      <c r="P456" s="6"/>
+      <c r="Q456" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T456" s="3" t="s">
+      <c r="R456" s="8"/>
+      <c r="S456" s="8"/>
+      <c r="T456" s="8" t="s">
         <v>1181</v>
       </c>
       <c r="X456" t="s">
@@ -17847,28 +17963,37 @@
       <c r="C457" s="4">
         <v>11</v>
       </c>
-      <c r="D457" t="s">
+      <c r="D457" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E457" s="4" t="s">
+      <c r="E457" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="F457" s="2" t="s">
+      <c r="F457" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K457" t="s">
+      <c r="G457" s="6"/>
+      <c r="H457" s="8"/>
+      <c r="I457" s="6"/>
+      <c r="J457" s="8"/>
+      <c r="K457" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L457" s="3">
+      <c r="L457" s="8">
         <v>75</v>
       </c>
-      <c r="M457" s="1">
+      <c r="M457" s="9">
         <v>46000</v>
       </c>
-      <c r="Q457" s="3" t="s">
+      <c r="N457" s="8"/>
+      <c r="O457" s="6"/>
+      <c r="P457" s="6"/>
+      <c r="Q457" s="8" t="s">
         <v>1168</v>
       </c>
-      <c r="T457" s="3" t="s">
+      <c r="R457" s="8"/>
+      <c r="S457" s="8"/>
+      <c r="T457" s="8" t="s">
         <v>1126</v>
       </c>
       <c r="X457" t="s">
@@ -17879,28 +18004,37 @@
       <c r="C458" s="4">
         <v>12</v>
       </c>
-      <c r="D458" t="s">
+      <c r="D458" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E458" s="4" t="s">
+      <c r="E458" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="F458" s="2" t="s">
+      <c r="F458" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G458" t="s">
+      <c r="G458" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="L458" s="3">
+      <c r="H458" s="8"/>
+      <c r="I458" s="6"/>
+      <c r="J458" s="8"/>
+      <c r="K458" s="6"/>
+      <c r="L458" s="8">
         <v>102</v>
       </c>
-      <c r="N458" s="3">
+      <c r="M458" s="6"/>
+      <c r="N458" s="8">
         <v>2002</v>
       </c>
-      <c r="Q458" s="3" t="s">
+      <c r="O458" s="6"/>
+      <c r="P458" s="6"/>
+      <c r="Q458" s="8" t="s">
         <v>1169</v>
       </c>
-      <c r="T458" s="3" t="s">
+      <c r="R458" s="8"/>
+      <c r="S458" s="8"/>
+      <c r="T458" s="8" t="s">
         <v>1182</v>
       </c>
       <c r="X458" t="s">
@@ -17911,22 +18045,33 @@
       <c r="C459" s="4">
         <v>13</v>
       </c>
-      <c r="D459" t="s">
+      <c r="D459" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="E459" s="4" t="s">
+      <c r="E459" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="F459" s="2" t="s">
+      <c r="F459" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="L459" s="3">
+      <c r="G459" s="6"/>
+      <c r="H459" s="8"/>
+      <c r="I459" s="6"/>
+      <c r="J459" s="8"/>
+      <c r="K459" s="6"/>
+      <c r="L459" s="8">
         <v>69</v>
       </c>
-      <c r="Q459" s="3" t="s">
+      <c r="M459" s="6"/>
+      <c r="N459" s="8"/>
+      <c r="O459" s="6"/>
+      <c r="P459" s="6"/>
+      <c r="Q459" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T459" s="3" t="s">
+      <c r="R459" s="8"/>
+      <c r="S459" s="8"/>
+      <c r="T459" s="8" t="s">
         <v>1183</v>
       </c>
       <c r="X459" t="s">
@@ -17946,28 +18091,37 @@
       <c r="C460" s="4">
         <v>14</v>
       </c>
-      <c r="D460" t="s">
+      <c r="D460" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E460" s="4" t="s">
+      <c r="E460" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="F460" s="2" t="s">
+      <c r="F460" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G460" t="s">
+      <c r="G460" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="L460" s="3">
+      <c r="H460" s="8"/>
+      <c r="I460" s="6"/>
+      <c r="J460" s="8"/>
+      <c r="K460" s="6"/>
+      <c r="L460" s="8">
         <v>182</v>
       </c>
-      <c r="M460" s="1">
+      <c r="M460" s="9">
         <v>170000</v>
       </c>
-      <c r="Q460" s="3" t="s">
+      <c r="N460" s="8"/>
+      <c r="O460" s="6"/>
+      <c r="P460" s="6"/>
+      <c r="Q460" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T460" s="3" t="s">
+      <c r="R460" s="8"/>
+      <c r="S460" s="8"/>
+      <c r="T460" s="8" t="s">
         <v>1184</v>
       </c>
       <c r="X460" t="s">
@@ -17978,25 +18132,35 @@
       <c r="C461" s="4">
         <v>15</v>
       </c>
-      <c r="D461" t="s">
+      <c r="D461" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E461" s="4" t="s">
+      <c r="E461" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="F461" s="2" t="s">
+      <c r="F461" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G461" t="s">
+      <c r="G461" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="L461" s="3">
+      <c r="H461" s="8"/>
+      <c r="I461" s="6"/>
+      <c r="J461" s="8"/>
+      <c r="K461" s="6"/>
+      <c r="L461" s="8">
         <v>90</v>
       </c>
-      <c r="Q461" s="3" t="s">
+      <c r="M461" s="6"/>
+      <c r="N461" s="8"/>
+      <c r="O461" s="6"/>
+      <c r="P461" s="6"/>
+      <c r="Q461" s="8" t="s">
         <v>1170</v>
       </c>
-      <c r="T461" s="3" t="s">
+      <c r="R461" s="8"/>
+      <c r="S461" s="8"/>
+      <c r="T461" s="8" t="s">
         <v>1185</v>
       </c>
       <c r="X461" t="s">
@@ -18007,25 +18171,35 @@
       <c r="C462" s="4">
         <v>16</v>
       </c>
-      <c r="D462" t="s">
+      <c r="D462" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E462" s="4" t="s">
+      <c r="E462" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="F462" s="2" t="s">
+      <c r="F462" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G462" t="s">
+      <c r="G462" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="L462" s="3">
+      <c r="H462" s="8"/>
+      <c r="I462" s="6"/>
+      <c r="J462" s="8"/>
+      <c r="K462" s="6"/>
+      <c r="L462" s="8">
         <v>192</v>
       </c>
-      <c r="Q462" s="3" t="s">
+      <c r="M462" s="6"/>
+      <c r="N462" s="8"/>
+      <c r="O462" s="6"/>
+      <c r="P462" s="6"/>
+      <c r="Q462" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T462" s="3" t="s">
+      <c r="R462" s="8"/>
+      <c r="S462" s="8"/>
+      <c r="T462" s="8" t="s">
         <v>1186</v>
       </c>
       <c r="X462" t="s">
@@ -18036,25 +18210,35 @@
       <c r="C463" s="4">
         <v>17</v>
       </c>
-      <c r="D463" t="s">
+      <c r="D463" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E463" s="4" t="s">
+      <c r="E463" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="F463" s="2" t="s">
+      <c r="F463" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G463" t="s">
+      <c r="G463" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="L463" s="3">
+      <c r="H463" s="8"/>
+      <c r="I463" s="6"/>
+      <c r="J463" s="8"/>
+      <c r="K463" s="6"/>
+      <c r="L463" s="8">
         <v>192</v>
       </c>
-      <c r="Q463" s="3" t="s">
+      <c r="M463" s="6"/>
+      <c r="N463" s="8"/>
+      <c r="O463" s="6"/>
+      <c r="P463" s="6"/>
+      <c r="Q463" s="8" t="s">
         <v>1171</v>
       </c>
-      <c r="T463" s="3" t="s">
+      <c r="R463" s="8"/>
+      <c r="S463" s="8"/>
+      <c r="T463" s="8" t="s">
         <v>1187</v>
       </c>
     </row>
@@ -18067,31 +18251,33 @@
       <c r="C465" s="4">
         <v>1</v>
       </c>
-      <c r="D465" s="14" t="s">
+      <c r="D465" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="E465" s="17" t="s">
+      <c r="E465" s="19" t="s">
         <v>745</v>
       </c>
-      <c r="F465" s="15" t="s">
+      <c r="F465" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G465" s="14"/>
-      <c r="H465" s="16"/>
-      <c r="I465" s="14"/>
-      <c r="J465" s="16"/>
-      <c r="K465" s="14"/>
-      <c r="L465" s="16">
+      <c r="G465" s="6"/>
+      <c r="H465" s="8"/>
+      <c r="I465" s="6"/>
+      <c r="J465" s="8"/>
+      <c r="K465" s="6"/>
+      <c r="L465" s="8">
         <v>170</v>
       </c>
-      <c r="M465" s="14"/>
-      <c r="N465" s="16"/>
-      <c r="O465" s="14"/>
-      <c r="Q465" s="16" t="s">
+      <c r="M465" s="6"/>
+      <c r="N465" s="8"/>
+      <c r="O465" s="6"/>
+      <c r="P465" s="6"/>
+      <c r="Q465" s="8" t="s">
         <v>1075</v>
       </c>
-      <c r="R465" s="16"/>
-      <c r="T465" s="16" t="s">
+      <c r="R465" s="8"/>
+      <c r="S465" s="8"/>
+      <c r="T465" s="8" t="s">
         <v>1060</v>
       </c>
       <c r="X465" t="s">
@@ -18111,19 +18297,31 @@
       <c r="C466" s="4">
         <v>2</v>
       </c>
-      <c r="D466" t="s">
+      <c r="D466" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="E466" s="4" t="s">
+      <c r="E466" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="F466" s="2" t="s">
+      <c r="F466" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="L466" s="3">
+      <c r="G466" s="6"/>
+      <c r="H466" s="8"/>
+      <c r="I466" s="6"/>
+      <c r="J466" s="8"/>
+      <c r="K466" s="6"/>
+      <c r="L466" s="8">
         <v>230</v>
       </c>
-      <c r="T466" s="3" t="s">
+      <c r="M466" s="6"/>
+      <c r="N466" s="8"/>
+      <c r="O466" s="6"/>
+      <c r="P466" s="6"/>
+      <c r="Q466" s="8"/>
+      <c r="R466" s="8"/>
+      <c r="S466" s="8"/>
+      <c r="T466" s="8" t="s">
         <v>1061</v>
       </c>
       <c r="X466" t="s">
@@ -18143,22 +18341,33 @@
       <c r="C467" s="4">
         <v>3</v>
       </c>
-      <c r="D467" t="s">
+      <c r="D467" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E467" s="4" t="s">
+      <c r="E467" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F467" s="2" t="s">
+      <c r="F467" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G467" t="s">
+      <c r="G467" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="L467" s="3">
+      <c r="H467" s="8"/>
+      <c r="I467" s="6"/>
+      <c r="J467" s="8"/>
+      <c r="K467" s="6"/>
+      <c r="L467" s="8">
         <v>98</v>
       </c>
-      <c r="T467" s="3" t="s">
+      <c r="M467" s="6"/>
+      <c r="N467" s="8"/>
+      <c r="O467" s="6"/>
+      <c r="P467" s="6"/>
+      <c r="Q467" s="8"/>
+      <c r="R467" s="8"/>
+      <c r="S467" s="8"/>
+      <c r="T467" s="8" t="s">
         <v>1062</v>
       </c>
       <c r="X467" t="s">
@@ -18169,19 +18378,31 @@
       <c r="C468" s="4">
         <v>4</v>
       </c>
-      <c r="D468" t="s">
+      <c r="D468" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E468" s="4" t="s">
+      <c r="E468" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="F468" s="2" t="s">
+      <c r="F468" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="L468" s="3">
+      <c r="G468" s="6"/>
+      <c r="H468" s="8"/>
+      <c r="I468" s="6"/>
+      <c r="J468" s="8"/>
+      <c r="K468" s="6"/>
+      <c r="L468" s="8">
         <v>231</v>
       </c>
-      <c r="T468" s="3" t="s">
+      <c r="M468" s="6"/>
+      <c r="N468" s="8"/>
+      <c r="O468" s="6"/>
+      <c r="P468" s="6"/>
+      <c r="Q468" s="8"/>
+      <c r="R468" s="8"/>
+      <c r="S468" s="8"/>
+      <c r="T468" s="8" t="s">
         <v>1063</v>
       </c>
       <c r="X468" t="s">
@@ -18192,22 +18413,33 @@
       <c r="C469" s="4">
         <v>5</v>
       </c>
-      <c r="D469" t="s">
+      <c r="D469" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="E469" s="4" t="s">
+      <c r="E469" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="F469" s="2" t="s">
+      <c r="F469" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G469" t="s">
+      <c r="G469" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="L469" s="3">
+      <c r="H469" s="8"/>
+      <c r="I469" s="6"/>
+      <c r="J469" s="8"/>
+      <c r="K469" s="6"/>
+      <c r="L469" s="8">
         <v>75</v>
       </c>
-      <c r="T469" s="3" t="s">
+      <c r="M469" s="6"/>
+      <c r="N469" s="8"/>
+      <c r="O469" s="6"/>
+      <c r="P469" s="6"/>
+      <c r="Q469" s="8"/>
+      <c r="R469" s="8"/>
+      <c r="S469" s="8"/>
+      <c r="T469" s="8" t="s">
         <v>1064</v>
       </c>
       <c r="X469" t="s">
@@ -18218,22 +18450,33 @@
       <c r="C470" s="4">
         <v>6</v>
       </c>
-      <c r="D470" t="s">
+      <c r="D470" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="F470" s="2" t="s">
+      <c r="E470" s="5"/>
+      <c r="F470" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="J470" s="3">
+      <c r="G470" s="6"/>
+      <c r="H470" s="8"/>
+      <c r="I470" s="6"/>
+      <c r="J470" s="8">
         <v>5</v>
       </c>
-      <c r="L470" s="3">
+      <c r="K470" s="6"/>
+      <c r="L470" s="8">
         <v>133</v>
       </c>
-      <c r="M470" s="1">
+      <c r="M470" s="9">
         <v>408000</v>
       </c>
-      <c r="T470" s="3" t="s">
+      <c r="N470" s="8"/>
+      <c r="O470" s="6"/>
+      <c r="P470" s="6"/>
+      <c r="Q470" s="8"/>
+      <c r="R470" s="8"/>
+      <c r="S470" s="8"/>
+      <c r="T470" s="8" t="s">
         <v>1065</v>
       </c>
       <c r="X470" t="s">
@@ -18253,16 +18496,29 @@
       <c r="C471" s="4">
         <v>7</v>
       </c>
-      <c r="D471" t="s">
+      <c r="D471" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E471" s="4" t="s">
+      <c r="E471" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="G471" t="s">
+      <c r="F471" s="7"/>
+      <c r="G471" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="T471" s="3" t="s">
+      <c r="H471" s="8"/>
+      <c r="I471" s="6"/>
+      <c r="J471" s="8"/>
+      <c r="K471" s="6"/>
+      <c r="L471" s="8"/>
+      <c r="M471" s="6"/>
+      <c r="N471" s="8"/>
+      <c r="O471" s="6"/>
+      <c r="P471" s="6"/>
+      <c r="Q471" s="8"/>
+      <c r="R471" s="8"/>
+      <c r="S471" s="8"/>
+      <c r="T471" s="8" t="s">
         <v>1066</v>
       </c>
       <c r="X471" t="s">
@@ -18282,19 +18538,31 @@
       <c r="C472" s="4">
         <v>8</v>
       </c>
-      <c r="D472" t="s">
+      <c r="D472" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E472" s="4" t="s">
+      <c r="E472" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="F472" s="2" t="s">
+      <c r="F472" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L472" s="3">
+      <c r="G472" s="6"/>
+      <c r="H472" s="8"/>
+      <c r="I472" s="6"/>
+      <c r="J472" s="8"/>
+      <c r="K472" s="6"/>
+      <c r="L472" s="8">
         <v>143</v>
       </c>
-      <c r="T472" s="3" t="s">
+      <c r="M472" s="6"/>
+      <c r="N472" s="8"/>
+      <c r="O472" s="6"/>
+      <c r="P472" s="6"/>
+      <c r="Q472" s="8"/>
+      <c r="R472" s="8"/>
+      <c r="S472" s="8"/>
+      <c r="T472" s="8" t="s">
         <v>1067</v>
       </c>
       <c r="X472" t="s">
@@ -18305,28 +18573,37 @@
       <c r="C473" s="4">
         <v>9</v>
       </c>
-      <c r="D473" t="s">
+      <c r="D473" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E473" s="4" t="s">
+      <c r="E473" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="F473" s="2" t="s">
+      <c r="F473" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="G473" t="s">
+      <c r="G473" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="K473" t="s">
+      <c r="H473" s="8"/>
+      <c r="I473" s="6"/>
+      <c r="J473" s="8"/>
+      <c r="K473" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L473" s="3">
+      <c r="L473" s="8">
         <v>150</v>
       </c>
-      <c r="Q473" s="3" t="s">
+      <c r="M473" s="6"/>
+      <c r="N473" s="8"/>
+      <c r="O473" s="6"/>
+      <c r="P473" s="6"/>
+      <c r="Q473" s="8" t="s">
         <v>1076</v>
       </c>
-      <c r="T473" s="3" t="s">
+      <c r="R473" s="8"/>
+      <c r="S473" s="8"/>
+      <c r="T473" s="8" t="s">
         <v>1068</v>
       </c>
       <c r="X473" t="s">
@@ -18337,22 +18614,33 @@
       <c r="C474" s="4">
         <v>10</v>
       </c>
-      <c r="D474" t="s">
+      <c r="D474" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E474" s="4">
+      <c r="E474" s="5">
         <v>155</v>
       </c>
-      <c r="F474" s="2" t="s">
+      <c r="F474" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G474" t="s">
+      <c r="G474" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="L474" s="3">
+      <c r="H474" s="8"/>
+      <c r="I474" s="6"/>
+      <c r="J474" s="8"/>
+      <c r="K474" s="6"/>
+      <c r="L474" s="8">
         <v>150</v>
       </c>
-      <c r="T474" s="3" t="s">
+      <c r="M474" s="6"/>
+      <c r="N474" s="8"/>
+      <c r="O474" s="6"/>
+      <c r="P474" s="6"/>
+      <c r="Q474" s="8"/>
+      <c r="R474" s="8"/>
+      <c r="S474" s="8"/>
+      <c r="T474" s="8" t="s">
         <v>1069</v>
       </c>
       <c r="X474" t="s">
@@ -18363,25 +18651,35 @@
       <c r="C475" s="4">
         <v>11</v>
       </c>
-      <c r="D475" t="s">
+      <c r="D475" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E475" s="4" t="s">
+      <c r="E475" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="F475" s="2" t="s">
+      <c r="F475" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="J475" s="3">
+      <c r="G475" s="6"/>
+      <c r="H475" s="8"/>
+      <c r="I475" s="6"/>
+      <c r="J475" s="8">
         <v>6</v>
       </c>
-      <c r="L475" s="3">
+      <c r="K475" s="6"/>
+      <c r="L475" s="8">
         <v>272</v>
       </c>
-      <c r="Q475" s="3" t="s">
+      <c r="M475" s="6"/>
+      <c r="N475" s="8"/>
+      <c r="O475" s="6"/>
+      <c r="P475" s="6"/>
+      <c r="Q475" s="8" t="s">
         <v>1077</v>
       </c>
-      <c r="T475" s="3" t="s">
+      <c r="R475" s="8"/>
+      <c r="S475" s="8"/>
+      <c r="T475" s="8" t="s">
         <v>1070</v>
       </c>
       <c r="X475" t="s">
@@ -18401,19 +18699,31 @@
       <c r="C476" s="4">
         <v>12</v>
       </c>
-      <c r="D476" t="s">
+      <c r="D476" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="E476" s="4" t="s">
+      <c r="E476" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="F476" s="2" t="s">
+      <c r="F476" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="L476" s="3">
+      <c r="G476" s="6"/>
+      <c r="H476" s="8"/>
+      <c r="I476" s="6"/>
+      <c r="J476" s="8"/>
+      <c r="K476" s="6"/>
+      <c r="L476" s="8">
         <v>109</v>
       </c>
-      <c r="T476" s="3" t="s">
+      <c r="M476" s="6"/>
+      <c r="N476" s="8"/>
+      <c r="O476" s="6"/>
+      <c r="P476" s="6"/>
+      <c r="Q476" s="8"/>
+      <c r="R476" s="8"/>
+      <c r="S476" s="8"/>
+      <c r="T476" s="8" t="s">
         <v>1071</v>
       </c>
       <c r="X476" t="s">
@@ -18433,19 +18743,31 @@
       <c r="C477" s="4">
         <v>13</v>
       </c>
-      <c r="D477" t="s">
+      <c r="D477" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E477" s="4" t="s">
+      <c r="E477" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="F477" s="2" t="s">
+      <c r="F477" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L477" s="3">
+      <c r="G477" s="6"/>
+      <c r="H477" s="8"/>
+      <c r="I477" s="6"/>
+      <c r="J477" s="8"/>
+      <c r="K477" s="6"/>
+      <c r="L477" s="8">
         <v>80</v>
       </c>
-      <c r="T477" s="3" t="s">
+      <c r="M477" s="6"/>
+      <c r="N477" s="8"/>
+      <c r="O477" s="6"/>
+      <c r="P477" s="6"/>
+      <c r="Q477" s="8"/>
+      <c r="R477" s="8"/>
+      <c r="S477" s="8"/>
+      <c r="T477" s="8" t="s">
         <v>1072</v>
       </c>
     </row>
@@ -18453,19 +18775,31 @@
       <c r="C478" s="4">
         <v>14</v>
       </c>
-      <c r="D478" t="s">
+      <c r="D478" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E478" s="4" t="s">
+      <c r="E478" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="F478" s="2" t="s">
+      <c r="F478" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="L478" s="3">
+      <c r="G478" s="6"/>
+      <c r="H478" s="8"/>
+      <c r="I478" s="6"/>
+      <c r="J478" s="8"/>
+      <c r="K478" s="6"/>
+      <c r="L478" s="8">
         <v>170</v>
       </c>
-      <c r="T478" s="3" t="s">
+      <c r="M478" s="6"/>
+      <c r="N478" s="8"/>
+      <c r="O478" s="6"/>
+      <c r="P478" s="6"/>
+      <c r="Q478" s="8"/>
+      <c r="R478" s="8"/>
+      <c r="S478" s="8"/>
+      <c r="T478" s="8" t="s">
         <v>1073</v>
       </c>
       <c r="X478" t="s">
@@ -18485,19 +18819,31 @@
       <c r="C479" s="4">
         <v>15</v>
       </c>
-      <c r="D479" t="s">
+      <c r="D479" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E479" s="4" t="s">
+      <c r="E479" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="F479" s="2" t="s">
+      <c r="F479" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L479" s="3">
+      <c r="G479" s="6"/>
+      <c r="H479" s="8"/>
+      <c r="I479" s="6"/>
+      <c r="J479" s="8"/>
+      <c r="K479" s="6"/>
+      <c r="L479" s="8">
         <v>170</v>
       </c>
-      <c r="T479" s="3" t="s">
+      <c r="M479" s="6"/>
+      <c r="N479" s="8"/>
+      <c r="O479" s="6"/>
+      <c r="P479" s="6"/>
+      <c r="Q479" s="8"/>
+      <c r="R479" s="8"/>
+      <c r="S479" s="8"/>
+      <c r="T479" s="8" t="s">
         <v>1074</v>
       </c>
       <c r="X479" t="s">

--- a/devData/H77Dyno.xlsx
+++ b/devData/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\devData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EDD834-3291-4828-8B9D-1A9A04E83B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6537C363-ABE9-481D-8C36-2D2E16C0187E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5738,8 +5738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="D427" sqref="D427:T427"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="D396" sqref="D396:T396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16149,21 +16149,33 @@
       <c r="C396" s="4">
         <v>1</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="E396" s="4">
+      <c r="E396" s="20">
         <v>944</v>
       </c>
-      <c r="F396" s="2" t="s">
+      <c r="F396" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="L396" s="3">
+      <c r="G396" s="14"/>
+      <c r="H396" s="16"/>
+      <c r="I396" s="14"/>
+      <c r="J396" s="16"/>
+      <c r="K396" s="14"/>
+      <c r="L396" s="16">
         <v>163</v>
       </c>
-      <c r="Q396" s="3" t="s">
+      <c r="M396" s="14"/>
+      <c r="N396" s="16"/>
+      <c r="O396" s="14"/>
+      <c r="P396" s="14"/>
+      <c r="Q396" s="16" t="s">
         <v>1232</v>
       </c>
+      <c r="R396" s="16"/>
+      <c r="S396" s="16"/>
+      <c r="T396" s="16"/>
       <c r="X396" t="s">
         <v>146</v>
       </c>
@@ -16561,22 +16573,33 @@
       <c r="C410" s="4">
         <v>1</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D410" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="E410" s="4" t="s">
+      <c r="E410" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="F410" s="2" t="s">
+      <c r="F410" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G410" t="s">
+      <c r="G410" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="L410" s="3">
+      <c r="H410" s="8"/>
+      <c r="I410" s="6"/>
+      <c r="J410" s="8"/>
+      <c r="K410" s="6"/>
+      <c r="L410" s="8">
         <v>120</v>
       </c>
-      <c r="T410" s="3" t="s">
+      <c r="M410" s="6"/>
+      <c r="N410" s="8"/>
+      <c r="O410" s="6"/>
+      <c r="P410" s="6"/>
+      <c r="Q410" s="8"/>
+      <c r="R410" s="8"/>
+      <c r="S410" s="8"/>
+      <c r="T410" s="8" t="s">
         <v>1217</v>
       </c>
       <c r="X410" t="s">
@@ -16587,22 +16610,33 @@
       <c r="C411" s="4">
         <v>2</v>
       </c>
-      <c r="D411" t="s">
+      <c r="D411" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="E411" s="4" t="s">
+      <c r="E411" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="F411" s="2" t="s">
+      <c r="F411" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G411" t="s">
+      <c r="G411" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="L411" s="3">
+      <c r="H411" s="8"/>
+      <c r="I411" s="6"/>
+      <c r="J411" s="8"/>
+      <c r="K411" s="6"/>
+      <c r="L411" s="8">
         <v>150</v>
       </c>
-      <c r="T411" s="3" t="s">
+      <c r="M411" s="6"/>
+      <c r="N411" s="8"/>
+      <c r="O411" s="6"/>
+      <c r="P411" s="6"/>
+      <c r="Q411" s="8"/>
+      <c r="R411" s="8"/>
+      <c r="S411" s="8"/>
+      <c r="T411" s="8" t="s">
         <v>1218</v>
       </c>
       <c r="X411" t="s">
@@ -16613,16 +16647,29 @@
       <c r="C412" s="4">
         <v>3</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D412" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="E412" s="4" t="s">
+      <c r="E412" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="Q412" s="3" t="s">
+      <c r="F412" s="7"/>
+      <c r="G412" s="6"/>
+      <c r="H412" s="8"/>
+      <c r="I412" s="6"/>
+      <c r="J412" s="8"/>
+      <c r="K412" s="6"/>
+      <c r="L412" s="8"/>
+      <c r="M412" s="6"/>
+      <c r="N412" s="8"/>
+      <c r="O412" s="6"/>
+      <c r="P412" s="6"/>
+      <c r="Q412" s="8" t="s">
         <v>1211</v>
       </c>
-      <c r="T412" s="3" t="s">
+      <c r="R412" s="8"/>
+      <c r="S412" s="8"/>
+      <c r="T412" s="8" t="s">
         <v>1126</v>
       </c>
       <c r="X412" t="s">
@@ -16633,25 +16680,35 @@
       <c r="C413" s="4">
         <v>4</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D413" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E413" s="4" t="s">
+      <c r="E413" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="F413" s="2" t="s">
+      <c r="F413" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="K413" t="s">
+      <c r="G413" s="6"/>
+      <c r="H413" s="8"/>
+      <c r="I413" s="6"/>
+      <c r="J413" s="8"/>
+      <c r="K413" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="L413" s="3">
+      <c r="L413" s="8">
         <v>231</v>
       </c>
-      <c r="Q413" s="3" t="s">
+      <c r="M413" s="6"/>
+      <c r="N413" s="8"/>
+      <c r="O413" s="6"/>
+      <c r="P413" s="6"/>
+      <c r="Q413" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T413" s="3" t="s">
+      <c r="R413" s="8"/>
+      <c r="S413" s="8"/>
+      <c r="T413" s="8" t="s">
         <v>1219</v>
       </c>
       <c r="X413" t="s">
@@ -16662,25 +16719,35 @@
       <c r="C414" s="4">
         <v>5</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D414" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="E414" s="4" t="s">
+      <c r="E414" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="F414" s="2" t="s">
+      <c r="F414" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="J414" s="3">
+      <c r="G414" s="6"/>
+      <c r="H414" s="8"/>
+      <c r="I414" s="6"/>
+      <c r="J414" s="8">
         <v>5</v>
       </c>
-      <c r="L414" s="3">
+      <c r="K414" s="6"/>
+      <c r="L414" s="8">
         <v>150</v>
       </c>
-      <c r="Q414" s="3" t="s">
+      <c r="M414" s="6"/>
+      <c r="N414" s="8"/>
+      <c r="O414" s="6"/>
+      <c r="P414" s="6"/>
+      <c r="Q414" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T414" s="3" t="s">
+      <c r="R414" s="8"/>
+      <c r="S414" s="8"/>
+      <c r="T414" s="8" t="s">
         <v>1220</v>
       </c>
       <c r="X414" t="s">
@@ -16691,25 +16758,35 @@
       <c r="C415" s="4">
         <v>6</v>
       </c>
-      <c r="D415" t="s">
+      <c r="D415" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E415" s="4" t="s">
+      <c r="E415" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="F415" s="2" t="s">
+      <c r="F415" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="L415" s="3">
+      <c r="G415" s="6"/>
+      <c r="H415" s="8"/>
+      <c r="I415" s="6"/>
+      <c r="J415" s="8"/>
+      <c r="K415" s="6"/>
+      <c r="L415" s="8">
         <v>231</v>
       </c>
-      <c r="M415" s="1">
+      <c r="M415" s="9">
         <v>76000</v>
       </c>
-      <c r="Q415" s="3" t="s">
+      <c r="N415" s="8"/>
+      <c r="O415" s="6"/>
+      <c r="P415" s="6"/>
+      <c r="Q415" s="8" t="s">
         <v>1212</v>
       </c>
-      <c r="T415" s="3" t="s">
+      <c r="R415" s="8"/>
+      <c r="S415" s="8"/>
+      <c r="T415" s="8" t="s">
         <v>1221</v>
       </c>
       <c r="X415" t="s">
@@ -16729,19 +16806,31 @@
       <c r="C416" s="4">
         <v>7</v>
       </c>
-      <c r="D416" t="s">
+      <c r="D416" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E416" s="4" t="s">
+      <c r="E416" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="G416" t="s">
+      <c r="F416" s="7"/>
+      <c r="G416" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="Q416" s="3" t="s">
+      <c r="H416" s="8"/>
+      <c r="I416" s="6"/>
+      <c r="J416" s="8"/>
+      <c r="K416" s="6"/>
+      <c r="L416" s="8"/>
+      <c r="M416" s="6"/>
+      <c r="N416" s="8"/>
+      <c r="O416" s="6"/>
+      <c r="P416" s="6"/>
+      <c r="Q416" s="8" t="s">
         <v>1213</v>
       </c>
-      <c r="T416" s="3" t="s">
+      <c r="R416" s="8"/>
+      <c r="S416" s="8"/>
+      <c r="T416" s="8" t="s">
         <v>1222</v>
       </c>
       <c r="X416" t="s">
@@ -16752,22 +16841,33 @@
       <c r="C417" s="4">
         <v>8</v>
       </c>
-      <c r="D417" t="s">
+      <c r="D417" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E417" s="4" t="s">
+      <c r="E417" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="F417" s="2" t="s">
+      <c r="F417" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="L417" s="3">
+      <c r="G417" s="6"/>
+      <c r="H417" s="8"/>
+      <c r="I417" s="6"/>
+      <c r="J417" s="8"/>
+      <c r="K417" s="6"/>
+      <c r="L417" s="8">
         <v>90</v>
       </c>
-      <c r="Q417" s="3" t="s">
+      <c r="M417" s="6"/>
+      <c r="N417" s="8"/>
+      <c r="O417" s="6"/>
+      <c r="P417" s="6"/>
+      <c r="Q417" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T417" s="3" t="s">
+      <c r="R417" s="8"/>
+      <c r="S417" s="8"/>
+      <c r="T417" s="8" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16775,25 +16875,35 @@
       <c r="C418" s="4">
         <v>9</v>
       </c>
-      <c r="D418" t="s">
+      <c r="D418" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E418" s="4" t="s">
+      <c r="E418" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="F418" s="2" t="s">
+      <c r="F418" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L418" s="3">
+      <c r="G418" s="6"/>
+      <c r="H418" s="8"/>
+      <c r="I418" s="6"/>
+      <c r="J418" s="8"/>
+      <c r="K418" s="6"/>
+      <c r="L418" s="8">
         <v>88</v>
       </c>
-      <c r="N418" s="3">
+      <c r="M418" s="6"/>
+      <c r="N418" s="8">
         <v>1992</v>
       </c>
-      <c r="Q418" s="3" t="s">
+      <c r="O418" s="6"/>
+      <c r="P418" s="6"/>
+      <c r="Q418" s="8" t="s">
         <v>1214</v>
       </c>
-      <c r="T418" s="3" t="s">
+      <c r="R418" s="8"/>
+      <c r="S418" s="8"/>
+      <c r="T418" s="8" t="s">
         <v>1224</v>
       </c>
       <c r="X418" t="s">
@@ -16804,25 +16914,35 @@
       <c r="C419" s="4">
         <v>10</v>
       </c>
-      <c r="D419" t="s">
+      <c r="D419" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="E419" s="4" t="s">
+      <c r="E419" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="F419" s="2" t="s">
+      <c r="F419" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L419" s="3">
+      <c r="G419" s="6"/>
+      <c r="H419" s="8"/>
+      <c r="I419" s="6"/>
+      <c r="J419" s="8"/>
+      <c r="K419" s="6"/>
+      <c r="L419" s="8">
         <v>75</v>
       </c>
-      <c r="M419" s="1">
+      <c r="M419" s="9">
         <v>214000</v>
       </c>
-      <c r="Q419" s="3" t="s">
+      <c r="N419" s="8"/>
+      <c r="O419" s="6"/>
+      <c r="P419" s="6"/>
+      <c r="Q419" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T419" s="3" t="s">
+      <c r="R419" s="8"/>
+      <c r="S419" s="8"/>
+      <c r="T419" s="8" t="s">
         <v>1225</v>
       </c>
       <c r="X419" t="s">
@@ -16833,19 +16953,31 @@
       <c r="C420" s="4">
         <v>11</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D420" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E420" s="4" t="s">
+      <c r="E420" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="L420" s="3">
+      <c r="F420" s="7"/>
+      <c r="G420" s="6"/>
+      <c r="H420" s="8"/>
+      <c r="I420" s="6"/>
+      <c r="J420" s="8"/>
+      <c r="K420" s="6"/>
+      <c r="L420" s="8">
         <v>150</v>
       </c>
-      <c r="Q420" s="3" t="s">
+      <c r="M420" s="6"/>
+      <c r="N420" s="8"/>
+      <c r="O420" s="6"/>
+      <c r="P420" s="6"/>
+      <c r="Q420" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T420" s="3" t="s">
+      <c r="R420" s="8"/>
+      <c r="S420" s="8"/>
+      <c r="T420" s="8" t="s">
         <v>1226</v>
       </c>
       <c r="AA420" t="s">
@@ -16856,25 +16988,35 @@
       <c r="C421" s="4">
         <v>12</v>
       </c>
-      <c r="D421" t="s">
+      <c r="D421" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E421" s="4">
+      <c r="E421" s="5">
         <v>90</v>
       </c>
-      <c r="F421" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="K421" t="s">
+      <c r="F421" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G421" s="6"/>
+      <c r="H421" s="8"/>
+      <c r="I421" s="6"/>
+      <c r="J421" s="8"/>
+      <c r="K421" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L421" s="3">
+      <c r="L421" s="8">
         <v>136</v>
       </c>
-      <c r="Q421" s="3" t="s">
+      <c r="M421" s="6"/>
+      <c r="N421" s="8"/>
+      <c r="O421" s="6"/>
+      <c r="P421" s="6"/>
+      <c r="Q421" s="8" t="s">
         <v>1215</v>
       </c>
-      <c r="T421" s="3" t="s">
+      <c r="R421" s="8"/>
+      <c r="S421" s="8"/>
+      <c r="T421" s="8" t="s">
         <v>1227</v>
       </c>
       <c r="X421" t="s">
@@ -16894,22 +17036,33 @@
       <c r="C422" s="4">
         <v>13</v>
       </c>
-      <c r="D422" t="s">
+      <c r="D422" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E422" s="4" t="s">
+      <c r="E422" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="J422" s="3">
+      <c r="F422" s="7"/>
+      <c r="G422" s="6"/>
+      <c r="H422" s="8"/>
+      <c r="I422" s="6"/>
+      <c r="J422" s="8">
         <v>6</v>
       </c>
-      <c r="L422" s="3">
+      <c r="K422" s="6"/>
+      <c r="L422" s="8">
         <v>271</v>
       </c>
-      <c r="Q422" s="3" t="s">
+      <c r="M422" s="6"/>
+      <c r="N422" s="8"/>
+      <c r="O422" s="6"/>
+      <c r="P422" s="6"/>
+      <c r="Q422" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T422" s="3" t="s">
+      <c r="R422" s="8"/>
+      <c r="S422" s="8"/>
+      <c r="T422" s="8" t="s">
         <v>1228</v>
       </c>
       <c r="X422" t="s">
@@ -16920,25 +17073,35 @@
       <c r="C423" s="4">
         <v>14</v>
       </c>
-      <c r="D423" t="s">
+      <c r="D423" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="E423" s="4" t="s">
+      <c r="E423" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="F423" s="2" t="s">
+      <c r="F423" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G423" t="s">
+      <c r="G423" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="L423" s="3">
+      <c r="H423" s="8"/>
+      <c r="I423" s="6"/>
+      <c r="J423" s="8"/>
+      <c r="K423" s="6"/>
+      <c r="L423" s="8">
         <v>200</v>
       </c>
-      <c r="Q423" s="3" t="s">
+      <c r="M423" s="6"/>
+      <c r="N423" s="8"/>
+      <c r="O423" s="6"/>
+      <c r="P423" s="6"/>
+      <c r="Q423" s="8" t="s">
         <v>1216</v>
       </c>
-      <c r="T423" s="3" t="s">
+      <c r="R423" s="8"/>
+      <c r="S423" s="8"/>
+      <c r="T423" s="8" t="s">
         <v>1229</v>
       </c>
       <c r="X423" t="s">
@@ -16958,13 +17121,27 @@
       <c r="C424" s="4">
         <v>15</v>
       </c>
-      <c r="D424" t="s">
+      <c r="D424" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="L424" s="3">
+      <c r="E424" s="5"/>
+      <c r="F424" s="7"/>
+      <c r="G424" s="6"/>
+      <c r="H424" s="8"/>
+      <c r="I424" s="6"/>
+      <c r="J424" s="8"/>
+      <c r="K424" s="6"/>
+      <c r="L424" s="8">
         <v>160</v>
       </c>
-      <c r="T424" s="3" t="s">
+      <c r="M424" s="6"/>
+      <c r="N424" s="8"/>
+      <c r="O424" s="6"/>
+      <c r="P424" s="6"/>
+      <c r="Q424" s="8"/>
+      <c r="R424" s="8"/>
+      <c r="S424" s="8"/>
+      <c r="T424" s="8" t="s">
         <v>1230</v>
       </c>
       <c r="X424" t="s">
@@ -16975,22 +17152,33 @@
       <c r="C425" s="4">
         <v>16</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D425" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E425" s="4" t="s">
+      <c r="E425" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="F425" s="2" t="s">
+      <c r="F425" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="G425" t="s">
+      <c r="G425" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="L425" s="3">
+      <c r="H425" s="8"/>
+      <c r="I425" s="6"/>
+      <c r="J425" s="8"/>
+      <c r="K425" s="6"/>
+      <c r="L425" s="8">
         <v>39</v>
       </c>
-      <c r="T425" s="3" t="s">
+      <c r="M425" s="6"/>
+      <c r="N425" s="8"/>
+      <c r="O425" s="6"/>
+      <c r="P425" s="6"/>
+      <c r="Q425" s="8"/>
+      <c r="R425" s="8"/>
+      <c r="S425" s="8"/>
+      <c r="T425" s="8" t="s">
         <v>1231</v>
       </c>
       <c r="X425" t="s">
@@ -17006,33 +17194,33 @@
       <c r="C427" s="4">
         <v>1</v>
       </c>
-      <c r="D427" s="14" t="s">
+      <c r="D427" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E427" s="20" t="s">
+      <c r="E427" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F427" s="15" t="s">
+      <c r="F427" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G427" s="14" t="s">
+      <c r="G427" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="H427" s="16"/>
-      <c r="I427" s="14"/>
-      <c r="J427" s="16"/>
-      <c r="K427" s="14"/>
-      <c r="L427" s="16">
+      <c r="H427" s="8"/>
+      <c r="I427" s="6"/>
+      <c r="J427" s="8"/>
+      <c r="K427" s="6"/>
+      <c r="L427" s="8">
         <v>150</v>
       </c>
-      <c r="M427" s="14"/>
-      <c r="N427" s="16"/>
-      <c r="O427" s="14"/>
-      <c r="P427" s="14"/>
-      <c r="Q427" s="16"/>
-      <c r="R427" s="16"/>
-      <c r="S427" s="16"/>
-      <c r="T427" s="16" t="s">
+      <c r="M427" s="6"/>
+      <c r="N427" s="8"/>
+      <c r="O427" s="6"/>
+      <c r="P427" s="6"/>
+      <c r="Q427" s="8"/>
+      <c r="R427" s="8"/>
+      <c r="S427" s="8"/>
+      <c r="T427" s="8" t="s">
         <v>1192</v>
       </c>
       <c r="X427" t="s">
@@ -17043,19 +17231,31 @@
       <c r="C428" s="4">
         <v>2</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D428" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E428" s="4" t="s">
+      <c r="E428" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="F428" s="2" t="s">
+      <c r="F428" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L428" s="3">
+      <c r="G428" s="6"/>
+      <c r="H428" s="8"/>
+      <c r="I428" s="6"/>
+      <c r="J428" s="8"/>
+      <c r="K428" s="6"/>
+      <c r="L428" s="8">
         <v>150</v>
       </c>
-      <c r="T428" s="3" t="s">
+      <c r="M428" s="6"/>
+      <c r="N428" s="8"/>
+      <c r="O428" s="6"/>
+      <c r="P428" s="6"/>
+      <c r="Q428" s="8"/>
+      <c r="R428" s="8"/>
+      <c r="S428" s="8"/>
+      <c r="T428" s="8" t="s">
         <v>1193</v>
       </c>
     </row>
@@ -17063,22 +17263,33 @@
       <c r="C429" s="4">
         <v>3</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D429" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E429" s="4" t="s">
+      <c r="E429" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="F429" s="2" t="s">
+      <c r="F429" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G429" t="s">
+      <c r="G429" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="L429" s="3">
+      <c r="H429" s="8"/>
+      <c r="I429" s="6"/>
+      <c r="J429" s="8"/>
+      <c r="K429" s="6"/>
+      <c r="L429" s="8">
         <v>98</v>
       </c>
-      <c r="T429" s="3" t="s">
+      <c r="M429" s="6"/>
+      <c r="N429" s="8"/>
+      <c r="O429" s="6"/>
+      <c r="P429" s="6"/>
+      <c r="Q429" s="8"/>
+      <c r="R429" s="8"/>
+      <c r="S429" s="8"/>
+      <c r="T429" s="8" t="s">
         <v>1194</v>
       </c>
       <c r="X429" t="s">
@@ -17089,25 +17300,35 @@
       <c r="C430" s="4">
         <v>4</v>
       </c>
-      <c r="D430" t="s">
+      <c r="D430" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E430" s="4" t="s">
+      <c r="E430" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="F430" s="2" t="s">
+      <c r="F430" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="J430" s="3">
+      <c r="G430" s="6"/>
+      <c r="H430" s="8"/>
+      <c r="I430" s="6"/>
+      <c r="J430" s="8">
         <v>5</v>
       </c>
-      <c r="L430" s="3">
+      <c r="K430" s="6"/>
+      <c r="L430" s="8">
         <v>133</v>
       </c>
-      <c r="Q430" s="3" t="s">
+      <c r="M430" s="6"/>
+      <c r="N430" s="8"/>
+      <c r="O430" s="6"/>
+      <c r="P430" s="6"/>
+      <c r="Q430" s="8" t="s">
         <v>1188</v>
       </c>
-      <c r="T430" s="3" t="s">
+      <c r="R430" s="8"/>
+      <c r="S430" s="8"/>
+      <c r="T430" s="8" t="s">
         <v>1195</v>
       </c>
       <c r="X430" t="s">
@@ -17118,25 +17339,35 @@
       <c r="C431" s="4">
         <v>5</v>
       </c>
-      <c r="D431" t="s">
+      <c r="D431" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E431" s="4" t="s">
+      <c r="E431" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="F431" s="2" t="s">
+      <c r="F431" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G431" t="s">
+      <c r="G431" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="L431" s="3">
+      <c r="H431" s="8"/>
+      <c r="I431" s="6"/>
+      <c r="J431" s="8"/>
+      <c r="K431" s="6"/>
+      <c r="L431" s="8">
         <v>90</v>
       </c>
-      <c r="Q431" s="3" t="s">
+      <c r="M431" s="6"/>
+      <c r="N431" s="8"/>
+      <c r="O431" s="6"/>
+      <c r="P431" s="6"/>
+      <c r="Q431" s="8" t="s">
         <v>1189</v>
       </c>
-      <c r="T431" s="3" t="s">
+      <c r="R431" s="8"/>
+      <c r="S431" s="8"/>
+      <c r="T431" s="8" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -17144,22 +17375,33 @@
       <c r="C432" s="4">
         <v>6</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D432" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E432" s="4" t="s">
+      <c r="E432" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="F432" s="2" t="s">
+      <c r="F432" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L432" s="3">
+      <c r="G432" s="6"/>
+      <c r="H432" s="8"/>
+      <c r="I432" s="6"/>
+      <c r="J432" s="8"/>
+      <c r="K432" s="6"/>
+      <c r="L432" s="8">
         <v>90</v>
       </c>
-      <c r="Q432" s="3" t="s">
+      <c r="M432" s="6"/>
+      <c r="N432" s="8"/>
+      <c r="O432" s="6"/>
+      <c r="P432" s="6"/>
+      <c r="Q432" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T432" s="3" t="s">
+      <c r="R432" s="8"/>
+      <c r="S432" s="8"/>
+      <c r="T432" s="8" t="s">
         <v>1197</v>
       </c>
       <c r="X432" t="s">
@@ -17179,22 +17421,33 @@
       <c r="C433" s="4">
         <v>7</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D433" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E433" s="4" t="s">
+      <c r="E433" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="F433" s="2" t="s">
+      <c r="F433" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L433" s="3">
+      <c r="G433" s="6"/>
+      <c r="H433" s="8"/>
+      <c r="I433" s="6"/>
+      <c r="J433" s="8"/>
+      <c r="K433" s="6"/>
+      <c r="L433" s="8">
         <v>200</v>
       </c>
-      <c r="Q433" s="3" t="s">
+      <c r="M433" s="6"/>
+      <c r="N433" s="8"/>
+      <c r="O433" s="6"/>
+      <c r="P433" s="6"/>
+      <c r="Q433" s="8" t="s">
         <v>1190</v>
       </c>
-      <c r="T433" s="3" t="s">
+      <c r="R433" s="8"/>
+      <c r="S433" s="8"/>
+      <c r="T433" s="8" t="s">
         <v>1198</v>
       </c>
       <c r="X433" t="s">
@@ -17214,22 +17467,33 @@
       <c r="C434" s="4">
         <v>8</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D434" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E434" s="4">
+      <c r="E434" s="5">
         <v>996</v>
       </c>
-      <c r="F434" s="2" t="s">
+      <c r="F434" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="L434" s="3">
+      <c r="G434" s="6"/>
+      <c r="H434" s="8"/>
+      <c r="I434" s="6"/>
+      <c r="J434" s="8"/>
+      <c r="K434" s="6"/>
+      <c r="L434" s="8">
         <v>300</v>
       </c>
-      <c r="Q434" s="3" t="s">
+      <c r="M434" s="6"/>
+      <c r="N434" s="8"/>
+      <c r="O434" s="6"/>
+      <c r="P434" s="6"/>
+      <c r="Q434" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T434" s="3" t="s">
+      <c r="R434" s="8"/>
+      <c r="S434" s="8"/>
+      <c r="T434" s="8" t="s">
         <v>1199</v>
       </c>
       <c r="X434" t="s">
@@ -17240,25 +17504,35 @@
       <c r="C435" s="4">
         <v>9</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D435" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E435" s="4" t="s">
+      <c r="E435" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="F435" s="2" t="s">
+      <c r="F435" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G435" t="s">
+      <c r="G435" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="L435" s="3">
+      <c r="H435" s="8"/>
+      <c r="I435" s="6"/>
+      <c r="J435" s="8"/>
+      <c r="K435" s="6"/>
+      <c r="L435" s="8">
         <v>131</v>
       </c>
-      <c r="Q435" s="3" t="s">
+      <c r="M435" s="6"/>
+      <c r="N435" s="8"/>
+      <c r="O435" s="6"/>
+      <c r="P435" s="6"/>
+      <c r="Q435" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T435" s="3" t="s">
+      <c r="R435" s="8"/>
+      <c r="S435" s="8"/>
+      <c r="T435" s="8" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -17266,22 +17540,33 @@
       <c r="C436" s="4">
         <v>10</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D436" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E436" s="4" t="s">
+      <c r="E436" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="F436" s="2" t="s">
+      <c r="F436" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="L436" s="3">
+      <c r="G436" s="6"/>
+      <c r="H436" s="8"/>
+      <c r="I436" s="6"/>
+      <c r="J436" s="8"/>
+      <c r="K436" s="6"/>
+      <c r="L436" s="8">
         <v>150</v>
       </c>
-      <c r="Q436" s="3" t="s">
+      <c r="M436" s="6"/>
+      <c r="N436" s="8"/>
+      <c r="O436" s="6"/>
+      <c r="P436" s="6"/>
+      <c r="Q436" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T436" s="3" t="s">
+      <c r="R436" s="8"/>
+      <c r="S436" s="8"/>
+      <c r="T436" s="8" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -17289,25 +17574,35 @@
       <c r="C437" s="4">
         <v>11</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D437" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E437" s="4" t="s">
+      <c r="E437" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="F437" s="2" t="s">
+      <c r="F437" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G437" t="s">
+      <c r="G437" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="L437" s="3">
+      <c r="H437" s="8"/>
+      <c r="I437" s="6"/>
+      <c r="J437" s="8"/>
+      <c r="K437" s="6"/>
+      <c r="L437" s="8">
         <v>75</v>
       </c>
-      <c r="Q437" s="3" t="s">
+      <c r="M437" s="6"/>
+      <c r="N437" s="8"/>
+      <c r="O437" s="6"/>
+      <c r="P437" s="6"/>
+      <c r="Q437" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T437" s="3" t="s">
+      <c r="R437" s="8"/>
+      <c r="S437" s="8"/>
+      <c r="T437" s="8" t="s">
         <v>1202</v>
       </c>
       <c r="X437" t="s">
@@ -17318,22 +17613,33 @@
       <c r="C438" s="4">
         <v>12</v>
       </c>
-      <c r="D438" t="s">
+      <c r="D438" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E438" s="4" t="s">
+      <c r="E438" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="F438" s="2" t="s">
+      <c r="F438" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L438" s="3">
+      <c r="G438" s="6"/>
+      <c r="H438" s="8"/>
+      <c r="I438" s="6"/>
+      <c r="J438" s="8"/>
+      <c r="K438" s="6"/>
+      <c r="L438" s="8">
         <v>98</v>
       </c>
-      <c r="Q438" s="3" t="s">
+      <c r="M438" s="6"/>
+      <c r="N438" s="8"/>
+      <c r="O438" s="6"/>
+      <c r="P438" s="6"/>
+      <c r="Q438" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T438" s="3" t="s">
+      <c r="R438" s="8"/>
+      <c r="S438" s="8"/>
+      <c r="T438" s="8" t="s">
         <v>1203</v>
       </c>
       <c r="X438" t="s">
@@ -17353,25 +17659,35 @@
       <c r="C439" s="4">
         <v>13</v>
       </c>
-      <c r="D439" t="s">
+      <c r="D439" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E439" s="4" t="s">
+      <c r="E439" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="F439" s="2" t="s">
+      <c r="F439" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L439" s="3">
+      <c r="G439" s="6"/>
+      <c r="H439" s="8"/>
+      <c r="I439" s="6"/>
+      <c r="J439" s="8"/>
+      <c r="K439" s="6"/>
+      <c r="L439" s="8">
         <v>112</v>
       </c>
-      <c r="N439" s="3">
+      <c r="M439" s="6"/>
+      <c r="N439" s="8">
         <v>1983</v>
       </c>
-      <c r="Q439" s="3" t="s">
+      <c r="O439" s="6"/>
+      <c r="P439" s="6"/>
+      <c r="Q439" s="8" t="s">
         <v>1191</v>
       </c>
-      <c r="T439" s="3" t="s">
+      <c r="R439" s="8"/>
+      <c r="S439" s="8"/>
+      <c r="T439" s="8" t="s">
         <v>1204</v>
       </c>
       <c r="X439" t="s">
@@ -17382,22 +17698,33 @@
       <c r="C440" s="4">
         <v>14</v>
       </c>
-      <c r="D440" t="s">
+      <c r="D440" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E440" s="4">
+      <c r="E440" s="5">
         <v>90</v>
       </c>
-      <c r="F440" s="2" t="s">
+      <c r="F440" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="L440" s="3">
+      <c r="G440" s="6"/>
+      <c r="H440" s="8"/>
+      <c r="I440" s="6"/>
+      <c r="J440" s="8"/>
+      <c r="K440" s="6"/>
+      <c r="L440" s="8">
         <v>133</v>
       </c>
-      <c r="M440" s="1">
+      <c r="M440" s="9">
         <v>303000</v>
       </c>
-      <c r="T440" s="3" t="s">
+      <c r="N440" s="8"/>
+      <c r="O440" s="6"/>
+      <c r="P440" s="6"/>
+      <c r="Q440" s="8"/>
+      <c r="R440" s="8"/>
+      <c r="S440" s="8"/>
+      <c r="T440" s="8" t="s">
         <v>1205</v>
       </c>
       <c r="X440" t="s">
@@ -17408,20 +17735,31 @@
       <c r="C441" s="4">
         <v>15</v>
       </c>
-      <c r="D441" t="s">
+      <c r="D441" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E441" s="4" t="s">
+      <c r="E441" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="F441" s="2" t="s">
+      <c r="F441" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L441" s="3">
+      <c r="G441" s="6"/>
+      <c r="H441" s="8"/>
+      <c r="I441" s="6"/>
+      <c r="J441" s="8"/>
+      <c r="K441" s="6"/>
+      <c r="L441" s="8">
         <v>211</v>
       </c>
-      <c r="M441" s="1"/>
-      <c r="T441" s="3" t="s">
+      <c r="M441" s="9"/>
+      <c r="N441" s="8"/>
+      <c r="O441" s="6"/>
+      <c r="P441" s="6"/>
+      <c r="Q441" s="8"/>
+      <c r="R441" s="8"/>
+      <c r="S441" s="8"/>
+      <c r="T441" s="8" t="s">
         <v>1206</v>
       </c>
       <c r="X441" t="s">
@@ -17432,20 +17770,31 @@
       <c r="C442" s="4">
         <v>16</v>
       </c>
-      <c r="D442" t="s">
+      <c r="D442" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E442" s="4" t="s">
+      <c r="E442" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="F442" s="2" t="s">
+      <c r="F442" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L442" s="3">
+      <c r="G442" s="6"/>
+      <c r="H442" s="8"/>
+      <c r="I442" s="6"/>
+      <c r="J442" s="8"/>
+      <c r="K442" s="6"/>
+      <c r="L442" s="8">
         <v>115</v>
       </c>
-      <c r="M442" s="1"/>
-      <c r="T442" s="3" t="s">
+      <c r="M442" s="9"/>
+      <c r="N442" s="8"/>
+      <c r="O442" s="6"/>
+      <c r="P442" s="6"/>
+      <c r="Q442" s="8"/>
+      <c r="R442" s="8"/>
+      <c r="S442" s="8"/>
+      <c r="T442" s="8" t="s">
         <v>1207</v>
       </c>
       <c r="X442" t="s">
@@ -17456,20 +17805,31 @@
       <c r="C443" s="4">
         <v>17</v>
       </c>
-      <c r="D443" t="s">
+      <c r="D443" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E443" s="4" t="s">
+      <c r="E443" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="F443" s="2" t="s">
+      <c r="F443" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L443" s="3">
+      <c r="G443" s="6"/>
+      <c r="H443" s="8"/>
+      <c r="I443" s="6"/>
+      <c r="J443" s="8"/>
+      <c r="K443" s="6"/>
+      <c r="L443" s="8">
         <v>170</v>
       </c>
-      <c r="M443" s="1"/>
-      <c r="T443" s="3" t="s">
+      <c r="M443" s="9"/>
+      <c r="N443" s="8"/>
+      <c r="O443" s="6"/>
+      <c r="P443" s="6"/>
+      <c r="Q443" s="8"/>
+      <c r="R443" s="8"/>
+      <c r="S443" s="8"/>
+      <c r="T443" s="8" t="s">
         <v>1208</v>
       </c>
       <c r="X443" t="s">
@@ -17480,20 +17840,31 @@
       <c r="C444" s="4">
         <v>18</v>
       </c>
-      <c r="D444" t="s">
+      <c r="D444" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E444" s="4" t="s">
+      <c r="E444" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="F444" s="2" t="s">
+      <c r="F444" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="L444" s="3">
+      <c r="G444" s="6"/>
+      <c r="H444" s="8"/>
+      <c r="I444" s="6"/>
+      <c r="J444" s="8"/>
+      <c r="K444" s="6"/>
+      <c r="L444" s="8">
         <v>253</v>
       </c>
-      <c r="M444" s="1"/>
-      <c r="T444" s="3" t="s">
+      <c r="M444" s="9"/>
+      <c r="N444" s="8"/>
+      <c r="O444" s="6"/>
+      <c r="P444" s="6"/>
+      <c r="Q444" s="8"/>
+      <c r="R444" s="8"/>
+      <c r="S444" s="8"/>
+      <c r="T444" s="8" t="s">
         <v>1209</v>
       </c>
       <c r="X444" t="s">
@@ -17504,22 +17875,33 @@
       <c r="C445" s="4">
         <v>19</v>
       </c>
-      <c r="D445" t="s">
+      <c r="D445" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E445" s="4" t="s">
+      <c r="E445" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="F445" s="2" t="s">
+      <c r="F445" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="L445" s="3">
+      <c r="G445" s="6"/>
+      <c r="H445" s="8"/>
+      <c r="I445" s="6"/>
+      <c r="J445" s="8"/>
+      <c r="K445" s="6"/>
+      <c r="L445" s="8">
         <v>125</v>
       </c>
-      <c r="M445" s="1">
+      <c r="M445" s="9">
         <v>190000</v>
       </c>
-      <c r="T445" s="3" t="s">
+      <c r="N445" s="8"/>
+      <c r="O445" s="6"/>
+      <c r="P445" s="6"/>
+      <c r="Q445" s="8"/>
+      <c r="R445" s="8"/>
+      <c r="S445" s="8"/>
+      <c r="T445" s="8" t="s">
         <v>1210</v>
       </c>
       <c r="X445" t="s">

--- a/devData/H77Dyno.xlsx
+++ b/devData/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\devData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6537C363-ABE9-481D-8C36-2D2E16C0187E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F9DD3A-5731-4004-AA67-18A78615ACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5168,13 +5168,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5367,19 +5367,19 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -5738,8 +5738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="D396" sqref="D396:T396"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="D339" sqref="D339:T339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5753,13 +5753,13 @@
     <col min="12" max="12" width="4.5703125" style="3" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="3" customWidth="1"/>
     <col min="15" max="15" width="5.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="1.85546875" style="17" customWidth="1"/>
+    <col min="16" max="16" width="1.85546875" style="14" customWidth="1"/>
     <col min="17" max="17" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" style="11" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="1.7109375" style="18" customWidth="1"/>
+    <col min="19" max="19" width="1.7109375" style="15" customWidth="1"/>
     <col min="20" max="20" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="1.7109375" style="11" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="1.85546875" style="18" customWidth="1"/>
+    <col min="22" max="22" width="1.85546875" style="15" customWidth="1"/>
     <col min="23" max="23" width="2.140625" customWidth="1"/>
     <col min="24" max="24" width="4.7109375" customWidth="1"/>
     <col min="27" max="27" width="5.5703125" customWidth="1"/>
@@ -14574,16 +14574,29 @@
       <c r="C339" s="4">
         <v>1</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E339" s="4" t="s">
+      <c r="E339" s="18" t="s">
         <v>951</v>
       </c>
-      <c r="L339" s="3">
+      <c r="F339" s="19"/>
+      <c r="G339" s="17"/>
+      <c r="H339" s="20"/>
+      <c r="I339" s="17"/>
+      <c r="J339" s="20"/>
+      <c r="K339" s="17"/>
+      <c r="L339" s="20">
         <v>192</v>
       </c>
-      <c r="T339" s="3" t="s">
+      <c r="M339" s="17"/>
+      <c r="N339" s="20"/>
+      <c r="O339" s="17"/>
+      <c r="P339" s="17"/>
+      <c r="Q339" s="20"/>
+      <c r="R339" s="20"/>
+      <c r="S339" s="20"/>
+      <c r="T339" s="20" t="s">
         <v>1299</v>
       </c>
       <c r="X339" t="s">
@@ -16149,33 +16162,33 @@
       <c r="C396" s="4">
         <v>1</v>
       </c>
-      <c r="D396" s="14" t="s">
+      <c r="D396" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E396" s="20">
+      <c r="E396" s="5">
         <v>944</v>
       </c>
-      <c r="F396" s="15" t="s">
+      <c r="F396" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G396" s="14"/>
-      <c r="H396" s="16"/>
-      <c r="I396" s="14"/>
-      <c r="J396" s="16"/>
-      <c r="K396" s="14"/>
-      <c r="L396" s="16">
+      <c r="G396" s="6"/>
+      <c r="H396" s="8"/>
+      <c r="I396" s="6"/>
+      <c r="J396" s="8"/>
+      <c r="K396" s="6"/>
+      <c r="L396" s="8">
         <v>163</v>
       </c>
-      <c r="M396" s="14"/>
-      <c r="N396" s="16"/>
-      <c r="O396" s="14"/>
-      <c r="P396" s="14"/>
-      <c r="Q396" s="16" t="s">
+      <c r="M396" s="6"/>
+      <c r="N396" s="8"/>
+      <c r="O396" s="6"/>
+      <c r="P396" s="6"/>
+      <c r="Q396" s="8" t="s">
         <v>1232</v>
       </c>
-      <c r="R396" s="16"/>
-      <c r="S396" s="16"/>
-      <c r="T396" s="16"/>
+      <c r="R396" s="8"/>
+      <c r="S396" s="8"/>
+      <c r="T396" s="8"/>
       <c r="X396" t="s">
         <v>146</v>
       </c>
@@ -16184,22 +16197,33 @@
       <c r="C397" s="4">
         <v>2</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E397" s="4" t="s">
+      <c r="E397" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="F397" s="2" t="s">
+      <c r="F397" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L397" s="3">
+      <c r="G397" s="6"/>
+      <c r="H397" s="8"/>
+      <c r="I397" s="6"/>
+      <c r="J397" s="8"/>
+      <c r="K397" s="6"/>
+      <c r="L397" s="8">
         <v>200</v>
       </c>
-      <c r="Q397" s="3" t="s">
+      <c r="M397" s="6"/>
+      <c r="N397" s="8"/>
+      <c r="O397" s="6"/>
+      <c r="P397" s="6"/>
+      <c r="Q397" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T397" s="3" t="s">
+      <c r="R397" s="8"/>
+      <c r="S397" s="8"/>
+      <c r="T397" s="8" t="s">
         <v>1236</v>
       </c>
       <c r="X397" t="s">
@@ -16219,25 +16243,35 @@
       <c r="C398" s="4">
         <v>3</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D398" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E398" s="4" t="s">
+      <c r="E398" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="F398" s="2" t="s">
+      <c r="F398" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="J398" s="3">
+      <c r="G398" s="6"/>
+      <c r="H398" s="8"/>
+      <c r="I398" s="6"/>
+      <c r="J398" s="8">
         <v>6</v>
       </c>
-      <c r="L398" s="3">
+      <c r="K398" s="6"/>
+      <c r="L398" s="8">
         <v>211</v>
       </c>
-      <c r="Q398" s="3" t="s">
+      <c r="M398" s="6"/>
+      <c r="N398" s="8"/>
+      <c r="O398" s="6"/>
+      <c r="P398" s="6"/>
+      <c r="Q398" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T398" s="3" t="s">
+      <c r="R398" s="8"/>
+      <c r="S398" s="8"/>
+      <c r="T398" s="8" t="s">
         <v>1237</v>
       </c>
       <c r="X398" t="s">
@@ -16257,25 +16291,35 @@
       <c r="C399" s="4">
         <v>4</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D399" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E399" s="4" t="s">
+      <c r="E399" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="F399" s="2" t="s">
+      <c r="F399" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L399" s="3">
+      <c r="G399" s="6"/>
+      <c r="H399" s="8"/>
+      <c r="I399" s="6"/>
+      <c r="J399" s="8"/>
+      <c r="K399" s="6"/>
+      <c r="L399" s="8">
         <v>180</v>
       </c>
-      <c r="M399" s="1">
+      <c r="M399" s="9">
         <v>300000</v>
       </c>
-      <c r="Q399" s="3" t="s">
+      <c r="N399" s="8"/>
+      <c r="O399" s="6"/>
+      <c r="P399" s="6"/>
+      <c r="Q399" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T399" s="3" t="s">
+      <c r="R399" s="8"/>
+      <c r="S399" s="8"/>
+      <c r="T399" s="8" t="s">
         <v>1238</v>
       </c>
       <c r="X399" t="s">
@@ -16286,22 +16330,33 @@
       <c r="C400" s="4">
         <v>5</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E400" s="4" t="s">
+      <c r="E400" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F400" s="2" t="s">
+      <c r="F400" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="L400" s="3">
+      <c r="G400" s="6"/>
+      <c r="H400" s="8"/>
+      <c r="I400" s="6"/>
+      <c r="J400" s="8"/>
+      <c r="K400" s="6"/>
+      <c r="L400" s="8">
         <v>204</v>
       </c>
-      <c r="Q400" s="3" t="s">
+      <c r="M400" s="6"/>
+      <c r="N400" s="8"/>
+      <c r="O400" s="6"/>
+      <c r="P400" s="6"/>
+      <c r="Q400" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T400" s="3" t="s">
+      <c r="R400" s="8"/>
+      <c r="S400" s="8"/>
+      <c r="T400" s="8" t="s">
         <v>1239</v>
       </c>
       <c r="X400" t="s">
@@ -16321,28 +16376,37 @@
       <c r="C401" s="4">
         <v>6</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D401" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E401" s="4" t="s">
+      <c r="E401" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="F401" s="2" t="s">
+      <c r="F401" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G401" t="s">
+      <c r="G401" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="J401" s="3">
+      <c r="H401" s="8"/>
+      <c r="I401" s="6"/>
+      <c r="J401" s="8">
         <v>6</v>
       </c>
-      <c r="L401" s="3">
+      <c r="K401" s="6"/>
+      <c r="L401" s="8">
         <v>150</v>
       </c>
-      <c r="Q401" s="3" t="s">
+      <c r="M401" s="6"/>
+      <c r="N401" s="8"/>
+      <c r="O401" s="6"/>
+      <c r="P401" s="6"/>
+      <c r="Q401" s="8" t="s">
         <v>1233</v>
       </c>
-      <c r="T401" s="3" t="s">
+      <c r="R401" s="8"/>
+      <c r="S401" s="8"/>
+      <c r="T401" s="8" t="s">
         <v>1240</v>
       </c>
       <c r="X401" t="s">
@@ -16353,22 +16417,33 @@
       <c r="C402" s="4">
         <v>7</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D402" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E402" s="4" t="s">
+      <c r="E402" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F402" s="2" t="s">
+      <c r="F402" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L402" s="3">
+      <c r="G402" s="6"/>
+      <c r="H402" s="8"/>
+      <c r="I402" s="6"/>
+      <c r="J402" s="8"/>
+      <c r="K402" s="6"/>
+      <c r="L402" s="8">
         <v>98</v>
       </c>
-      <c r="Q402" s="3" t="s">
+      <c r="M402" s="6"/>
+      <c r="N402" s="8"/>
+      <c r="O402" s="6"/>
+      <c r="P402" s="6"/>
+      <c r="Q402" s="8" t="s">
         <v>1234</v>
       </c>
-      <c r="T402" s="3" t="s">
+      <c r="R402" s="8"/>
+      <c r="S402" s="8"/>
+      <c r="T402" s="8" t="s">
         <v>1241</v>
       </c>
       <c r="X402" t="s">
@@ -16388,25 +16463,35 @@
       <c r="C403" s="4">
         <v>8</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D403" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E403" s="4" t="s">
+      <c r="E403" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="F403" s="2" t="s">
+      <c r="F403" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G403" t="s">
+      <c r="G403" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="L403" s="3">
+      <c r="H403" s="8"/>
+      <c r="I403" s="6"/>
+      <c r="J403" s="8"/>
+      <c r="K403" s="6"/>
+      <c r="L403" s="8">
         <v>290</v>
       </c>
-      <c r="Q403" s="3" t="s">
+      <c r="M403" s="6"/>
+      <c r="N403" s="8"/>
+      <c r="O403" s="6"/>
+      <c r="P403" s="6"/>
+      <c r="Q403" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="T403" s="3" t="s">
+      <c r="R403" s="8"/>
+      <c r="S403" s="8"/>
+      <c r="T403" s="8" t="s">
         <v>1242</v>
       </c>
       <c r="X403" t="s">
@@ -16426,25 +16511,35 @@
       <c r="C404" s="4">
         <v>9</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D404" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="E404" s="4" t="s">
+      <c r="E404" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="F404" s="2" t="s">
+      <c r="F404" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H404" s="3" t="s">
+      <c r="G404" s="6"/>
+      <c r="H404" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L404" s="3">
+      <c r="I404" s="6"/>
+      <c r="J404" s="8"/>
+      <c r="K404" s="6"/>
+      <c r="L404" s="8">
         <v>140</v>
       </c>
-      <c r="Q404" s="3" t="s">
+      <c r="M404" s="6"/>
+      <c r="N404" s="8"/>
+      <c r="O404" s="6"/>
+      <c r="P404" s="6"/>
+      <c r="Q404" s="8" t="s">
         <v>1235</v>
       </c>
-      <c r="T404" s="3" t="s">
+      <c r="R404" s="8"/>
+      <c r="S404" s="8"/>
+      <c r="T404" s="8" t="s">
         <v>1243</v>
       </c>
       <c r="X404" t="s">
@@ -16455,22 +16550,33 @@
       <c r="C405" s="4">
         <v>10</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D405" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E405" s="4" t="s">
+      <c r="E405" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="F405" s="2" t="s">
+      <c r="F405" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L405" s="3">
+      <c r="G405" s="6"/>
+      <c r="H405" s="8"/>
+      <c r="I405" s="6"/>
+      <c r="J405" s="8"/>
+      <c r="K405" s="6"/>
+      <c r="L405" s="8">
         <v>136</v>
       </c>
-      <c r="N405" s="3">
+      <c r="M405" s="6"/>
+      <c r="N405" s="8">
         <v>1993</v>
       </c>
-      <c r="T405" s="3" t="s">
+      <c r="O405" s="6"/>
+      <c r="P405" s="6"/>
+      <c r="Q405" s="8"/>
+      <c r="R405" s="8"/>
+      <c r="S405" s="8"/>
+      <c r="T405" s="8" t="s">
         <v>1244</v>
       </c>
       <c r="X405" t="s">
@@ -16490,22 +16596,33 @@
       <c r="C406" s="4">
         <v>11</v>
       </c>
-      <c r="D406" t="s">
+      <c r="D406" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E406" s="4" t="s">
+      <c r="E406" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="F406" s="2" t="s">
+      <c r="F406" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H406" s="3" t="s">
+      <c r="G406" s="6"/>
+      <c r="H406" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L406" s="3">
+      <c r="I406" s="6"/>
+      <c r="J406" s="8"/>
+      <c r="K406" s="6"/>
+      <c r="L406" s="8">
         <v>170</v>
       </c>
-      <c r="T406" s="3" t="s">
+      <c r="M406" s="6"/>
+      <c r="N406" s="8"/>
+      <c r="O406" s="6"/>
+      <c r="P406" s="6"/>
+      <c r="Q406" s="8"/>
+      <c r="R406" s="8"/>
+      <c r="S406" s="8"/>
+      <c r="T406" s="8" t="s">
         <v>1245</v>
       </c>
       <c r="X406" t="s">
@@ -16516,22 +16633,33 @@
       <c r="C407" s="4">
         <v>12</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D407" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E407" s="4" t="s">
+      <c r="E407" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="F407" s="2" t="s">
+      <c r="F407" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="J407" s="3">
+      <c r="G407" s="6"/>
+      <c r="H407" s="8"/>
+      <c r="I407" s="6"/>
+      <c r="J407" s="8">
         <v>5</v>
       </c>
-      <c r="L407" s="3">
+      <c r="K407" s="6"/>
+      <c r="L407" s="8">
         <v>305</v>
       </c>
-      <c r="T407" s="3" t="s">
+      <c r="M407" s="6"/>
+      <c r="N407" s="8"/>
+      <c r="O407" s="6"/>
+      <c r="P407" s="6"/>
+      <c r="Q407" s="8"/>
+      <c r="R407" s="8"/>
+      <c r="S407" s="8"/>
+      <c r="T407" s="8" t="s">
         <v>1246</v>
       </c>
       <c r="X407" t="s">
@@ -16542,22 +16670,33 @@
       <c r="C408" s="4">
         <v>13</v>
       </c>
-      <c r="D408" t="s">
+      <c r="D408" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E408" s="4" t="s">
+      <c r="E408" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="F408" s="2" t="s">
+      <c r="F408" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="J408" s="3">
+      <c r="G408" s="6"/>
+      <c r="H408" s="8"/>
+      <c r="I408" s="6"/>
+      <c r="J408" s="8">
         <v>5</v>
       </c>
-      <c r="L408" s="3">
+      <c r="K408" s="6"/>
+      <c r="L408" s="8">
         <v>245</v>
       </c>
-      <c r="T408" s="3" t="s">
+      <c r="M408" s="6"/>
+      <c r="N408" s="8"/>
+      <c r="O408" s="6"/>
+      <c r="P408" s="6"/>
+      <c r="Q408" s="8"/>
+      <c r="R408" s="8"/>
+      <c r="S408" s="8"/>
+      <c r="T408" s="8" t="s">
         <v>1247</v>
       </c>
       <c r="X408" t="s">
@@ -18636,7 +18775,7 @@
       <c r="D465" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="E465" s="19" t="s">
+      <c r="E465" s="16" t="s">
         <v>745</v>
       </c>
       <c r="F465" s="7" t="s">
